--- a/Data analysis master - barbados.xlsx
+++ b/Data analysis master - barbados.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\SEI\projects\GoLoCarSce\two sector WORKING\scenario\scenario_BB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="21075" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="9852"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="1" r:id="rId1"/>
     <sheet name="2050 timeslices" sheetId="2" r:id="rId2"/>
     <sheet name="Charts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -135,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,12 +204,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -387,129 +395,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.7430900000000006E-2</c:v>
+                  <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1704777599999903E-2</c:v>
+                  <c:v>7.6536486190000294E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6315094149999999E-2</c:v>
+                  <c:v>6.6719339840000294E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9982241010899698E-2</c:v>
+                  <c:v>5.6963062339999801E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3051147572183802E-2</c:v>
+                  <c:v>4.6813395106486001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6227436704359798E-2</c:v>
+                  <c:v>3.6607611380955897E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0125186349998997E-2</c:v>
+                  <c:v>2.6813188622830001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4839046177458999E-2</c:v>
+                  <c:v>1.7379552426636798E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0411129143329699E-2</c:v>
+                  <c:v>8.3018314771999592E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6816461846402901E-2</c:v>
+                  <c:v>-4.5026376668220102E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4026644005223899E-2</c:v>
+                  <c:v>-9.15021483724799E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1716084851533301E-2</c:v>
+                  <c:v>-1.84118630083E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.005582485931E-2</c:v>
+                  <c:v>-2.8201182144519998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9032220719818001E-2</c:v>
+                  <c:v>-3.8635830105489898E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8633218969699999E-2</c:v>
+                  <c:v>-4.9770074974629902E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.92579351106599E-2</c:v>
+                  <c:v>-6.1324564168309899E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1119571761666999E-2</c:v>
+                  <c:v>-7.2570920722199506E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.41368664221227E-2</c:v>
+                  <c:v>-8.3692820746010005E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8317934178139799E-2</c:v>
+                  <c:v>-9.4455812879369896E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3453490958915E-2</c:v>
+                  <c:v>-0.1050615133488</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.9624430943349999E-2</c:v>
+                  <c:v>-0.11599664899664899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6969716975499997E-2</c:v>
+                  <c:v>-0.12740173893119</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5266489300414607E-2</c:v>
+                  <c:v>-0.13944915456925999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.4622814448150304E-2</c:v>
+                  <c:v>-0.152119567330054</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5000151574840102E-2</c:v>
+                  <c:v>-0.16544721006135901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.5667137124339899E-2</c:v>
+                  <c:v>-0.1827909898275</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.104511709068102</c:v>
+                  <c:v>-0.20863328941089901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.111558130283129</c:v>
+                  <c:v>-0.24333034925779901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.116839365131299</c:v>
+                  <c:v>-0.28725351444140901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.12030596800609999</c:v>
+                  <c:v>-0.34045046950669899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.123129342999869</c:v>
+                  <c:v>-0.40040852381999897</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.12723499472740801</c:v>
+                  <c:v>-0.46255193091389801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13265849177768099</c:v>
+                  <c:v>-0.52689249588339704</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13954913172402</c:v>
+                  <c:v>-0.59348705089209997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.14786927805696901</c:v>
+                  <c:v>-0.66224869517689799</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.15794763573954901</c:v>
+                  <c:v>-0.73383169632299805</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.17005772673205999</c:v>
+                  <c:v>-0.80873941465840005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.18460510175620001</c:v>
+                  <c:v>-0.887762116435999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2019620751973</c:v>
+                  <c:v>-0.97087629465000103</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.22205781481152001</c:v>
+                  <c:v>-1.05849165665339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04ED-4FED-97B8-69588E210723}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -656,129 +669,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.7430900000000006E-2</c:v>
+                  <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1615964349999806E-2</c:v>
+                  <c:v>7.6446293139999705E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6214644670000095E-2</c:v>
+                  <c:v>6.6653130279999806E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9860412067260194E-2</c:v>
+                  <c:v>5.6891908907000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2957095041399805E-2</c:v>
+                  <c:v>4.6773426167579901E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5946611616607897E-2</c:v>
+                  <c:v>3.6263039630806099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9220687631718302E-2</c:v>
+                  <c:v>2.5377170815839001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2878890505210002E-2</c:v>
+                  <c:v>1.39525881599879E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7003391635565E-2</c:v>
+                  <c:v>1.9403906653065999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1647394380755201E-2</c:v>
+                  <c:v>-1.07033174524399E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7278733714679999E-2</c:v>
+                  <c:v>-2.3560749211460001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.42608095149918E-2</c:v>
+                  <c:v>-3.6057098630780798E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.25636023312299E-2</c:v>
+                  <c:v>-4.82796765560317E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.228551866833E-2</c:v>
+                  <c:v>-6.0196171353320699E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3381681488273999E-2</c:v>
+                  <c:v>-7.1838421425450105E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5729131315691E-2</c:v>
+                  <c:v>-8.3754988371299105E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.90028185680259E-2</c:v>
+                  <c:v>-9.6432799477735698E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.32445247920609E-2</c:v>
+                  <c:v>-0.10995710851002299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8474771742730098E-2</c:v>
+                  <c:v>-0.12425836400748901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4858989343490002E-2</c:v>
+                  <c:v>-0.13939148591298001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2567325950673899E-2</c:v>
+                  <c:v>-0.15569434104162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.16550497160432E-2</c:v>
+                  <c:v>-0.17286472731489799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.2385312562149903E-2</c:v>
+                  <c:v>-0.19091456696429901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.4662438669749901E-2</c:v>
+                  <c:v>-0.20975916579604001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.8308813477270204E-2</c:v>
+                  <c:v>-0.22947226999319001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11407072888245</c:v>
+                  <c:v>-0.25095097495178997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13207281954399899</c:v>
+                  <c:v>-0.27336989496504899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.152281530741811</c:v>
+                  <c:v>-0.29683583015138099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.174998957843609</c:v>
+                  <c:v>-0.321431521640688</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20008836965718399</c:v>
+                  <c:v>-0.34689839303690601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.22777615104099999</c:v>
+                  <c:v>-0.372911107446879</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.258615628357729</c:v>
+                  <c:v>-0.39892282100251902</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.29285233424556201</c:v>
+                  <c:v>-0.4247498092848</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.33013160611460002</c:v>
+                  <c:v>-0.45053270787709998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.37099472160729902</c:v>
+                  <c:v>-0.47623438365508802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.415735958483959</c:v>
+                  <c:v>-0.50244688174348795</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.46494989075490001</c:v>
+                  <c:v>-0.53006168143880805</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.51912203479429997</c:v>
+                  <c:v>-0.55937675044050295</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.57868561678432795</c:v>
+                  <c:v>-0.59064420615839797</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.64459109819179705</c:v>
+                  <c:v>-0.62365436617150005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04ED-4FED-97B8-69588E210723}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -925,129 +943,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.7430900000000006E-2</c:v>
+                  <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1800141719999803E-2</c:v>
+                  <c:v>7.6637157899999905E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7003359629999907E-2</c:v>
+                  <c:v>6.7378791159999493E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1886792627999699E-2</c:v>
+                  <c:v>5.8585328258000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6898582248630004E-2</c:v>
+                  <c:v>4.9822503466960003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2705090093750707E-2</c:v>
+                  <c:v>4.1198359208790003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9569769692842701E-2</c:v>
+                  <c:v>3.2540311535160002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7481515582160102E-2</c:v>
+                  <c:v>2.3603920628213201E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6631685874100002E-2</c:v>
+                  <c:v>1.44751880570639E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7144634798849903E-2</c:v>
+                  <c:v>5.1164751621670104E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.92444194266077E-2</c:v>
+                  <c:v>-4.4546088637910097E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3046028443429894E-2</c:v>
+                  <c:v>-1.42262105182399E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8570527351599894E-2</c:v>
+                  <c:v>-2.43222578896818E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.57614375007028E-2</c:v>
+                  <c:v>-3.4837354204879899E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.4642788959711002E-2</c:v>
+                  <c:v>-4.5850694284469903E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.5475484806310199E-2</c:v>
+                  <c:v>-5.7456921025115897E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10836390994572501</c:v>
+                  <c:v>-6.9617090754279895E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.123670585318604</c:v>
+                  <c:v>-8.2314830436620204E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14151163009468001</c:v>
+                  <c:v>-9.5562439366129695E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16177652655637001</c:v>
+                  <c:v>-0.109556408811829</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.18550542166443901</c:v>
+                  <c:v>-0.12463564374916999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21278350663845999</c:v>
+                  <c:v>-0.14032120139750001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24367909140555</c:v>
+                  <c:v>-0.15666340912460999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.27829699413723902</c:v>
+                  <c:v>-0.17385248865821101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.31675474647724799</c:v>
+                  <c:v>-0.19180459871473901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.36069375688614003</c:v>
+                  <c:v>-0.211331357605689</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.40969761975743901</c:v>
+                  <c:v>-0.23167143468474199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.46404807020641797</c:v>
+                  <c:v>-0.25287120389290602</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.52418297616839804</c:v>
+                  <c:v>-0.274974328600468</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.59106394488379799</c:v>
+                  <c:v>-0.298130303503718</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.664590865968398</c:v>
+                  <c:v>-0.32193898619755801</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.74600172026840095</c:v>
+                  <c:v>-0.34694163639522102</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.83580521464380098</c:v>
+                  <c:v>-0.37296562042156001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93404060450139803</c:v>
+                  <c:v>-0.40015562768944002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0419114675471</c:v>
+                  <c:v>-0.42868215196148002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.15943780201749</c:v>
+                  <c:v>-0.45846109949395902</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2877500246209901</c:v>
+                  <c:v>-0.48889099419600002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4274898870032899</c:v>
+                  <c:v>-0.52102226493100001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.57961041959399</c:v>
+                  <c:v>-0.55484023897266999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.74470787671886</c:v>
+                  <c:v>-0.58987533345559695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-04ED-4FED-97B8-69588E210723}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1194,129 +1217,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.7430900000000006E-2</c:v>
+                  <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1905542569999504E-2</c:v>
+                  <c:v>7.6744008180000198E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7284829589999895E-2</c:v>
+                  <c:v>6.7616069979999902E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2342380082999799E-2</c:v>
+                  <c:v>5.8924397508E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7579165148769799E-2</c:v>
+                  <c:v>5.0283139046939998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4183766731529895E-2</c:v>
+                  <c:v>4.24851265345099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4315428251477097E-2</c:v>
+                  <c:v>3.7518727305726203E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8783780904264999E-2</c:v>
+                  <c:v>3.5652037246489902E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8673301522959996E-2</c:v>
+                  <c:v>3.74879974739099E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4778815744440803E-2</c:v>
+                  <c:v>4.33490513185378E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.117458158638239</c:v>
+                  <c:v>5.3150261628439999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14637431739717499</c:v>
+                  <c:v>6.60600606752305E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18128447084185401</c:v>
+                  <c:v>8.1893317522634304E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.222378996543909</c:v>
+                  <c:v>0.10079394587786999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26947160806439902</c:v>
+                  <c:v>0.12265642731034999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32335858136363199</c:v>
+                  <c:v>0.147571173616489</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.38329263201922997</c:v>
+                  <c:v>0.17413298328679899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.44928316446689998</c:v>
+                  <c:v>0.20207053009412901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52157629531529803</c:v>
+                  <c:v>0.23128270331467099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59996039078158703</c:v>
+                  <c:v>0.261597023378009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.68610703188059696</c:v>
+                  <c:v>0.29356961214914901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77879457626204895</c:v>
+                  <c:v>0.32692098133960001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.87855226832489597</c:v>
+                  <c:v>0.36150725618829799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98539618485699898</c:v>
+                  <c:v>0.39727386367776002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0994559846380001</c:v>
+                  <c:v>0.43407189387449802</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.22462336595511</c:v>
+                  <c:v>0.47360685759392002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3601825793408</c:v>
+                  <c:v>0.51577529964940605</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.50606191193199</c:v>
+                  <c:v>0.56004104923529496</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6648411472839899</c:v>
+                  <c:v>0.60737445076150298</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8369724825078999</c:v>
+                  <c:v>0.65729744008259605</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0247123893871</c:v>
+                  <c:v>0.71075363902280098</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2287528008329902</c:v>
+                  <c:v>0.767686421934898</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4493524799449902</c:v>
+                  <c:v>0.82768822397910002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.6888181101195898</c:v>
+                  <c:v>0.89111763512170095</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.948274379526</c:v>
+                  <c:v>0.95832010615640895</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.2278040489070001</c:v>
+                  <c:v>1.0291794738797999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5339105627959899</c:v>
+                  <c:v>1.1061354508624499</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.8615133235522499</c:v>
+                  <c:v>1.1864691080334</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.2176824420941701</c:v>
+                  <c:v>1.2725867026215001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6058507577329904</c:v>
+                  <c:v>1.3651684485265001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-04ED-4FED-97B8-69588E210723}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1326,7 +1354,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="75380608"/>
         <c:axId val="75382144"/>
@@ -1384,7 +1411,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1567,129 +1594,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.33840390547075339</c:v>
+                  <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3384059595320581</c:v>
+                  <c:v>0.34035022607700588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34601479315911643</c:v>
+                  <c:v>0.34470183630086565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35382361925051109</c:v>
+                  <c:v>0.35050866007057785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36110465791040153</c:v>
+                  <c:v>0.35660698944028324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36789872639703347</c:v>
+                  <c:v>0.36292923042609154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.374097261620634</c:v>
+                  <c:v>0.36916947639521114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37964541467094043</c:v>
+                  <c:v>0.37510224427080857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38483137151501323</c:v>
+                  <c:v>0.38088006512816586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38937027221334319</c:v>
+                  <c:v>0.3861762970144213</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39354811800639639</c:v>
+                  <c:v>0.39140938801993275</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39707389875993654</c:v>
+                  <c:v>0.39623035711219767</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4000885037083447</c:v>
+                  <c:v>0.40068381989654805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40240631952013545</c:v>
+                  <c:v>0.40451383820367859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40419817852508788</c:v>
+                  <c:v>0.4078683154134824</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40604647850133496</c:v>
+                  <c:v>0.41148829048545621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40784057875654961</c:v>
+                  <c:v>0.41506849646448934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4091367611252627</c:v>
+                  <c:v>0.41801001749969091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41111713652575271</c:v>
+                  <c:v>0.42152613219222768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.41296134968437309</c:v>
+                  <c:v>0.42471191352614834</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4154986026227499</c:v>
+                  <c:v>0.428702483017322</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41768396406849312</c:v>
+                  <c:v>0.43260050197695171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41999931807810725</c:v>
+                  <c:v>0.43655946599917084</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42253202282308266</c:v>
+                  <c:v>0.44069676992997497</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42513227390097091</c:v>
+                  <c:v>0.44481867324842511</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42848715375618157</c:v>
+                  <c:v>0.44990389617659798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4314818685635689</c:v>
+                  <c:v>0.45481622547803796</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43463596241655572</c:v>
+                  <c:v>0.45989758713630674</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.43787658668450191</c:v>
+                  <c:v>0.46501612728733049</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44134049715201723</c:v>
+                  <c:v>0.47022734918702475</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.44482186753758068</c:v>
+                  <c:v>0.47538321650557136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44835841396020076</c:v>
+                  <c:v>0.48053614296851394</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45187413505019025</c:v>
+                  <c:v>0.48564553948448874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45538607584573831</c:v>
+                  <c:v>0.49074115139165697</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.45897028468843037</c:v>
+                  <c:v>0.49586670031739727</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4621114144439083</c:v>
+                  <c:v>0.50056833597337691</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.46506390182540541</c:v>
+                  <c:v>0.50529313823675848</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.46759576843670225</c:v>
+                  <c:v>0.50978007163665717</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.47002296294261303</c:v>
+                  <c:v>0.51431756925859262</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.47229342517168432</c:v>
+                  <c:v>0.51879347563269274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1836,129 +1868,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.33840390547075339</c:v>
+                  <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33851828370840886</c:v>
+                  <c:v>0.34041931521211249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34601063240898194</c:v>
+                  <c:v>0.34466211021659676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35382505402418024</c:v>
+                  <c:v>0.3504779185971012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36109971304195532</c:v>
+                  <c:v>0.35659445701522585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36770962328341583</c:v>
+                  <c:v>0.36279352673604709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37355610850656767</c:v>
+                  <c:v>0.36884830750542513</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3786857935235125</c:v>
+                  <c:v>0.37454897525362141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38350118795480909</c:v>
+                  <c:v>0.38018531374039666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38744126900200454</c:v>
+                  <c:v>0.38514988834679814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3913801952566911</c:v>
+                  <c:v>0.390352236869766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3946125722289186</c:v>
+                  <c:v>0.39506105035500239</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39725137053166687</c:v>
+                  <c:v>0.39925081346936742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39941187653722676</c:v>
+                  <c:v>0.40305770861102025</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40122380084862613</c:v>
+                  <c:v>0.40647910778697105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40299190144620217</c:v>
+                  <c:v>0.41004021430660176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40419304894622304</c:v>
+                  <c:v>0.41309737935653679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40525532005376708</c:v>
+                  <c:v>0.4160027153049306</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40667630565803742</c:v>
+                  <c:v>0.41911238720338545</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40787907239492061</c:v>
+                  <c:v>0.42193142261325112</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40997942005901561</c:v>
+                  <c:v>0.42578798076357155</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41181599182118206</c:v>
+                  <c:v>0.42951340555659823</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41378599021313955</c:v>
+                  <c:v>0.43334495862024547</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41618561997328041</c:v>
+                  <c:v>0.4374666715328519</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4188232414616177</c:v>
+                  <c:v>0.44161374384232582</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42193245244569799</c:v>
+                  <c:v>0.44646469238563713</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.42475489174991082</c:v>
+                  <c:v>0.45127439587165763</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42786986603388372</c:v>
+                  <c:v>0.45636298063943431</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.43099949620875555</c:v>
+                  <c:v>0.46140098617781861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.43447324355800088</c:v>
+                  <c:v>0.46661572557107378</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.43813808324669212</c:v>
+                  <c:v>0.47187730869649247</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44168142930286913</c:v>
+                  <c:v>0.4769479301196613</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.44542255277948267</c:v>
+                  <c:v>0.48222181874546699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.44914134254894739</c:v>
+                  <c:v>0.48737039141066918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.45274957337231059</c:v>
+                  <c:v>0.49243256683886971</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.45612228543757555</c:v>
+                  <c:v>0.49735264809847429</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.45911352601425748</c:v>
+                  <c:v>0.50205776774812727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.46172683382814922</c:v>
+                  <c:v>0.50657701972599278</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4642013165453418</c:v>
+                  <c:v>0.51114987300790993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.46665696424545811</c:v>
+                  <c:v>0.51580755119356925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2105,129 +2142,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.33840390547075339</c:v>
+                  <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33807441455250786</c:v>
+                  <c:v>0.34004544786315027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34498261310541228</c:v>
+                  <c:v>0.34393968150744675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35194595069557544</c:v>
+                  <c:v>0.34926175502894374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35816727591070913</c:v>
+                  <c:v>0.35472901376892374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36355753041815941</c:v>
+                  <c:v>0.36021074532924469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36861074218838313</c:v>
+                  <c:v>0.3659260537432284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37339193447169067</c:v>
+                  <c:v>0.37153911164332121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37728984143956368</c:v>
+                  <c:v>0.37648576373007836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38046536975807671</c:v>
+                  <c:v>0.38092573631286109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38357245504521836</c:v>
+                  <c:v>0.385527500423688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38613561365164617</c:v>
+                  <c:v>0.38975151073462622</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38837795148863857</c:v>
+                  <c:v>0.39364464534922405</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39032697488399226</c:v>
+                  <c:v>0.39718818511150483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39185845881962378</c:v>
+                  <c:v>0.40020825842115254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39355337803999513</c:v>
+                  <c:v>0.40349045644615955</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39440006695610319</c:v>
+                  <c:v>0.40604392673497913</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3950920906623282</c:v>
+                  <c:v>0.40853476258946159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39606239532427256</c:v>
+                  <c:v>0.41116258712185694</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39711655460748546</c:v>
+                  <c:v>0.4137080715939771</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3985159826804523</c:v>
+                  <c:v>0.41686506813264873</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.39984924005575689</c:v>
+                  <c:v>0.42006259896588527</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.40177557912907202</c:v>
+                  <c:v>0.42374628314116375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40389400236547585</c:v>
+                  <c:v>0.42745627208016307</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.40641077979150636</c:v>
+                  <c:v>0.43129017260912872</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4093312736395312</c:v>
+                  <c:v>0.43574873441049633</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.41234755939566936</c:v>
+                  <c:v>0.44045897748552804</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.41571718814318337</c:v>
+                  <c:v>0.4453520424127646</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41924037680862358</c:v>
+                  <c:v>0.45030416265732043</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.42245350354259359</c:v>
+                  <c:v>0.45486667457042057</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.42641408278415027</c:v>
+                  <c:v>0.46010410358214271</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.42985188840806143</c:v>
+                  <c:v>0.46469951384153924</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.43348426326579864</c:v>
+                  <c:v>0.46958792103096192</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4373435899502327</c:v>
+                  <c:v>0.47464372717069542</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44103371877336267</c:v>
+                  <c:v>0.47942903590965952</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.44481097119711149</c:v>
+                  <c:v>0.484310077469228</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.44893552896971456</c:v>
+                  <c:v>0.48953336165959527</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.45262852987100899</c:v>
+                  <c:v>0.49423720908252866</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.45641047924760419</c:v>
+                  <c:v>0.49915098043973333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.46036493922761446</c:v>
+                  <c:v>0.50421489688204157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2374,129 +2416,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.33840390547075339</c:v>
+                  <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3379662384416679</c:v>
+                  <c:v>0.33998625346397832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3447112466906665</c:v>
+                  <c:v>0.34375870610328746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35169271711711092</c:v>
+                  <c:v>0.34912852054875215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35800066632434108</c:v>
+                  <c:v>0.35474239651670419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36306620651021609</c:v>
+                  <c:v>0.35989945099482407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36631127669533559</c:v>
+                  <c:v>0.36426340147916553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36808427673283894</c:v>
+                  <c:v>0.36786387082030547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3688521119787771</c:v>
+                  <c:v>0.37114052356138544</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36879764237433099</c:v>
+                  <c:v>0.37391974418040053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36911371394158132</c:v>
+                  <c:v>0.3772423083649975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37001925836802529</c:v>
+                  <c:v>0.38081333342224938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37121034130260816</c:v>
+                  <c:v>0.38414050909033398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37266842310942294</c:v>
+                  <c:v>0.38727323438036915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37440867466068933</c:v>
+                  <c:v>0.39012050034757934</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.37622500057396935</c:v>
+                  <c:v>0.39297606589160422</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37753252190859765</c:v>
+                  <c:v>0.39518712556237195</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37907893343415566</c:v>
+                  <c:v>0.39752792491401601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38110232726659399</c:v>
+                  <c:v>0.40010584681064704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3836845034238488</c:v>
+                  <c:v>0.40297855136622607</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38661918124081396</c:v>
+                  <c:v>0.40624462031570335</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3899186469107373</c:v>
+                  <c:v>0.40990638356876347</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.39357191160048532</c:v>
+                  <c:v>0.41377756001680122</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.39752794956180609</c:v>
+                  <c:v>0.41781928752278891</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.40172679095052366</c:v>
+                  <c:v>0.42204441875652549</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.40663160764541445</c:v>
+                  <c:v>0.42717120078720211</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.41055597941055733</c:v>
+                  <c:v>0.43161979081433482</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.41524018674747104</c:v>
+                  <c:v>0.43699782961942935</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41974744925149077</c:v>
+                  <c:v>0.44208141274788076</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.42357417451863588</c:v>
+                  <c:v>0.44673184805345173</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.42736977353633904</c:v>
+                  <c:v>0.45158016143535273</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.43145520393299813</c:v>
+                  <c:v>0.4566721486292834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.43556797964061567</c:v>
+                  <c:v>0.46177184505572766</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.43949144269541263</c:v>
+                  <c:v>0.46677348729382634</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44342746607291711</c:v>
+                  <c:v>0.47185023283322425</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.44762432244066092</c:v>
+                  <c:v>0.47714983799528804</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.45156514686400845</c:v>
+                  <c:v>0.48229740137191879</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.45579100283411111</c:v>
+                  <c:v>0.48766028449401816</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.46016075038256277</c:v>
+                  <c:v>0.49322582656723973</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.46389072550505905</c:v>
+                  <c:v>0.49813545303195378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2506,7 +2553,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="76228480"/>
         <c:axId val="76230016"/>
@@ -2564,7 +2610,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2747,129 +2793,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32501.3</c:v>
+                  <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33465.1481200001</c:v>
+                  <c:v>33273.975649999898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33703.679109999801</c:v>
+                  <c:v>33832.052819999903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33964.322089999703</c:v>
+                  <c:v>34285.539709999903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34281.214260000001</c:v>
+                  <c:v>34713.579149999801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34672.539619999799</c:v>
+                  <c:v>35147.298749999798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35170.480369999903</c:v>
+                  <c:v>35639.943539999898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35764.6210600001</c:v>
+                  <c:v>36197.792319999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36483.0712200001</c:v>
+                  <c:v>36861.547219999899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37307.422539999898</c:v>
+                  <c:v>37615.976280000097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38211.115310000001</c:v>
+                  <c:v>38419.901850000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39241.674669999797</c:v>
+                  <c:v>39325.206749999801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40371.736210000003</c:v>
+                  <c:v>40311.743349999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41588.179470000097</c:v>
+                  <c:v>41371.492749999801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42902.838329999897</c:v>
+                  <c:v>42516.76915</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44289.581530000098</c:v>
+                  <c:v>43703.846290000103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45856.626689999801</c:v>
+                  <c:v>45058.070109999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47475.0738000001</c:v>
+                  <c:v>46467.281169999696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49230.783380000001</c:v>
+                  <c:v>48015.078389999799</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51064.381990000198</c:v>
+                  <c:v>49651.550279999901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52948.1435099999</c:v>
+                  <c:v>51317.32849</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54944.467250000103</c:v>
+                  <c:v>53049.887519999902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>57022.0943799999</c:v>
+                  <c:v>54859.017049999798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59197.398669999799</c:v>
+                  <c:v>56757.345049999902</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>61469.9793299999</c:v>
+                  <c:v>58749.451990000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63778.210010000003</c:v>
+                  <c:v>60742.141300000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66234.023499999807</c:v>
+                  <c:v>62835.842109999903</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68779.954749999393</c:v>
+                  <c:v>65001.909239999797</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71420.568810000404</c:v>
+                  <c:v>67252.238039999895</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74196.056850000197</c:v>
+                  <c:v>69638.026569999798</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>77096.390600000101</c:v>
+                  <c:v>72139.985330000301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80130.324440000404</c:v>
+                  <c:v>74764.580769999797</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83299.261389999796</c:v>
+                  <c:v>77506.647229999799</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86613.388480000198</c:v>
+                  <c:v>80373.338930000202</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>90099.574360000101</c:v>
+                  <c:v>83395.400279999696</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>93690.549289999995</c:v>
+                  <c:v>86492.567659999695</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>97364.178759999995</c:v>
+                  <c:v>89612.406770000496</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>101058.534519999</c:v>
+                  <c:v>92695.874819999794</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>104784.86559</c:v>
+                  <c:v>95760.398830000093</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>108515.28501000001</c:v>
+                  <c:v>98788.870710000105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05A3-4B4E-A0B8-321F1296FD31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3016,129 +3067,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32501.3</c:v>
+                  <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33483.925849999898</c:v>
+                  <c:v>33296.9401699999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33727.7487900001</c:v>
+                  <c:v>33859.711450000097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34008.014580000003</c:v>
+                  <c:v>34332.8028399998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34347.116399999897</c:v>
+                  <c:v>34781.063410000097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34747.24598</c:v>
+                  <c:v>35218.095519999901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35228.294939999898</c:v>
+                  <c:v>35677.931239999903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35784.708989999897</c:v>
+                  <c:v>36179.947549999903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36446.965570000197</c:v>
+                  <c:v>36764.846460000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37171.263430000297</c:v>
+                  <c:v>37392.405749999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37979.006499999799</c:v>
+                  <c:v>38079.018589999701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38886.932999999997</c:v>
+                  <c:v>38842.787580000098</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39869.051960000099</c:v>
+                  <c:v>39669.385199999801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40928.699350000097</c:v>
+                  <c:v>40558.478789999899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42086.783499999903</c:v>
+                  <c:v>41542.650599999797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43295.641549999898</c:v>
+                  <c:v>42551.415030000098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44614.289940000002</c:v>
+                  <c:v>43652.626029999898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45970.2218400001</c:v>
+                  <c:v>44782.585330000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47395.848079999902</c:v>
+                  <c:v>45989.501179999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48830.848919999902</c:v>
+                  <c:v>47204.552289999898</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50269.93866</c:v>
+                  <c:v>48403.538829999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51769.7853399999</c:v>
+                  <c:v>49636.697670000103</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53285.816709999897</c:v>
+                  <c:v>50880.7753300002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54861.283820000099</c:v>
+                  <c:v>52192.498109999797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56504.756039999898</c:v>
+                  <c:v>53588.700509999901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58111.158519999699</c:v>
+                  <c:v>54918.087870000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59798.845629999902</c:v>
+                  <c:v>56284.717040000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61528.054280000099</c:v>
+                  <c:v>57686.5377099998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63281.922630000103</c:v>
+                  <c:v>59112.307339999898</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65114.978609999896</c:v>
+                  <c:v>60629.577799999803</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67036.954849999704</c:v>
+                  <c:v>62243.805529999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69021.417849999794</c:v>
+                  <c:v>63917.829769999902</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71104.9519</c:v>
+                  <c:v>65678.790670000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>73285.526779999505</c:v>
+                  <c:v>67537.051770000093</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75554.020309999905</c:v>
+                  <c:v>69465.449410000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>77888.186409999893</c:v>
+                  <c:v>71431.279250000094</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80240.1384500001</c:v>
+                  <c:v>73376.675840000098</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>82581.205720000406</c:v>
+                  <c:v>75269.804399999804</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>84908.4114299996</c:v>
+                  <c:v>77109.660719999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87221.007570000002</c:v>
+                  <c:v>78909.837289999894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05A3-4B4E-A0B8-321F1296FD31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3285,129 +3341,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32501.3</c:v>
+                  <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33437.156940000001</c:v>
+                  <c:v>33243.341390000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33591.904430000002</c:v>
+                  <c:v>33693.764749999798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33718.385299999798</c:v>
+                  <c:v>33977.521590000099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33838.308140000103</c:v>
+                  <c:v>34166.287679999899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33943.005569999899</c:v>
+                  <c:v>34258.369089999796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34095.319289999898</c:v>
+                  <c:v>34345.453799999799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34308.628519999897</c:v>
+                  <c:v>34479.711809999601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34534.8119299998</c:v>
+                  <c:v>34608.559670000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34772.689230000098</c:v>
+                  <c:v>34730.652939999803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35025.544219999902</c:v>
+                  <c:v>34847.911539999797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35321.795639999596</c:v>
+                  <c:v>34994.087009999799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35651.004500000003</c:v>
+                  <c:v>35174.0046199996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36019.613080000097</c:v>
+                  <c:v>35397.379170000102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36429.461920000103</c:v>
+                  <c:v>35669.396969999798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36866.283710000003</c:v>
+                  <c:v>35958.332399999803</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37336.9562300002</c:v>
+                  <c:v>36266.2565000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37786.34244</c:v>
+                  <c:v>36542.984240000202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38233.76629</c:v>
+                  <c:v>36829.5968400001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38665.6132599997</c:v>
+                  <c:v>37114.9359199998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39009.170140000097</c:v>
+                  <c:v>37292.089119999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39354.3065299999</c:v>
+                  <c:v>37460.564079999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39694.165629999901</c:v>
+                  <c:v>37636.058499999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40013.930899999999</c:v>
+                  <c:v>37808.2620900002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40350.159589999901</c:v>
+                  <c:v>38022.505390000202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40615.056919999697</c:v>
+                  <c:v>38152.73388</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40918.518920000002</c:v>
+                  <c:v>38306.9514099999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41227.1936099999</c:v>
+                  <c:v>38483.807860000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41534.685949999897</c:v>
+                  <c:v>38669.428429999898</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41818.117579999896</c:v>
+                  <c:v>38838.1835600001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42147.760719999998</c:v>
+                  <c:v>39061.558150000099</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42449.362419999998</c:v>
+                  <c:v>39266.074069999901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42756.289489999799</c:v>
+                  <c:v>39468.999229999899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43078.9476</c:v>
+                  <c:v>39693.534099999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43405.217279999997</c:v>
+                  <c:v>39929.057040000102</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43746.244039999998</c:v>
+                  <c:v>40178.3799099998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44115.740680000097</c:v>
+                  <c:v>40457.113120000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44479.546719999998</c:v>
+                  <c:v>40734.884819999701</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44854.748140000003</c:v>
+                  <c:v>41013.965619999901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45253.00419</c:v>
+                  <c:v>41317.463689999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-05A3-4B4E-A0B8-321F1296FD31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3554,129 +3615,134 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32501.3</c:v>
+                  <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33430.433629999898</c:v>
+                  <c:v>33231.805670000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33575.261610000001</c:v>
+                  <c:v>33668.294830000101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33709.150240000097</c:v>
+                  <c:v>33956.727610000104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33842.5792</c:v>
+                  <c:v>34153.417950000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33938.950379999798</c:v>
+                  <c:v>34237.576140000099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33934.477079999902</c:v>
+                  <c:v>34125.252300000102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33809.9316799999</c:v>
+                  <c:v>33830.185009999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33555.566630000001</c:v>
+                  <c:v>33348.667880000103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33172.079450000099</c:v>
+                  <c:v>32717.679669999801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32704.563190000001</c:v>
+                  <c:v>31999.871269999901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32264.109349999901</c:v>
+                  <c:v>31349.596199999902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31839.372490000002</c:v>
+                  <c:v>30767.66661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31453.438959999901</c:v>
+                  <c:v>30267.276060000098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31141.099119999999</c:v>
+                  <c:v>29886.9174649999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30850.177769999998</c:v>
+                  <c:v>29535.154809</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30616.506509999999</c:v>
+                  <c:v>29248.746998999901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30411.106010999902</c:v>
+                  <c:v>28999.749222999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30241.6527299999</c:v>
+                  <c:v>28805.288123999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30121.773177999999</c:v>
+                  <c:v>28679.588741</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29989.384405999899</c:v>
+                  <c:v>28540.619462999901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29935.259139000002</c:v>
+                  <c:v>28475.567795999901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29927.6971879999</c:v>
+                  <c:v>28466.2669459998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29972.60297</c:v>
+                  <c:v>28516.992076999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30073.9659510001</c:v>
+                  <c:v>28626.179445999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30199.4072989999</c:v>
+                  <c:v>28747.336773999799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30356.334087999901</c:v>
+                  <c:v>28874.894494999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30573.198225000098</c:v>
+                  <c:v>29050.996112999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30823.258403999898</c:v>
+                  <c:v>29266.069883999899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31064.661923999902</c:v>
+                  <c:v>29454.3377799999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31317.155185</c:v>
+                  <c:v>29638.164892999899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31601.861522999901</c:v>
+                  <c:v>29856.847682</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>31912.035015000001</c:v>
+                  <c:v>30101.151176999902</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32235.641952999998</c:v>
+                  <c:v>30351.537827</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32579.1629339998</c:v>
+                  <c:v>30616.705635999901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32963.896438000003</c:v>
+                  <c:v>30924.1343759999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33361.944526999803</c:v>
+                  <c:v>31236.108901999902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>33806.377549000099</c:v>
+                  <c:v>31597.089482999902</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34293.02766</c:v>
+                  <c:v>31994.082540999902</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34792.475557999998</c:v>
+                  <c:v>32400.6455079999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-05A3-4B4E-A0B8-321F1296FD31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3686,7 +3752,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="76265344"/>
         <c:axId val="76266880"/>
@@ -3906,7 +3971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3941,7 +4006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4152,17 +4217,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX61"/>
   <sheetViews>
-    <sheetView topLeftCell="AD13" workbookViewId="0">
-      <selection activeCell="AX37" sqref="AX37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AT18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4302,7 +4367,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4310,7 +4375,7 @@
         <v>2355.5100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4318,139 +4383,139 @@
         <v>3084</v>
       </c>
       <c r="C3">
-        <v>3176.263715</v>
+        <v>3176.2637299999901</v>
       </c>
       <c r="D3">
-        <v>3271.9218109999902</v>
+        <v>3271.9218219999998</v>
       </c>
       <c r="E3">
-        <v>3373.0533390000001</v>
+        <v>3373.0533599999899</v>
       </c>
       <c r="F3">
-        <v>3476.3426089999898</v>
+        <v>3476.3426339999901</v>
       </c>
       <c r="G3">
-        <v>3584.0128089999898</v>
+        <v>3584.012843</v>
       </c>
       <c r="H3">
-        <v>3698.1558849999901</v>
+        <v>3698.1559050000001</v>
       </c>
       <c r="I3">
-        <v>3817.3794589999902</v>
+        <v>3817.3795169999898</v>
       </c>
       <c r="J3">
-        <v>3947.7622079999901</v>
+        <v>3947.7622139999999</v>
       </c>
       <c r="K3">
-        <v>4084.5776329999999</v>
+        <v>4084.5776959999898</v>
       </c>
       <c r="L3">
-        <v>4227.7093279999799</v>
+        <v>4227.70934699999</v>
       </c>
       <c r="M3">
-        <v>4378.9167509999997</v>
+        <v>4378.9167539999899</v>
       </c>
       <c r="N3">
-        <v>4536.42204699997</v>
+        <v>4536.4220489999798</v>
       </c>
       <c r="O3">
-        <v>4696.2216859999999</v>
+        <v>4696.2217020000098</v>
       </c>
       <c r="P3">
-        <v>4861.0494349999999</v>
+        <v>4861.0494200000003</v>
       </c>
       <c r="Q3">
-        <v>5034.5460349999903</v>
+        <v>5034.5460569999896</v>
       </c>
       <c r="R3">
-        <v>5227.5648009999904</v>
+        <v>5227.56480499997</v>
       </c>
       <c r="S3">
-        <v>5419.45269799998</v>
+        <v>5419.4527449999896</v>
       </c>
       <c r="T3">
-        <v>5635.4484890000003</v>
+        <v>5635.4485379999696</v>
       </c>
       <c r="U3">
-        <v>5857.9952999999896</v>
+        <v>5857.9953149999801</v>
       </c>
       <c r="V3">
-        <v>6095.5839980000001</v>
+        <v>6095.5840749999797</v>
       </c>
       <c r="W3">
-        <v>6340.1238699999903</v>
+        <v>6340.1238750000002</v>
       </c>
       <c r="X3">
-        <v>6594.8677559999896</v>
+        <v>6594.8678440000003</v>
       </c>
       <c r="Y3">
-        <v>6863.13311600002</v>
+        <v>6863.1332460000003</v>
       </c>
       <c r="Z3">
-        <v>7142.5052409999998</v>
+        <v>7142.5053200000102</v>
       </c>
       <c r="AA3">
-        <v>7437.5349629999801</v>
+        <v>7437.5349669999896</v>
       </c>
       <c r="AB3">
-        <v>7742.14824399998</v>
+        <v>7742.1484119999996</v>
       </c>
       <c r="AC3">
-        <v>8058.3796890000103</v>
+        <v>8058.3796890000303</v>
       </c>
       <c r="AD3">
-        <v>8385.3475990000206</v>
+        <v>8385.3478439999799</v>
       </c>
       <c r="AE3">
-        <v>8730.3152359999804</v>
+        <v>8730.3154729999605</v>
       </c>
       <c r="AF3">
-        <v>9088.2841789999893</v>
+        <v>9088.2842209999508</v>
       </c>
       <c r="AG3">
-        <v>9461.2891689999997</v>
+        <v>9461.28928800002</v>
       </c>
       <c r="AH3">
-        <v>9847.6590650000508</v>
+        <v>9847.6591370000097</v>
       </c>
       <c r="AI3">
-        <v>10248.619801999899</v>
+        <v>10248.6199019999</v>
       </c>
       <c r="AJ3">
-        <v>10668.762886999901</v>
+        <v>10668.763086999899</v>
       </c>
       <c r="AK3">
-        <v>11087.850206999899</v>
+        <v>11087.850394999999</v>
       </c>
       <c r="AL3">
-        <v>11508.718602999999</v>
+        <v>11508.719090000001</v>
       </c>
       <c r="AM3">
-        <v>11917.3873049999</v>
+        <v>11917.3878109999</v>
       </c>
       <c r="AN3">
-        <v>12322.237161999899</v>
+        <v>12322.237408999999</v>
       </c>
       <c r="AO3">
-        <v>12718.0728919999</v>
+        <v>12718.07344</v>
       </c>
       <c r="AP3">
-        <v>13093.6443109999</v>
+        <v>13093.6448039999</v>
       </c>
       <c r="AQ3">
-        <v>13498.3893199999</v>
+        <v>13498.38968</v>
       </c>
       <c r="AR3">
-        <v>13903.5803169999</v>
+        <v>13903.580762</v>
       </c>
       <c r="AS3">
-        <v>14316.1696229999</v>
+        <v>14316.1700919999</v>
       </c>
       <c r="AT3">
         <v>12779</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4458,139 +4523,139 @@
         <v>3084</v>
       </c>
       <c r="C4">
-        <v>3178.5677919999898</v>
+        <v>3178.56781</v>
       </c>
       <c r="D4">
-        <v>3272.7218339999999</v>
+        <v>3272.7218509999998</v>
       </c>
       <c r="E4">
-        <v>3374.4725879999901</v>
+        <v>3374.472569</v>
       </c>
       <c r="F4">
-        <v>3478.0954729999899</v>
+        <v>3478.0954510000101</v>
       </c>
       <c r="G4">
-        <v>3582.5953589999999</v>
+        <v>3582.595339</v>
       </c>
       <c r="H4">
-        <v>3688.82653599999</v>
+        <v>3688.8265299999898</v>
       </c>
       <c r="I4">
-        <v>3796.6957399999901</v>
+        <v>3796.69574899999</v>
       </c>
       <c r="J4">
-        <v>3913.5050779999901</v>
+        <v>3913.5050919999899</v>
       </c>
       <c r="K4">
-        <v>4028.8364339999998</v>
+        <v>4028.8364799999799</v>
       </c>
       <c r="L4">
-        <v>4153.7871210000003</v>
+        <v>4153.7871230000001</v>
       </c>
       <c r="M4">
-        <v>4282.48842899999</v>
+        <v>4282.4884579999798</v>
       </c>
       <c r="N4">
-        <v>4412.93055</v>
+        <v>4412.9305799999802</v>
       </c>
       <c r="O4">
-        <v>4546.3551830000197</v>
+        <v>4546.3552170000103</v>
       </c>
       <c r="P4">
-        <v>4686.1908809999904</v>
+        <v>4686.1909260000102</v>
       </c>
       <c r="Q4">
-        <v>4830.4087799999897</v>
+        <v>4830.4088090000096</v>
       </c>
       <c r="R4">
-        <v>4979.000266</v>
+        <v>4979.0002890000096</v>
       </c>
       <c r="S4">
-        <v>5128.6212610000002</v>
+        <v>5128.6213189999698</v>
       </c>
       <c r="T4">
-        <v>5289.0845730000201</v>
+        <v>5289.0846099999999</v>
       </c>
       <c r="U4">
-        <v>5446.1942279999903</v>
+        <v>5446.1943039999996</v>
       </c>
       <c r="V4">
-        <v>5614.2151119999799</v>
+        <v>5614.21515</v>
       </c>
       <c r="W4">
-        <v>5783.8402669999996</v>
+        <v>5783.84031399999</v>
       </c>
       <c r="X4">
-        <v>5955.37702300002</v>
+        <v>5955.3770879999902</v>
       </c>
       <c r="Y4">
-        <v>6138.0007919999798</v>
+        <v>6138.0008859999998</v>
       </c>
       <c r="Z4">
-        <v>6330.0726649999997</v>
+        <v>6330.0727200000101</v>
       </c>
       <c r="AA4">
-        <v>6523.3928999999798</v>
+        <v>6523.3929559999897</v>
       </c>
       <c r="AB4">
-        <v>6719.3360359999897</v>
+        <v>6719.3361369999702</v>
       </c>
       <c r="AC4">
-        <v>6922.2976290000097</v>
+        <v>6922.2977000000001</v>
       </c>
       <c r="AD4">
-        <v>7125.8723800000098</v>
+        <v>7125.8724139999904</v>
       </c>
       <c r="AE4">
-        <v>7341.5497649999697</v>
+        <v>7341.5498670000097</v>
       </c>
       <c r="AF4">
-        <v>7567.9159079999999</v>
+        <v>7567.9160409999804</v>
       </c>
       <c r="AG4">
-        <v>7796.4101220000002</v>
+        <v>7796.4102780000203</v>
       </c>
       <c r="AH4">
-        <v>8036.5131979999696</v>
+        <v>8036.5133109999897</v>
       </c>
       <c r="AI4">
-        <v>8283.8874019999803</v>
+        <v>8283.8877310000207</v>
       </c>
       <c r="AJ4">
-        <v>8535.5047860000395</v>
+        <v>8535.5046929999899</v>
       </c>
       <c r="AK4">
-        <v>8786.12230000001</v>
+        <v>8786.1225059999906</v>
       </c>
       <c r="AL4">
-        <v>9027.1047909999706</v>
+        <v>9027.1050129999894</v>
       </c>
       <c r="AM4">
-        <v>9254.5859979999896</v>
+        <v>9254.5861859999895</v>
       </c>
       <c r="AN4">
-        <v>9472.4706300000507</v>
+        <v>9472.4708469999896</v>
       </c>
       <c r="AO4">
-        <v>9682.8254630000702</v>
+        <v>9682.8256910000091</v>
       </c>
       <c r="AP4">
-        <v>9876.6952240000192</v>
+        <v>9876.6953750000102</v>
       </c>
       <c r="AQ4">
-        <v>10080.991038</v>
+        <v>10080.991225</v>
       </c>
       <c r="AR4">
-        <v>10281.7128569999</v>
+        <v>10281.713193</v>
       </c>
       <c r="AS4">
-        <v>10491.288614999999</v>
+        <v>10491.2887519999</v>
       </c>
       <c r="AT4">
         <v>11076.8</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4598,139 +4663,139 @@
         <v>3084</v>
       </c>
       <c r="C5">
-        <v>3170.5184060000001</v>
+        <v>3170.5183919999999</v>
       </c>
       <c r="D5">
-        <v>3251.424293</v>
+        <v>3251.4243059999999</v>
       </c>
       <c r="E5">
-        <v>3331.0435419999899</v>
+        <v>3331.043557</v>
       </c>
       <c r="F5">
-        <v>3403.8498079999999</v>
+        <v>3403.8498409999902</v>
       </c>
       <c r="G5">
-        <v>3467.80768699999</v>
+        <v>3467.8077029999999</v>
       </c>
       <c r="H5">
-        <v>3533.6677759999998</v>
+        <v>3533.6677760000098</v>
       </c>
       <c r="I5">
-        <v>3603.6153319999999</v>
+        <v>3603.6153669999899</v>
       </c>
       <c r="J5">
-        <v>3666.7827439999901</v>
+        <v>3666.7827540000098</v>
       </c>
       <c r="K5">
-        <v>3724.4732989999902</v>
+        <v>3724.47332399999</v>
       </c>
       <c r="L5">
-        <v>3783.1891690000102</v>
+        <v>3783.18914699999</v>
       </c>
       <c r="M5">
-        <v>3841.00982199999</v>
+        <v>3841.0098429999898</v>
       </c>
       <c r="N5">
-        <v>3898.9605409999999</v>
+        <v>3898.9605729999998</v>
       </c>
       <c r="O5">
-        <v>3957.97015899999</v>
+        <v>3957.9701839999998</v>
       </c>
       <c r="P5">
-        <v>4016.9091680000001</v>
+        <v>4016.9091739999899</v>
       </c>
       <c r="Q5">
-        <v>4079.8733520000001</v>
+        <v>4079.87336399999</v>
       </c>
       <c r="R5">
-        <v>4136.6777139999904</v>
+        <v>4136.6777100000199</v>
       </c>
       <c r="S5">
-        <v>4188.2191149999899</v>
+        <v>4188.2191339999899</v>
       </c>
       <c r="T5">
-        <v>4241.170443</v>
+        <v>4241.17043499997</v>
       </c>
       <c r="U5">
-        <v>4291.9539419999901</v>
+        <v>4291.9539579999901</v>
       </c>
       <c r="V5">
-        <v>4335.2115910000002</v>
+        <v>4335.2116430000096</v>
       </c>
       <c r="W5">
-        <v>4376.2730449999999</v>
+        <v>4376.2730419999998</v>
       </c>
       <c r="X5">
-        <v>4421.5683260000096</v>
+        <v>4421.5683600000102</v>
       </c>
       <c r="Y5">
-        <v>4465.0586149999799</v>
+        <v>4465.0586730000095</v>
       </c>
       <c r="Z5">
-        <v>4513.0871469999802</v>
+        <v>4513.0871230000002</v>
       </c>
       <c r="AA5">
-        <v>4555.9702160000097</v>
+        <v>4555.9702559999996</v>
       </c>
       <c r="AB5">
-        <v>4602.70812200001</v>
+        <v>4602.7082150000097</v>
       </c>
       <c r="AC5">
-        <v>4652.4190879999896</v>
+        <v>4652.4190939999899</v>
       </c>
       <c r="AD5">
-        <v>4702.1194690000002</v>
+        <v>4702.1194919999698</v>
       </c>
       <c r="AE5">
-        <v>4743.9617339999904</v>
+        <v>4743.9617259999804</v>
       </c>
       <c r="AF5">
-        <v>4797.98441799999</v>
+        <v>4797.9844440000197</v>
       </c>
       <c r="AG5">
-        <v>4841.8353559999796</v>
+        <v>4841.8353849999903</v>
       </c>
       <c r="AH5">
-        <v>4887.34094800001</v>
+        <v>4887.3409789999796</v>
       </c>
       <c r="AI5">
-        <v>4936.0388579999699</v>
+        <v>4936.0388380000004</v>
       </c>
       <c r="AJ5">
-        <v>4982.0489159999797</v>
+        <v>4982.04897600001</v>
       </c>
       <c r="AK5">
-        <v>5029.7540880000097</v>
+        <v>5029.7541269999901</v>
       </c>
       <c r="AL5">
-        <v>5084.066057</v>
+        <v>5084.0661270000001</v>
       </c>
       <c r="AM5">
-        <v>5132.2294179999899</v>
+        <v>5132.22947199999</v>
       </c>
       <c r="AN5">
-        <v>5182.0889829999596</v>
+        <v>5182.0890169999902</v>
       </c>
       <c r="AO5">
-        <v>5235.9378219999799</v>
+        <v>5235.9378710000001</v>
       </c>
       <c r="AP5">
-        <v>5287.1654689999796</v>
+        <v>5287.1654610000096</v>
       </c>
       <c r="AQ5">
-        <v>5338.3584309999796</v>
+        <v>5338.3585029999904</v>
       </c>
       <c r="AR5">
-        <v>5394.0705229999803</v>
+        <v>5394.0705289999696</v>
       </c>
       <c r="AS5">
-        <v>5446.0917300000101</v>
+        <v>5446.0917850000096</v>
       </c>
       <c r="AT5">
         <v>5039.7700000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4738,2570 +4803,2570 @@
         <v>3084</v>
       </c>
       <c r="C6">
-        <v>3168.2446159999899</v>
+        <v>3168.2446100000002</v>
       </c>
       <c r="D6">
-        <v>3245.4959469999999</v>
+        <v>3245.4959359999898</v>
       </c>
       <c r="E6">
-        <v>3324.2802819999902</v>
+        <v>3324.2802919999999</v>
       </c>
       <c r="F6">
         <v>3396.9674890000001</v>
       </c>
       <c r="G6">
-        <v>3454.1374500000002</v>
+        <v>3454.1374250000099</v>
       </c>
       <c r="H6">
-        <v>3483.1496160000002</v>
+        <v>3483.149629</v>
       </c>
       <c r="I6">
-        <v>3485.0701389999899</v>
+        <v>3485.07017</v>
       </c>
       <c r="J6">
-        <v>3463.3004679999899</v>
+        <v>3463.300463</v>
       </c>
       <c r="K6">
-        <v>3419.8061599999901</v>
+        <v>3419.806169</v>
       </c>
       <c r="L6">
-        <v>3370.32852</v>
+        <v>3370.3285129999999</v>
       </c>
       <c r="M6">
-        <v>3327.9443329999999</v>
+        <v>3327.9443249999899</v>
       </c>
       <c r="N6">
-        <v>3288.59408789999</v>
+        <v>3288.5940738999998</v>
       </c>
       <c r="O6">
         <v>3254.43329579999</v>
       </c>
       <c r="P6">
-        <v>3229.1535345000102</v>
+        <v>3229.15352449999</v>
       </c>
       <c r="Q6">
-        <v>3205.5150015999802</v>
+        <v>3205.5149772999998</v>
       </c>
       <c r="R6">
-        <v>3182.26095019999</v>
+        <v>3182.2609470000002</v>
       </c>
       <c r="S6">
-        <v>3162.7910869999901</v>
+        <v>3162.7910929999898</v>
       </c>
       <c r="T6">
-        <v>3149.8381445</v>
+        <v>3149.8381294999999</v>
       </c>
       <c r="U6">
-        <v>3145.4154923999899</v>
+        <v>3145.41549080001</v>
       </c>
       <c r="V6">
-        <v>3141.2245191000102</v>
+        <v>3141.2245036000099</v>
       </c>
       <c r="W6">
-        <v>3146.7420212000002</v>
+        <v>3146.7420498000101</v>
       </c>
       <c r="X6">
-        <v>3158.5580877000002</v>
+        <v>3158.5580245999799</v>
       </c>
       <c r="Y6">
-        <v>3176.8905396999899</v>
+        <v>3176.8905006999898</v>
       </c>
       <c r="Z6">
-        <v>3201.7061600000002</v>
+        <v>3201.7061792</v>
       </c>
       <c r="AA6">
-        <v>3233.22095579999</v>
+        <v>3233.2209290999899</v>
       </c>
       <c r="AB6">
-        <v>3258.7475454</v>
+        <v>3258.7475435000001</v>
       </c>
       <c r="AC6">
-        <v>3295.18420409999</v>
+        <v>3295.1842078</v>
       </c>
       <c r="AD6">
-        <v>3332.2205761999999</v>
+        <v>3332.2206039999901</v>
       </c>
       <c r="AE6">
-        <v>3361.3069413999901</v>
+        <v>3361.3069643999902</v>
       </c>
       <c r="AF6">
-        <v>3389.7231777000002</v>
+        <v>3389.7231485999901</v>
       </c>
       <c r="AG6">
-        <v>3422.3168508999902</v>
+        <v>3422.3168119000002</v>
       </c>
       <c r="AH6">
-        <v>3456.2377824999999</v>
+        <v>3456.2377841000198</v>
       </c>
       <c r="AI6">
-        <v>3488.4206654</v>
+        <v>3488.4206293000002</v>
       </c>
       <c r="AJ6">
-        <v>3521.1224453999898</v>
+        <v>3521.12239459999</v>
       </c>
       <c r="AK6">
-        <v>3558.5274163999802</v>
+        <v>3558.5274237999902</v>
       </c>
       <c r="AL6">
-        <v>3593.3930943</v>
+        <v>3593.39308999999</v>
       </c>
       <c r="AM6">
-        <v>3633.5201149999998</v>
+        <v>3633.5200725999898</v>
       </c>
       <c r="AN6">
-        <v>3677.2580659999899</v>
+        <v>3677.2580207000001</v>
       </c>
       <c r="AO6">
-        <v>3715.1007110999799</v>
+        <v>3715.1006505999899</v>
       </c>
       <c r="AP6">
-        <v>3796.3261735000101</v>
+        <v>3796.3261720999899</v>
       </c>
       <c r="AQ6">
-        <v>3978.1982892999899</v>
+        <v>3978.1983481999901</v>
       </c>
       <c r="AR6">
-        <v>4283.20935679997</v>
+        <v>4283.2093510000104</v>
       </c>
       <c r="AS6">
-        <v>4739.7157056999904</v>
+        <v>4739.7156633000004</v>
       </c>
       <c r="AT6">
         <v>4018.79</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>8.7430900000000006E-2</v>
+        <v>8.9392299999999994E-2</v>
       </c>
       <c r="C7">
-        <v>8.1704777599999903E-2</v>
+        <v>7.6536486190000294E-2</v>
       </c>
       <c r="D7">
-        <v>7.6315094149999999E-2</v>
+        <v>6.6719339840000294E-2</v>
       </c>
       <c r="E7">
-        <v>6.9982241010899698E-2</v>
+        <v>5.6963062339999801E-2</v>
       </c>
       <c r="F7">
-        <v>6.3051147572183802E-2</v>
+        <v>4.6813395106486001E-2</v>
       </c>
       <c r="G7">
-        <v>5.6227436704359798E-2</v>
+        <v>3.6607611380955897E-2</v>
       </c>
       <c r="H7">
-        <v>5.0125186349998997E-2</v>
+        <v>2.6813188622830001E-2</v>
       </c>
       <c r="I7">
-        <v>4.4839046177458999E-2</v>
+        <v>1.7379552426636798E-2</v>
       </c>
       <c r="J7">
-        <v>4.0411129143329699E-2</v>
+        <v>8.3018314771999592E-3</v>
       </c>
       <c r="K7">
-        <v>3.6816461846402901E-2</v>
+        <v>-4.5026376668220102E-4</v>
       </c>
       <c r="L7">
-        <v>3.4026644005223899E-2</v>
+        <v>-9.15021483724799E-3</v>
       </c>
       <c r="M7">
-        <v>3.1716084851533301E-2</v>
+        <v>-1.84118630083E-2</v>
       </c>
       <c r="N7">
-        <v>3.005582485931E-2</v>
+        <v>-2.8201182144519998E-2</v>
       </c>
       <c r="O7">
-        <v>2.9032220719818001E-2</v>
+        <v>-3.8635830105489898E-2</v>
       </c>
       <c r="P7">
-        <v>2.8633218969699999E-2</v>
+        <v>-4.9770074974629902E-2</v>
       </c>
       <c r="Q7">
-        <v>2.92579351106599E-2</v>
+        <v>-6.1324564168309899E-2</v>
       </c>
       <c r="R7">
-        <v>3.1119571761666999E-2</v>
+        <v>-7.2570920722199506E-2</v>
       </c>
       <c r="S7">
-        <v>3.41368664221227E-2</v>
+        <v>-8.3692820746010005E-2</v>
       </c>
       <c r="T7">
-        <v>3.8317934178139799E-2</v>
+        <v>-9.4455812879369896E-2</v>
       </c>
       <c r="U7">
-        <v>4.3453490958915E-2</v>
+        <v>-0.1050615133488</v>
       </c>
       <c r="V7">
-        <v>4.9624430943349999E-2</v>
+        <v>-0.11599664899664899</v>
       </c>
       <c r="W7">
-        <v>5.6969716975499997E-2</v>
+        <v>-0.12740173893119</v>
       </c>
       <c r="X7">
-        <v>6.5266489300414607E-2</v>
+        <v>-0.13944915456925999</v>
       </c>
       <c r="Y7">
-        <v>7.4622814448150304E-2</v>
+        <v>-0.152119567330054</v>
       </c>
       <c r="Z7">
-        <v>8.5000151574840102E-2</v>
+        <v>-0.16544721006135901</v>
       </c>
       <c r="AA7">
-        <v>9.5667137124339899E-2</v>
+        <v>-0.1827909898275</v>
       </c>
       <c r="AB7">
-        <v>0.104511709068102</v>
+        <v>-0.20863328941089901</v>
       </c>
       <c r="AC7">
-        <v>0.111558130283129</v>
+        <v>-0.24333034925779901</v>
       </c>
       <c r="AD7">
-        <v>0.116839365131299</v>
+        <v>-0.28725351444140901</v>
       </c>
       <c r="AE7">
-        <v>0.12030596800609999</v>
+        <v>-0.34045046950669899</v>
       </c>
       <c r="AF7">
-        <v>0.123129342999869</v>
+        <v>-0.40040852381999897</v>
       </c>
       <c r="AG7">
-        <v>0.12723499472740801</v>
+        <v>-0.46255193091389801</v>
       </c>
       <c r="AH7">
-        <v>0.13265849177768099</v>
+        <v>-0.52689249588339704</v>
       </c>
       <c r="AI7">
-        <v>0.13954913172402</v>
+        <v>-0.59348705089209997</v>
       </c>
       <c r="AJ7">
-        <v>0.14786927805696901</v>
+        <v>-0.66224869517689799</v>
       </c>
       <c r="AK7">
-        <v>0.15794763573954901</v>
+        <v>-0.73383169632299805</v>
       </c>
       <c r="AL7">
-        <v>0.17005772673205999</v>
+        <v>-0.80873941465840005</v>
       </c>
       <c r="AM7">
-        <v>0.18460510175620001</v>
+        <v>-0.887762116435999</v>
       </c>
       <c r="AN7">
-        <v>0.2019620751973</v>
+        <v>-0.97087629465000103</v>
       </c>
       <c r="AO7">
-        <v>0.22205781481152001</v>
+        <v>-1.05849165665339</v>
       </c>
       <c r="AP7">
-        <v>0.24557452622350001</v>
+        <v>-1.15188303797</v>
       </c>
       <c r="AQ7">
-        <v>0.27222746677079901</v>
+        <v>-1.2485765000439999</v>
       </c>
       <c r="AR7">
-        <v>0.30229847202048798</v>
+        <v>-1.3497008353710001</v>
       </c>
       <c r="AS7">
-        <v>0.33597865878470301</v>
+        <v>-1.4553687426540001</v>
       </c>
       <c r="AT7">
-        <v>0.63777499999999998</v>
+        <v>-1.4728300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>8.7430900000000006E-2</v>
+        <v>8.9392299999999994E-2</v>
       </c>
       <c r="C8">
-        <v>8.1615964349999806E-2</v>
+        <v>7.6446293139999705E-2</v>
       </c>
       <c r="D8">
-        <v>7.6214644670000095E-2</v>
+        <v>6.6653130279999806E-2</v>
       </c>
       <c r="E8">
-        <v>6.9860412067260194E-2</v>
+        <v>5.6891908907000001E-2</v>
       </c>
       <c r="F8">
-        <v>6.2957095041399805E-2</v>
+        <v>4.6773426167579901E-2</v>
       </c>
       <c r="G8">
-        <v>5.5946611616607897E-2</v>
+        <v>3.6263039630806099E-2</v>
       </c>
       <c r="H8">
-        <v>4.9220687631718302E-2</v>
+        <v>2.5377170815839001E-2</v>
       </c>
       <c r="I8">
-        <v>4.2878890505210002E-2</v>
+        <v>1.39525881599879E-2</v>
       </c>
       <c r="J8">
-        <v>3.7003391635565E-2</v>
+        <v>1.9403906653065999E-3</v>
       </c>
       <c r="K8">
-        <v>3.1647394380755201E-2</v>
+        <v>-1.07033174524399E-2</v>
       </c>
       <c r="L8">
-        <v>2.7278733714679999E-2</v>
+        <v>-2.3560749211460001E-2</v>
       </c>
       <c r="M8">
-        <v>2.42608095149918E-2</v>
+        <v>-3.6057098630780798E-2</v>
       </c>
       <c r="N8">
-        <v>2.25636023312299E-2</v>
+        <v>-4.82796765560317E-2</v>
       </c>
       <c r="O8">
-        <v>2.228551866833E-2</v>
+        <v>-6.0196171353320699E-2</v>
       </c>
       <c r="P8">
-        <v>2.3381681488273999E-2</v>
+        <v>-7.1838421425450105E-2</v>
       </c>
       <c r="Q8">
-        <v>2.5729131315691E-2</v>
+        <v>-8.3754988371299105E-2</v>
       </c>
       <c r="R8">
-        <v>2.90028185680259E-2</v>
+        <v>-9.6432799477735698E-2</v>
       </c>
       <c r="S8">
-        <v>3.32445247920609E-2</v>
+        <v>-0.10995710851002299</v>
       </c>
       <c r="T8">
-        <v>3.8474771742730098E-2</v>
+        <v>-0.12425836400748901</v>
       </c>
       <c r="U8">
-        <v>4.4858989343490002E-2</v>
+        <v>-0.13939148591298001</v>
       </c>
       <c r="V8">
-        <v>5.2567325950673899E-2</v>
+        <v>-0.15569434104162</v>
       </c>
       <c r="W8">
-        <v>6.16550497160432E-2</v>
+        <v>-0.17286472731489799</v>
       </c>
       <c r="X8">
-        <v>7.2385312562149903E-2</v>
+        <v>-0.19091456696429901</v>
       </c>
       <c r="Y8">
-        <v>8.4662438669749901E-2</v>
+        <v>-0.20975916579604001</v>
       </c>
       <c r="Z8">
-        <v>9.8308813477270204E-2</v>
+        <v>-0.22947226999319001</v>
       </c>
       <c r="AA8">
-        <v>0.11407072888245</v>
+        <v>-0.25095097495178997</v>
       </c>
       <c r="AB8">
-        <v>0.13207281954399899</v>
+        <v>-0.27336989496504899</v>
       </c>
       <c r="AC8">
-        <v>0.152281530741811</v>
+        <v>-0.29683583015138099</v>
       </c>
       <c r="AD8">
-        <v>0.174998957843609</v>
+        <v>-0.321431521640688</v>
       </c>
       <c r="AE8">
-        <v>0.20008836965718399</v>
+        <v>-0.34689839303690601</v>
       </c>
       <c r="AF8">
-        <v>0.22777615104099999</v>
+        <v>-0.372911107446879</v>
       </c>
       <c r="AG8">
-        <v>0.258615628357729</v>
+        <v>-0.39892282100251902</v>
       </c>
       <c r="AH8">
-        <v>0.29285233424556201</v>
+        <v>-0.4247498092848</v>
       </c>
       <c r="AI8">
-        <v>0.33013160611460002</v>
+        <v>-0.45053270787709998</v>
       </c>
       <c r="AJ8">
-        <v>0.37099472160729902</v>
+        <v>-0.47623438365508802</v>
       </c>
       <c r="AK8">
-        <v>0.415735958483959</v>
+        <v>-0.50244688174348795</v>
       </c>
       <c r="AL8">
-        <v>0.46494989075490001</v>
+        <v>-0.53006168143880805</v>
       </c>
       <c r="AM8">
-        <v>0.51912203479429997</v>
+        <v>-0.55937675044050295</v>
       </c>
       <c r="AN8">
-        <v>0.57868561678432795</v>
+        <v>-0.59064420615839797</v>
       </c>
       <c r="AO8">
-        <v>0.64459109819179705</v>
+        <v>-0.62365436617150005</v>
       </c>
       <c r="AP8">
-        <v>0.71714615370049595</v>
+        <v>-0.65901029989639903</v>
       </c>
       <c r="AQ8">
-        <v>0.79644343979661802</v>
+        <v>-0.69571965794799995</v>
       </c>
       <c r="AR8">
-        <v>0.88292296703079098</v>
+        <v>-0.73416561301459804</v>
       </c>
       <c r="AS8">
-        <v>0.97704974997609695</v>
+        <v>-0.773887152444099</v>
       </c>
       <c r="AT8">
-        <v>0.36701299999999998</v>
+        <v>-1.27969</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>8.7430900000000006E-2</v>
+        <v>8.9392299999999994E-2</v>
       </c>
       <c r="C9">
-        <v>8.1800141719999803E-2</v>
+        <v>7.6637157899999905E-2</v>
       </c>
       <c r="D9">
-        <v>7.7003359629999907E-2</v>
+        <v>6.7378791159999493E-2</v>
       </c>
       <c r="E9">
-        <v>7.1886792627999699E-2</v>
+        <v>5.8585328258000002E-2</v>
       </c>
       <c r="F9">
-        <v>6.6898582248630004E-2</v>
+        <v>4.9822503466960003E-2</v>
       </c>
       <c r="G9">
-        <v>6.2705090093750707E-2</v>
+        <v>4.1198359208790003E-2</v>
       </c>
       <c r="H9">
-        <v>5.9569769692842701E-2</v>
+        <v>3.2540311535160002E-2</v>
       </c>
       <c r="I9">
-        <v>5.7481515582160102E-2</v>
+        <v>2.3603920628213201E-2</v>
       </c>
       <c r="J9">
-        <v>5.6631685874100002E-2</v>
+        <v>1.44751880570639E-2</v>
       </c>
       <c r="K9">
-        <v>5.7144634798849903E-2</v>
+        <v>5.1164751621670104E-3</v>
       </c>
       <c r="L9">
-        <v>5.92444194266077E-2</v>
+        <v>-4.4546088637910097E-3</v>
       </c>
       <c r="M9">
-        <v>6.3046028443429894E-2</v>
+        <v>-1.42262105182399E-2</v>
       </c>
       <c r="N9">
-        <v>6.8570527351599894E-2</v>
+        <v>-2.43222578896818E-2</v>
       </c>
       <c r="O9">
-        <v>7.57614375007028E-2</v>
+        <v>-3.4837354204879899E-2</v>
       </c>
       <c r="P9">
-        <v>8.4642788959711002E-2</v>
+        <v>-4.5850694284469903E-2</v>
       </c>
       <c r="Q9">
-        <v>9.5475484806310199E-2</v>
+        <v>-5.7456921025115897E-2</v>
       </c>
       <c r="R9">
-        <v>0.10836390994572501</v>
+        <v>-6.9617090754279895E-2</v>
       </c>
       <c r="S9">
-        <v>0.123670585318604</v>
+        <v>-8.2314830436620204E-2</v>
       </c>
       <c r="T9">
-        <v>0.14151163009468001</v>
+        <v>-9.5562439366129695E-2</v>
       </c>
       <c r="U9">
-        <v>0.16177652655637001</v>
+        <v>-0.109556408811829</v>
       </c>
       <c r="V9">
-        <v>0.18550542166443901</v>
+        <v>-0.12463564374916999</v>
       </c>
       <c r="W9">
-        <v>0.21278350663845999</v>
+        <v>-0.14032120139750001</v>
       </c>
       <c r="X9">
-        <v>0.24367909140555</v>
+        <v>-0.15666340912460999</v>
       </c>
       <c r="Y9">
-        <v>0.27829699413723902</v>
+        <v>-0.17385248865821101</v>
       </c>
       <c r="Z9">
-        <v>0.31675474647724799</v>
+        <v>-0.19180459871473901</v>
       </c>
       <c r="AA9">
-        <v>0.36069375688614003</v>
+        <v>-0.211331357605689</v>
       </c>
       <c r="AB9">
-        <v>0.40969761975743901</v>
+        <v>-0.23167143468474199</v>
       </c>
       <c r="AC9">
-        <v>0.46404807020641797</v>
+        <v>-0.25287120389290602</v>
       </c>
       <c r="AD9">
-        <v>0.52418297616839804</v>
+        <v>-0.274974328600468</v>
       </c>
       <c r="AE9">
-        <v>0.59106394488379799</v>
+        <v>-0.298130303503718</v>
       </c>
       <c r="AF9">
-        <v>0.664590865968398</v>
+        <v>-0.32193898619755801</v>
       </c>
       <c r="AG9">
-        <v>0.74600172026840095</v>
+        <v>-0.34694163639522102</v>
       </c>
       <c r="AH9">
-        <v>0.83580521464380098</v>
+        <v>-0.37296562042156001</v>
       </c>
       <c r="AI9">
-        <v>0.93404060450139803</v>
+        <v>-0.40015562768944002</v>
       </c>
       <c r="AJ9">
-        <v>1.0419114675471</v>
+        <v>-0.42868215196148002</v>
       </c>
       <c r="AK9">
-        <v>1.15943780201749</v>
+        <v>-0.45846109949395902</v>
       </c>
       <c r="AL9">
-        <v>1.2877500246209901</v>
+        <v>-0.48889099419600002</v>
       </c>
       <c r="AM9">
-        <v>1.4274898870032899</v>
+        <v>-0.52102226493100001</v>
       </c>
       <c r="AN9">
-        <v>1.57961041959399</v>
+        <v>-0.55484023897266999</v>
       </c>
       <c r="AO9">
-        <v>1.74470787671886</v>
+        <v>-0.58987533345559695</v>
       </c>
       <c r="AP9">
-        <v>1.9242835054987899</v>
+        <v>-0.62688956245361005</v>
       </c>
       <c r="AQ9">
-        <v>2.11935576857881</v>
+        <v>-0.66589567265360206</v>
       </c>
       <c r="AR9">
-        <v>2.3317955453830002</v>
+        <v>-0.70544942321051896</v>
       </c>
       <c r="AS9">
-        <v>2.5630764028063999</v>
+        <v>-0.74729967426509902</v>
       </c>
       <c r="AT9">
-        <v>1.34087</v>
+        <v>-2.1147399999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>8.7430900000000006E-2</v>
+        <v>8.9392299999999994E-2</v>
       </c>
       <c r="C10">
-        <v>8.1905542569999504E-2</v>
+        <v>7.6744008180000198E-2</v>
       </c>
       <c r="D10">
-        <v>7.7284829589999895E-2</v>
+        <v>6.7616069979999902E-2</v>
       </c>
       <c r="E10">
-        <v>7.2342380082999799E-2</v>
+        <v>5.8924397508E-2</v>
       </c>
       <c r="F10">
-        <v>6.7579165148769799E-2</v>
+        <v>5.0283139046939998E-2</v>
       </c>
       <c r="G10">
-        <v>6.4183766731529895E-2</v>
+        <v>4.24851265345099E-2</v>
       </c>
       <c r="H10">
-        <v>6.4315428251477097E-2</v>
+        <v>3.7518727305726203E-2</v>
       </c>
       <c r="I10">
-        <v>6.8783780904264999E-2</v>
+        <v>3.5652037246489902E-2</v>
       </c>
       <c r="J10">
-        <v>7.8673301522959996E-2</v>
+        <v>3.74879974739099E-2</v>
       </c>
       <c r="K10">
-        <v>9.4778815744440803E-2</v>
+        <v>4.33490513185378E-2</v>
       </c>
       <c r="L10">
-        <v>0.117458158638239</v>
+        <v>5.3150261628439999E-2</v>
       </c>
       <c r="M10">
-        <v>0.14637431739717499</v>
+        <v>6.60600606752305E-2</v>
       </c>
       <c r="N10">
-        <v>0.18128447084185401</v>
+        <v>8.1893317522634304E-2</v>
       </c>
       <c r="O10">
-        <v>0.222378996543909</v>
+        <v>0.10079394587786999</v>
       </c>
       <c r="P10">
-        <v>0.26947160806439902</v>
+        <v>0.12265642731034999</v>
       </c>
       <c r="Q10">
-        <v>0.32335858136363199</v>
+        <v>0.147571173616489</v>
       </c>
       <c r="R10">
-        <v>0.38329263201922997</v>
+        <v>0.17413298328679899</v>
       </c>
       <c r="S10">
-        <v>0.44928316446689998</v>
+        <v>0.20207053009412901</v>
       </c>
       <c r="T10">
-        <v>0.52157629531529803</v>
+        <v>0.23128270331467099</v>
       </c>
       <c r="U10">
-        <v>0.59996039078158703</v>
+        <v>0.261597023378009</v>
       </c>
       <c r="V10">
-        <v>0.68610703188059696</v>
+        <v>0.29356961214914901</v>
       </c>
       <c r="W10">
-        <v>0.77879457626204895</v>
+        <v>0.32692098133960001</v>
       </c>
       <c r="X10">
-        <v>0.87855226832489597</v>
+        <v>0.36150725618829799</v>
       </c>
       <c r="Y10">
-        <v>0.98539618485699898</v>
+        <v>0.39727386367776002</v>
       </c>
       <c r="Z10">
-        <v>1.0994559846380001</v>
+        <v>0.43407189387449802</v>
       </c>
       <c r="AA10">
-        <v>1.22462336595511</v>
+        <v>0.47360685759392002</v>
       </c>
       <c r="AB10">
-        <v>1.3601825793408</v>
+        <v>0.51577529964940605</v>
       </c>
       <c r="AC10">
-        <v>1.50606191193199</v>
+        <v>0.56004104923529496</v>
       </c>
       <c r="AD10">
-        <v>1.6648411472839899</v>
+        <v>0.60737445076150298</v>
       </c>
       <c r="AE10">
-        <v>1.8369724825078999</v>
+        <v>0.65729744008259605</v>
       </c>
       <c r="AF10">
-        <v>2.0247123893871</v>
+        <v>0.71075363902280098</v>
       </c>
       <c r="AG10">
-        <v>2.2287528008329902</v>
+        <v>0.767686421934898</v>
       </c>
       <c r="AH10">
-        <v>2.4493524799449902</v>
+        <v>0.82768822397910002</v>
       </c>
       <c r="AI10">
-        <v>2.6888181101195898</v>
+        <v>0.89111763512170095</v>
       </c>
       <c r="AJ10">
-        <v>2.948274379526</v>
+        <v>0.95832010615640895</v>
       </c>
       <c r="AK10">
-        <v>3.2278040489070001</v>
+        <v>1.0291794738797999</v>
       </c>
       <c r="AL10">
-        <v>3.5339105627959899</v>
+        <v>1.1061354508624499</v>
       </c>
       <c r="AM10">
-        <v>3.8615133235522499</v>
+        <v>1.1864691080334</v>
       </c>
       <c r="AN10">
-        <v>4.2176824420941701</v>
+        <v>1.2725867026215001</v>
       </c>
       <c r="AO10">
-        <v>4.6058507577329904</v>
+        <v>1.3651684485265001</v>
       </c>
       <c r="AP10">
-        <v>5.0052272902435204</v>
+        <v>1.4571223196343099</v>
       </c>
       <c r="AQ10">
-        <v>5.3636984217935</v>
+        <v>1.52739678826904</v>
       </c>
       <c r="AR10">
-        <v>5.6501692300249999</v>
+        <v>1.5678218141531</v>
       </c>
       <c r="AS10">
-        <v>5.8252052621130002</v>
+        <v>1.57009553304347</v>
       </c>
       <c r="AT10">
-        <v>3.88314</v>
+        <v>6.1519400000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
-        <v>32501.3</v>
+        <v>31788.2</v>
       </c>
       <c r="C11">
-        <v>33465.1481200001</v>
+        <v>33273.975649999898</v>
       </c>
       <c r="D11">
-        <v>33703.679109999801</v>
+        <v>33832.052819999903</v>
       </c>
       <c r="E11">
-        <v>33964.322089999703</v>
+        <v>34285.539709999903</v>
       </c>
       <c r="F11">
-        <v>34281.214260000001</v>
+        <v>34713.579149999801</v>
       </c>
       <c r="G11">
-        <v>34672.539619999799</v>
+        <v>35147.298749999798</v>
       </c>
       <c r="H11">
-        <v>35170.480369999903</v>
+        <v>35639.943539999898</v>
       </c>
       <c r="I11">
-        <v>35764.6210600001</v>
+        <v>36197.792319999899</v>
       </c>
       <c r="J11">
-        <v>36483.0712200001</v>
+        <v>36861.547219999899</v>
       </c>
       <c r="K11">
-        <v>37307.422539999898</v>
+        <v>37615.976280000097</v>
       </c>
       <c r="L11">
-        <v>38211.115310000001</v>
+        <v>38419.901850000002</v>
       </c>
       <c r="M11">
-        <v>39241.674669999797</v>
+        <v>39325.206749999801</v>
       </c>
       <c r="N11">
-        <v>40371.736210000003</v>
+        <v>40311.743349999997</v>
       </c>
       <c r="O11">
-        <v>41588.179470000097</v>
+        <v>41371.492749999801</v>
       </c>
       <c r="P11">
-        <v>42902.838329999897</v>
+        <v>42516.76915</v>
       </c>
       <c r="Q11">
-        <v>44289.581530000098</v>
+        <v>43703.846290000103</v>
       </c>
       <c r="R11">
-        <v>45856.626689999801</v>
+        <v>45058.070109999899</v>
       </c>
       <c r="S11">
-        <v>47475.0738000001</v>
+        <v>46467.281169999696</v>
       </c>
       <c r="T11">
-        <v>49230.783380000001</v>
+        <v>48015.078389999799</v>
       </c>
       <c r="U11">
-        <v>51064.381990000198</v>
+        <v>49651.550279999901</v>
       </c>
       <c r="V11">
-        <v>52948.1435099999</v>
+        <v>51317.32849</v>
       </c>
       <c r="W11">
-        <v>54944.467250000103</v>
+        <v>53049.887519999902</v>
       </c>
       <c r="X11">
-        <v>57022.0943799999</v>
+        <v>54859.017049999798</v>
       </c>
       <c r="Y11">
-        <v>59197.398669999799</v>
+        <v>56757.345049999902</v>
       </c>
       <c r="Z11">
-        <v>61469.9793299999</v>
+        <v>58749.451990000001</v>
       </c>
       <c r="AA11">
-        <v>63778.210010000003</v>
+        <v>60742.141300000003</v>
       </c>
       <c r="AB11">
-        <v>66234.023499999807</v>
+        <v>62835.842109999903</v>
       </c>
       <c r="AC11">
-        <v>68779.954749999393</v>
+        <v>65001.909239999797</v>
       </c>
       <c r="AD11">
-        <v>71420.568810000404</v>
+        <v>67252.238039999895</v>
       </c>
       <c r="AE11">
-        <v>74196.056850000197</v>
+        <v>69638.026569999798</v>
       </c>
       <c r="AF11">
-        <v>77096.390600000101</v>
+        <v>72139.985330000301</v>
       </c>
       <c r="AG11">
-        <v>80130.324440000404</v>
+        <v>74764.580769999797</v>
       </c>
       <c r="AH11">
-        <v>83299.261389999796</v>
+        <v>77506.647229999799</v>
       </c>
       <c r="AI11">
-        <v>86613.388480000198</v>
+        <v>80373.338930000202</v>
       </c>
       <c r="AJ11">
-        <v>90099.574360000101</v>
+        <v>83395.400279999696</v>
       </c>
       <c r="AK11">
-        <v>93690.549289999995</v>
+        <v>86492.567659999695</v>
       </c>
       <c r="AL11">
-        <v>97364.178759999995</v>
+        <v>89612.406770000496</v>
       </c>
       <c r="AM11">
-        <v>101058.534519999</v>
+        <v>92695.874819999794</v>
       </c>
       <c r="AN11">
-        <v>104784.86559</v>
+        <v>95760.398830000093</v>
       </c>
       <c r="AO11">
-        <v>108515.28501000001</v>
+        <v>98788.870710000105</v>
       </c>
       <c r="AP11">
-        <v>112186.62210999901</v>
+        <v>101706.51887</v>
       </c>
       <c r="AQ11">
-        <v>115965.81202</v>
+        <v>104735.55284999999</v>
       </c>
       <c r="AR11">
-        <v>119798.03204999999</v>
+        <v>107847.705259999</v>
       </c>
       <c r="AS11">
-        <v>123701.884949999</v>
+        <v>111019.584999999</v>
       </c>
       <c r="AT11">
-        <v>110492</v>
+        <v>99196.3</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
-        <v>32501.3</v>
+        <v>31788.2</v>
       </c>
       <c r="C12">
-        <v>33483.925849999898</v>
+        <v>33296.9401699999</v>
       </c>
       <c r="D12">
-        <v>33727.7487900001</v>
+        <v>33859.711450000097</v>
       </c>
       <c r="E12">
-        <v>34008.014580000003</v>
+        <v>34332.8028399998</v>
       </c>
       <c r="F12">
-        <v>34347.116399999897</v>
+        <v>34781.063410000097</v>
       </c>
       <c r="G12">
-        <v>34747.24598</v>
+        <v>35218.095519999901</v>
       </c>
       <c r="H12">
-        <v>35228.294939999898</v>
+        <v>35677.931239999903</v>
       </c>
       <c r="I12">
-        <v>35784.708989999897</v>
+        <v>36179.947549999903</v>
       </c>
       <c r="J12">
-        <v>36446.965570000197</v>
+        <v>36764.846460000001</v>
       </c>
       <c r="K12">
-        <v>37171.263430000297</v>
+        <v>37392.405749999998</v>
       </c>
       <c r="L12">
-        <v>37979.006499999799</v>
+        <v>38079.018589999701</v>
       </c>
       <c r="M12">
-        <v>38886.932999999997</v>
+        <v>38842.787580000098</v>
       </c>
       <c r="N12">
-        <v>39869.051960000099</v>
+        <v>39669.385199999801</v>
       </c>
       <c r="O12">
-        <v>40928.699350000097</v>
+        <v>40558.478789999899</v>
       </c>
       <c r="P12">
-        <v>42086.783499999903</v>
+        <v>41542.650599999797</v>
       </c>
       <c r="Q12">
-        <v>43295.641549999898</v>
+        <v>42551.415030000098</v>
       </c>
       <c r="R12">
-        <v>44614.289940000002</v>
+        <v>43652.626029999898</v>
       </c>
       <c r="S12">
-        <v>45970.2218400001</v>
+        <v>44782.585330000002</v>
       </c>
       <c r="T12">
-        <v>47395.848079999902</v>
+        <v>45989.501179999897</v>
       </c>
       <c r="U12">
-        <v>48830.848919999902</v>
+        <v>47204.552289999898</v>
       </c>
       <c r="V12">
-        <v>50269.93866</v>
+        <v>48403.538829999998</v>
       </c>
       <c r="W12">
-        <v>51769.7853399999</v>
+        <v>49636.697670000103</v>
       </c>
       <c r="X12">
-        <v>53285.816709999897</v>
+        <v>50880.7753300002</v>
       </c>
       <c r="Y12">
-        <v>54861.283820000099</v>
+        <v>52192.498109999797</v>
       </c>
       <c r="Z12">
-        <v>56504.756039999898</v>
+        <v>53588.700509999901</v>
       </c>
       <c r="AA12">
-        <v>58111.158519999699</v>
+        <v>54918.087870000003</v>
       </c>
       <c r="AB12">
-        <v>59798.845629999902</v>
+        <v>56284.717040000003</v>
       </c>
       <c r="AC12">
-        <v>61528.054280000099</v>
+        <v>57686.5377099998</v>
       </c>
       <c r="AD12">
-        <v>63281.922630000103</v>
+        <v>59112.307339999898</v>
       </c>
       <c r="AE12">
-        <v>65114.978609999896</v>
+        <v>60629.577799999803</v>
       </c>
       <c r="AF12">
-        <v>67036.954849999704</v>
+        <v>62243.805529999998</v>
       </c>
       <c r="AG12">
-        <v>69021.417849999794</v>
+        <v>63917.829769999902</v>
       </c>
       <c r="AH12">
-        <v>71104.9519</v>
+        <v>65678.790670000002</v>
       </c>
       <c r="AI12">
-        <v>73285.526779999505</v>
+        <v>67537.051770000093</v>
       </c>
       <c r="AJ12">
-        <v>75554.020309999905</v>
+        <v>69465.449410000001</v>
       </c>
       <c r="AK12">
-        <v>77888.186409999893</v>
+        <v>71431.279250000094</v>
       </c>
       <c r="AL12">
-        <v>80240.1384500001</v>
+        <v>73376.675840000098</v>
       </c>
       <c r="AM12">
-        <v>82581.205720000406</v>
+        <v>75269.804399999804</v>
       </c>
       <c r="AN12">
-        <v>84908.4114299996</v>
+        <v>77109.660719999898</v>
       </c>
       <c r="AO12">
-        <v>87221.007570000002</v>
+        <v>78909.837289999894</v>
       </c>
       <c r="AP12">
-        <v>89477.389120000094</v>
+        <v>80629.883409999806</v>
       </c>
       <c r="AQ12">
-        <v>91772.668730000005</v>
+        <v>82398.433469999305</v>
       </c>
       <c r="AR12">
-        <v>94076.203979999904</v>
+        <v>84188.652059999906</v>
       </c>
       <c r="AS12">
-        <v>96448.992110000196</v>
+        <v>86067.512110000098</v>
       </c>
       <c r="AT12">
-        <v>105953</v>
+        <v>92991.5</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
-        <v>32501.3</v>
+        <v>31788.2</v>
       </c>
       <c r="C13">
-        <v>33437.156940000001</v>
+        <v>33243.341390000001</v>
       </c>
       <c r="D13">
-        <v>33591.904430000002</v>
+        <v>33693.764749999798</v>
       </c>
       <c r="E13">
-        <v>33718.385299999798</v>
+        <v>33977.521590000099</v>
       </c>
       <c r="F13">
-        <v>33838.308140000103</v>
+        <v>34166.287679999899</v>
       </c>
       <c r="G13">
-        <v>33943.005569999899</v>
+        <v>34258.369089999796</v>
       </c>
       <c r="H13">
-        <v>34095.319289999898</v>
+        <v>34345.453799999799</v>
       </c>
       <c r="I13">
-        <v>34308.628519999897</v>
+        <v>34479.711809999601</v>
       </c>
       <c r="J13">
-        <v>34534.8119299998</v>
+        <v>34608.559670000002</v>
       </c>
       <c r="K13">
-        <v>34772.689230000098</v>
+        <v>34730.652939999803</v>
       </c>
       <c r="L13">
-        <v>35025.544219999902</v>
+        <v>34847.911539999797</v>
       </c>
       <c r="M13">
-        <v>35321.795639999596</v>
+        <v>34994.087009999799</v>
       </c>
       <c r="N13">
-        <v>35651.004500000003</v>
+        <v>35174.0046199996</v>
       </c>
       <c r="O13">
-        <v>36019.613080000097</v>
+        <v>35397.379170000102</v>
       </c>
       <c r="P13">
-        <v>36429.461920000103</v>
+        <v>35669.396969999798</v>
       </c>
       <c r="Q13">
-        <v>36866.283710000003</v>
+        <v>35958.332399999803</v>
       </c>
       <c r="R13">
-        <v>37336.9562300002</v>
+        <v>36266.2565000002</v>
       </c>
       <c r="S13">
-        <v>37786.34244</v>
+        <v>36542.984240000202</v>
       </c>
       <c r="T13">
-        <v>38233.76629</v>
+        <v>36829.5968400001</v>
       </c>
       <c r="U13">
-        <v>38665.6132599997</v>
+        <v>37114.9359199998</v>
       </c>
       <c r="V13">
-        <v>39009.170140000097</v>
+        <v>37292.089119999902</v>
       </c>
       <c r="W13">
-        <v>39354.3065299999</v>
+        <v>37460.564079999996</v>
       </c>
       <c r="X13">
-        <v>39694.165629999901</v>
+        <v>37636.058499999999</v>
       </c>
       <c r="Y13">
-        <v>40013.930899999999</v>
+        <v>37808.2620900002</v>
       </c>
       <c r="Z13">
-        <v>40350.159589999901</v>
+        <v>38022.505390000202</v>
       </c>
       <c r="AA13">
-        <v>40615.056919999697</v>
+        <v>38152.73388</v>
       </c>
       <c r="AB13">
-        <v>40918.518920000002</v>
+        <v>38306.9514099999</v>
       </c>
       <c r="AC13">
-        <v>41227.1936099999</v>
+        <v>38483.807860000001</v>
       </c>
       <c r="AD13">
-        <v>41534.685949999897</v>
+        <v>38669.428429999898</v>
       </c>
       <c r="AE13">
-        <v>41818.117579999896</v>
+        <v>38838.1835600001</v>
       </c>
       <c r="AF13">
-        <v>42147.760719999998</v>
+        <v>39061.558150000099</v>
       </c>
       <c r="AG13">
-        <v>42449.362419999998</v>
+        <v>39266.074069999901</v>
       </c>
       <c r="AH13">
-        <v>42756.289489999799</v>
+        <v>39468.999229999899</v>
       </c>
       <c r="AI13">
-        <v>43078.9476</v>
+        <v>39693.534099999997</v>
       </c>
       <c r="AJ13">
-        <v>43405.217279999997</v>
+        <v>39929.057040000102</v>
       </c>
       <c r="AK13">
-        <v>43746.244039999998</v>
+        <v>40178.3799099998</v>
       </c>
       <c r="AL13">
-        <v>44115.740680000097</v>
+        <v>40457.113120000002</v>
       </c>
       <c r="AM13">
-        <v>44479.546719999998</v>
+        <v>40734.884819999701</v>
       </c>
       <c r="AN13">
-        <v>44854.748140000003</v>
+        <v>41013.965619999901</v>
       </c>
       <c r="AO13">
-        <v>45253.00419</v>
+        <v>41317.463689999997</v>
       </c>
       <c r="AP13">
-        <v>45652.457480000099</v>
+        <v>41618.414599999996</v>
       </c>
       <c r="AQ13">
-        <v>46052.3010499999</v>
+        <v>41914.609549999797</v>
       </c>
       <c r="AR13">
-        <v>46476.418880000099</v>
+        <v>42240.765550000098</v>
       </c>
       <c r="AS13">
-        <v>46894.814290000002</v>
+        <v>42555.087169999897</v>
       </c>
       <c r="AT13">
-        <v>44582.9</v>
+        <v>40213.1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>32501.3</v>
+        <v>31788.2</v>
       </c>
       <c r="C14">
-        <v>33430.433629999898</v>
+        <v>33231.805670000002</v>
       </c>
       <c r="D14">
-        <v>33575.261610000001</v>
+        <v>33668.294830000101</v>
       </c>
       <c r="E14">
-        <v>33709.150240000097</v>
+        <v>33956.727610000104</v>
       </c>
       <c r="F14">
-        <v>33842.5792</v>
+        <v>34153.417950000003</v>
       </c>
       <c r="G14">
-        <v>33938.950379999798</v>
+        <v>34237.576140000099</v>
       </c>
       <c r="H14">
-        <v>33934.477079999902</v>
+        <v>34125.252300000102</v>
       </c>
       <c r="I14">
-        <v>33809.9316799999</v>
+        <v>33830.185009999899</v>
       </c>
       <c r="J14">
-        <v>33555.566630000001</v>
+        <v>33348.667880000103</v>
       </c>
       <c r="K14">
-        <v>33172.079450000099</v>
+        <v>32717.679669999801</v>
       </c>
       <c r="L14">
-        <v>32704.563190000001</v>
+        <v>31999.871269999901</v>
       </c>
       <c r="M14">
-        <v>32264.109349999901</v>
+        <v>31349.596199999902</v>
       </c>
       <c r="N14">
-        <v>31839.372490000002</v>
+        <v>30767.66661</v>
       </c>
       <c r="O14">
-        <v>31453.438959999901</v>
+        <v>30267.276060000098</v>
       </c>
       <c r="P14">
-        <v>31141.099119999999</v>
+        <v>29886.9174649999</v>
       </c>
       <c r="Q14">
-        <v>30850.177769999998</v>
+        <v>29535.154809</v>
       </c>
       <c r="R14">
-        <v>30616.506509999999</v>
+        <v>29248.746998999901</v>
       </c>
       <c r="S14">
-        <v>30411.106010999902</v>
+        <v>28999.749222999999</v>
       </c>
       <c r="T14">
-        <v>30241.6527299999</v>
+        <v>28805.288123999901</v>
       </c>
       <c r="U14">
-        <v>30121.773177999999</v>
+        <v>28679.588741</v>
       </c>
       <c r="V14">
-        <v>29989.384405999899</v>
+        <v>28540.619462999901</v>
       </c>
       <c r="W14">
-        <v>29935.259139000002</v>
+        <v>28475.567795999901</v>
       </c>
       <c r="X14">
-        <v>29927.6971879999</v>
+        <v>28466.2669459998</v>
       </c>
       <c r="Y14">
-        <v>29972.60297</v>
+        <v>28516.992076999901</v>
       </c>
       <c r="Z14">
-        <v>30073.9659510001</v>
+        <v>28626.179445999998</v>
       </c>
       <c r="AA14">
-        <v>30199.4072989999</v>
+        <v>28747.336773999799</v>
       </c>
       <c r="AB14">
-        <v>30356.334087999901</v>
+        <v>28874.894494999899</v>
       </c>
       <c r="AC14">
-        <v>30573.198225000098</v>
+        <v>29050.996112999899</v>
       </c>
       <c r="AD14">
-        <v>30823.258403999898</v>
+        <v>29266.069883999899</v>
       </c>
       <c r="AE14">
-        <v>31064.661923999902</v>
+        <v>29454.3377799999</v>
       </c>
       <c r="AF14">
-        <v>31317.155185</v>
+        <v>29638.164892999899</v>
       </c>
       <c r="AG14">
-        <v>31601.861522999901</v>
+        <v>29856.847682</v>
       </c>
       <c r="AH14">
-        <v>31912.035015000001</v>
+        <v>30101.151176999902</v>
       </c>
       <c r="AI14">
-        <v>32235.641952999998</v>
+        <v>30351.537827</v>
       </c>
       <c r="AJ14">
-        <v>32579.1629339998</v>
+        <v>30616.705635999901</v>
       </c>
       <c r="AK14">
-        <v>32963.896438000003</v>
+        <v>30924.1343759999</v>
       </c>
       <c r="AL14">
-        <v>33361.944526999803</v>
+        <v>31236.108901999902</v>
       </c>
       <c r="AM14">
-        <v>33806.377549000099</v>
+        <v>31597.089482999902</v>
       </c>
       <c r="AN14">
-        <v>34293.02766</v>
+        <v>31994.082540999902</v>
       </c>
       <c r="AO14">
-        <v>34792.475557999998</v>
+        <v>32400.6455079999</v>
       </c>
       <c r="AP14">
-        <v>35483.088706999901</v>
+        <v>33008.184269999598</v>
       </c>
       <c r="AQ14">
-        <v>36665.298183999701</v>
+        <v>34230.789740000102</v>
       </c>
       <c r="AR14">
-        <v>38570.825076000103</v>
+        <v>36334.874521000202</v>
       </c>
       <c r="AS14">
-        <v>41467.889643999901</v>
+        <v>39582.177015999798</v>
       </c>
       <c r="AT14">
-        <v>38422.300000000003</v>
+        <v>36007</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15">
-        <v>9113.3700000000008</v>
+        <v>8913.4</v>
       </c>
       <c r="C15">
-        <v>9385.9567939999706</v>
+        <v>9332.3391220000103</v>
       </c>
       <c r="D15">
-        <v>9456.0171289999798</v>
+        <v>9492.0347889999994</v>
       </c>
       <c r="E15">
-        <v>9533.1491610000194</v>
+        <v>9623.3096189999906</v>
       </c>
       <c r="F15">
-        <v>9626.9669549999307</v>
+        <v>9748.3861419999794</v>
       </c>
       <c r="G15">
-        <v>9741.8461980000193</v>
+        <v>9875.2388690000098</v>
       </c>
       <c r="H15">
-        <v>9885.5465260000492</v>
+        <v>10017.501829000001</v>
       </c>
       <c r="I15">
-        <v>10055.118043</v>
+        <v>10176.903965</v>
       </c>
       <c r="J15">
-        <v>10258.420961</v>
+        <v>10364.843359999901</v>
       </c>
       <c r="K15">
-        <v>10490.214391</v>
+        <v>10576.976701</v>
       </c>
       <c r="L15">
-        <v>10742.547441000001</v>
+        <v>10801.246665000001</v>
       </c>
       <c r="M15">
-        <v>11027.964227</v>
+        <v>11051.4418579999</v>
       </c>
       <c r="N15">
-        <v>11338.5463589999</v>
+        <v>11321.700112999901</v>
       </c>
       <c r="O15">
-        <v>11670.347750999999</v>
+        <v>11609.545232999901</v>
       </c>
       <c r="P15">
-        <v>12026.4011399999</v>
+        <v>11918.183483000001</v>
       </c>
       <c r="Q15">
-        <v>12398.9402729999</v>
+        <v>12234.9679769999</v>
       </c>
       <c r="R15">
-        <v>12817.6671799999</v>
+        <v>12594.462960999999</v>
       </c>
       <c r="S15">
-        <v>13246.066384</v>
+        <v>12964.887247000001</v>
       </c>
       <c r="T15">
-        <v>13707.646771</v>
+        <v>13369.155806999999</v>
       </c>
       <c r="U15">
-        <v>14185.335514999801</v>
+        <v>13792.867891</v>
       </c>
       <c r="V15">
-        <v>14670.528274999901</v>
+        <v>14218.6815249999</v>
       </c>
       <c r="W15">
-        <v>15179.236972000001</v>
+        <v>14655.8403099999</v>
       </c>
       <c r="X15">
-        <v>15702.09158</v>
+        <v>15106.459389</v>
       </c>
       <c r="Y15">
-        <v>16242.8709429999</v>
+        <v>15573.3686159999</v>
       </c>
       <c r="Z15">
-        <v>16800.665767999901</v>
+        <v>16057.11664</v>
       </c>
       <c r="AA15">
-        <v>17357.6614789999</v>
+        <v>16531.385991999901</v>
       </c>
       <c r="AB15">
-        <v>17943.1600910001</v>
+        <v>17022.586218999899</v>
       </c>
       <c r="AC15">
-        <v>18540.5267529999</v>
+        <v>17522.117780999899</v>
       </c>
       <c r="AD15">
-        <v>19150.025038999898</v>
+        <v>18032.380711000002</v>
       </c>
       <c r="AE15">
-        <v>19781.359952999901</v>
+        <v>18566.158450999901</v>
       </c>
       <c r="AF15">
-        <v>20431.289111999798</v>
+        <v>19117.806236</v>
       </c>
       <c r="AG15">
-        <v>21102.066726999899</v>
+        <v>19689.027404999899</v>
       </c>
       <c r="AH15">
-        <v>21792.924846000002</v>
+        <v>20277.4623389999</v>
       </c>
       <c r="AI15">
-        <v>22505.3429289999</v>
+        <v>20883.962702000001</v>
       </c>
       <c r="AJ15">
-        <v>23244.996991999898</v>
+        <v>21515.385244000001</v>
       </c>
       <c r="AK15">
-        <v>23993.889482999901</v>
+        <v>22150.522912</v>
       </c>
       <c r="AL15">
-        <v>24746.531729999999</v>
+        <v>22776.321741</v>
       </c>
       <c r="AM15">
-        <v>25486.516580000101</v>
+        <v>23377.508212000001</v>
       </c>
       <c r="AN15">
-        <v>26216.245020999901</v>
+        <v>23958.4220830001</v>
       </c>
       <c r="AO15">
-        <v>26928.329326999901</v>
+        <v>24514.713536999901</v>
       </c>
       <c r="AP15">
-        <v>27607.681924</v>
+        <v>25028.682512999902</v>
       </c>
       <c r="AQ15">
-        <v>28296.4963149998</v>
+        <v>25556.251799000001</v>
       </c>
       <c r="AR15">
-        <v>28980.749170999799</v>
+        <v>26089.825477999901</v>
       </c>
       <c r="AS15">
-        <v>29664.488769</v>
+        <v>26623.216077999801</v>
       </c>
       <c r="AT15">
-        <v>26262.400000000001</v>
+        <v>23577.599999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>9113.3700000000008</v>
+        <v>8913.4</v>
       </c>
       <c r="C16">
-        <v>9389.6487870000201</v>
+        <v>9337.2134539999897</v>
       </c>
       <c r="D16">
-        <v>9458.4429710000004</v>
+        <v>9495.4500480001007</v>
       </c>
       <c r="E16">
-        <v>9537.1216640000293</v>
+        <v>9628.2030620000096</v>
       </c>
       <c r="F16">
-        <v>9631.9530239999895</v>
+        <v>9753.6441820000091</v>
       </c>
       <c r="G16">
-        <v>9743.0013580000305</v>
+        <v>9875.0255310000102</v>
       </c>
       <c r="H16">
-        <v>9874.8928260000193</v>
+        <v>10000.9311549999</v>
       </c>
       <c r="I16">
-        <v>10025.978805999899</v>
+        <v>10136.713754</v>
       </c>
       <c r="J16">
-        <v>10204.675241999899</v>
+        <v>10293.677716</v>
       </c>
       <c r="K16">
-        <v>10398.573296999901</v>
+        <v>10460.4378759999</v>
       </c>
       <c r="L16">
-        <v>10613.176577</v>
+        <v>10641.125452</v>
       </c>
       <c r="M16">
-        <v>10852.3872029999</v>
+        <v>10840.067514</v>
       </c>
       <c r="N16">
-        <v>11108.660352999899</v>
+        <v>11053.028399999899</v>
       </c>
       <c r="O16">
-        <v>11382.623928000001</v>
+        <v>11279.663234</v>
       </c>
       <c r="P16">
-        <v>11679.7430039999</v>
+        <v>11528.737482999901</v>
       </c>
       <c r="Q16">
-        <v>11986.366878999999</v>
+        <v>11780.3294419999</v>
       </c>
       <c r="R16">
-        <v>12318.371825</v>
+        <v>12052.8488869999</v>
       </c>
       <c r="S16">
-        <v>12655.284229999899</v>
+        <v>12328.336163</v>
       </c>
       <c r="T16">
-        <v>13005.6374059999</v>
+        <v>12619.7286729999</v>
       </c>
       <c r="U16">
-        <v>13352.472820000001</v>
+        <v>12907.771291999899</v>
       </c>
       <c r="V16">
-        <v>13693.894955</v>
+        <v>13185.471181999899</v>
       </c>
       <c r="W16">
-        <v>14044.7199279999</v>
+        <v>13466.029789</v>
       </c>
       <c r="X16">
-        <v>14392.408549</v>
+        <v>13742.809208999901</v>
       </c>
       <c r="Y16">
-        <v>14748.228908999899</v>
+        <v>14030.785167</v>
       </c>
       <c r="Z16">
-        <v>15113.947934</v>
+        <v>14333.957691</v>
       </c>
       <c r="AA16">
-        <v>15460.751743999899</v>
+        <v>14611.218014</v>
       </c>
       <c r="AB16">
-        <v>15819.3258429999</v>
+        <v>14889.690614999899</v>
       </c>
       <c r="AC16">
-        <v>16178.511688999901</v>
+        <v>15168.403209</v>
       </c>
       <c r="AD16">
-        <v>16533.365914999998</v>
+        <v>15443.990427999999</v>
       </c>
       <c r="AE16">
-        <v>16897.587765999899</v>
+        <v>15733.610044999999</v>
       </c>
       <c r="AF16">
-        <v>17272.901392</v>
+        <v>16037.8893019999</v>
       </c>
       <c r="AG16">
-        <v>17651.6593289999</v>
+        <v>16346.4600339999</v>
       </c>
       <c r="AH16">
-        <v>18042.447890999902</v>
+        <v>16665.594542999999</v>
       </c>
       <c r="AI16">
-        <v>18443.831856999899</v>
+        <v>16997.1091329999</v>
       </c>
       <c r="AJ16">
-        <v>18852.595978000001</v>
+        <v>17333.3472800001</v>
       </c>
       <c r="AK16">
-        <v>19262.646401000002</v>
+        <v>17665.7800849999</v>
       </c>
       <c r="AL16">
-        <v>19662.031892999901</v>
+        <v>17980.211825999901</v>
       </c>
       <c r="AM16">
-        <v>20043.422473999999</v>
+        <v>18268.863026999901</v>
       </c>
       <c r="AN16">
-        <v>20405.953823</v>
+        <v>18531.689719999998</v>
       </c>
       <c r="AO16">
-        <v>20749.343104</v>
+        <v>18772.1673879999</v>
       </c>
       <c r="AP16">
-        <v>21064.230479999998</v>
+        <v>18981.405827999901</v>
       </c>
       <c r="AQ16">
-        <v>21373.916431000001</v>
+        <v>19190.651777999901</v>
       </c>
       <c r="AR16">
-        <v>21670.969192999899</v>
+        <v>19393.319379999899</v>
       </c>
       <c r="AS16">
-        <v>21969.160174000099</v>
+        <v>19604.467542999901</v>
       </c>
       <c r="AT16">
-        <v>23858</v>
+        <v>20939.5</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>9113.3700000000008</v>
+        <v>8913.4</v>
       </c>
       <c r="C17">
-        <v>9378.1672600000093</v>
+        <v>9323.8077790000607</v>
       </c>
       <c r="D17">
-        <v>9424.8932250000107</v>
+        <v>9453.4724569999998</v>
       </c>
       <c r="E17">
-        <v>9464.6451689999994</v>
+        <v>9537.3842369999893</v>
       </c>
       <c r="F17">
-        <v>9503.5198269999892</v>
+        <v>9595.6341569999495</v>
       </c>
       <c r="G17">
-        <v>9538.5390119999993</v>
+        <v>9627.1633979999897</v>
       </c>
       <c r="H17">
-        <v>9586.4481730000007</v>
+        <v>9656.7810350000309</v>
       </c>
       <c r="I17">
-        <v>9651.0261720000108</v>
+        <v>9699.1548239999902</v>
       </c>
       <c r="J17">
-        <v>9718.7423069999495</v>
+        <v>9739.49909199996</v>
       </c>
       <c r="K17">
-        <v>9789.2570390000001</v>
+        <v>9777.4263299999602</v>
       </c>
       <c r="L17">
-        <v>9863.0366160000194</v>
+        <v>9813.0201939999897</v>
       </c>
       <c r="M17">
-        <v>9947.3078529999893</v>
+        <v>9855.0223340000193</v>
       </c>
       <c r="N17">
-        <v>10039.08828</v>
+        <v>9904.7722839999897</v>
       </c>
       <c r="O17">
-        <v>10140.1399689999</v>
+        <v>9964.9746199999809</v>
       </c>
       <c r="P17">
-        <v>10250.918610000001</v>
+        <v>10037.047186</v>
       </c>
       <c r="Q17">
-        <v>10366.7598339999</v>
+        <v>10111.449474999899</v>
       </c>
       <c r="R17">
-        <v>10488.531976999901</v>
+        <v>10187.7591009999</v>
       </c>
       <c r="S17">
-        <v>10600.61493</v>
+        <v>10251.8060089999</v>
       </c>
       <c r="T17">
-        <v>10708.339123</v>
+        <v>10315.0689479999</v>
       </c>
       <c r="U17">
-        <v>10807.7940649999</v>
+        <v>10374.353929000001</v>
       </c>
       <c r="V17">
-        <v>10878.388268999901</v>
+        <v>10399.556054000001</v>
       </c>
       <c r="W17">
-        <v>10944.807708999901</v>
+        <v>10418.144945</v>
       </c>
       <c r="X17">
-        <v>11005.069884</v>
+        <v>10434.471135</v>
       </c>
       <c r="Y17">
-        <v>11055.0257959999</v>
+        <v>10445.6501509999</v>
       </c>
       <c r="Z17">
-        <v>11104.742716999899</v>
+        <v>10464.154784</v>
       </c>
       <c r="AA17">
-        <v>11130.276403</v>
+        <v>10455.4985389999</v>
       </c>
       <c r="AB17">
-        <v>11162.2053219999</v>
+        <v>10449.799982</v>
       </c>
       <c r="AC17">
-        <v>11191.307987</v>
+        <v>10446.6099869999</v>
       </c>
       <c r="AD17">
-        <v>11215.807753999899</v>
+        <v>10442.096436</v>
       </c>
       <c r="AE17">
-        <v>11229.5476169999</v>
+        <v>10429.345545</v>
       </c>
       <c r="AF17">
-        <v>11251.937053</v>
+        <v>10428.040972999999</v>
       </c>
       <c r="AG17">
-        <v>11263.962045</v>
+        <v>10419.282225999999</v>
       </c>
       <c r="AH17">
-        <v>11274.552186000001</v>
+        <v>10407.7229419999</v>
       </c>
       <c r="AI17">
-        <v>11286.409522</v>
+        <v>10399.460806999899</v>
       </c>
       <c r="AJ17">
-        <v>11296.2993619999</v>
+        <v>10391.629632</v>
       </c>
       <c r="AK17">
-        <v>11307.62147</v>
+        <v>10385.400513000001</v>
       </c>
       <c r="AL17">
-        <v>11324.713079999899</v>
+        <v>10385.535543</v>
       </c>
       <c r="AM17">
-        <v>11338.7227699999</v>
+        <v>10384.1422249999</v>
       </c>
       <c r="AN17">
-        <v>11354.009644</v>
+        <v>10381.806747999901</v>
       </c>
       <c r="AO17">
-        <v>11373.450443</v>
+        <v>10384.337915</v>
       </c>
       <c r="AP17">
-        <v>11391.960507</v>
+        <v>10385.327345</v>
       </c>
       <c r="AQ17">
-        <v>11410.158237</v>
+        <v>10384.991104000001</v>
       </c>
       <c r="AR17">
-        <v>11433.931839999999</v>
+        <v>10391.902661</v>
       </c>
       <c r="AS17">
-        <v>11455.8386139999</v>
+        <v>10395.703675999999</v>
       </c>
       <c r="AT17">
-        <v>10815</v>
+        <v>9754.9599999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>9113.3700000000008</v>
+        <v>8913.4</v>
       </c>
       <c r="C18">
-        <v>9374.4411590000309</v>
+        <v>9318.7432659999504</v>
       </c>
       <c r="D18">
-        <v>9415.1147609999807</v>
+        <v>9441.2036069999394</v>
       </c>
       <c r="E18">
-        <v>9452.2295180000292</v>
+        <v>9521.6520460000593</v>
       </c>
       <c r="F18">
-        <v>9488.7183420000092</v>
+        <v>9575.8711740000399</v>
       </c>
       <c r="G18">
-        <v>9513.7949719999797</v>
+        <v>9597.5067910000398</v>
       </c>
       <c r="H18">
-        <v>9508.7152310000201</v>
+        <v>9562.1729079999895</v>
       </c>
       <c r="I18">
-        <v>9468.1309669999991</v>
+        <v>9473.8038889999898</v>
       </c>
       <c r="J18">
-        <v>9389.4012139999904</v>
+        <v>9331.5071869999701</v>
       </c>
       <c r="K18">
-        <v>9272.8525539999901</v>
+        <v>9145.8293450000001</v>
       </c>
       <c r="L18">
-        <v>9130.8677859999898</v>
+        <v>8934.1212220000198</v>
       </c>
       <c r="M18">
-        <v>8993.9760099999694</v>
+        <v>8739.0436019999706</v>
       </c>
       <c r="N18">
-        <v>8859.1122660000201</v>
+        <v>8560.9145510000308</v>
       </c>
       <c r="O18">
-        <v>8732.7852159999693</v>
+        <v>8403.4552529999401</v>
       </c>
       <c r="P18">
-        <v>8624.6760639999993</v>
+        <v>8277.3233440000295</v>
       </c>
       <c r="Q18">
-        <v>8520.2073139999793</v>
+        <v>8157.0234309999596</v>
       </c>
       <c r="R18">
-        <v>8429.1041580000092</v>
+        <v>8052.5420519999898</v>
       </c>
       <c r="S18">
-        <v>8343.3575649999893</v>
+        <v>7956.1482219999798</v>
       </c>
       <c r="T18">
-        <v>8265.0719220000501</v>
+        <v>7872.5121230000004</v>
       </c>
       <c r="U18">
-        <v>8197.9216370000504</v>
+        <v>7805.4166409999898</v>
       </c>
       <c r="V18">
-        <v>8124.8543050000198</v>
+        <v>7732.3473259999901</v>
       </c>
       <c r="W18">
-        <v>8070.2527209999598</v>
+        <v>7676.73345899999</v>
       </c>
       <c r="X18">
-        <v>8025.3646019999796</v>
+        <v>7633.4686310000197</v>
       </c>
       <c r="Y18">
-        <v>7991.6155409999901</v>
+        <v>7603.5037050000101</v>
       </c>
       <c r="Z18">
-        <v>7969.8596960000104</v>
+        <v>7586.1829630000202</v>
       </c>
       <c r="AA18">
-        <v>7951.2288149999904</v>
+        <v>7568.9113009999901</v>
       </c>
       <c r="AB18">
-        <v>7937.401253</v>
+        <v>7550.0419879999899</v>
       </c>
       <c r="AC18">
-        <v>7935.6100619999997</v>
+        <v>7540.5047449999802</v>
       </c>
       <c r="AD18">
-        <v>7938.6321040000103</v>
+        <v>7537.5722839999999</v>
       </c>
       <c r="AE18">
-        <v>7935.58045699999</v>
+        <v>7524.2161019999803</v>
       </c>
       <c r="AF18">
-        <v>7931.5931719999699</v>
+        <v>7506.3597519999903</v>
       </c>
       <c r="AG18">
-        <v>7932.0328499999996</v>
+        <v>7494.0344449999802</v>
       </c>
       <c r="AH18">
-        <v>7935.0134630000102</v>
+        <v>7484.7304379999896</v>
       </c>
       <c r="AI18">
-        <v>7937.4029310000296</v>
+        <v>7473.4763739999999</v>
       </c>
       <c r="AJ18">
-        <v>7940.69541199998</v>
+        <v>7462.3729089999897</v>
       </c>
       <c r="AK18">
-        <v>7949.8079930000104</v>
+        <v>7457.8824939999904</v>
       </c>
       <c r="AL18">
-        <v>7957.6404849999899</v>
+        <v>7450.5752670000002</v>
       </c>
       <c r="AM18">
-        <v>7971.8996039999702</v>
+        <v>7450.92472799999</v>
       </c>
       <c r="AN18">
-        <v>7991.24667399998</v>
+        <v>7455.5260950000002</v>
       </c>
       <c r="AO18">
-        <v>8008.56862800001</v>
+        <v>7458.0129319999996</v>
       </c>
       <c r="AP18">
-        <v>8064.8293569999696</v>
+        <v>7502.3156719999797</v>
       </c>
       <c r="AQ18">
-        <v>8226.6577110000399</v>
+        <v>7680.4210800000001</v>
       </c>
       <c r="AR18">
-        <v>8541.0603740000097</v>
+        <v>8045.93318000001</v>
       </c>
       <c r="AS18">
-        <v>9060.2375370000409</v>
+        <v>8648.2302979999495</v>
       </c>
       <c r="AT18">
-        <v>8280.86</v>
+        <v>7760.31</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
         <f>B3/B15</f>
-        <v>0.33840390547075339</v>
+        <v>0.34599591626091053</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:AT22" si="0">C3/C15</f>
-        <v>0.3384059595320581</v>
+        <v>0.34035022607700588</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.34601479315911643</v>
+        <v>0.34470183630086565</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.35382361925051109</v>
+        <v>0.35050866007057785</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.36110465791040153</v>
+        <v>0.35660698944028324</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.36789872639703347</v>
+        <v>0.36292923042609154</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.374097261620634</v>
+        <v>0.36916947639521114</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.37964541467094043</v>
+        <v>0.37510224427080857</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0.38483137151501323</v>
+        <v>0.38088006512816586</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.38937027221334319</v>
+        <v>0.3861762970144213</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.39354811800639639</v>
+        <v>0.39140938801993275</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.39707389875993654</v>
+        <v>0.39623035711219767</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0.4000885037083447</v>
+        <v>0.40068381989654805</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
-        <v>0.40240631952013545</v>
+        <v>0.40451383820367859</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>0.40419817852508788</v>
+        <v>0.4078683154134824</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>0.40604647850133496</v>
+        <v>0.41148829048545621</v>
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
-        <v>0.40784057875654961</v>
+        <v>0.41506849646448934</v>
       </c>
       <c r="S22">
         <f t="shared" si="0"/>
-        <v>0.4091367611252627</v>
+        <v>0.41801001749969091</v>
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>0.41111713652575271</v>
+        <v>0.42152613219222768</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>0.41296134968437309</v>
+        <v>0.42471191352614834</v>
       </c>
       <c r="V22">
         <f t="shared" si="0"/>
-        <v>0.4154986026227499</v>
+        <v>0.428702483017322</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
-        <v>0.41768396406849312</v>
+        <v>0.43260050197695171</v>
       </c>
       <c r="X22">
         <f t="shared" si="0"/>
-        <v>0.41999931807810725</v>
+        <v>0.43655946599917084</v>
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>0.42253202282308266</v>
+        <v>0.44069676992997497</v>
       </c>
       <c r="Z22">
         <f t="shared" si="0"/>
-        <v>0.42513227390097091</v>
+        <v>0.44481867324842511</v>
       </c>
       <c r="AA22">
         <f t="shared" si="0"/>
-        <v>0.42848715375618157</v>
+        <v>0.44990389617659798</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
-        <v>0.4314818685635689</v>
+        <v>0.45481622547803796</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>0.43463596241655572</v>
+        <v>0.45989758713630674</v>
       </c>
       <c r="AD22">
         <f t="shared" si="0"/>
-        <v>0.43787658668450191</v>
+        <v>0.46501612728733049</v>
       </c>
       <c r="AE22">
         <f t="shared" si="0"/>
-        <v>0.44134049715201723</v>
+        <v>0.47022734918702475</v>
       </c>
       <c r="AF22">
         <f t="shared" si="0"/>
-        <v>0.44482186753758068</v>
+        <v>0.47538321650557136</v>
       </c>
       <c r="AG22">
         <f t="shared" si="0"/>
-        <v>0.44835841396020076</v>
+        <v>0.48053614296851394</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>0.45187413505019025</v>
+        <v>0.48564553948448874</v>
       </c>
       <c r="AI22">
         <f t="shared" si="0"/>
-        <v>0.45538607584573831</v>
+        <v>0.49074115139165697</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="0"/>
-        <v>0.45897028468843037</v>
+        <v>0.49586670031739727</v>
       </c>
       <c r="AK22">
         <f t="shared" si="0"/>
-        <v>0.4621114144439083</v>
+        <v>0.50056833597337691</v>
       </c>
       <c r="AL22">
         <f t="shared" si="0"/>
-        <v>0.46506390182540541</v>
+        <v>0.50529313823675848</v>
       </c>
       <c r="AM22">
         <f t="shared" si="0"/>
-        <v>0.46759576843670225</v>
+        <v>0.50978007163665717</v>
       </c>
       <c r="AN22">
         <f t="shared" si="0"/>
-        <v>0.47002296294261303</v>
+        <v>0.51431756925859262</v>
       </c>
       <c r="AO22">
         <f t="shared" si="0"/>
-        <v>0.47229342517168432</v>
+        <v>0.51879347563269274</v>
       </c>
       <c r="AP22">
         <f t="shared" si="0"/>
-        <v>0.47427539722620793</v>
+        <v>0.52314558695604763</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="0"/>
-        <v>0.47703394687929918</v>
+        <v>0.52818346705005403</v>
       </c>
       <c r="AR22">
         <f t="shared" si="0"/>
-        <v>0.47975227399962495</v>
+        <v>0.53291198799793105</v>
       </c>
       <c r="AS22">
         <f t="shared" si="0"/>
-        <v>0.48260294436493345</v>
+        <v>0.537732558307639</v>
       </c>
       <c r="AT22">
         <f t="shared" si="0"/>
-        <v>0.48658919215304008</v>
+        <v>0.54199748914223678</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:AT23" si="1">B4/B16</f>
-        <v>0.33840390547075339</v>
+        <v>0.34599591626091053</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.33851828370840886</v>
+        <v>0.34041931521211249</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.34601063240898194</v>
+        <v>0.34466211021659676</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.35382505402418024</v>
+        <v>0.3504779185971012</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.36109971304195532</v>
+        <v>0.35659445701522585</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.36770962328341583</v>
+        <v>0.36279352673604709</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.37355610850656767</v>
+        <v>0.36884830750542513</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>0.3786857935235125</v>
+        <v>0.37454897525362141</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.38350118795480909</v>
+        <v>0.38018531374039666</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.38744126900200454</v>
+        <v>0.38514988834679814</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.3913801952566911</v>
+        <v>0.390352236869766</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.3946125722289186</v>
+        <v>0.39506105035500239</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0.39725137053166687</v>
+        <v>0.39925081346936742</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>0.39941187653722676</v>
+        <v>0.40305770861102025</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>0.40122380084862613</v>
+        <v>0.40647910778697105</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>0.40299190144620217</v>
+        <v>0.41004021430660176</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>0.40419304894622304</v>
+        <v>0.41309737935653679</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>0.40525532005376708</v>
+        <v>0.4160027153049306</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>0.40667630565803742</v>
+        <v>0.41911238720338545</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>0.40787907239492061</v>
+        <v>0.42193142261325112</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>0.40997942005901561</v>
+        <v>0.42578798076357155</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>0.41181599182118206</v>
+        <v>0.42951340555659823</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>0.41378599021313955</v>
+        <v>0.43334495862024547</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>0.41618561997328041</v>
+        <v>0.4374666715328519</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>0.4188232414616177</v>
+        <v>0.44161374384232582</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>0.42193245244569799</v>
+        <v>0.44646469238563713</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>0.42475489174991082</v>
+        <v>0.45127439587165763</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>0.42786986603388372</v>
+        <v>0.45636298063943431</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
-        <v>0.43099949620875555</v>
+        <v>0.46140098617781861</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>0.43447324355800088</v>
+        <v>0.46661572557107378</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>0.43813808324669212</v>
+        <v>0.47187730869649247</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>0.44168142930286913</v>
+        <v>0.4769479301196613</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>0.44542255277948267</v>
+        <v>0.48222181874546699</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0.44914134254894739</v>
+        <v>0.48737039141066918</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>0.45274957337231059</v>
+        <v>0.49243256683886971</v>
       </c>
       <c r="AK23">
         <f t="shared" si="1"/>
-        <v>0.45612228543757555</v>
+        <v>0.49735264809847429</v>
       </c>
       <c r="AL23">
         <f t="shared" si="1"/>
-        <v>0.45911352601425748</v>
+        <v>0.50205776774812727</v>
       </c>
       <c r="AM23">
         <f t="shared" si="1"/>
-        <v>0.46172683382814922</v>
+        <v>0.50657701972599278</v>
       </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>0.4642013165453418</v>
+        <v>0.51114987300790993</v>
       </c>
       <c r="AO23">
         <f t="shared" si="1"/>
-        <v>0.46665696424545811</v>
+        <v>0.51580755119356925</v>
       </c>
       <c r="AP23">
         <f t="shared" si="1"/>
-        <v>0.46888469215040701</v>
+        <v>0.52033529362881403</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="1"/>
-        <v>0.47164922116841784</v>
+        <v>0.52530739141214655</v>
       </c>
       <c r="AR23">
         <f t="shared" si="1"/>
-        <v>0.47444637872131135</v>
+        <v>0.53016778569652234</v>
       </c>
       <c r="AS23">
         <f t="shared" si="1"/>
-        <v>0.47754618437422808</v>
+        <v>0.53514785489524752</v>
       </c>
       <c r="AT23">
         <f t="shared" si="1"/>
-        <v>0.46428032525777513</v>
+        <v>0.52899066357840441</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:AT24" si="2">B5/B17</f>
-        <v>0.33840390547075339</v>
+        <v>0.34599591626091053</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>0.33807441455250786</v>
+        <v>0.34004544786315027</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>0.34498261310541228</v>
+        <v>0.34393968150744675</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>0.35194595069557544</v>
+        <v>0.34926175502894374</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.35816727591070913</v>
+        <v>0.35472901376892374</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.36355753041815941</v>
+        <v>0.36021074532924469</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.36861074218838313</v>
+        <v>0.3659260537432284</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.37339193447169067</v>
+        <v>0.37153911164332121</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>0.37728984143956368</v>
+        <v>0.37648576373007836</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.38046536975807671</v>
+        <v>0.38092573631286109</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.38357245504521836</v>
+        <v>0.385527500423688</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.38613561365164617</v>
+        <v>0.38975151073462622</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.38837795148863857</v>
+        <v>0.39364464534922405</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.39032697488399226</v>
+        <v>0.39718818511150483</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.39185845881962378</v>
+        <v>0.40020825842115254</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>0.39355337803999513</v>
+        <v>0.40349045644615955</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>0.39440006695610319</v>
+        <v>0.40604392673497913</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0.3950920906623282</v>
+        <v>0.40853476258946159</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>0.39606239532427256</v>
+        <v>0.41116258712185694</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>0.39711655460748546</v>
+        <v>0.4137080715939771</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>0.3985159826804523</v>
+        <v>0.41686506813264873</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>0.39984924005575689</v>
+        <v>0.42006259896588527</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>0.40177557912907202</v>
+        <v>0.42374628314116375</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>0.40389400236547585</v>
+        <v>0.42745627208016307</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.40641077979150636</v>
+        <v>0.43129017260912872</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>0.4093312736395312</v>
+        <v>0.43574873441049633</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>0.41234755939566936</v>
+        <v>0.44045897748552804</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0.41571718814318337</v>
+        <v>0.4453520424127646</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>0.41924037680862358</v>
+        <v>0.45030416265732043</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>0.42245350354259359</v>
+        <v>0.45486667457042057</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>0.42641408278415027</v>
+        <v>0.46010410358214271</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>0.42985188840806143</v>
+        <v>0.46469951384153924</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.43348426326579864</v>
+        <v>0.46958792103096192</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>0.4373435899502327</v>
+        <v>0.47464372717069542</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="2"/>
-        <v>0.44103371877336267</v>
+        <v>0.47942903590965952</v>
       </c>
       <c r="AK24">
         <f t="shared" si="2"/>
-        <v>0.44481097119711149</v>
+        <v>0.484310077469228</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>0.44893552896971456</v>
+        <v>0.48953336165959527</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>0.45262852987100899</v>
+        <v>0.49423720908252866</v>
       </c>
       <c r="AN24">
         <f t="shared" si="2"/>
-        <v>0.45641047924760419</v>
+        <v>0.49915098043973333</v>
       </c>
       <c r="AO24">
         <f t="shared" si="2"/>
-        <v>0.46036493922761446</v>
+        <v>0.50421489688204157</v>
       </c>
       <c r="AP24">
         <f t="shared" si="2"/>
-        <v>0.46411374633463515</v>
+        <v>0.50909954836864213</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="2"/>
-        <v>0.46786015759966887</v>
+        <v>0.51404555377460148</v>
       </c>
       <c r="AR24">
         <f t="shared" si="2"/>
-        <v>0.47175989838679855</v>
+        <v>0.51906476657479628</v>
       </c>
       <c r="AS24">
         <f t="shared" si="2"/>
-        <v>0.47539878253386658</v>
+        <v>0.52387909031815794</v>
       </c>
       <c r="AT24">
         <f t="shared" si="2"/>
-        <v>0.46599815071659734</v>
+        <v>0.51663666483511983</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:AT25" si="3">B6/B18</f>
-        <v>0.33840390547075339</v>
+        <v>0.34599591626091053</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>0.3379662384416679</v>
+        <v>0.33998625346397832</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.3447112466906665</v>
+        <v>0.34375870610328746</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.35169271711711092</v>
+        <v>0.34912852054875215</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>0.35800066632434108</v>
+        <v>0.35474239651670419</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.36306620651021609</v>
+        <v>0.35989945099482407</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0.36631127669533559</v>
+        <v>0.36426340147916553</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.36808427673283894</v>
+        <v>0.36786387082030547</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>0.3688521119787771</v>
+        <v>0.37114052356138544</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>0.36879764237433099</v>
+        <v>0.37391974418040053</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>0.36911371394158132</v>
+        <v>0.3772423083649975</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>0.37001925836802529</v>
+        <v>0.38081333342224938</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>0.37121034130260816</v>
+        <v>0.38414050909033398</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>0.37266842310942294</v>
+        <v>0.38727323438036915</v>
       </c>
       <c r="P25">
         <f t="shared" si="3"/>
-        <v>0.37440867466068933</v>
+        <v>0.39012050034757934</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>0.37622500057396935</v>
+        <v>0.39297606589160422</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>0.37753252190859765</v>
+        <v>0.39518712556237195</v>
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>0.37907893343415566</v>
+        <v>0.39752792491401601</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>0.38110232726659399</v>
+        <v>0.40010584681064704</v>
       </c>
       <c r="U25">
         <f t="shared" si="3"/>
-        <v>0.3836845034238488</v>
+        <v>0.40297855136622607</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
-        <v>0.38661918124081396</v>
+        <v>0.40624462031570335</v>
       </c>
       <c r="W25">
         <f t="shared" si="3"/>
-        <v>0.3899186469107373</v>
+        <v>0.40990638356876347</v>
       </c>
       <c r="X25">
         <f t="shared" si="3"/>
-        <v>0.39357191160048532</v>
+        <v>0.41377756001680122</v>
       </c>
       <c r="Y25">
         <f t="shared" si="3"/>
-        <v>0.39752794956180609</v>
+        <v>0.41781928752278891</v>
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>0.40172679095052366</v>
+        <v>0.42204441875652549</v>
       </c>
       <c r="AA25">
         <f t="shared" si="3"/>
-        <v>0.40663160764541445</v>
+        <v>0.42717120078720211</v>
       </c>
       <c r="AB25">
         <f t="shared" si="3"/>
-        <v>0.41055597941055733</v>
+        <v>0.43161979081433482</v>
       </c>
       <c r="AC25">
         <f t="shared" si="3"/>
-        <v>0.41524018674747104</v>
+        <v>0.43699782961942935</v>
       </c>
       <c r="AD25">
         <f t="shared" si="3"/>
-        <v>0.41974744925149077</v>
+        <v>0.44208141274788076</v>
       </c>
       <c r="AE25">
         <f t="shared" si="3"/>
-        <v>0.42357417451863588</v>
+        <v>0.44673184805345173</v>
       </c>
       <c r="AF25">
         <f t="shared" si="3"/>
-        <v>0.42736977353633904</v>
+        <v>0.45158016143535273</v>
       </c>
       <c r="AG25">
         <f t="shared" si="3"/>
-        <v>0.43145520393299813</v>
+        <v>0.4566721486292834</v>
       </c>
       <c r="AH25">
         <f t="shared" si="3"/>
-        <v>0.43556797964061567</v>
+        <v>0.46177184505572766</v>
       </c>
       <c r="AI25">
         <f t="shared" si="3"/>
-        <v>0.43949144269541263</v>
+        <v>0.46677348729382634</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="3"/>
-        <v>0.44342746607291711</v>
+        <v>0.47185023283322425</v>
       </c>
       <c r="AK25">
         <f t="shared" si="3"/>
-        <v>0.44762432244066092</v>
+        <v>0.47714983799528804</v>
       </c>
       <c r="AL25">
         <f t="shared" si="3"/>
-        <v>0.45156514686400845</v>
+        <v>0.48229740137191879</v>
       </c>
       <c r="AM25">
         <f t="shared" si="3"/>
-        <v>0.45579100283411111</v>
+        <v>0.48766028449401816</v>
       </c>
       <c r="AN25">
         <f t="shared" si="3"/>
-        <v>0.46016075038256277</v>
+        <v>0.49322582656723973</v>
       </c>
       <c r="AO25">
         <f t="shared" si="3"/>
-        <v>0.46389072550505905</v>
+        <v>0.49813545303195378</v>
       </c>
       <c r="AP25">
         <f t="shared" si="3"/>
-        <v>0.47072616238370141</v>
+        <v>0.50602058591970167</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="3"/>
-        <v>0.48357406240211698</v>
+        <v>0.51796617747421603</v>
       </c>
       <c r="AR25">
         <f t="shared" si="3"/>
-        <v>0.5014844959811503</v>
+        <v>0.53234463364012241</v>
       </c>
       <c r="AS25">
         <f t="shared" si="3"/>
-        <v>0.52313371325464941</v>
+        <v>0.54805613402734432</v>
       </c>
       <c r="AT25">
         <f t="shared" si="3"/>
-        <v>0.4853107044437413</v>
+        <v>0.51786462138754763</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -7310,737 +7375,737 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="C28">
         <f>(C15-B15)/B15</f>
-        <v>2.9910647104196338E-2</v>
+        <v>4.7001045841094387E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:AT28" si="4">(D15-C15)/C15</f>
-        <v>7.4643785964149875E-3</v>
+        <v>1.7112072858938791E-2</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>8.1569260025438038E-3</v>
+        <v>1.3829998827239991E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>9.8412174629259625E-3</v>
+        <v>1.2997246056911778E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>1.1933067137040917E-2</v>
+        <v>1.301269001373445E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>1.4750831113463E-2</v>
+        <v>1.4406027224979603E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>1.7153479228888349E-2</v>
+        <v>1.5912364052536553E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>2.0218849458612905E-2</v>
+        <v>1.8467246585627105E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>2.2595429733408435E-2</v>
+        <v>2.0466622951463582E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>2.4054136607206841E-2</v>
+        <v>2.1203598186880508E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
-        <v>2.6568817830925115E-2</v>
+        <v>2.3163547760706518E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>2.8163142861807135E-2</v>
+        <v>2.4454569681725876E-2</v>
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>2.9263133164925868E-2</v>
+        <v>2.5424195759211812E-2</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>3.0509235594062854E-2</v>
+        <v>2.6584869932958437E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>3.0976775900226069E-2</v>
+        <v>2.6579930947678253E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>3.3771185099731919E-2</v>
+        <v>2.9382584791059645E-2</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>3.3422556381285502E-2</v>
+        <v>2.9411677746566625E-2</v>
       </c>
       <c r="T28">
         <f t="shared" si="4"/>
-        <v>3.4846600765759836E-2</v>
+        <v>3.1181802995899097E-2</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
-        <v>3.4848340636439712E-2</v>
+        <v>3.1693256486557506E-2</v>
       </c>
       <c r="V28">
         <f t="shared" si="4"/>
-        <v>3.4203826866629226E-2</v>
+        <v>3.0872015694266758E-2</v>
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>3.4675554108504217E-2</v>
+        <v>3.0745381295119958E-2</v>
       </c>
       <c r="X28">
         <f t="shared" si="4"/>
-        <v>3.4445381475002354E-2</v>
+        <v>3.0746724136495672E-2</v>
       </c>
       <c r="Y28">
         <f t="shared" si="4"/>
-        <v>3.4439957265865059E-2</v>
+        <v>3.0907919253394821E-2</v>
       </c>
       <c r="Z28">
         <f t="shared" si="4"/>
-        <v>3.4340901122556208E-2</v>
+        <v>3.1062516782856042E-2</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>3.3153192777687718E-2</v>
+        <v>2.9536395769738964E-2</v>
       </c>
       <c r="AB28">
         <f t="shared" si="4"/>
-        <v>3.3731422444697561E-2</v>
+        <v>2.9713190850283577E-2</v>
       </c>
       <c r="AC28">
         <f t="shared" si="4"/>
-        <v>3.3292165871017694E-2</v>
+        <v>2.9345221435415254E-2</v>
       </c>
       <c r="AD28">
         <f t="shared" si="4"/>
-        <v>3.2873838705870635E-2</v>
+        <v>2.9121076366317205E-2</v>
       </c>
       <c r="AE28">
         <f t="shared" si="4"/>
-        <v>3.2967837520539028E-2</v>
+        <v>2.9601068686082459E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="4"/>
-        <v>3.285563583818886E-2</v>
+        <v>2.9712543198207469E-2</v>
       </c>
       <c r="AG28">
         <f t="shared" si="4"/>
-        <v>3.2830900259060831E-2</v>
+        <v>2.9879012369330014E-2</v>
       </c>
       <c r="AH28">
         <f t="shared" si="4"/>
-        <v>3.2738884202093615E-2</v>
+        <v>2.988643988837009E-2</v>
       </c>
       <c r="AI28">
         <f t="shared" si="4"/>
-        <v>3.2690338173247083E-2</v>
+        <v>2.9910072220112636E-2</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="4"/>
-        <v>3.2865709504337114E-2</v>
+        <v>3.0234805099490558E-2</v>
       </c>
       <c r="AK28">
         <f t="shared" si="4"/>
-        <v>3.221736235361719E-2</v>
+        <v>2.9520162469650425E-2</v>
       </c>
       <c r="AL28">
         <f t="shared" si="4"/>
-        <v>3.1368080091114803E-2</v>
+        <v>2.8252101834624146E-2</v>
       </c>
       <c r="AM28">
         <f t="shared" si="4"/>
-        <v>2.9902568088077796E-2</v>
+        <v>2.6395239663206727E-2</v>
       </c>
       <c r="AN28">
         <f t="shared" si="4"/>
-        <v>2.8631941077912355E-2</v>
+        <v>2.4849263904948932E-2</v>
       </c>
       <c r="AO28">
         <f t="shared" si="4"/>
-        <v>2.7161948838577088E-2</v>
+        <v>2.3219035547191697E-2</v>
       </c>
       <c r="AP28">
         <f t="shared" si="4"/>
-        <v>2.5228174713346995E-2</v>
+        <v>2.0965734526094706E-2</v>
       </c>
       <c r="AQ28">
         <f t="shared" si="4"/>
-        <v>2.4950098776710311E-2</v>
+        <v>2.1078587965070891E-2</v>
       </c>
       <c r="AR28">
         <f t="shared" si="4"/>
-        <v>2.4181539946953816E-2</v>
+        <v>2.087840123021395E-2</v>
       </c>
       <c r="AS28">
         <f t="shared" si="4"/>
-        <v>2.3592888988680758E-2</v>
+        <v>2.0444391260864479E-2</v>
       </c>
       <c r="AT28">
         <f t="shared" si="4"/>
-        <v>-0.11468556884604905</v>
+        <v>-0.11439700106391577</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:AT29" si="5">(C16-B16)/B16</f>
-        <v>3.0315765408407566E-2</v>
+        <v>4.754790024008685E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
-        <v>7.3265982104917422E-3</v>
+        <v>1.6946875508380244E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>8.318355699903383E-3</v>
+        <v>1.3980697421273775E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>9.9433941749869897E-3</v>
+        <v>1.302850793572091E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>1.1529160672123426E-2</v>
+        <v>1.2444717762413965E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>1.353704707140291E-2</v>
+        <v>1.274990364375695E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>1.5300012127937144E-2</v>
+        <v>1.3576995671269724E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>1.7823340688997061E-2</v>
+        <v>1.5484699066111145E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>1.9000904036805152E-2</v>
+        <v>1.6200250736497779E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>2.0637761918936969E-2</v>
+        <v>1.7273423745927902E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>2.2539022531510265E-2</v>
+        <v>1.8695584682032754E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>2.3614449540572794E-2</v>
+        <v>1.9645715833859784E-2</v>
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
-        <v>2.4662161439306014E-2</v>
+        <v>2.0504320245852487E-2</v>
       </c>
       <c r="P29">
         <f t="shared" si="5"/>
-        <v>2.6102863265913476E-2</v>
+        <v>2.2081709695828771E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="5"/>
-        <v>2.6252621731068185E-2</v>
+        <v>2.1823027835527788E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="5"/>
-        <v>2.7698546970197486E-2</v>
+        <v>2.3133431568424401E-2</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>2.7350400668710053E-2</v>
+        <v>2.2856610796575912E-2</v>
       </c>
       <c r="T29">
         <f t="shared" si="5"/>
-        <v>2.7684338781540217E-2</v>
+        <v>2.3635996467587531E-2</v>
       </c>
       <c r="U29">
         <f t="shared" si="5"/>
-        <v>2.6668082706972535E-2</v>
+        <v>2.2824787003247651E-2</v>
       </c>
       <c r="V29">
         <f t="shared" si="5"/>
-        <v>2.5569955438411361E-2</v>
+        <v>2.1514162570583764E-2</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>2.5619078732001317E-2</v>
+        <v>2.1277859784268046E-2</v>
       </c>
       <c r="X29">
         <f t="shared" si="5"/>
-        <v>2.475582445093396E-2</v>
+        <v>2.0553899281137312E-2</v>
       </c>
       <c r="Y29">
         <f t="shared" si="5"/>
-        <v>2.4722780679028351E-2</v>
+        <v>2.0954664626465832E-2</v>
       </c>
       <c r="Z29">
         <f t="shared" si="5"/>
-        <v>2.4797487702196259E-2</v>
+        <v>2.160766631314779E-2</v>
       </c>
       <c r="AA29">
         <f t="shared" si="5"/>
-        <v>2.2945944468932389E-2</v>
+        <v>1.934290089150232E-2</v>
       </c>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>2.3192539724930183E-2</v>
+        <v>1.9058821840388387E-2</v>
       </c>
       <c r="AC29">
         <f t="shared" si="5"/>
-        <v>2.2705509044112719E-2</v>
+        <v>1.87184946421469E-2</v>
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>2.1933675533415742E-2</v>
+        <v>1.8168505623352794E-2</v>
       </c>
       <c r="AE29">
         <f t="shared" si="5"/>
-        <v>2.2029504026730436E-2</v>
+        <v>1.8752900576454585E-2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="5"/>
-        <v>2.2211077178440813E-2</v>
+        <v>1.9339443149386897E-2</v>
       </c>
       <c r="AG29">
         <f t="shared" si="5"/>
-        <v>2.1927870043611967E-2</v>
+        <v>1.9240108607154548E-2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="5"/>
-        <v>2.2138913669038199E-2</v>
+        <v>1.9523157205677204E-2</v>
       </c>
       <c r="AI29">
         <f t="shared" si="5"/>
-        <v>2.2246646820037075E-2</v>
+        <v>1.9892155011004137E-2</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="5"/>
-        <v>2.2162646253195251E-2</v>
+        <v>1.9782078491653237E-2</v>
       </c>
       <c r="AK29">
         <f t="shared" si="5"/>
-        <v>2.1750342683761331E-2</v>
+        <v>1.9178800241507556E-2</v>
       </c>
       <c r="AL29">
         <f t="shared" si="5"/>
-        <v>2.0733677174241523E-2</v>
+        <v>1.7798916293936311E-2</v>
       </c>
       <c r="AM29">
         <f t="shared" si="5"/>
-        <v>1.939731270275688E-2</v>
+        <v>1.6053826495114071E-2</v>
       </c>
       <c r="AN29">
         <f t="shared" si="5"/>
-        <v>1.8087297689317806E-2</v>
+        <v>1.4386592784217644E-2</v>
       </c>
       <c r="AO29">
         <f t="shared" si="5"/>
-        <v>1.6827896602067096E-2</v>
+        <v>1.2976564556893591E-2</v>
       </c>
       <c r="AP29">
         <f t="shared" si="5"/>
-        <v>1.517577565813617E-2</v>
+        <v>1.1146205745733792E-2</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="5"/>
-        <v>1.4701982647504868E-2</v>
+        <v>1.1023733009877331E-2</v>
       </c>
       <c r="AR29">
         <f t="shared" si="5"/>
-        <v>1.3897909770483722E-2</v>
+        <v>1.056074615622671E-2</v>
       </c>
       <c r="AS29">
         <f t="shared" si="5"/>
-        <v>1.3759928240612363E-2</v>
+        <v>1.0887675227880601E-2</v>
       </c>
       <c r="AT29">
         <f t="shared" si="5"/>
-        <v>8.5976878999466336E-2</v>
+        <v>6.8098378804314671E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:AT30" si="6">(C17-B17)/B17</f>
-        <v>2.9055910162761794E-2</v>
+        <v>4.6043909058278668E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>4.9824196673584819E-3</v>
+        <v>1.3906837321548167E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="6"/>
-        <v>4.2177606738869637E-3</v>
+        <v>8.8762917945411062E-3</v>
       </c>
       <c r="F30">
         <f t="shared" si="6"/>
-        <v>4.107355036120924E-3</v>
+        <v>6.1075362544356143E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>3.684864727752638E-3</v>
+        <v>3.2857902337845839E-3</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>5.0226938255144822E-3</v>
+        <v>3.0764655979760537E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="6"/>
-        <v>6.7363843036143947E-3</v>
+        <v>4.3879827911992367E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>7.0164699373005341E-3</v>
+        <v>4.159565315953127E-3</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
-        <v>7.2555408686226976E-3</v>
+        <v>3.894167209395164E-3</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>7.5367902493605511E-3</v>
+        <v>3.6404123947032228E-3</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>8.544147231823453E-3</v>
+        <v>4.2802459558486522E-3</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>9.2266599522533854E-3</v>
+        <v>5.0481823697478634E-3</v>
       </c>
       <c r="O30">
         <f t="shared" si="6"/>
-        <v>1.0065823327922748E-2</v>
+        <v>6.0781140922584439E-3</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
-        <v>1.0924764484392684E-2</v>
+        <v>7.2325890178753975E-3</v>
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>1.1300570066656664E-2</v>
+        <v>7.4127666853731986E-3</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
-        <v>1.1746403403754335E-2</v>
+        <v>7.5468533160030415E-3</v>
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
-        <v>1.068623838358731E-2</v>
+        <v>6.2866531653378256E-3</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
-        <v>1.0162070192280818E-2</v>
+        <v>6.1709067596931351E-3</v>
       </c>
       <c r="U30">
         <f t="shared" si="6"/>
-        <v>9.2876160212637549E-3</v>
+        <v>5.74741490328052E-3</v>
       </c>
       <c r="V30">
         <f t="shared" si="6"/>
-        <v>6.5317865584258389E-3</v>
+        <v>2.4292717573044151E-3</v>
       </c>
       <c r="W30">
         <f t="shared" si="6"/>
-        <v>6.1056324114919557E-3</v>
+        <v>1.7874696673084946E-3</v>
       </c>
       <c r="X30">
         <f t="shared" si="6"/>
-        <v>5.5060058250768883E-3</v>
+        <v>1.5670918465993534E-3</v>
       </c>
       <c r="Y30">
         <f t="shared" si="6"/>
-        <v>4.5393543636219041E-3</v>
+        <v>1.0713543461155976E-3</v>
       </c>
       <c r="Z30">
         <f t="shared" si="6"/>
-        <v>4.4972234273744178E-3</v>
+        <v>1.7715156771097847E-3</v>
       </c>
       <c r="AA30">
         <f t="shared" si="6"/>
-        <v>2.2993496248239955E-3</v>
+        <v>-8.272283025988705E-4</v>
       </c>
       <c r="AB30">
         <f t="shared" si="6"/>
-        <v>2.8686546356830765E-3</v>
+        <v>-5.4502967779523491E-4</v>
       </c>
       <c r="AC30">
         <f t="shared" si="6"/>
-        <v>2.6072504635567973E-3</v>
+        <v>-3.0526852242105241E-4</v>
       </c>
       <c r="AD30">
         <f t="shared" si="6"/>
-        <v>2.1891781575807409E-3</v>
+        <v>-4.3205891724844438E-4</v>
       </c>
       <c r="AE30">
         <f t="shared" si="6"/>
-        <v>1.2250444463173544E-3</v>
+        <v>-1.2211045050340582E-3</v>
       </c>
       <c r="AF30">
         <f t="shared" si="6"/>
-        <v>1.9937967907278096E-3</v>
+        <v>-1.2508665997995917E-4</v>
       </c>
       <c r="AG30">
         <f t="shared" si="6"/>
-        <v>1.0687041656347032E-3</v>
+        <v>-8.3992257248295893E-4</v>
       </c>
       <c r="AH30">
         <f t="shared" si="6"/>
-        <v>9.4017903804119083E-4</v>
+        <v>-1.1094126974749124E-3</v>
       </c>
       <c r="AI30">
         <f t="shared" si="6"/>
-        <v>1.0516901961501216E-3</v>
+        <v>-7.9384655472133849E-4</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="6"/>
-        <v>8.7626095620773259E-4</v>
+        <v>-7.53036637690689E-4</v>
       </c>
       <c r="AK30">
         <f t="shared" si="6"/>
-        <v>1.0022846984904864E-3</v>
+        <v>-5.9943620207726319E-4</v>
       </c>
       <c r="AL30">
         <f t="shared" si="6"/>
-        <v>1.511512394117969E-3</v>
+        <v>1.3001905880320709E-5</v>
       </c>
       <c r="AM30">
         <f t="shared" si="6"/>
-        <v>1.2370900614464748E-3</v>
+        <v>-1.3415947539070566E-4</v>
       </c>
       <c r="AN30">
         <f t="shared" si="6"/>
-        <v>1.3482007021589453E-3</v>
+        <v>-2.2490803278638077E-4</v>
       </c>
       <c r="AO30">
         <f t="shared" si="6"/>
-        <v>1.7122408391006974E-3</v>
+        <v>2.4380794803244347E-4</v>
       </c>
       <c r="AP30">
         <f t="shared" si="6"/>
-        <v>1.6274800767600316E-3</v>
+        <v>9.528099028541958E-5</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="6"/>
-        <v>1.5974186347308644E-3</v>
+        <v>-3.2376543254647237E-5</v>
       </c>
       <c r="AR30">
         <f t="shared" si="6"/>
-        <v>2.0835471784175956E-3</v>
+        <v>6.6553326149093324E-4</v>
       </c>
       <c r="AS30">
         <f t="shared" si="6"/>
-        <v>1.9159440782446459E-3</v>
+        <v>3.6576699416787363E-4</v>
       </c>
       <c r="AT30">
         <f t="shared" si="6"/>
-        <v>-5.5939912876980212E-2</v>
+        <v>-6.1635430940500009E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:AT31" si="7">(C18-B18)/B18</f>
-        <v>2.8647049225481908E-2</v>
+        <v>4.5475718132244797E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="7"/>
-        <v>4.3387761798366724E-3</v>
+        <v>1.3141293574080283E-2</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>3.9420397883824119E-3</v>
+        <v>8.5209939695054769E-3</v>
       </c>
       <c r="F31">
         <f t="shared" si="7"/>
-        <v>3.8603404551797831E-3</v>
+        <v>5.6942983988537456E-3</v>
       </c>
       <c r="G31">
         <f t="shared" si="7"/>
-        <v>2.6427836822780926E-3</v>
+        <v>2.2593888959934979E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>-5.3393425177962212E-4</v>
+        <v>-3.6815689500927719E-3</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
-        <v>-4.2681122542937693E-3</v>
+        <v>-9.2415207139862204E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
-        <v>-8.3152370065867846E-3</v>
+        <v>-1.5020017689540734E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="7"/>
-        <v>-1.2412789414752183E-2</v>
+        <v>-1.9897947703308203E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="7"/>
-        <v>-1.531187594897677E-2</v>
+        <v>-2.3148050878045365E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="7"/>
-        <v>-1.4992197807300564E-2</v>
+        <v>-2.1835121233823876E-2</v>
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>-1.4994897012178016E-2</v>
+        <v>-2.0383128762416772E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>-1.4259560801015649E-2</v>
+        <v>-1.8392812714349231E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="7"/>
-        <v>-1.2379687502435691E-2</v>
+        <v>-1.500952943789198E-2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>-1.2112773769681609E-2</v>
+        <v>-1.4533673266161756E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
-        <v>-1.0692598506408871E-2</v>
+        <v>-1.2808762888052851E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="7"/>
-        <v>-1.0172681626983848E-2</v>
+        <v>-1.1970608706857842E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="7"/>
-        <v>-9.3829902877882142E-3</v>
+        <v>-1.0512134347712707E-2</v>
       </c>
       <c r="U31">
         <f t="shared" si="7"/>
-        <v>-8.1245856822199473E-3</v>
+        <v>-8.5227537222822801E-3</v>
       </c>
       <c r="V31">
         <f t="shared" si="7"/>
-        <v>-8.912909300114855E-3</v>
+        <v>-9.3613599838071517E-3</v>
       </c>
       <c r="W31">
         <f t="shared" si="7"/>
-        <v>-6.7203154604825732E-3</v>
+        <v>-7.1923653523683038E-3</v>
       </c>
       <c r="X31">
         <f t="shared" si="7"/>
-        <v>-5.5621701763037519E-3</v>
+        <v>-5.6358382417521355E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" si="7"/>
-        <v>-4.2052994067807228E-3</v>
+        <v>-3.9254665799398339E-3</v>
       </c>
       <c r="Z31">
         <f t="shared" si="7"/>
-        <v>-2.7223337870001395E-3</v>
+        <v>-2.2779948129176132E-3</v>
       </c>
       <c r="AA31">
         <f t="shared" si="7"/>
-        <v>-2.3376673756717072E-3</v>
+        <v>-2.2767262646140943E-3</v>
       </c>
       <c r="AB31">
         <f t="shared" si="7"/>
-        <v>-1.73904717392923E-3</v>
+        <v>-2.4930022627570191E-3</v>
       </c>
       <c r="AC31">
         <f t="shared" si="7"/>
-        <v>-2.2566466566412521E-4</v>
+        <v>-1.2632039682915971E-3</v>
       </c>
       <c r="AD31">
         <f t="shared" si="7"/>
-        <v>3.8082037504358855E-4</v>
+        <v>-3.8889452352971489E-4</v>
       </c>
       <c r="AE31">
         <f t="shared" si="7"/>
-        <v>-3.8440463798323848E-4</v>
+        <v>-1.7719474516179039E-3</v>
       </c>
       <c r="AF31">
         <f t="shared" si="7"/>
-        <v>-5.0245662829906455E-4</v>
+        <v>-2.3731840975757851E-3</v>
       </c>
       <c r="AG31">
         <f t="shared" si="7"/>
-        <v>5.5433755929627206E-5</v>
+        <v>-1.6419819202944707E-3</v>
       </c>
       <c r="AH31">
         <f t="shared" si="7"/>
-        <v>3.7576911951526213E-4</v>
+        <v>-1.2415217821954724E-3</v>
       </c>
       <c r="AI31">
         <f t="shared" si="7"/>
-        <v>3.0112967182238572E-4</v>
+        <v>-1.5036031147966046E-3</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="7"/>
-        <v>4.1480582862832782E-4</v>
+        <v>-1.4857162108170661E-3</v>
       </c>
       <c r="AK31">
         <f t="shared" si="7"/>
-        <v>1.1475797177989472E-3</v>
+        <v>-6.0174090128672615E-4</v>
       </c>
       <c r="AL31">
         <f t="shared" si="7"/>
-        <v>9.8524291490765929E-4</v>
+        <v>-9.797991595964456E-4</v>
       </c>
       <c r="AM31">
         <f t="shared" si="7"/>
-        <v>1.7918777590993785E-3</v>
+        <v>4.6903894996889176E-5</v>
       </c>
       <c r="AN31">
         <f t="shared" si="7"/>
-        <v>2.4269083858384577E-3</v>
+        <v>6.1755650043257559E-4</v>
       </c>
       <c r="AO31">
         <f t="shared" si="7"/>
-        <v>2.1676159811695062E-3</v>
+        <v>3.3355620627057418E-4</v>
       </c>
       <c r="AP31">
         <f t="shared" si="7"/>
-        <v>7.0250667270625204E-3</v>
+        <v>5.9402873666108682E-3</v>
       </c>
       <c r="AQ31">
         <f t="shared" si="7"/>
-        <v>2.0065936529656304E-2</v>
+        <v>2.3740057841706456E-2</v>
       </c>
       <c r="AR31">
         <f t="shared" si="7"/>
-        <v>3.8217545210319774E-2</v>
+        <v>4.7590112077554203E-2</v>
       </c>
       <c r="AS31">
         <f t="shared" si="7"/>
-        <v>6.0786031273173932E-2</v>
+        <v>7.485733531780818E-2</v>
       </c>
       <c r="AT31">
         <f t="shared" si="7"/>
-        <v>-8.602175536979377E-2</v>
+        <v>-0.10267075082462776</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -8058,7 +8123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -8068,193 +8133,193 @@
       </c>
       <c r="C34">
         <f>B34*(1+C28)</f>
-        <v>4200166448.3569469</v>
+        <v>4269864261.041564</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:AT34" si="8">C34*(1+D28)</f>
-        <v>4231518080.895443</v>
+        <v>4342930489.3742867</v>
       </c>
       <c r="E34">
         <f t="shared" si="8"/>
-        <v>4266034260.7597332</v>
+        <v>4402993212.9491177</v>
       </c>
       <c r="F34">
         <f t="shared" si="8"/>
-        <v>4308017231.6241617</v>
+        <v>4460219999.1247301</v>
       </c>
       <c r="G34">
         <f t="shared" si="8"/>
-        <v>4359425090.4766626</v>
+        <v>4518259459.3663988</v>
       </c>
       <c r="H34">
         <f t="shared" si="8"/>
-        <v>4423730233.7380772</v>
+        <v>4583349628.1475525</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
-        <v>4499612598.4167089</v>
+        <v>4656281556.0106945</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>4590589588.1661739</v>
+        <v>4742270255.6776514</v>
       </c>
       <c r="K34">
         <f t="shared" si="8"/>
-        <v>4694315932.6404982</v>
+        <v>4839328512.9345465</v>
       </c>
       <c r="L34">
         <f t="shared" si="8"/>
-        <v>4807233649.3616209</v>
+        <v>4941939690.2171249</v>
       </c>
       <c r="M34">
         <f t="shared" si="8"/>
-        <v>4934956164.462203</v>
+        <v>5056412546.262001</v>
       </c>
       <c r="N34">
         <f t="shared" si="8"/>
-        <v>5073940039.9387083</v>
+        <v>5180064939.214118</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
-        <v>5222419422.9982834</v>
+        <v>5311763924.274128</v>
       </c>
       <c r="P34">
         <f t="shared" si="8"/>
-        <v>5381751447.5455475</v>
+        <v>5452976477.3155365</v>
       </c>
       <c r="Q34">
         <f t="shared" si="8"/>
-        <v>5548460756.0868826</v>
+        <v>5597916215.5418968</v>
       </c>
       <c r="R34">
         <f t="shared" si="8"/>
-        <v>5735838851.2992916</v>
+        <v>5762397463.398304</v>
       </c>
       <c r="S34">
         <f t="shared" si="8"/>
-        <v>5927545248.7008104</v>
+        <v>5931879240.6394081</v>
       </c>
       <c r="T34">
         <f t="shared" si="8"/>
-        <v>6134100051.5032635</v>
+        <v>6116845930.516489</v>
       </c>
       <c r="U34">
         <f t="shared" si="8"/>
-        <v>6347863259.5960512</v>
+        <v>6310708697.4811039</v>
       </c>
       <c r="V34">
         <f t="shared" si="8"/>
-        <v>6564984475.5003109</v>
+        <v>6505532995.4316864</v>
       </c>
       <c r="W34">
         <f t="shared" si="8"/>
-        <v>6792628949.9020119</v>
+        <v>6705548087.9042177</v>
       </c>
       <c r="X34">
         <f t="shared" si="8"/>
-        <v>7026603645.299531</v>
+        <v>6911721725.1470146</v>
       </c>
       <c r="Y34">
         <f t="shared" si="8"/>
-        <v>7268599574.5678186</v>
+        <v>7125348662.1297932</v>
       </c>
       <c r="Z34">
         <f t="shared" si="8"/>
-        <v>7518209833.8575058</v>
+        <v>7346679924.5309</v>
       </c>
       <c r="AA34">
         <f t="shared" si="8"/>
-        <v>7767462493.8224916</v>
+        <v>7563674370.3754406</v>
       </c>
       <c r="AB34">
         <f t="shared" si="8"/>
-        <v>8029470052.5249624</v>
+        <v>7788415270.4718056</v>
       </c>
       <c r="AC34">
         <f t="shared" si="8"/>
-        <v>8296788501.3699923</v>
+        <v>8016968041.2147703</v>
       </c>
       <c r="AD34">
         <f t="shared" si="8"/>
-        <v>8569535788.3407516</v>
+        <v>8250430779.76931</v>
       </c>
       <c r="AE34">
         <f t="shared" si="8"/>
-        <v>8852054851.8372154</v>
+        <v>8494652347.9710293</v>
       </c>
       <c r="AF34">
         <f t="shared" si="8"/>
-        <v>9142894742.4688511</v>
+        <v>8747050072.8138733</v>
       </c>
       <c r="AG34">
         <f t="shared" si="8"/>
-        <v>9443064207.8379364</v>
+        <v>9008403290.1346283</v>
       </c>
       <c r="AH34">
         <f t="shared" si="8"/>
-        <v>9752219593.4512787</v>
+        <v>9277632393.5554314</v>
       </c>
       <c r="AI34">
         <f t="shared" si="8"/>
-        <v>10071022949.900967</v>
+        <v>9555127048.4783306</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="8"/>
-        <v>10402014264.583925</v>
+        <v>9844024452.4899426</v>
       </c>
       <c r="AK34">
         <f t="shared" si="8"/>
-        <v>10737139727.353521</v>
+        <v>10134621653.682657</v>
       </c>
       <c r="AL34">
         <f t="shared" si="8"/>
-        <v>11073943186.270636</v>
+        <v>10420946016.697887</v>
       </c>
       <c r="AM34">
         <f t="shared" si="8"/>
-        <v>11405082526.401598</v>
+        <v>10696009384.325968</v>
       </c>
       <c r="AN34">
         <f t="shared" si="8"/>
-        <v>11731632177.286257</v>
+        <v>10961797344.246893</v>
       </c>
       <c r="AO34">
         <f t="shared" si="8"/>
-        <v>12050286170.278709</v>
+        <v>11216319706.444073</v>
       </c>
       <c r="AP34">
         <f t="shared" si="8"/>
-        <v>12354292895.128328</v>
+        <v>11451478087.769184</v>
       </c>
       <c r="AQ34">
         <f t="shared" si="8"/>
-        <v>12662533723.178192</v>
+        <v>11692859075.972307</v>
       </c>
       <c r="AR34">
         <f t="shared" si="8"/>
-        <v>12968733288.234875</v>
+        <v>11936987279.288805</v>
       </c>
       <c r="AS34">
         <f t="shared" si="8"/>
-        <v>13274703173.028009</v>
+        <v>12181031717.702547</v>
       </c>
       <c r="AT34">
         <f t="shared" si="8"/>
-        <v>11752286288.36684</v>
+        <v>10787558219.332937</v>
       </c>
       <c r="AV34">
         <f>AVERAGE(AK34:AT34)</f>
-        <v>12001063315.552698</v>
+        <v>11147960848.546324</v>
       </c>
       <c r="AW34">
         <v>247030</v>
       </c>
       <c r="AX34">
         <f>AV34/AW34</f>
-        <v>48581.400297748041</v>
+        <v>45127.963601774376</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -8264,193 +8329,193 @@
       </c>
       <c r="C35">
         <f>B35*(1+C29)</f>
-        <v>4201818595.8648381</v>
+        <v>4272094434.6058855</v>
       </c>
       <c r="D35">
         <f t="shared" ref="D35:AT35" si="9">C35*(1+D29)</f>
-        <v>4232603632.4701123</v>
+        <v>4344493087.1491947</v>
       </c>
       <c r="E35">
         <f t="shared" si="9"/>
-        <v>4267811935.0217018</v>
+        <v>4405232130.4494429</v>
       </c>
       <c r="F35">
         <f t="shared" si="9"/>
-        <v>4310248471.3563366</v>
+        <v>4462625732.219696</v>
       </c>
       <c r="G35">
         <f t="shared" si="9"/>
-        <v>4359942018.5193787</v>
+        <v>4518161849.9364567</v>
       </c>
       <c r="H35">
         <f t="shared" si="9"/>
-        <v>4418962758.852663</v>
+        <v>4575767978.1700459</v>
       </c>
       <c r="I35">
         <f t="shared" si="9"/>
-        <v>4486572942.6560116</v>
+        <v>4637893160.2023954</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>4566538660.739006</v>
+        <v>4709709540.0889044</v>
       </c>
       <c r="K35">
         <f t="shared" si="9"/>
-        <v>4653307023.6120682</v>
+        <v>4786008015.53442</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
-        <v>4749340866.1010914</v>
+        <v>4868678760.0381536</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>4856386366.8919668</v>
+        <v>4959701556.0860605</v>
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>4971067257.7024632</v>
+        <v>5057138443.4776802</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>5093664520.9375696</v>
+        <v>5160831629.6503592</v>
       </c>
       <c r="P35">
         <f t="shared" si="9"/>
-        <v>5226623749.450038</v>
+        <v>5274791615.4853497</v>
       </c>
       <c r="Q35">
         <f t="shared" si="9"/>
-        <v>5363836325.6749668</v>
+        <v>5389903539.7366953</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
-        <v>5512406798.0821266</v>
+        <v>5514590504.4336023</v>
       </c>
       <c r="S35">
         <f t="shared" si="9"/>
-        <v>5663173332.6585932</v>
+        <v>5640635353.2959347</v>
       </c>
       <c r="T35">
         <f t="shared" si="9"/>
-        <v>5819954541.7784977</v>
+        <v>5773957390.5813875</v>
       </c>
       <c r="U35">
         <f t="shared" si="9"/>
-        <v>5975161570.8494673</v>
+        <v>5905746738.1872349</v>
       </c>
       <c r="V35">
         <f t="shared" si="9"/>
-        <v>6127946185.9533968</v>
+        <v>6032803933.6132898</v>
       </c>
       <c r="W35">
         <f t="shared" si="9"/>
-        <v>6284938521.7568045</v>
+        <v>6161169089.8186941</v>
       </c>
       <c r="X35">
         <f t="shared" si="9"/>
-        <v>6440527356.4863291</v>
+        <v>6287805138.7448845</v>
       </c>
       <c r="Y35">
         <f t="shared" si="9"/>
-        <v>6599755101.7780237</v>
+        <v>6419563986.6638517</v>
       </c>
       <c r="Z35">
         <f t="shared" si="9"/>
-        <v>6763412447.7518721</v>
+        <v>6558275783.1635847</v>
       </c>
       <c r="AA35">
         <f t="shared" si="9"/>
-        <v>6918605334.198473</v>
+        <v>6685131861.6564569</v>
       </c>
       <c r="AB35">
         <f t="shared" si="9"/>
-        <v>7079065363.252985</v>
+        <v>6812542598.7872715</v>
       </c>
       <c r="AC35">
         <f t="shared" si="9"/>
-        <v>7239799145.8821898</v>
+        <v>6940063140.9220676</v>
       </c>
       <c r="AD35">
         <f t="shared" si="9"/>
-        <v>7398594551.2750692</v>
+        <v>7066153717.1243334</v>
       </c>
       <c r="AE35">
         <f t="shared" si="9"/>
-        <v>7561581919.7345295</v>
+        <v>7198664595.2395115</v>
       </c>
       <c r="AF35">
         <f t="shared" si="9"/>
-        <v>7729532799.3448553</v>
+        <v>7337882759.9306507</v>
       </c>
       <c r="AG35">
         <f t="shared" si="9"/>
-        <v>7899024990.0667267</v>
+        <v>7479064421.1782837</v>
       </c>
       <c r="AH35">
         <f t="shared" si="9"/>
-        <v>8073900822.3913889</v>
+        <v>7625079371.6243334</v>
       </c>
       <c r="AI35">
         <f t="shared" si="9"/>
-        <v>8253518042.4471369</v>
+        <v>7776758632.4558945</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="9"/>
-        <v>8436437843.1662569</v>
+        <v>7930599082.1337786</v>
       </c>
       <c r="AK35">
         <f t="shared" si="9"/>
-        <v>8619933257.2853756</v>
+        <v>8082698457.7255058</v>
       </c>
       <c r="AL35">
         <f t="shared" si="9"/>
-        <v>8798656170.7054386</v>
+        <v>8226561731.0036898</v>
       </c>
       <c r="AM35">
         <f t="shared" si="9"/>
-        <v>8969326455.8126545</v>
+        <v>8358629525.6845675</v>
       </c>
       <c r="AN35">
         <f t="shared" si="9"/>
-        <v>9131557333.4916115</v>
+        <v>8478881724.9047298</v>
       </c>
       <c r="AO35">
         <f t="shared" si="9"/>
-        <v>9285222236.1154575</v>
+        <v>8588908480.9782209</v>
       </c>
       <c r="AP35">
         <f t="shared" si="9"/>
-        <v>9426132685.7066822</v>
+        <v>8684642222.0384827</v>
       </c>
       <c r="AQ35">
         <f t="shared" si="9"/>
-        <v>9564715524.8850193</v>
+        <v>8780379399.180542</v>
       </c>
       <c r="AR35">
         <f t="shared" si="9"/>
-        <v>9697645078.2302151</v>
+        <v>8873106757.1706505</v>
       </c>
       <c r="AS35">
         <f t="shared" si="9"/>
-        <v>9831083978.6095905</v>
+        <v>8969714261.8050365</v>
       </c>
       <c r="AT35">
         <f t="shared" si="9"/>
-        <v>10676329896.2721</v>
+        <v>9580537261.3718987</v>
       </c>
       <c r="AV35">
         <f>AVERAGE(AK35:AT35)</f>
-        <v>9400060261.7114124</v>
+        <v>8662405982.1863327</v>
       </c>
       <c r="AW35">
         <v>236870</v>
       </c>
       <c r="AX35">
         <f>AV35/AW35</f>
-        <v>39684.469378610258</v>
+        <v>36570.295867717876</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -8460,193 +8525,193 @@
       </c>
       <c r="C36">
         <f>B36*(1+C30)</f>
-        <v>4196680672.7377915</v>
+        <v>4265960879.8958559</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:AT36" si="10">C36*(1+D30)</f>
-        <v>4217590297.0592632</v>
+        <v>4325286903.8726559</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>4235379083.5527668</v>
+        <v>4363679412.5265369</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>4252775289.161479</v>
+        <v>4390330742.7412767</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>4268446190.8195677</v>
+        <v>4404756448.6188602</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>4289885289.1467381</v>
+        <v>4418307530.300499</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>4318783605.0728521</v>
+        <v>4437694987.7096834</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>4349086220.4035521</v>
+        <v>4456153869.8633404</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>4380641193.2168541</v>
+        <v>4473506878.1433811</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>4413657167.0478382</v>
+        <v>4489792288.030364</v>
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>4451368103.7138882</v>
+        <v>4509009703.3138065</v>
       </c>
       <c r="N36">
         <f t="shared" si="10"/>
-        <v>4492439363.5291634</v>
+        <v>4531772006.6030979</v>
       </c>
       <c r="O36">
         <f t="shared" si="10"/>
-        <v>4537659464.4738531</v>
+        <v>4559316633.899334</v>
       </c>
       <c r="P36">
         <f t="shared" si="10"/>
-        <v>4587232325.4336052</v>
+        <v>4592292297.3146915</v>
       </c>
       <c r="Q36">
         <f t="shared" si="10"/>
-        <v>4639070665.7391996</v>
+        <v>4626333888.6657219</v>
       </c>
       <c r="R36">
         <f t="shared" si="10"/>
-        <v>4693563061.1974955</v>
+        <v>4661248151.9143362</v>
       </c>
       <c r="S36">
         <f t="shared" si="10"/>
-        <v>4743719594.9378519</v>
+        <v>4690551802.3629932</v>
       </c>
       <c r="T36">
         <f t="shared" si="10"/>
-        <v>4791925606.4341087</v>
+        <v>4719496760.1868858</v>
       </c>
       <c r="U36">
         <f t="shared" si="10"/>
-        <v>4836431171.4691305</v>
+        <v>4746621666.2023687</v>
       </c>
       <c r="V36">
         <f t="shared" si="10"/>
-        <v>4868021707.5856838</v>
+        <v>4758152500.1586838</v>
       </c>
       <c r="W36">
         <f t="shared" si="10"/>
-        <v>4897744058.7033653</v>
+        <v>4766657553.4251461</v>
       </c>
       <c r="X36">
         <f t="shared" si="10"/>
-        <v>4924711066.0203218</v>
+        <v>4774127343.6126499</v>
       </c>
       <c r="Y36">
         <f t="shared" si="10"/>
-        <v>4947066074.687438</v>
+        <v>4779242125.6911383</v>
       </c>
       <c r="Z36">
         <f t="shared" si="10"/>
-        <v>4969314136.1352911</v>
+        <v>4787708628.0415039</v>
       </c>
       <c r="AA36">
         <f t="shared" si="10"/>
-        <v>4980740326.729847</v>
+        <v>4783748099.9597912</v>
       </c>
       <c r="AB36">
         <f t="shared" si="10"/>
-        <v>4995028350.5572538</v>
+        <v>4781140815.2742167</v>
       </c>
       <c r="AC36">
         <f t="shared" si="10"/>
-        <v>5008051640.5397234</v>
+        <v>4779681283.4820509</v>
       </c>
       <c r="AD36">
         <f t="shared" si="10"/>
-        <v>5019015157.8032293</v>
+        <v>4777616179.5619173</v>
       </c>
       <c r="AE36">
         <f t="shared" si="10"/>
-        <v>5025163674.4482784</v>
+        <v>4771782210.92173</v>
       </c>
       <c r="AF36">
         <f t="shared" si="10"/>
-        <v>5035182829.6552753</v>
+        <v>4771185324.6228142</v>
       </c>
       <c r="AG36">
         <f t="shared" si="10"/>
-        <v>5040563950.5200605</v>
+        <v>4767177898.3711643</v>
       </c>
       <c r="AH36">
         <f t="shared" si="10"/>
-        <v>5045302983.0862455</v>
+        <v>4761889130.6795893</v>
       </c>
       <c r="AI36">
         <f t="shared" si="10"/>
-        <v>5050609078.7701645</v>
+        <v>4758108921.3992338</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="10"/>
-        <v>5055034730.3109589</v>
+        <v>4754525891.0552979</v>
       </c>
       <c r="AK36">
         <f t="shared" si="10"/>
-        <v>5060101314.2714872</v>
+        <v>4751675856.1124859</v>
       </c>
       <c r="AL36">
         <f t="shared" si="10"/>
-        <v>5067749720.1235018</v>
+        <v>4751737636.9547415</v>
       </c>
       <c r="AM36">
         <f t="shared" si="10"/>
-        <v>5074018982.9361649</v>
+        <v>4751100146.3261728</v>
       </c>
       <c r="AN36">
         <f t="shared" si="10"/>
-        <v>5080859778.8917274</v>
+        <v>4750031585.7386913</v>
       </c>
       <c r="AO36">
         <f t="shared" si="10"/>
-        <v>5089559434.5028896</v>
+        <v>4751189681.1926994</v>
       </c>
       <c r="AP36">
         <f t="shared" si="10"/>
-        <v>5097842591.0820284</v>
+        <v>4751642379.2505579</v>
       </c>
       <c r="AQ36">
         <f t="shared" si="10"/>
-        <v>5105985979.8339481</v>
+        <v>4751488537.4955359</v>
       </c>
       <c r="AR36">
         <f t="shared" si="10"/>
-        <v>5116624542.5152702</v>
+        <v>4754650811.1588316</v>
       </c>
       <c r="AS36">
         <f t="shared" si="10"/>
-        <v>5126427709.0081034</v>
+        <v>4756389905.4943476</v>
       </c>
       <c r="AT36">
         <f t="shared" si="10"/>
-        <v>4839655789.5960531</v>
+        <v>4463227763.9481592</v>
       </c>
       <c r="AV36">
         <f>AVERAGE(AK36:AT36)</f>
-        <v>5065882584.2761173</v>
+        <v>4723313430.3672218</v>
       </c>
       <c r="AW36">
         <v>250690</v>
       </c>
       <c r="AX36">
         <f>AV36/AW36</f>
-        <v>20207.756927983235</v>
+        <v>18841.251866317849</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -8656,331 +8721,331 @@
       </c>
       <c r="C37">
         <f>B37*(1+C31)</f>
-        <v>4195013262.0787845</v>
+        <v>4263643692.0208697</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:AT37" si="11">C37*(1+D31)</f>
-        <v>4213214485.6943903</v>
+        <v>4319673485.472991</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
-        <v>4229823144.8339872</v>
+        <v>4356481397.1929388</v>
       </c>
       <c r="F37">
         <f t="shared" si="11"/>
-        <v>4246151702.2382455</v>
+        <v>4381288502.2376108</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>4257373362.6693978</v>
+        <v>4391187536.82971</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
-        <v>4255100205.2084546</v>
+        <v>4375021077.1400833</v>
       </c>
       <c r="I37">
         <f t="shared" si="11"/>
-        <v>4236938959.8793564</v>
+        <v>4334589229.2315674</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>4201707808.2455182</v>
+        <v>4269483622.3316164</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
-        <v>4149552894.0394464</v>
+        <v>4184529660.4943309</v>
       </c>
       <c r="L37">
         <f t="shared" si="11"/>
-        <v>4086015454.8821969</v>
+        <v>4087665955.0125179</v>
       </c>
       <c r="M37">
         <f t="shared" si="11"/>
-        <v>4024757102.9389157</v>
+        <v>3998411273.321445</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>3964406284.6813145</v>
+        <v>3916911141.4922352</v>
       </c>
       <c r="O37">
         <f t="shared" si="11"/>
-        <v>3907875592.2249727</v>
+        <v>3844868128.4480205</v>
       </c>
       <c r="P37">
         <f t="shared" si="11"/>
-        <v>3859497313.5948319</v>
+        <v>3787158467.0892673</v>
       </c>
       <c r="Q37">
         <f t="shared" si="11"/>
-        <v>3812748095.7705641</v>
+        <v>3732117143.321414</v>
       </c>
       <c r="R37">
         <f t="shared" si="11"/>
-        <v>3771979911.1764145</v>
+        <v>3684313339.7621727</v>
       </c>
       <c r="S37">
         <f t="shared" si="11"/>
-        <v>3733608760.4366384</v>
+        <v>3640209866.4184232</v>
       </c>
       <c r="T37">
         <f t="shared" si="11"/>
-        <v>3698576345.6990604</v>
+        <v>3601943491.2487636</v>
       </c>
       <c r="U37">
         <f t="shared" si="11"/>
-        <v>3668526945.2761965</v>
+        <v>3571245013.9512725</v>
       </c>
       <c r="V37">
         <f t="shared" si="11"/>
-        <v>3635829697.3479223</v>
+        <v>3537813303.7852983</v>
       </c>
       <c r="W37">
         <f t="shared" si="11"/>
-        <v>3611395774.8211536</v>
+        <v>3512368057.9560051</v>
       </c>
       <c r="X37">
         <f t="shared" si="11"/>
-        <v>3591308576.9476137</v>
+        <v>3492572919.735868</v>
       </c>
       <c r="Y37">
         <f t="shared" si="11"/>
-        <v>3576206049.1194096</v>
+        <v>3478862941.461442</v>
       </c>
       <c r="Z37">
         <f t="shared" si="11"/>
-        <v>3566470422.5626173</v>
+        <v>3470938109.7259417</v>
       </c>
       <c r="AA37">
         <f t="shared" si="11"/>
-        <v>3558133201.0094943</v>
+        <v>3463035733.7686787</v>
       </c>
       <c r="AB37">
         <f t="shared" si="11"/>
-        <v>3551945439.5218148</v>
+        <v>3454402377.8483849</v>
       </c>
       <c r="AC37">
         <f t="shared" si="11"/>
-        <v>3551143890.9417481</v>
+        <v>3450038763.0566111</v>
       </c>
       <c r="AD37">
         <f t="shared" si="11"/>
-        <v>3552496238.89013</v>
+        <v>3448697061.8756928</v>
       </c>
       <c r="AE37">
         <f t="shared" si="11"/>
-        <v>3551130642.8594823</v>
+        <v>3442586151.9054999</v>
       </c>
       <c r="AF37">
         <f t="shared" si="11"/>
-        <v>3549346353.7300215</v>
+        <v>3434416261.1952629</v>
       </c>
       <c r="AG37">
         <f t="shared" si="11"/>
-        <v>3549543107.3295035</v>
+        <v>3428777011.7876148</v>
       </c>
       <c r="AH37">
         <f t="shared" si="11"/>
-        <v>3550876916.0176258</v>
+        <v>3424520110.4411893</v>
       </c>
       <c r="AI37">
         <f t="shared" si="11"/>
-        <v>3551946190.4180274</v>
+        <v>3419370991.3364463</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="11"/>
-        <v>3553419558.4007874</v>
+        <v>3414290776.42382</v>
       </c>
       <c r="AK37">
         <f t="shared" si="11"/>
-        <v>3557497390.6148381</v>
+        <v>3412236258.01476</v>
       </c>
       <c r="AL37">
         <f t="shared" si="11"/>
-        <v>3561002389.7137442</v>
+        <v>3408892951.7968125</v>
       </c>
       <c r="AM37">
         <f t="shared" si="11"/>
-        <v>3567383270.6959715</v>
+        <v>3409052842.1538792</v>
       </c>
       <c r="AN37">
         <f t="shared" si="11"/>
-        <v>3576040983.0711231</v>
+        <v>3411158124.8968692</v>
       </c>
       <c r="AO37">
         <f t="shared" si="11"/>
-        <v>3583792466.655345</v>
+        <v>3412295937.8599987</v>
       </c>
       <c r="AP37">
         <f t="shared" si="11"/>
-        <v>3608968847.8695431</v>
+        <v>3432565956.3108058</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="11"/>
-        <v>3681386187.7084002</v>
+        <v>3514055270.6590967</v>
       </c>
       <c r="AR37">
         <f t="shared" si="11"/>
-        <v>3822079730.7737927</v>
+        <v>3681289554.836483</v>
       </c>
       <c r="AS37">
         <f t="shared" si="11"/>
-        <v>4054408788.8171725</v>
+        <v>3956861081.4448223</v>
       </c>
       <c r="AT37">
         <f t="shared" si="11"/>
-        <v>3705641427.8164001</v>
+        <v>3550607183.3041339</v>
       </c>
       <c r="AV37">
         <f>AVERAGE(AK37:AT37)</f>
-        <v>3671820148.3736334</v>
+        <v>3518901516.1277657</v>
       </c>
       <c r="AW37">
         <v>229370</v>
       </c>
       <c r="AX37">
         <f>AV37/AW37</f>
-        <v>16008.284206189272</v>
+        <v>15341.594437492984</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -8999,219 +9064,219 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
         <f>AVERAGE('Input data'!AK3:AT3)</f>
-        <v>12714.504973999919</v>
+        <v>12714.50534829997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <f>AVERAGE('Input data'!AK4:AT4)</f>
-        <v>9803.0596916000013</v>
+        <v>9803.0598787999879</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <f>AVERAGE('Input data'!AK5:AT5)</f>
-        <v>5216.9532520999883</v>
+        <v>5216.9532891999943</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <f>AVERAGE('Input data'!AK6:AT6)</f>
-        <v>3899.4038928099908</v>
+        <v>3899.4038792299953</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4">
         <f>AVERAGE('Input data'!AK7:AT7)</f>
-        <v>0.27304844780361193</v>
+        <v>-1.1138060294759788</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4">
         <f>AVERAGE('Input data'!AK8:AT8)</f>
-        <v>0.63636599095132862</v>
+        <v>-0.69486566092557944</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE('Input data'!AK9:AT9)</f>
-        <v>1.7478377232221618</v>
+        <v>-0.74733642636320563</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4">
         <f>AVERAGE('Input data'!AK10:AT10)</f>
-        <v>4.517420133925742</v>
+        <v>1.2143495039023571</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f>AVERAGE('Input data'!AK11:AT11)</f>
-        <v>108755.77642999971</v>
+        <v>98785.578076999824</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f>AVERAGE('Input data'!AK12:AT12)</f>
-        <v>89056.720352000018</v>
+        <v>80237.323854999893</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f>AVERAGE('Input data'!AK13:AT13)</f>
-        <v>45210.817547000028</v>
+        <v>41224.378402999922</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f>AVERAGE('Input data'!AK14:AT14)</f>
-        <v>35982.712334299955</v>
+        <v>33731.508635699916</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22">
         <f>AVERAGE('Input data'!AK15:AT15)</f>
-        <v>26818.332831999938</v>
+        <v>24365.306435299957</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
         <f>AVERAGE('Input data'!AK16:AT16)</f>
-        <v>21005.967397299992</v>
+        <v>18932.805657499917</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24">
         <f>AVERAGE('Input data'!AK17:AT17)</f>
-        <v>11320.54066049997</v>
+        <v>10323.410772999981</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25">
         <f>AVERAGE('Input data'!AK18:AT18)</f>
-        <v>8205.2808363000022</v>
+        <v>7691.0131745999915</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28">
         <f>AVERAGE('Input data'!AK22:AT22)</f>
-        <v>0.47373412274434196</v>
+        <v>0.52127236801919863</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29">
         <f>AVERAGE('Input data'!AK23:AT23)</f>
-        <v>0.46646277277429216</v>
+        <v>0.51728938489852072</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30">
         <f>AVERAGE('Input data'!AK24:AT24)</f>
-        <v>0.46082811840846205</v>
+        <v>0.50541721494044445</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31">
         <f>AVERAGE('Input data'!AK25:AT25)</f>
-        <v>0.47432610864917618</v>
+        <v>0.50607209559093502</v>
       </c>
     </row>
   </sheetData>
@@ -9224,11 +9289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data analysis master - barbados.xlsx
+++ b/Data analysis master - barbados.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\SEI\projects\GoLoCarSce\two sector WORKING\scenario\scenario_BB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="9852"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="21075" windowHeight="9795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="1" r:id="rId1"/>
     <sheet name="2050 timeslices" sheetId="2" r:id="rId2"/>
     <sheet name="Charts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -140,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +207,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -398,127 +393,127 @@
                   <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6536486190000294E-2</c:v>
+                  <c:v>7.6536466389999905E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6719339840000294E-2</c:v>
+                  <c:v>6.6719330560000206E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6963062339999801E-2</c:v>
+                  <c:v>5.69630510439997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6813395106486001E-2</c:v>
+                  <c:v>4.6813393531722002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6607611380955897E-2</c:v>
+                  <c:v>3.662200951893E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6813188622830001E-2</c:v>
+                  <c:v>2.6928602090968701E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7379552426636798E-2</c:v>
+                  <c:v>1.7725403585786E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3018314771999592E-3</c:v>
+                  <c:v>9.0248634130491792E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.5026376668220102E-4</c:v>
+                  <c:v>8.0711224196399996E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.15021483724799E-3</c:v>
+                  <c:v>-7.1950645919329898E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.84118630083E-2</c:v>
+                  <c:v>-1.5641839141509999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.8201182144519998E-2</c:v>
+                  <c:v>-2.4528951064369899E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.8635830105489898E-2</c:v>
+                  <c:v>-3.3983337867581002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.9770074974629902E-2</c:v>
+                  <c:v>-4.4065771316623002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.1324564168309899E-2</c:v>
+                  <c:v>-5.4483235005024798E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.2570920722199506E-2</c:v>
+                  <c:v>-6.4534050682839794E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.3692820746010005E-2</c:v>
+                  <c:v>-7.4390807572050993E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.4455812879369896E-2</c:v>
+                  <c:v>-8.3836757964990002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.1050615133488</c:v>
+                  <c:v>-9.30681315372799E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.11599664899664899</c:v>
+                  <c:v>-0.10253255570754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.12740173893119</c:v>
+                  <c:v>-0.112385449086015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.13944915456925999</c:v>
+                  <c:v>-0.12282095639444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.152119567330054</c:v>
+                  <c:v>-0.13382472806289</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.16544721006135901</c:v>
+                  <c:v>-0.14543292081824</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.1827909898275</c:v>
+                  <c:v>-0.16090143197610099</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.20863328941089901</c:v>
+                  <c:v>-0.18477151537875899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.24333034925779901</c:v>
+                  <c:v>-0.21741119341169901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.28725351444140901</c:v>
+                  <c:v>-0.25916743564106998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.34045046950669899</c:v>
+                  <c:v>-0.31004997305439902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.40040852381999897</c:v>
+                  <c:v>-0.36752540797529998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.46255193091389801</c:v>
+                  <c:v>-0.42709945957199902</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.52689249588339704</c:v>
+                  <c:v>-0.488798978745699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.59348705089209997</c:v>
+                  <c:v>-0.55267461623240199</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.66224869517689799</c:v>
+                  <c:v>-0.61865860395899697</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.73383169632299805</c:v>
+                  <c:v>-0.68734984272739796</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.80873941465840005</c:v>
+                  <c:v>-0.75921978774249499</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.887762116435999</c:v>
+                  <c:v>-0.83500319814399904</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.97087629465000103</c:v>
+                  <c:v>-0.91466411970699901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.05849165665339</c:v>
+                  <c:v>-0.99862935854199897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -672,127 +667,127 @@
                   <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6446293139999705E-2</c:v>
+                  <c:v>7.6446272760000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6653130279999806E-2</c:v>
+                  <c:v>6.6653120529999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6891908907000001E-2</c:v>
+                  <c:v>5.6891898136000103E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6773426167579901E-2</c:v>
+                  <c:v>4.6773428645939898E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6263039630806099E-2</c:v>
+                  <c:v>3.6263048126202999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5377170815839001E-2</c:v>
+                  <c:v>2.5377187194535002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.39525881599879E-2</c:v>
+                  <c:v>1.3952611500393E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9403906653065999E-3</c:v>
+                  <c:v>1.9404206412521E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.07033174524399E-2</c:v>
+                  <c:v>-1.0703281415410999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3560749211460001E-2</c:v>
+                  <c:v>-2.356070136581E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.6057098630780798E-2</c:v>
+                  <c:v>-3.6057041324834997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.82796765560317E-2</c:v>
+                  <c:v>-4.8279610738021797E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.0196171353320699E-2</c:v>
+                  <c:v>-6.0196095724199997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.1838421425450105E-2</c:v>
+                  <c:v>-7.1838335052091001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.3754988371299105E-2</c:v>
+                  <c:v>-8.3754895577542704E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9.6432799477735698E-2</c:v>
+                  <c:v>-9.6432696281498906E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.10995710851002299</c:v>
+                  <c:v>-0.10995698998797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.12425836400748901</c:v>
+                  <c:v>-0.124258236879897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.13939148591298001</c:v>
+                  <c:v>-0.139391348165079</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.15569434104162</c:v>
+                  <c:v>-0.15569418564882001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.17286472731489799</c:v>
+                  <c:v>-0.17286456650106299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.19091456696429901</c:v>
+                  <c:v>-0.19091438078164899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.20975916579604001</c:v>
+                  <c:v>-0.2097589707619</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.22947226999319001</c:v>
+                  <c:v>-0.22947205596827</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.25095097495178997</c:v>
+                  <c:v>-0.25095074536292</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.27336989496504899</c:v>
+                  <c:v>-0.27336963424084998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.29683583015138099</c:v>
+                  <c:v>-0.29683559079319899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.321431521640688</c:v>
+                  <c:v>-0.32143126125863802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.34689839303690601</c:v>
+                  <c:v>-0.346898101852471</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.372911107446879</c:v>
+                  <c:v>-0.37291078737501798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.39892282100251902</c:v>
+                  <c:v>-0.39892249253813999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.4247498092848</c:v>
+                  <c:v>-0.42474946124479901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.45053270787709998</c:v>
+                  <c:v>-0.45053232953440098</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.47623438365508802</c:v>
+                  <c:v>-0.47623401414260302</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.50244688174348795</c:v>
+                  <c:v>-0.50244644147348105</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.53006168143880805</c:v>
+                  <c:v>-0.53006124017487299</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.55937675044050295</c:v>
+                  <c:v>-0.55937629053409998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.59064420615839797</c:v>
+                  <c:v>-0.59064374173980005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.62365436617150005</c:v>
+                  <c:v>-0.62365383517560102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -946,127 +941,127 @@
                   <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6637157899999905E-2</c:v>
+                  <c:v>7.6637137519999801E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7378791159999493E-2</c:v>
+                  <c:v>6.7378780520000195E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8585328258000002E-2</c:v>
+                  <c:v>5.8585314266999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9822503466960003E-2</c:v>
+                  <c:v>4.9822499391819798E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1198359208790003E-2</c:v>
+                  <c:v>4.1198357427179998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2540311535160002E-2</c:v>
+                  <c:v>3.25403144083901E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3603920628213201E-2</c:v>
+                  <c:v>2.36039246908675E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.44751880570639E-2</c:v>
+                  <c:v>1.4475191895335001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1164751621670104E-3</c:v>
+                  <c:v>5.1164786954709897E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.4546088637910097E-3</c:v>
+                  <c:v>-4.4546044048109903E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.42262105182399E-2</c:v>
+                  <c:v>-1.42262048957399E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.43222578896818E-2</c:v>
+                  <c:v>-2.43222529807119E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.4837354204879899E-2</c:v>
+                  <c:v>-3.4837349957450997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.5850694284469903E-2</c:v>
+                  <c:v>-4.5850690162800099E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.7456921025115897E-2</c:v>
+                  <c:v>-5.7456917247751899E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.9617090754279895E-2</c:v>
+                  <c:v>-6.96170885574698E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.2314830436620204E-2</c:v>
+                  <c:v>-8.2314822195919901E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.5562439366129695E-2</c:v>
+                  <c:v>-9.5562435138249996E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.109556408811829</c:v>
+                  <c:v>-0.109556409724339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.12463564374916999</c:v>
+                  <c:v>-0.124635653741049</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.14032120139750001</c:v>
+                  <c:v>-0.140321220315999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.15666340912460999</c:v>
+                  <c:v>-0.15666343675892899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.17385248865821101</c:v>
+                  <c:v>-0.173852518443153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.19180459871473901</c:v>
+                  <c:v>-0.19180462809098001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.211331357605689</c:v>
+                  <c:v>-0.21133139141453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.23167143468474199</c:v>
+                  <c:v>-0.23167147797740301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.25287120389290602</c:v>
+                  <c:v>-0.25287128865782299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.274974328600468</c:v>
+                  <c:v>-0.27497442580369003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.298130303503718</c:v>
+                  <c:v>-0.29813040824116899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.32193898619755801</c:v>
+                  <c:v>-0.32193910980340001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.34694163639522102</c:v>
+                  <c:v>-0.346941780512319</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.37296562042156001</c:v>
+                  <c:v>-0.37296577526573899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.40015562768944002</c:v>
+                  <c:v>-0.40015583119106002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.42868215196148002</c:v>
+                  <c:v>-0.42868239326524799</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.45846109949395902</c:v>
+                  <c:v>-0.45846134185626902</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.48889099419600002</c:v>
+                  <c:v>-0.48889127239879998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.52102226493100001</c:v>
+                  <c:v>-0.52102260087130003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.55484023897266999</c:v>
+                  <c:v>-0.55484060835542803</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.58987533345559695</c:v>
+                  <c:v>-0.58987573133100102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -1220,127 +1215,127 @@
                   <c:v>8.9392299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6744008180000198E-2</c:v>
+                  <c:v>7.6743989050000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7616069979999902E-2</c:v>
+                  <c:v>6.7616059930000097E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8924397508E-2</c:v>
+                  <c:v>5.8924382913999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0283139046939998E-2</c:v>
+                  <c:v>5.02831356293897E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.24851265345099E-2</c:v>
+                  <c:v>4.2485124489069999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7518727305726203E-2</c:v>
+                  <c:v>3.7518732842824899E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5652037246489902E-2</c:v>
+                  <c:v>3.565204775005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.74879974739099E-2</c:v>
+                  <c:v>3.7488014530790099E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.33490513185378E-2</c:v>
+                  <c:v>4.3349072613647101E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3150261628439999E-2</c:v>
+                  <c:v>5.3150297389968001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.60600606752305E-2</c:v>
+                  <c:v>6.6060113262438602E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1893317522634304E-2</c:v>
+                  <c:v>8.1893384092265306E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10079394587786999</c:v>
+                  <c:v>0.100794031905878</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12265642731034999</c:v>
+                  <c:v>0.122656532814909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.147571173616489</c:v>
+                  <c:v>0.147571310002239</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17413298328679899</c:v>
+                  <c:v>0.17413312846846901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20207053009412901</c:v>
+                  <c:v>0.20207068997406999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23128270331467099</c:v>
+                  <c:v>0.231282886766877</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.261597023378009</c:v>
+                  <c:v>0.261597224837119</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29356961214914901</c:v>
+                  <c:v>0.29356983058760999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.32692098133960001</c:v>
+                  <c:v>0.32692122597685802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.36150725618829799</c:v>
+                  <c:v>0.36150751952770199</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.39727386367776002</c:v>
+                  <c:v>0.397274149602099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43407189387449802</c:v>
+                  <c:v>0.43407219525899898</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.47360685759392002</c:v>
+                  <c:v>0.47360720131971901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51577529964940605</c:v>
+                  <c:v>0.51577563964611794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56004104923529496</c:v>
+                  <c:v>0.56004148605420201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.60737445076150298</c:v>
+                  <c:v>0.60737492718539998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.65729744008259605</c:v>
+                  <c:v>0.65729788098120001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.71075363902280098</c:v>
+                  <c:v>0.71075411651510201</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.767686421934898</c:v>
+                  <c:v>0.76768695170867896</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82768822397910002</c:v>
+                  <c:v>0.82768879940890205</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.89111763512170095</c:v>
+                  <c:v>0.89111830729819996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.95832010615640895</c:v>
+                  <c:v>0.95832085875178197</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0291794738797999</c:v>
+                  <c:v>1.0291801777534999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1061354508624499</c:v>
+                  <c:v>1.1061362617555901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1864691080334</c:v>
+                  <c:v>1.1864699976727</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2725867026215001</c:v>
+                  <c:v>1.2725877228643201</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3651684485265001</c:v>
+                  <c:v>1.3651695155268899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -1354,12 +1349,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75380608"/>
-        <c:axId val="75382144"/>
+        <c:axId val="79788672"/>
+        <c:axId val="79794944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75380608"/>
+        <c:axId val="79788672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75382144"/>
+        <c:crossAx val="79794944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1377,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75382144"/>
+        <c:axId val="79794944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75380608"/>
+        <c:crossAx val="79788672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1411,7 +1407,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1597,127 +1593,127 @@
                   <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34035022607700588</c:v>
+                  <c:v>0.34035018282097929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34470183630086565</c:v>
+                  <c:v>0.34470180431069125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35050866007057785</c:v>
+                  <c:v>0.3505086005223495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35660698944028324</c:v>
+                  <c:v>0.35660696554895716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36292923042609154</c:v>
+                  <c:v>0.36286457571599229</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36916947639521114</c:v>
+                  <c:v>0.36893011439708695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37510224427080857</c:v>
+                  <c:v>0.37463443439505523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38088006512816586</c:v>
+                  <c:v>0.38015130296390282</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3861762970144213</c:v>
+                  <c:v>0.38516235939779125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39140938801993275</c:v>
+                  <c:v>0.39015704721497241</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39623035711219767</c:v>
+                  <c:v>0.39483786808972876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40068381989654805</c:v>
+                  <c:v>0.3991891020008882</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40451383820367859</c:v>
+                  <c:v>0.40293496141725549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4078683154134824</c:v>
+                  <c:v>0.40621689198141298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41148829048545621</c:v>
+                  <c:v>0.4097693131350249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41506849646448934</c:v>
+                  <c:v>0.41329440776982168</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41801001749969091</c:v>
+                  <c:v>0.41618878800284831</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.42152613219222768</c:v>
+                  <c:v>0.41966695642462143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42471191352614834</c:v>
+                  <c:v>0.42282338010935022</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.428702483017322</c:v>
+                  <c:v>0.42678592574809093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.43260050197695171</c:v>
+                  <c:v>0.43066462764574315</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43655946599917084</c:v>
+                  <c:v>0.43461116441225994</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.44069676992997497</c:v>
+                  <c:v>0.43874281109962193</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.44481867324842511</c:v>
+                  <c:v>0.44286586830368685</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44990389617659798</c:v>
+                  <c:v>0.44802740057805868</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45481622547803796</c:v>
+                  <c:v>0.45314748087190032</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45989758713630674</c:v>
+                  <c:v>0.45849097338461064</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.46501612728733049</c:v>
+                  <c:v>0.46390139113489998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.47022734918702475</c:v>
+                  <c:v>0.46942602025057761</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47538321650557136</c:v>
+                  <c:v>0.4748301264625891</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.48053614296851394</c:v>
+                  <c:v>0.48011861903832936</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.48564553948448874</c:v>
+                  <c:v>0.48532644440213463</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.49074115139165697</c:v>
+                  <c:v>0.4905075629680985</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.49586670031739727</c:v>
+                  <c:v>0.49571425467401908</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.50056833597337691</c:v>
+                  <c:v>0.50049300672022246</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.50529313823675848</c:v>
+                  <c:v>0.50529089841173214</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.50978007163665717</c:v>
+                  <c:v>0.50984593018396918</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.51431756925859262</c:v>
+                  <c:v>0.51444754216601773</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.51879347563269274</c:v>
+                  <c:v>0.51898362236048778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -1871,127 +1867,127 @@
                   <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34041931521211249</c:v>
+                  <c:v>0.34041926949787821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34466211021659676</c:v>
+                  <c:v>0.34466207129382009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3504779185971012</c:v>
+                  <c:v>0.35047786702434786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35659445701522585</c:v>
+                  <c:v>0.35659442994957347</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36279352673604709</c:v>
+                  <c:v>0.36279349297807201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36884830750542513</c:v>
+                  <c:v>0.36884830607688879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37454897525362141</c:v>
+                  <c:v>0.37454896084215406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38018531374039666</c:v>
+                  <c:v>0.38018531677546868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38514988834679814</c:v>
+                  <c:v>0.38514987437616061</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.390352236869766</c:v>
+                  <c:v>0.39035223231649985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39506105035500239</c:v>
+                  <c:v>0.39506107282646669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39925081346936742</c:v>
+                  <c:v>0.39925082650410998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40305770861102025</c:v>
+                  <c:v>0.40305774322374277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40647910778697105</c:v>
+                  <c:v>0.4064791430904714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41004021430660176</c:v>
+                  <c:v>0.41004026558718382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41309737935653679</c:v>
+                  <c:v>0.41309740716368881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4160027153049306</c:v>
+                  <c:v>0.41600273239870827</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41911238720338545</c:v>
+                  <c:v>0.41911240140828832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42193142261325112</c:v>
+                  <c:v>0.42193143398467547</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42578798076357155</c:v>
+                  <c:v>0.42578797820452891</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42951340555659823</c:v>
+                  <c:v>0.42951341619629352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43334495862024547</c:v>
+                  <c:v>0.43334490933510172</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4374666715328519</c:v>
+                  <c:v>0.43746661083117483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.44161374384232582</c:v>
+                  <c:v>0.44161367385854705</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44646469238563713</c:v>
+                  <c:v>0.44646464351299353</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45127439587165763</c:v>
+                  <c:v>0.45127435208256717</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45636298063943431</c:v>
+                  <c:v>0.45636293696665292</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.46140098617781861</c:v>
+                  <c:v>0.46140091063133493</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.46661572557107378</c:v>
+                  <c:v>0.46661562166406795</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47187730869649247</c:v>
+                  <c:v>0.47187721104703945</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4769479301196613</c:v>
+                  <c:v>0.47694782469924507</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.48222181874546699</c:v>
+                  <c:v>0.48222173522897377</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.48737039141066918</c:v>
+                  <c:v>0.48737028643471697</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.49243256683886971</c:v>
+                  <c:v>0.49243249589622284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.49735264809847429</c:v>
+                  <c:v>0.49735252055794427</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.50205776774812727</c:v>
+                  <c:v>0.50205765764353294</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.50657701972599278</c:v>
+                  <c:v>0.50657690783628262</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.51114987300790993</c:v>
+                  <c:v>0.51114974363143473</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.51580755119356925</c:v>
+                  <c:v>0.51580740495898592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -2145,127 +2141,127 @@
                   <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34004544786315027</c:v>
+                  <c:v>0.34004540997637295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34393968150744675</c:v>
+                  <c:v>0.3439396403299908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34926175502894374</c:v>
+                  <c:v>0.34926169793983614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35472901376892374</c:v>
+                  <c:v>0.35472898304766182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36021074532924469</c:v>
+                  <c:v>0.36021071538072308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3659260537432284</c:v>
+                  <c:v>0.36592605673678869</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37153911164332121</c:v>
+                  <c:v>0.37153910374445015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37648576373007836</c:v>
+                  <c:v>0.37648577147813961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38092573631286109</c:v>
+                  <c:v>0.38092573336635349</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.385527500423688</c:v>
+                  <c:v>0.38552750521928603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38975151073462622</c:v>
+                  <c:v>0.38975153909564364</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39364464534922405</c:v>
+                  <c:v>0.39364466795136283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39718818511150483</c:v>
+                  <c:v>0.39718822628755257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40020825842115254</c:v>
+                  <c:v>0.40020829897242299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40349045644615955</c:v>
+                  <c:v>0.40349050988839641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40604392673497913</c:v>
+                  <c:v>0.40604395658123393</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40853476258946159</c:v>
+                  <c:v>0.40853478659879966</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41116258712185694</c:v>
+                  <c:v>0.41116259120583598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4137080715939771</c:v>
+                  <c:v>0.41370809645092355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41686506813264873</c:v>
+                  <c:v>0.41686507768325409</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42006259896588527</c:v>
+                  <c:v>0.42006263046174924</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.42374628314116375</c:v>
+                  <c:v>0.42374624053142318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42745627208016307</c:v>
+                  <c:v>0.42745622069503797</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43129017260912872</c:v>
+                  <c:v>0.43129011048214067</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.43574873441049633</c:v>
+                  <c:v>0.43574868761627744</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.44045897748552804</c:v>
+                  <c:v>0.44045894118834417</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4453520424127646</c:v>
+                  <c:v>0.44535201157023019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.45030416265732043</c:v>
+                  <c:v>0.45030410926661429</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45486667457042057</c:v>
+                  <c:v>0.45486661772325371</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.46010410358214271</c:v>
+                  <c:v>0.46010403596507166</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46469951384153924</c:v>
+                  <c:v>0.46469943505992739</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46958792103096192</c:v>
+                  <c:v>0.46958784157541095</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47464372717069542</c:v>
+                  <c:v>0.47464364598128328</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47942903590965952</c:v>
+                  <c:v>0.47942894390746543</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.484310077469228</c:v>
+                  <c:v>0.48430997424421457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.48953336165959527</c:v>
+                  <c:v>0.48953327997311286</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.49423720908252866</c:v>
+                  <c:v>0.49423711245158203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.49915098043973333</c:v>
+                  <c:v>0.49915088879485531</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.50421489688204157</c:v>
+                  <c:v>0.504214791605339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -2419,127 +2415,127 @@
                   <c:v>0.34599591626091053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33998625346397832</c:v>
+                  <c:v>0.3399862132456164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34375870610328746</c:v>
+                  <c:v>0.34375866987483794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34912852054875215</c:v>
+                  <c:v>0.34912846486499099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35474239651670419</c:v>
+                  <c:v>0.35474236425012828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35989945099482407</c:v>
+                  <c:v>0.35989941917534396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36426340147916553</c:v>
+                  <c:v>0.36426339093893662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36786387082030547</c:v>
+                  <c:v>0.36786385694764967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37114052356138544</c:v>
+                  <c:v>0.37114052946653514</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37391974418040053</c:v>
+                  <c:v>0.37391973489685448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3772423083649975</c:v>
+                  <c:v>0.3772422988034142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38081333342224938</c:v>
+                  <c:v>0.38081334876136741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38414050909033398</c:v>
+                  <c:v>0.38414051871278893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38727323438036915</c:v>
+                  <c:v>0.38727325742286861</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39012050034757934</c:v>
+                  <c:v>0.3901205334164245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39297606589160422</c:v>
+                  <c:v>0.39297610461752391</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39518712556237195</c:v>
+                  <c:v>0.3951871427437782</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.39752792491401601</c:v>
+                  <c:v>0.39752793515215279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40010584681064704</c:v>
+                  <c:v>0.40010584810613414</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40297855136622607</c:v>
+                  <c:v>0.40297856179356528</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40624462031570335</c:v>
+                  <c:v>0.40624462168980935</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.40990638356876347</c:v>
+                  <c:v>0.40990637866850965</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41377756001680122</c:v>
+                  <c:v>0.41377752990539657</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41781928752278891</c:v>
+                  <c:v>0.41781922528222343</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42204441875652549</c:v>
+                  <c:v>0.42204433783830175</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42717120078720211</c:v>
+                  <c:v>0.42717115143276285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43161979081433482</c:v>
+                  <c:v>0.43161973875739656</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43699782961942935</c:v>
+                  <c:v>0.43699779679075368</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44208141274788076</c:v>
+                  <c:v>0.44208134073201988</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44673184805345173</c:v>
+                  <c:v>0.44673174596327431</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.45158016143535273</c:v>
+                  <c:v>0.4515800782610328</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4566721486292834</c:v>
+                  <c:v>0.45667204883711404</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46177184505572766</c:v>
+                  <c:v>0.46177174816561906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46677348729382634</c:v>
+                  <c:v>0.46677337857681678</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47185023283322425</c:v>
+                  <c:v>0.47185016578739308</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47714983799528804</c:v>
+                  <c:v>0.47714971883337498</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.48229740137191879</c:v>
+                  <c:v>0.48229729798802989</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.48766028449401816</c:v>
+                  <c:v>0.48766017198257944</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.49322582656723973</c:v>
+                  <c:v>0.49322572963880412</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.49813545303195378</c:v>
+                  <c:v>0.49813533737852128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -2553,12 +2549,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76228480"/>
-        <c:axId val="76230016"/>
+        <c:axId val="124217984"/>
+        <c:axId val="128000384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76228480"/>
+        <c:axId val="124217984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76230016"/>
+        <c:crossAx val="128000384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2576,7 +2573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76230016"/>
+        <c:axId val="128000384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76228480"/>
+        <c:crossAx val="124217984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2610,7 +2607,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2796,127 +2793,127 @@
                   <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33273.975649999898</c:v>
+                  <c:v>33273.981140000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33832.052819999903</c:v>
+                  <c:v>33832.058579999801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34285.539709999903</c:v>
+                  <c:v>34285.54808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34713.579149999801</c:v>
+                  <c:v>34713.584690000098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35147.298749999798</c:v>
+                  <c:v>35140.485719999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35639.943539999898</c:v>
+                  <c:v>35601.192379999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36197.792319999899</c:v>
+                  <c:v>36094.939100000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36861.547219999899</c:v>
+                  <c:v>36658.401759999899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37615.976280000097</c:v>
+                  <c:v>37273.259819999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38419.901850000002</c:v>
+                  <c:v>37903.304549999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39325.206749999801</c:v>
+                  <c:v>38616.705060000102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40311.743349999997</c:v>
+                  <c:v>39398.189540000101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41371.492749999801</c:v>
+                  <c:v>40240.848729999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42516.76915</c:v>
+                  <c:v>41156.236289999899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43703.846290000103</c:v>
+                  <c:v>42101.476670000098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45058.070109999899</c:v>
+                  <c:v>43195.6449400001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46467.281169999696</c:v>
+                  <c:v>44329.9642199999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48015.078389999799</c:v>
+                  <c:v>45582.638439999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49651.550279999901</c:v>
+                  <c:v>46904.928010000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51317.32849</c:v>
+                  <c:v>48240.164429999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53049.887519999902</c:v>
+                  <c:v>49622.607159999898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54859.017049999798</c:v>
+                  <c:v>51060.645199999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56757.345049999902</c:v>
+                  <c:v>52564.966870000098</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58749.451990000001</c:v>
+                  <c:v>54138.698559999902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60742.141300000003</c:v>
+                  <c:v>55706.892890000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62835.842109999903</c:v>
+                  <c:v>57391.586940000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65001.909239999797</c:v>
+                  <c:v>59179.568269999902</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67252.238039999895</c:v>
+                  <c:v>61089.355049999802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69638.026569999798</c:v>
+                  <c:v>63173.4885599997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>72139.985330000301</c:v>
+                  <c:v>65407.7631899997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74764.580769999797</c:v>
+                  <c:v>67767.441510000106</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77506.647229999799</c:v>
+                  <c:v>70237.986050000094</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80373.338930000202</c:v>
+                  <c:v>72822.643410000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83395.400279999696</c:v>
+                  <c:v>75548.038099999801</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>86492.567659999695</c:v>
+                  <c:v>78341.484139999899</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89612.406770000496</c:v>
+                  <c:v>81155.440070000099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>92695.874819999794</c:v>
+                  <c:v>83936.707569999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95760.398830000093</c:v>
+                  <c:v>86700.949840000307</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>98788.870710000105</c:v>
+                  <c:v>89432.723650000204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3070,127 +3067,127 @@
                   <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33296.9401699999</c:v>
+                  <c:v>33296.943899999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33859.711450000097</c:v>
+                  <c:v>33859.714030000097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34332.8028399998</c:v>
+                  <c:v>34332.804620000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34781.063410000097</c:v>
+                  <c:v>34781.063479999902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35218.095519999901</c:v>
+                  <c:v>35218.097809999897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35677.931239999903</c:v>
+                  <c:v>35677.932079999897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36179.947549999903</c:v>
+                  <c:v>36179.947279999898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36764.846460000001</c:v>
+                  <c:v>36764.845150000103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37392.405749999998</c:v>
+                  <c:v>37392.406869999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38079.018589999701</c:v>
+                  <c:v>38079.018589999898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38842.787580000098</c:v>
+                  <c:v>38842.787469999901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39669.385199999801</c:v>
+                  <c:v>39669.386770000303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40558.478789999899</c:v>
+                  <c:v>40558.47898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41542.650599999797</c:v>
+                  <c:v>41542.648449999702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42551.415030000098</c:v>
+                  <c:v>42551.412519999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43652.626029999898</c:v>
+                  <c:v>43652.624150000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44782.585330000002</c:v>
+                  <c:v>44782.582439999896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45989.501179999897</c:v>
+                  <c:v>45989.497609999802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47204.552289999898</c:v>
+                  <c:v>47204.543189999902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48403.538829999998</c:v>
+                  <c:v>48403.5283000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49636.697670000103</c:v>
+                  <c:v>49636.691509999902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50880.7753300002</c:v>
+                  <c:v>50880.774660000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52192.498109999797</c:v>
+                  <c:v>52192.5019500001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53588.700509999901</c:v>
+                  <c:v>53588.706559999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>54918.087870000003</c:v>
+                  <c:v>54918.0885099999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56284.717040000003</c:v>
+                  <c:v>56284.724829999803</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57686.5377099998</c:v>
+                  <c:v>57686.542909999698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59112.307339999898</c:v>
+                  <c:v>59112.316500000103</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60629.577799999803</c:v>
+                  <c:v>60629.595229999803</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62243.805529999998</c:v>
+                  <c:v>62243.824760000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>63917.829769999902</c:v>
+                  <c:v>63917.844309999797</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65678.790670000002</c:v>
+                  <c:v>65678.806249999907</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67537.051770000093</c:v>
+                  <c:v>67537.067849999803</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>69465.449410000001</c:v>
+                  <c:v>69465.463370000303</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71431.279250000094</c:v>
+                  <c:v>71431.300649999597</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>73376.675840000098</c:v>
+                  <c:v>73376.697549999793</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>75269.804399999804</c:v>
+                  <c:v>75269.833349999899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>77109.660719999898</c:v>
+                  <c:v>77109.683820000195</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>78909.837289999894</c:v>
+                  <c:v>78909.860629999894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3344,127 +3341,127 @@
                   <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33243.341390000001</c:v>
+                  <c:v>33243.345809999897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33693.764749999798</c:v>
+                  <c:v>33693.770199999897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33977.521590000099</c:v>
+                  <c:v>33977.528050000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34166.287679999899</c:v>
+                  <c:v>34166.292460000099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34258.369089999796</c:v>
+                  <c:v>34258.380290000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34345.453799999799</c:v>
+                  <c:v>34345.4666399997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34479.711809999601</c:v>
+                  <c:v>34479.7225799999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34608.559670000002</c:v>
+                  <c:v>34608.570639999904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34730.652939999803</c:v>
+                  <c:v>34730.665669999798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34847.911539999797</c:v>
+                  <c:v>34847.9264700001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34994.087009999799</c:v>
+                  <c:v>34994.098779999898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35174.0046199996</c:v>
+                  <c:v>35174.017379999801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35397.379170000102</c:v>
+                  <c:v>35397.390959999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35669.396969999798</c:v>
+                  <c:v>35669.404600000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35958.332399999803</c:v>
+                  <c:v>35958.342730000099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36266.2565000002</c:v>
+                  <c:v>36266.265679999902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36542.984240000202</c:v>
+                  <c:v>36542.995389999902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36829.5968400001</c:v>
+                  <c:v>36829.60916</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37114.9359199998</c:v>
+                  <c:v>37114.950360000097</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37292.089119999902</c:v>
+                  <c:v>37292.109029999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37460.564079999996</c:v>
+                  <c:v>37460.580540000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37636.058499999999</c:v>
+                  <c:v>37636.079760000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37808.2620900002</c:v>
+                  <c:v>37808.2870999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38022.505390000202</c:v>
+                  <c:v>38022.528269999901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38152.73388</c:v>
+                  <c:v>38152.757010000198</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38306.9514099999</c:v>
+                  <c:v>38306.9802099999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38483.807860000001</c:v>
+                  <c:v>38483.833979999901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38669.428429999898</c:v>
+                  <c:v>38669.461049999903</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38838.1835600001</c:v>
+                  <c:v>38838.220970000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39061.558150000099</c:v>
+                  <c:v>39061.598050000102</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39266.074069999901</c:v>
+                  <c:v>39266.108959999699</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39468.999229999899</c:v>
+                  <c:v>39469.034769999802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39693.534099999997</c:v>
+                  <c:v>39693.570730000101</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39929.057040000102</c:v>
+                  <c:v>39929.0946200002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40178.3799099998</c:v>
+                  <c:v>40178.418449999903</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40457.113120000002</c:v>
+                  <c:v>40457.154259999901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40734.884819999701</c:v>
+                  <c:v>40734.9250500001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41013.965619999901</c:v>
+                  <c:v>41014.005249999798</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41317.463689999997</c:v>
+                  <c:v>41317.504870000099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3618,127 +3615,127 @@
                   <c:v>31788.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33231.805670000002</c:v>
+                  <c:v>33231.811790000102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33668.294830000101</c:v>
+                  <c:v>33668.299700000098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33956.727610000104</c:v>
+                  <c:v>33956.734259999801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34153.417950000003</c:v>
+                  <c:v>34153.4225299998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34237.576140000099</c:v>
+                  <c:v>34237.583669999702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34125.252300000102</c:v>
+                  <c:v>34125.255640000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33830.185009999899</c:v>
+                  <c:v>33830.187649999898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33348.667880000103</c:v>
+                  <c:v>33348.666869999899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32717.679669999801</c:v>
+                  <c:v>32717.67596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31999.871269999901</c:v>
+                  <c:v>31999.865160000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31349.596199999902</c:v>
+                  <c:v>31349.588979999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30767.66661</c:v>
+                  <c:v>30767.659429999901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30267.276060000098</c:v>
+                  <c:v>30267.26914</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29886.9174649999</c:v>
+                  <c:v>29886.911495</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29535.154809</c:v>
+                  <c:v>29535.149088999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29248.746998999901</c:v>
+                  <c:v>29248.742688999901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28999.749222999999</c:v>
+                  <c:v>28999.747492999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28805.288123999901</c:v>
+                  <c:v>28805.287842999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28679.588741</c:v>
+                  <c:v>28679.584989000101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28540.619462999901</c:v>
+                  <c:v>28540.614792</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28475.567795999901</c:v>
+                  <c:v>28475.564102999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28466.2669459998</c:v>
+                  <c:v>28466.265811999801</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28516.992076999901</c:v>
+                  <c:v>28516.992172999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28626.179445999998</c:v>
+                  <c:v>28626.180492999902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28747.336773999799</c:v>
+                  <c:v>28747.337321999901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28874.894494999899</c:v>
+                  <c:v>28874.894158999901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29050.996112999899</c:v>
+                  <c:v>29050.995307000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29266.069883999899</c:v>
+                  <c:v>29266.070577999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29454.3377799999</c:v>
+                  <c:v>29454.339108</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>29638.164892999899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29856.847682</c:v>
+                  <c:v>29856.846858000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30101.151176999902</c:v>
+                  <c:v>30101.149617000101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30351.537827</c:v>
+                  <c:v>30351.536715999799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30616.705635999901</c:v>
+                  <c:v>30616.703410999799</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30924.1343759999</c:v>
+                  <c:v>30924.134515999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31236.108901999902</c:v>
+                  <c:v>31236.1096799999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31597.089482999902</c:v>
+                  <c:v>31597.0896299999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31994.082540999902</c:v>
+                  <c:v>31994.0847819999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32400.6455079999</c:v>
+                  <c:v>32400.647337999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3752,12 +3749,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76265344"/>
-        <c:axId val="76266880"/>
+        <c:axId val="79942784"/>
+        <c:axId val="79944320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76265344"/>
+        <c:axId val="79942784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3767,7 +3765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76266880"/>
+        <c:crossAx val="79944320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3775,7 +3773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76266880"/>
+        <c:axId val="79944320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,7 +3803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76265344"/>
+        <c:crossAx val="79942784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3971,7 +3969,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4006,7 +4004,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4217,17 +4215,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AT18"/>
+    <sheetView topLeftCell="AD25" workbookViewId="0">
+      <selection activeCell="AG56" sqref="AG56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4367,7 +4365,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>2355.5100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4383,139 +4381,139 @@
         <v>3084</v>
       </c>
       <c r="C3">
-        <v>3176.2637299999901</v>
+        <v>3176.263715</v>
       </c>
       <c r="D3">
-        <v>3271.9218219999998</v>
+        <v>3271.9218109999902</v>
       </c>
       <c r="E3">
-        <v>3373.0533599999899</v>
+        <v>3373.0533390000001</v>
       </c>
       <c r="F3">
-        <v>3476.3426339999901</v>
+        <v>3476.3426089999898</v>
       </c>
       <c r="G3">
-        <v>3584.012843</v>
+        <v>3582.6793460000099</v>
       </c>
       <c r="H3">
-        <v>3698.1559050000001</v>
+        <v>3691.7393710000001</v>
       </c>
       <c r="I3">
-        <v>3817.3795169999898</v>
+        <v>3801.7851070000002</v>
       </c>
       <c r="J3">
-        <v>3947.7622139999999</v>
+        <v>3918.49342199998</v>
       </c>
       <c r="K3">
-        <v>4084.5776959999898</v>
+        <v>4036.7358869999998</v>
       </c>
       <c r="L3">
-        <v>4227.70934699999</v>
+        <v>4157.5176620000102</v>
       </c>
       <c r="M3">
-        <v>4378.9167539999899</v>
+        <v>4284.9113310000002</v>
       </c>
       <c r="N3">
-        <v>4536.4220489999798</v>
+        <v>4417.0761689999899</v>
       </c>
       <c r="O3">
-        <v>4696.2217020000098</v>
+        <v>4550.0479930000001</v>
       </c>
       <c r="P3">
-        <v>4861.0494200000003</v>
+        <v>4686.44233299999</v>
       </c>
       <c r="Q3">
-        <v>5034.5460569999896</v>
+        <v>4829.6954129999904</v>
       </c>
       <c r="R3">
-        <v>5227.56480499997</v>
+        <v>4990.0671249999996</v>
       </c>
       <c r="S3">
-        <v>5419.4527449999896</v>
+        <v>5147.6502539999901</v>
       </c>
       <c r="T3">
-        <v>5635.4485379999696</v>
+        <v>5326.35852600001</v>
       </c>
       <c r="U3">
-        <v>5857.9953149999801</v>
+        <v>5509.3324199999797</v>
       </c>
       <c r="V3">
-        <v>6095.5840749999797</v>
+        <v>5704.4515469999897</v>
       </c>
       <c r="W3">
-        <v>6340.1238750000002</v>
+        <v>5903.9784479999998</v>
       </c>
       <c r="X3">
-        <v>6594.8678440000003</v>
+        <v>6110.8486269999903</v>
       </c>
       <c r="Y3">
-        <v>6863.1332460000003</v>
+        <v>6328.0016669999804</v>
       </c>
       <c r="Z3">
-        <v>7142.5053200000102</v>
+        <v>6553.0498009999901</v>
       </c>
       <c r="AA3">
-        <v>7437.5349669999896</v>
+        <v>6792.5430939999997</v>
       </c>
       <c r="AB3">
-        <v>7742.1484119999996</v>
+        <v>7045.3993459999801</v>
       </c>
       <c r="AC3">
-        <v>8058.3796890000303</v>
+        <v>7314.1312979999802</v>
       </c>
       <c r="AD3">
-        <v>8385.3478439999799</v>
+        <v>7598.6643549999699</v>
       </c>
       <c r="AE3">
-        <v>8730.3154729999605</v>
+        <v>7906.3737299999902</v>
       </c>
       <c r="AF3">
-        <v>9088.2842209999508</v>
+        <v>8230.5581819999898</v>
       </c>
       <c r="AG3">
-        <v>9461.28928800002</v>
+        <v>8568.3605669999997</v>
       </c>
       <c r="AH3">
-        <v>9847.6591370000097</v>
+        <v>8918.2652010000093</v>
       </c>
       <c r="AI3">
-        <v>10248.6199019999</v>
+        <v>9281.3835629999794</v>
       </c>
       <c r="AJ3">
-        <v>10668.763086999899</v>
+        <v>9661.8736409999801</v>
       </c>
       <c r="AK3">
-        <v>11087.850394999999</v>
+        <v>10041.409642000001</v>
       </c>
       <c r="AL3">
-        <v>11508.719090000001</v>
+        <v>10422.556139</v>
       </c>
       <c r="AM3">
-        <v>11917.3878109999</v>
+        <v>10792.656661000001</v>
       </c>
       <c r="AN3">
-        <v>12322.237408999999</v>
+        <v>11159.2977829999</v>
       </c>
       <c r="AO3">
-        <v>12718.07344</v>
+        <v>11517.7746739999</v>
       </c>
       <c r="AP3">
-        <v>13093.6448039999</v>
+        <v>11857.9008179999</v>
       </c>
       <c r="AQ3">
-        <v>13498.38968</v>
+        <v>12224.444008999901</v>
       </c>
       <c r="AR3">
-        <v>13903.580762</v>
+        <v>12591.3960479999</v>
       </c>
       <c r="AS3">
-        <v>14316.1700919999</v>
+        <v>12965.047941999899</v>
       </c>
       <c r="AT3">
-        <v>12779</v>
+        <v>11573.7</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4523,139 +4521,139 @@
         <v>3084</v>
       </c>
       <c r="C4">
-        <v>3178.56781</v>
+        <v>3178.5677919999898</v>
       </c>
       <c r="D4">
-        <v>3272.7218509999998</v>
+        <v>3272.7218339999999</v>
       </c>
       <c r="E4">
-        <v>3374.472569</v>
+        <v>3374.4725879999901</v>
       </c>
       <c r="F4">
-        <v>3478.0954510000101</v>
+        <v>3478.0954729999899</v>
       </c>
       <c r="G4">
-        <v>3582.595339</v>
+        <v>3582.5953589999999</v>
       </c>
       <c r="H4">
-        <v>3688.8265299999898</v>
+        <v>3688.82653599999</v>
       </c>
       <c r="I4">
-        <v>3796.69574899999</v>
+        <v>3796.6957399999901</v>
       </c>
       <c r="J4">
-        <v>3913.5050919999899</v>
+        <v>3913.5050779999901</v>
       </c>
       <c r="K4">
-        <v>4028.8364799999799</v>
+        <v>4028.8364339999998</v>
       </c>
       <c r="L4">
-        <v>4153.7871230000001</v>
+        <v>4153.7871210000003</v>
       </c>
       <c r="M4">
-        <v>4282.4884579999798</v>
+        <v>4282.48842899999</v>
       </c>
       <c r="N4">
-        <v>4412.9305799999802</v>
+        <v>4412.93055</v>
       </c>
       <c r="O4">
-        <v>4546.3552170000103</v>
+        <v>4546.3551830000197</v>
       </c>
       <c r="P4">
-        <v>4686.1909260000102</v>
+        <v>4686.1908809999904</v>
       </c>
       <c r="Q4">
-        <v>4830.4088090000096</v>
+        <v>4830.4087799999897</v>
       </c>
       <c r="R4">
-        <v>4979.0002890000096</v>
+        <v>4979.000266</v>
       </c>
       <c r="S4">
-        <v>5128.6213189999698</v>
+        <v>5128.6212610000002</v>
       </c>
       <c r="T4">
-        <v>5289.0846099999999</v>
+        <v>5289.0845730000201</v>
       </c>
       <c r="U4">
-        <v>5446.1943039999996</v>
+        <v>5446.1942279999903</v>
       </c>
       <c r="V4">
-        <v>5614.21515</v>
+        <v>5614.2151119999799</v>
       </c>
       <c r="W4">
-        <v>5783.84031399999</v>
+        <v>5783.8402669999996</v>
       </c>
       <c r="X4">
-        <v>5955.3770879999902</v>
+        <v>5955.37702300002</v>
       </c>
       <c r="Y4">
-        <v>6138.0008859999998</v>
+        <v>6138.0007919999798</v>
       </c>
       <c r="Z4">
-        <v>6330.0727200000101</v>
+        <v>6330.0726649999997</v>
       </c>
       <c r="AA4">
-        <v>6523.3929559999897</v>
+        <v>6523.3928999999798</v>
       </c>
       <c r="AB4">
-        <v>6719.3361369999702</v>
+        <v>6719.3360359999897</v>
       </c>
       <c r="AC4">
-        <v>6922.2977000000001</v>
+        <v>6922.2976290000097</v>
       </c>
       <c r="AD4">
-        <v>7125.8724139999904</v>
+        <v>7125.8723800000098</v>
       </c>
       <c r="AE4">
-        <v>7341.5498670000097</v>
+        <v>7341.5497649999697</v>
       </c>
       <c r="AF4">
-        <v>7567.9160409999804</v>
+        <v>7567.9159079999999</v>
       </c>
       <c r="AG4">
-        <v>7796.4102780000203</v>
+        <v>7796.4101220000002</v>
       </c>
       <c r="AH4">
-        <v>8036.5133109999897</v>
+        <v>8036.5131979999696</v>
       </c>
       <c r="AI4">
-        <v>8283.8877310000207</v>
+        <v>8283.8874019999803</v>
       </c>
       <c r="AJ4">
-        <v>8535.5046929999899</v>
+        <v>8535.5047860000395</v>
       </c>
       <c r="AK4">
-        <v>8786.1225059999906</v>
+        <v>8786.12230000001</v>
       </c>
       <c r="AL4">
-        <v>9027.1050129999894</v>
+        <v>9027.1047909999706</v>
       </c>
       <c r="AM4">
-        <v>9254.5861859999895</v>
+        <v>9254.5859979999896</v>
       </c>
       <c r="AN4">
-        <v>9472.4708469999896</v>
+        <v>9472.4706300000507</v>
       </c>
       <c r="AO4">
-        <v>9682.8256910000091</v>
+        <v>9682.8254630000702</v>
       </c>
       <c r="AP4">
-        <v>9876.6953750000102</v>
+        <v>9876.6952240000192</v>
       </c>
       <c r="AQ4">
-        <v>10080.991225</v>
+        <v>10080.991038</v>
       </c>
       <c r="AR4">
-        <v>10281.713193</v>
+        <v>10281.7128569999</v>
       </c>
       <c r="AS4">
-        <v>10491.2887519999</v>
+        <v>10491.288614999999</v>
       </c>
       <c r="AT4">
         <v>11076.8</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4663,139 +4661,139 @@
         <v>3084</v>
       </c>
       <c r="C5">
-        <v>3170.5183919999999</v>
+        <v>3170.5184060000001</v>
       </c>
       <c r="D5">
-        <v>3251.4243059999999</v>
+        <v>3251.424293</v>
       </c>
       <c r="E5">
-        <v>3331.043557</v>
+        <v>3331.0435419999899</v>
       </c>
       <c r="F5">
-        <v>3403.8498409999902</v>
+        <v>3403.8498079999999</v>
       </c>
       <c r="G5">
-        <v>3467.8077029999999</v>
+        <v>3467.80768699999</v>
       </c>
       <c r="H5">
-        <v>3533.6677760000098</v>
+        <v>3533.6677759999998</v>
       </c>
       <c r="I5">
-        <v>3603.6153669999899</v>
+        <v>3603.6153319999999</v>
       </c>
       <c r="J5">
-        <v>3666.7827540000098</v>
+        <v>3666.7827439999901</v>
       </c>
       <c r="K5">
-        <v>3724.47332399999</v>
+        <v>3724.4732989999902</v>
       </c>
       <c r="L5">
-        <v>3783.18914699999</v>
+        <v>3783.1891690000102</v>
       </c>
       <c r="M5">
-        <v>3841.0098429999898</v>
+        <v>3841.00982199999</v>
       </c>
       <c r="N5">
-        <v>3898.9605729999998</v>
+        <v>3898.9605409999999</v>
       </c>
       <c r="O5">
-        <v>3957.9701839999998</v>
+        <v>3957.97015899999</v>
       </c>
       <c r="P5">
-        <v>4016.9091739999899</v>
+        <v>4016.9091680000001</v>
       </c>
       <c r="Q5">
-        <v>4079.87336399999</v>
+        <v>4079.8733520000001</v>
       </c>
       <c r="R5">
-        <v>4136.6777100000199</v>
+        <v>4136.6777139999904</v>
       </c>
       <c r="S5">
-        <v>4188.2191339999899</v>
+        <v>4188.2191149999899</v>
       </c>
       <c r="T5">
-        <v>4241.17043499997</v>
+        <v>4241.170443</v>
       </c>
       <c r="U5">
-        <v>4291.9539579999901</v>
+        <v>4291.9539419999901</v>
       </c>
       <c r="V5">
-        <v>4335.2116430000096</v>
+        <v>4335.2115910000002</v>
       </c>
       <c r="W5">
-        <v>4376.2730419999998</v>
+        <v>4376.2730449999999</v>
       </c>
       <c r="X5">
-        <v>4421.5683600000102</v>
+        <v>4421.5683260000096</v>
       </c>
       <c r="Y5">
-        <v>4465.0586730000095</v>
+        <v>4465.0586149999799</v>
       </c>
       <c r="Z5">
-        <v>4513.0871230000002</v>
+        <v>4513.0871469999802</v>
       </c>
       <c r="AA5">
-        <v>4555.9702559999996</v>
+        <v>4555.9702160000097</v>
       </c>
       <c r="AB5">
-        <v>4602.7082150000097</v>
+        <v>4602.70812200001</v>
       </c>
       <c r="AC5">
-        <v>4652.4190939999899</v>
+        <v>4652.4190879999896</v>
       </c>
       <c r="AD5">
-        <v>4702.1194919999698</v>
+        <v>4702.1194690000002</v>
       </c>
       <c r="AE5">
-        <v>4743.9617259999804</v>
+        <v>4743.9617339999904</v>
       </c>
       <c r="AF5">
-        <v>4797.9844440000197</v>
+        <v>4797.98441799999</v>
       </c>
       <c r="AG5">
-        <v>4841.8353849999903</v>
+        <v>4841.8353559999796</v>
       </c>
       <c r="AH5">
-        <v>4887.3409789999796</v>
+        <v>4887.34094800001</v>
       </c>
       <c r="AI5">
-        <v>4936.0388380000004</v>
+        <v>4936.0388579999699</v>
       </c>
       <c r="AJ5">
-        <v>4982.04897600001</v>
+        <v>4982.0489159999797</v>
       </c>
       <c r="AK5">
-        <v>5029.7541269999901</v>
+        <v>5029.7540880000097</v>
       </c>
       <c r="AL5">
-        <v>5084.0661270000001</v>
+        <v>5084.066057</v>
       </c>
       <c r="AM5">
-        <v>5132.22947199999</v>
+        <v>5132.2294179999899</v>
       </c>
       <c r="AN5">
-        <v>5182.0890169999902</v>
+        <v>5182.0889829999596</v>
       </c>
       <c r="AO5">
-        <v>5235.9378710000001</v>
+        <v>5235.9378219999799</v>
       </c>
       <c r="AP5">
-        <v>5287.1654610000096</v>
+        <v>5287.1654689999796</v>
       </c>
       <c r="AQ5">
-        <v>5338.3585029999904</v>
+        <v>5338.3584309999796</v>
       </c>
       <c r="AR5">
-        <v>5394.0705289999696</v>
+        <v>5394.0705229999803</v>
       </c>
       <c r="AS5">
-        <v>5446.0917850000096</v>
+        <v>5446.0917300000101</v>
       </c>
       <c r="AT5">
         <v>5039.7700000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4803,139 +4801,139 @@
         <v>3084</v>
       </c>
       <c r="C6">
-        <v>3168.2446100000002</v>
+        <v>3168.2446159999899</v>
       </c>
       <c r="D6">
-        <v>3245.4959359999898</v>
+        <v>3245.4959469999999</v>
       </c>
       <c r="E6">
-        <v>3324.2802919999999</v>
+        <v>3324.2802819999902</v>
       </c>
       <c r="F6">
         <v>3396.9674890000001</v>
       </c>
       <c r="G6">
-        <v>3454.1374250000099</v>
+        <v>3454.1374500000002</v>
       </c>
       <c r="H6">
-        <v>3483.149629</v>
+        <v>3483.1496160000002</v>
       </c>
       <c r="I6">
-        <v>3485.07017</v>
+        <v>3485.0701389999899</v>
       </c>
       <c r="J6">
-        <v>3463.300463</v>
+        <v>3463.3004679999899</v>
       </c>
       <c r="K6">
-        <v>3419.806169</v>
+        <v>3419.8061599999901</v>
       </c>
       <c r="L6">
-        <v>3370.3285129999999</v>
+        <v>3370.32852</v>
       </c>
       <c r="M6">
-        <v>3327.9443249999899</v>
+        <v>3327.9443329999999</v>
       </c>
       <c r="N6">
-        <v>3288.5940738999998</v>
+        <v>3288.59408789999</v>
       </c>
       <c r="O6">
         <v>3254.43329579999</v>
       </c>
       <c r="P6">
-        <v>3229.15352449999</v>
+        <v>3229.1535345000102</v>
       </c>
       <c r="Q6">
-        <v>3205.5149772999998</v>
+        <v>3205.5150015999802</v>
       </c>
       <c r="R6">
-        <v>3182.2609470000002</v>
+        <v>3182.26095019999</v>
       </c>
       <c r="S6">
-        <v>3162.7910929999898</v>
+        <v>3162.7910869999901</v>
       </c>
       <c r="T6">
-        <v>3149.8381294999999</v>
+        <v>3149.8381445</v>
       </c>
       <c r="U6">
-        <v>3145.41549080001</v>
+        <v>3145.4154923999899</v>
       </c>
       <c r="V6">
-        <v>3141.2245036000099</v>
+        <v>3141.2245191000102</v>
       </c>
       <c r="W6">
-        <v>3146.7420498000101</v>
+        <v>3146.7420212000002</v>
       </c>
       <c r="X6">
-        <v>3158.5580245999799</v>
+        <v>3158.5580877000002</v>
       </c>
       <c r="Y6">
-        <v>3176.8905006999898</v>
+        <v>3176.8905396999899</v>
       </c>
       <c r="Z6">
-        <v>3201.7061792</v>
+        <v>3201.7061600000002</v>
       </c>
       <c r="AA6">
-        <v>3233.2209290999899</v>
+        <v>3233.22095579999</v>
       </c>
       <c r="AB6">
-        <v>3258.7475435000001</v>
+        <v>3258.7475454</v>
       </c>
       <c r="AC6">
-        <v>3295.1842078</v>
+        <v>3295.18420409999</v>
       </c>
       <c r="AD6">
-        <v>3332.2206039999901</v>
+        <v>3332.2205761999999</v>
       </c>
       <c r="AE6">
-        <v>3361.3069643999902</v>
+        <v>3361.3069413999901</v>
       </c>
       <c r="AF6">
-        <v>3389.7231485999901</v>
+        <v>3389.7231777000002</v>
       </c>
       <c r="AG6">
-        <v>3422.3168119000002</v>
+        <v>3422.3168508999902</v>
       </c>
       <c r="AH6">
-        <v>3456.2377841000198</v>
+        <v>3456.2377824999999</v>
       </c>
       <c r="AI6">
-        <v>3488.4206293000002</v>
+        <v>3488.4206654</v>
       </c>
       <c r="AJ6">
-        <v>3521.12239459999</v>
+        <v>3521.1224453999898</v>
       </c>
       <c r="AK6">
-        <v>3558.5274237999902</v>
+        <v>3558.5274163999802</v>
       </c>
       <c r="AL6">
-        <v>3593.39308999999</v>
+        <v>3593.3930943</v>
       </c>
       <c r="AM6">
-        <v>3633.5200725999898</v>
+        <v>3633.5201149999998</v>
       </c>
       <c r="AN6">
-        <v>3677.2580207000001</v>
+        <v>3677.2580659999899</v>
       </c>
       <c r="AO6">
-        <v>3715.1006505999899</v>
+        <v>3715.1007110999799</v>
       </c>
       <c r="AP6">
-        <v>3796.3261720999899</v>
+        <v>3796.3261735000101</v>
       </c>
       <c r="AQ6">
-        <v>3978.1983481999901</v>
+        <v>3978.1982892999899</v>
       </c>
       <c r="AR6">
-        <v>4283.2093510000104</v>
+        <v>4283.20935679997</v>
       </c>
       <c r="AS6">
-        <v>4739.7156633000004</v>
+        <v>4739.7157056999904</v>
       </c>
       <c r="AT6">
         <v>4018.79</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4943,139 +4941,139 @@
         <v>8.9392299999999994E-2</v>
       </c>
       <c r="C7">
-        <v>7.6536486190000294E-2</v>
+        <v>7.6536466389999905E-2</v>
       </c>
       <c r="D7">
-        <v>6.6719339840000294E-2</v>
+        <v>6.6719330560000206E-2</v>
       </c>
       <c r="E7">
-        <v>5.6963062339999801E-2</v>
+        <v>5.69630510439997E-2</v>
       </c>
       <c r="F7">
-        <v>4.6813395106486001E-2</v>
+        <v>4.6813393531722002E-2</v>
       </c>
       <c r="G7">
-        <v>3.6607611380955897E-2</v>
+        <v>3.662200951893E-2</v>
       </c>
       <c r="H7">
-        <v>2.6813188622830001E-2</v>
+        <v>2.6928602090968701E-2</v>
       </c>
       <c r="I7">
-        <v>1.7379552426636798E-2</v>
+        <v>1.7725403585786E-2</v>
       </c>
       <c r="J7">
-        <v>8.3018314771999592E-3</v>
+        <v>9.0248634130491792E-3</v>
       </c>
       <c r="K7">
-        <v>-4.5026376668220102E-4</v>
+        <v>8.0711224196399996E-4</v>
       </c>
       <c r="L7">
-        <v>-9.15021483724799E-3</v>
+        <v>-7.1950645919329898E-3</v>
       </c>
       <c r="M7">
-        <v>-1.84118630083E-2</v>
+        <v>-1.5641839141509999E-2</v>
       </c>
       <c r="N7">
-        <v>-2.8201182144519998E-2</v>
+        <v>-2.4528951064369899E-2</v>
       </c>
       <c r="O7">
-        <v>-3.8635830105489898E-2</v>
+        <v>-3.3983337867581002E-2</v>
       </c>
       <c r="P7">
-        <v>-4.9770074974629902E-2</v>
+        <v>-4.4065771316623002E-2</v>
       </c>
       <c r="Q7">
-        <v>-6.1324564168309899E-2</v>
+        <v>-5.4483235005024798E-2</v>
       </c>
       <c r="R7">
-        <v>-7.2570920722199506E-2</v>
+        <v>-6.4534050682839794E-2</v>
       </c>
       <c r="S7">
-        <v>-8.3692820746010005E-2</v>
+        <v>-7.4390807572050993E-2</v>
       </c>
       <c r="T7">
-        <v>-9.4455812879369896E-2</v>
+        <v>-8.3836757964990002E-2</v>
       </c>
       <c r="U7">
-        <v>-0.1050615133488</v>
+        <v>-9.30681315372799E-2</v>
       </c>
       <c r="V7">
-        <v>-0.11599664899664899</v>
+        <v>-0.10253255570754</v>
       </c>
       <c r="W7">
-        <v>-0.12740173893119</v>
+        <v>-0.112385449086015</v>
       </c>
       <c r="X7">
-        <v>-0.13944915456925999</v>
+        <v>-0.12282095639444</v>
       </c>
       <c r="Y7">
-        <v>-0.152119567330054</v>
+        <v>-0.13382472806289</v>
       </c>
       <c r="Z7">
-        <v>-0.16544721006135901</v>
+        <v>-0.14543292081824</v>
       </c>
       <c r="AA7">
-        <v>-0.1827909898275</v>
+        <v>-0.16090143197610099</v>
       </c>
       <c r="AB7">
-        <v>-0.20863328941089901</v>
+        <v>-0.18477151537875899</v>
       </c>
       <c r="AC7">
-        <v>-0.24333034925779901</v>
+        <v>-0.21741119341169901</v>
       </c>
       <c r="AD7">
-        <v>-0.28725351444140901</v>
+        <v>-0.25916743564106998</v>
       </c>
       <c r="AE7">
-        <v>-0.34045046950669899</v>
+        <v>-0.31004997305439902</v>
       </c>
       <c r="AF7">
-        <v>-0.40040852381999897</v>
+        <v>-0.36752540797529998</v>
       </c>
       <c r="AG7">
-        <v>-0.46255193091389801</v>
+        <v>-0.42709945957199902</v>
       </c>
       <c r="AH7">
-        <v>-0.52689249588339704</v>
+        <v>-0.488798978745699</v>
       </c>
       <c r="AI7">
-        <v>-0.59348705089209997</v>
+        <v>-0.55267461623240199</v>
       </c>
       <c r="AJ7">
-        <v>-0.66224869517689799</v>
+        <v>-0.61865860395899697</v>
       </c>
       <c r="AK7">
-        <v>-0.73383169632299805</v>
+        <v>-0.68734984272739796</v>
       </c>
       <c r="AL7">
-        <v>-0.80873941465840005</v>
+        <v>-0.75921978774249499</v>
       </c>
       <c r="AM7">
-        <v>-0.887762116435999</v>
+        <v>-0.83500319814399904</v>
       </c>
       <c r="AN7">
-        <v>-0.97087629465000103</v>
+        <v>-0.91466411970699901</v>
       </c>
       <c r="AO7">
-        <v>-1.05849165665339</v>
+        <v>-0.99862935854199897</v>
       </c>
       <c r="AP7">
-        <v>-1.15188303797</v>
+        <v>-1.08807998947999</v>
       </c>
       <c r="AQ7">
-        <v>-1.2485765000439999</v>
+        <v>-1.1806940229179901</v>
       </c>
       <c r="AR7">
-        <v>-1.3497008353710001</v>
+        <v>-1.2775261425719999</v>
       </c>
       <c r="AS7">
-        <v>-1.4553687426540001</v>
+        <v>-1.3786831135447899</v>
       </c>
       <c r="AT7">
-        <v>-1.4728300000000001</v>
+        <v>-1.37086</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5083,139 +5081,139 @@
         <v>8.9392299999999994E-2</v>
       </c>
       <c r="C8">
-        <v>7.6446293139999705E-2</v>
+        <v>7.6446272760000003E-2</v>
       </c>
       <c r="D8">
-        <v>6.6653130279999806E-2</v>
+        <v>6.6653120529999998E-2</v>
       </c>
       <c r="E8">
-        <v>5.6891908907000001E-2</v>
+        <v>5.6891898136000103E-2</v>
       </c>
       <c r="F8">
-        <v>4.6773426167579901E-2</v>
+        <v>4.6773428645939898E-2</v>
       </c>
       <c r="G8">
-        <v>3.6263039630806099E-2</v>
+        <v>3.6263048126202999E-2</v>
       </c>
       <c r="H8">
-        <v>2.5377170815839001E-2</v>
+        <v>2.5377187194535002E-2</v>
       </c>
       <c r="I8">
-        <v>1.39525881599879E-2</v>
+        <v>1.3952611500393E-2</v>
       </c>
       <c r="J8">
-        <v>1.9403906653065999E-3</v>
+        <v>1.9404206412521E-3</v>
       </c>
       <c r="K8">
-        <v>-1.07033174524399E-2</v>
+        <v>-1.0703281415410999E-2</v>
       </c>
       <c r="L8">
-        <v>-2.3560749211460001E-2</v>
+        <v>-2.356070136581E-2</v>
       </c>
       <c r="M8">
-        <v>-3.6057098630780798E-2</v>
+        <v>-3.6057041324834997E-2</v>
       </c>
       <c r="N8">
-        <v>-4.82796765560317E-2</v>
+        <v>-4.8279610738021797E-2</v>
       </c>
       <c r="O8">
-        <v>-6.0196171353320699E-2</v>
+        <v>-6.0196095724199997E-2</v>
       </c>
       <c r="P8">
-        <v>-7.1838421425450105E-2</v>
+        <v>-7.1838335052091001E-2</v>
       </c>
       <c r="Q8">
-        <v>-8.3754988371299105E-2</v>
+        <v>-8.3754895577542704E-2</v>
       </c>
       <c r="R8">
-        <v>-9.6432799477735698E-2</v>
+        <v>-9.6432696281498906E-2</v>
       </c>
       <c r="S8">
-        <v>-0.10995710851002299</v>
+        <v>-0.10995698998797</v>
       </c>
       <c r="T8">
-        <v>-0.12425836400748901</v>
+        <v>-0.124258236879897</v>
       </c>
       <c r="U8">
-        <v>-0.13939148591298001</v>
+        <v>-0.139391348165079</v>
       </c>
       <c r="V8">
-        <v>-0.15569434104162</v>
+        <v>-0.15569418564882001</v>
       </c>
       <c r="W8">
-        <v>-0.17286472731489799</v>
+        <v>-0.17286456650106299</v>
       </c>
       <c r="X8">
-        <v>-0.19091456696429901</v>
+        <v>-0.19091438078164899</v>
       </c>
       <c r="Y8">
-        <v>-0.20975916579604001</v>
+        <v>-0.2097589707619</v>
       </c>
       <c r="Z8">
-        <v>-0.22947226999319001</v>
+        <v>-0.22947205596827</v>
       </c>
       <c r="AA8">
-        <v>-0.25095097495178997</v>
+        <v>-0.25095074536292</v>
       </c>
       <c r="AB8">
-        <v>-0.27336989496504899</v>
+        <v>-0.27336963424084998</v>
       </c>
       <c r="AC8">
-        <v>-0.29683583015138099</v>
+        <v>-0.29683559079319899</v>
       </c>
       <c r="AD8">
-        <v>-0.321431521640688</v>
+        <v>-0.32143126125863802</v>
       </c>
       <c r="AE8">
-        <v>-0.34689839303690601</v>
+        <v>-0.346898101852471</v>
       </c>
       <c r="AF8">
-        <v>-0.372911107446879</v>
+        <v>-0.37291078737501798</v>
       </c>
       <c r="AG8">
-        <v>-0.39892282100251902</v>
+        <v>-0.39892249253813999</v>
       </c>
       <c r="AH8">
-        <v>-0.4247498092848</v>
+        <v>-0.42474946124479901</v>
       </c>
       <c r="AI8">
-        <v>-0.45053270787709998</v>
+        <v>-0.45053232953440098</v>
       </c>
       <c r="AJ8">
-        <v>-0.47623438365508802</v>
+        <v>-0.47623401414260302</v>
       </c>
       <c r="AK8">
-        <v>-0.50244688174348795</v>
+        <v>-0.50244644147348105</v>
       </c>
       <c r="AL8">
-        <v>-0.53006168143880805</v>
+        <v>-0.53006124017487299</v>
       </c>
       <c r="AM8">
-        <v>-0.55937675044050295</v>
+        <v>-0.55937629053409998</v>
       </c>
       <c r="AN8">
-        <v>-0.59064420615839797</v>
+        <v>-0.59064374173980005</v>
       </c>
       <c r="AO8">
-        <v>-0.62365436617150005</v>
+        <v>-0.62365383517560102</v>
       </c>
       <c r="AP8">
-        <v>-0.65901029989639903</v>
+        <v>-0.65900976955409896</v>
       </c>
       <c r="AQ8">
-        <v>-0.69571965794799995</v>
+        <v>-0.6957190793993</v>
       </c>
       <c r="AR8">
-        <v>-0.73416561301459804</v>
+        <v>-0.734165018433797</v>
       </c>
       <c r="AS8">
-        <v>-0.773887152444099</v>
+        <v>-0.77388650410719895</v>
       </c>
       <c r="AT8">
         <v>-1.27969</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -5223,139 +5221,139 @@
         <v>8.9392299999999994E-2</v>
       </c>
       <c r="C9">
-        <v>7.6637157899999905E-2</v>
+        <v>7.6637137519999801E-2</v>
       </c>
       <c r="D9">
-        <v>6.7378791159999493E-2</v>
+        <v>6.7378780520000195E-2</v>
       </c>
       <c r="E9">
-        <v>5.8585328258000002E-2</v>
+        <v>5.8585314266999998E-2</v>
       </c>
       <c r="F9">
-        <v>4.9822503466960003E-2</v>
+        <v>4.9822499391819798E-2</v>
       </c>
       <c r="G9">
-        <v>4.1198359208790003E-2</v>
+        <v>4.1198357427179998E-2</v>
       </c>
       <c r="H9">
-        <v>3.2540311535160002E-2</v>
+        <v>3.25403144083901E-2</v>
       </c>
       <c r="I9">
-        <v>2.3603920628213201E-2</v>
+        <v>2.36039246908675E-2</v>
       </c>
       <c r="J9">
-        <v>1.44751880570639E-2</v>
+        <v>1.4475191895335001E-2</v>
       </c>
       <c r="K9">
-        <v>5.1164751621670104E-3</v>
+        <v>5.1164786954709897E-3</v>
       </c>
       <c r="L9">
-        <v>-4.4546088637910097E-3</v>
+        <v>-4.4546044048109903E-3</v>
       </c>
       <c r="M9">
-        <v>-1.42262105182399E-2</v>
+        <v>-1.42262048957399E-2</v>
       </c>
       <c r="N9">
-        <v>-2.43222578896818E-2</v>
+        <v>-2.43222529807119E-2</v>
       </c>
       <c r="O9">
-        <v>-3.4837354204879899E-2</v>
+        <v>-3.4837349957450997E-2</v>
       </c>
       <c r="P9">
-        <v>-4.5850694284469903E-2</v>
+        <v>-4.5850690162800099E-2</v>
       </c>
       <c r="Q9">
-        <v>-5.7456921025115897E-2</v>
+        <v>-5.7456917247751899E-2</v>
       </c>
       <c r="R9">
-        <v>-6.9617090754279895E-2</v>
+        <v>-6.96170885574698E-2</v>
       </c>
       <c r="S9">
-        <v>-8.2314830436620204E-2</v>
+        <v>-8.2314822195919901E-2</v>
       </c>
       <c r="T9">
-        <v>-9.5562439366129695E-2</v>
+        <v>-9.5562435138249996E-2</v>
       </c>
       <c r="U9">
-        <v>-0.109556408811829</v>
+        <v>-0.109556409724339</v>
       </c>
       <c r="V9">
-        <v>-0.12463564374916999</v>
+        <v>-0.124635653741049</v>
       </c>
       <c r="W9">
-        <v>-0.14032120139750001</v>
+        <v>-0.140321220315999</v>
       </c>
       <c r="X9">
-        <v>-0.15666340912460999</v>
+        <v>-0.15666343675892899</v>
       </c>
       <c r="Y9">
-        <v>-0.17385248865821101</v>
+        <v>-0.173852518443153</v>
       </c>
       <c r="Z9">
-        <v>-0.19180459871473901</v>
+        <v>-0.19180462809098001</v>
       </c>
       <c r="AA9">
-        <v>-0.211331357605689</v>
+        <v>-0.21133139141453</v>
       </c>
       <c r="AB9">
-        <v>-0.23167143468474199</v>
+        <v>-0.23167147797740301</v>
       </c>
       <c r="AC9">
-        <v>-0.25287120389290602</v>
+        <v>-0.25287128865782299</v>
       </c>
       <c r="AD9">
-        <v>-0.274974328600468</v>
+        <v>-0.27497442580369003</v>
       </c>
       <c r="AE9">
-        <v>-0.298130303503718</v>
+        <v>-0.29813040824116899</v>
       </c>
       <c r="AF9">
-        <v>-0.32193898619755801</v>
+        <v>-0.32193910980340001</v>
       </c>
       <c r="AG9">
-        <v>-0.34694163639522102</v>
+        <v>-0.346941780512319</v>
       </c>
       <c r="AH9">
-        <v>-0.37296562042156001</v>
+        <v>-0.37296577526573899</v>
       </c>
       <c r="AI9">
-        <v>-0.40015562768944002</v>
+        <v>-0.40015583119106002</v>
       </c>
       <c r="AJ9">
-        <v>-0.42868215196148002</v>
+        <v>-0.42868239326524799</v>
       </c>
       <c r="AK9">
-        <v>-0.45846109949395902</v>
+        <v>-0.45846134185626902</v>
       </c>
       <c r="AL9">
-        <v>-0.48889099419600002</v>
+        <v>-0.48889127239879998</v>
       </c>
       <c r="AM9">
-        <v>-0.52102226493100001</v>
+        <v>-0.52102260087130003</v>
       </c>
       <c r="AN9">
-        <v>-0.55484023897266999</v>
+        <v>-0.55484060835542803</v>
       </c>
       <c r="AO9">
-        <v>-0.58987533345559695</v>
+        <v>-0.58987573133100102</v>
       </c>
       <c r="AP9">
-        <v>-0.62688956245361005</v>
+        <v>-0.62689002680612904</v>
       </c>
       <c r="AQ9">
-        <v>-0.66589567265360206</v>
+        <v>-0.66589613121760005</v>
       </c>
       <c r="AR9">
-        <v>-0.70544942321051896</v>
+        <v>-0.70545000106381905</v>
       </c>
       <c r="AS9">
-        <v>-0.74729967426509902</v>
+        <v>-0.74730020418830101</v>
       </c>
       <c r="AT9">
-        <v>-2.1147399999999998</v>
+        <v>-2.1147499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -5363,139 +5361,139 @@
         <v>8.9392299999999994E-2</v>
       </c>
       <c r="C10">
-        <v>7.6744008180000198E-2</v>
+        <v>7.6743989050000003E-2</v>
       </c>
       <c r="D10">
-        <v>6.7616069979999902E-2</v>
+        <v>6.7616059930000097E-2</v>
       </c>
       <c r="E10">
-        <v>5.8924397508E-2</v>
+        <v>5.8924382913999998E-2</v>
       </c>
       <c r="F10">
-        <v>5.0283139046939998E-2</v>
+        <v>5.02831356293897E-2</v>
       </c>
       <c r="G10">
-        <v>4.24851265345099E-2</v>
+        <v>4.2485124489069999E-2</v>
       </c>
       <c r="H10">
-        <v>3.7518727305726203E-2</v>
+        <v>3.7518732842824899E-2</v>
       </c>
       <c r="I10">
-        <v>3.5652037246489902E-2</v>
+        <v>3.565204775005E-2</v>
       </c>
       <c r="J10">
-        <v>3.74879974739099E-2</v>
+        <v>3.7488014530790099E-2</v>
       </c>
       <c r="K10">
-        <v>4.33490513185378E-2</v>
+        <v>4.3349072613647101E-2</v>
       </c>
       <c r="L10">
-        <v>5.3150261628439999E-2</v>
+        <v>5.3150297389968001E-2</v>
       </c>
       <c r="M10">
-        <v>6.60600606752305E-2</v>
+        <v>6.6060113262438602E-2</v>
       </c>
       <c r="N10">
-        <v>8.1893317522634304E-2</v>
+        <v>8.1893384092265306E-2</v>
       </c>
       <c r="O10">
-        <v>0.10079394587786999</v>
+        <v>0.100794031905878</v>
       </c>
       <c r="P10">
-        <v>0.12265642731034999</v>
+        <v>0.122656532814909</v>
       </c>
       <c r="Q10">
-        <v>0.147571173616489</v>
+        <v>0.147571310002239</v>
       </c>
       <c r="R10">
-        <v>0.17413298328679899</v>
+        <v>0.17413312846846901</v>
       </c>
       <c r="S10">
-        <v>0.20207053009412901</v>
+        <v>0.20207068997406999</v>
       </c>
       <c r="T10">
-        <v>0.23128270331467099</v>
+        <v>0.231282886766877</v>
       </c>
       <c r="U10">
-        <v>0.261597023378009</v>
+        <v>0.261597224837119</v>
       </c>
       <c r="V10">
-        <v>0.29356961214914901</v>
+        <v>0.29356983058760999</v>
       </c>
       <c r="W10">
-        <v>0.32692098133960001</v>
+        <v>0.32692122597685802</v>
       </c>
       <c r="X10">
-        <v>0.36150725618829799</v>
+        <v>0.36150751952770199</v>
       </c>
       <c r="Y10">
-        <v>0.39727386367776002</v>
+        <v>0.397274149602099</v>
       </c>
       <c r="Z10">
-        <v>0.43407189387449802</v>
+        <v>0.43407219525899898</v>
       </c>
       <c r="AA10">
-        <v>0.47360685759392002</v>
+        <v>0.47360720131971901</v>
       </c>
       <c r="AB10">
-        <v>0.51577529964940605</v>
+        <v>0.51577563964611794</v>
       </c>
       <c r="AC10">
-        <v>0.56004104923529496</v>
+        <v>0.56004148605420201</v>
       </c>
       <c r="AD10">
-        <v>0.60737445076150298</v>
+        <v>0.60737492718539998</v>
       </c>
       <c r="AE10">
-        <v>0.65729744008259605</v>
+        <v>0.65729788098120001</v>
       </c>
       <c r="AF10">
-        <v>0.71075363902280098</v>
+        <v>0.71075411651510201</v>
       </c>
       <c r="AG10">
-        <v>0.767686421934898</v>
+        <v>0.76768695170867896</v>
       </c>
       <c r="AH10">
-        <v>0.82768822397910002</v>
+        <v>0.82768879940890205</v>
       </c>
       <c r="AI10">
-        <v>0.89111763512170095</v>
+        <v>0.89111830729819996</v>
       </c>
       <c r="AJ10">
-        <v>0.95832010615640895</v>
+        <v>0.95832085875178197</v>
       </c>
       <c r="AK10">
-        <v>1.0291794738797999</v>
+        <v>1.0291801777534999</v>
       </c>
       <c r="AL10">
-        <v>1.1061354508624499</v>
+        <v>1.1061362617555901</v>
       </c>
       <c r="AM10">
-        <v>1.1864691080334</v>
+        <v>1.1864699976727</v>
       </c>
       <c r="AN10">
-        <v>1.2725867026215001</v>
+        <v>1.2725877228643201</v>
       </c>
       <c r="AO10">
-        <v>1.3651684485265001</v>
+        <v>1.3651695155268899</v>
       </c>
       <c r="AP10">
-        <v>1.4571223196343099</v>
+        <v>1.45712347174844</v>
       </c>
       <c r="AQ10">
-        <v>1.52739678826904</v>
+        <v>1.5273979687986501</v>
       </c>
       <c r="AR10">
-        <v>1.5678218141531</v>
+        <v>1.56782311770552</v>
       </c>
       <c r="AS10">
-        <v>1.57009553304347</v>
+        <v>1.5700968161650599</v>
       </c>
       <c r="AT10">
-        <v>6.1519400000000002E-2</v>
+        <v>6.1519699999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -5503,139 +5501,139 @@
         <v>31788.2</v>
       </c>
       <c r="C11">
-        <v>33273.975649999898</v>
+        <v>33273.981140000004</v>
       </c>
       <c r="D11">
-        <v>33832.052819999903</v>
+        <v>33832.058579999801</v>
       </c>
       <c r="E11">
-        <v>34285.539709999903</v>
+        <v>34285.54808</v>
       </c>
       <c r="F11">
-        <v>34713.579149999801</v>
+        <v>34713.584690000098</v>
       </c>
       <c r="G11">
-        <v>35147.298749999798</v>
+        <v>35140.485719999997</v>
       </c>
       <c r="H11">
-        <v>35639.943539999898</v>
+        <v>35601.192379999899</v>
       </c>
       <c r="I11">
-        <v>36197.792319999899</v>
+        <v>36094.939100000003</v>
       </c>
       <c r="J11">
-        <v>36861.547219999899</v>
+        <v>36658.401759999899</v>
       </c>
       <c r="K11">
-        <v>37615.976280000097</v>
+        <v>37273.259819999897</v>
       </c>
       <c r="L11">
-        <v>38419.901850000002</v>
+        <v>37903.304549999899</v>
       </c>
       <c r="M11">
-        <v>39325.206749999801</v>
+        <v>38616.705060000102</v>
       </c>
       <c r="N11">
-        <v>40311.743349999997</v>
+        <v>39398.189540000101</v>
       </c>
       <c r="O11">
-        <v>41371.492749999801</v>
+        <v>40240.848729999998</v>
       </c>
       <c r="P11">
-        <v>42516.76915</v>
+        <v>41156.236289999899</v>
       </c>
       <c r="Q11">
-        <v>43703.846290000103</v>
+        <v>42101.476670000098</v>
       </c>
       <c r="R11">
-        <v>45058.070109999899</v>
+        <v>43195.6449400001</v>
       </c>
       <c r="S11">
-        <v>46467.281169999696</v>
+        <v>44329.9642199999</v>
       </c>
       <c r="T11">
-        <v>48015.078389999799</v>
+        <v>45582.638439999901</v>
       </c>
       <c r="U11">
-        <v>49651.550279999901</v>
+        <v>46904.928010000003</v>
       </c>
       <c r="V11">
-        <v>51317.32849</v>
+        <v>48240.164429999997</v>
       </c>
       <c r="W11">
-        <v>53049.887519999902</v>
+        <v>49622.607159999898</v>
       </c>
       <c r="X11">
-        <v>54859.017049999798</v>
+        <v>51060.645199999999</v>
       </c>
       <c r="Y11">
-        <v>56757.345049999902</v>
+        <v>52564.966870000098</v>
       </c>
       <c r="Z11">
-        <v>58749.451990000001</v>
+        <v>54138.698559999902</v>
       </c>
       <c r="AA11">
-        <v>60742.141300000003</v>
+        <v>55706.892890000003</v>
       </c>
       <c r="AB11">
-        <v>62835.842109999903</v>
+        <v>57391.586940000001</v>
       </c>
       <c r="AC11">
-        <v>65001.909239999797</v>
+        <v>59179.568269999902</v>
       </c>
       <c r="AD11">
-        <v>67252.238039999895</v>
+        <v>61089.355049999802</v>
       </c>
       <c r="AE11">
-        <v>69638.026569999798</v>
+        <v>63173.4885599997</v>
       </c>
       <c r="AF11">
-        <v>72139.985330000301</v>
+        <v>65407.7631899997</v>
       </c>
       <c r="AG11">
-        <v>74764.580769999797</v>
+        <v>67767.441510000106</v>
       </c>
       <c r="AH11">
-        <v>77506.647229999799</v>
+        <v>70237.986050000094</v>
       </c>
       <c r="AI11">
-        <v>80373.338930000202</v>
+        <v>72822.643410000004</v>
       </c>
       <c r="AJ11">
-        <v>83395.400279999696</v>
+        <v>75548.038099999801</v>
       </c>
       <c r="AK11">
-        <v>86492.567659999695</v>
+        <v>78341.484139999899</v>
       </c>
       <c r="AL11">
-        <v>89612.406770000496</v>
+        <v>81155.440070000099</v>
       </c>
       <c r="AM11">
-        <v>92695.874819999794</v>
+        <v>83936.707569999897</v>
       </c>
       <c r="AN11">
-        <v>95760.398830000093</v>
+        <v>86700.949840000307</v>
       </c>
       <c r="AO11">
-        <v>98788.870710000105</v>
+        <v>89432.723650000204</v>
       </c>
       <c r="AP11">
-        <v>101706.51887</v>
+        <v>92064.615290000307</v>
       </c>
       <c r="AQ11">
-        <v>104735.55284999999</v>
+        <v>94796.907839999607</v>
       </c>
       <c r="AR11">
-        <v>107847.705259999</v>
+        <v>97604.296889999605</v>
       </c>
       <c r="AS11">
-        <v>111019.584999999</v>
+        <v>100465.57116999901</v>
       </c>
       <c r="AT11">
-        <v>99196.3</v>
+        <v>89806.5</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5643,139 +5641,139 @@
         <v>31788.2</v>
       </c>
       <c r="C12">
-        <v>33296.9401699999</v>
+        <v>33296.943899999998</v>
       </c>
       <c r="D12">
-        <v>33859.711450000097</v>
+        <v>33859.714030000097</v>
       </c>
       <c r="E12">
-        <v>34332.8028399998</v>
+        <v>34332.804620000003</v>
       </c>
       <c r="F12">
-        <v>34781.063410000097</v>
+        <v>34781.063479999902</v>
       </c>
       <c r="G12">
-        <v>35218.095519999901</v>
+        <v>35218.097809999897</v>
       </c>
       <c r="H12">
-        <v>35677.931239999903</v>
+        <v>35677.932079999897</v>
       </c>
       <c r="I12">
-        <v>36179.947549999903</v>
+        <v>36179.947279999898</v>
       </c>
       <c r="J12">
-        <v>36764.846460000001</v>
+        <v>36764.845150000103</v>
       </c>
       <c r="K12">
-        <v>37392.405749999998</v>
+        <v>37392.406869999999</v>
       </c>
       <c r="L12">
-        <v>38079.018589999701</v>
+        <v>38079.018589999898</v>
       </c>
       <c r="M12">
-        <v>38842.787580000098</v>
+        <v>38842.787469999901</v>
       </c>
       <c r="N12">
-        <v>39669.385199999801</v>
+        <v>39669.386770000303</v>
       </c>
       <c r="O12">
-        <v>40558.478789999899</v>
+        <v>40558.47898</v>
       </c>
       <c r="P12">
-        <v>41542.650599999797</v>
+        <v>41542.648449999702</v>
       </c>
       <c r="Q12">
-        <v>42551.415030000098</v>
+        <v>42551.412519999998</v>
       </c>
       <c r="R12">
-        <v>43652.626029999898</v>
+        <v>43652.624150000003</v>
       </c>
       <c r="S12">
-        <v>44782.585330000002</v>
+        <v>44782.582439999896</v>
       </c>
       <c r="T12">
-        <v>45989.501179999897</v>
+        <v>45989.497609999802</v>
       </c>
       <c r="U12">
-        <v>47204.552289999898</v>
+        <v>47204.543189999902</v>
       </c>
       <c r="V12">
-        <v>48403.538829999998</v>
+        <v>48403.5283000001</v>
       </c>
       <c r="W12">
-        <v>49636.697670000103</v>
+        <v>49636.691509999902</v>
       </c>
       <c r="X12">
-        <v>50880.7753300002</v>
+        <v>50880.774660000003</v>
       </c>
       <c r="Y12">
-        <v>52192.498109999797</v>
+        <v>52192.5019500001</v>
       </c>
       <c r="Z12">
-        <v>53588.700509999901</v>
+        <v>53588.706559999897</v>
       </c>
       <c r="AA12">
-        <v>54918.087870000003</v>
+        <v>54918.0885099999</v>
       </c>
       <c r="AB12">
-        <v>56284.717040000003</v>
+        <v>56284.724829999803</v>
       </c>
       <c r="AC12">
-        <v>57686.5377099998</v>
+        <v>57686.542909999698</v>
       </c>
       <c r="AD12">
-        <v>59112.307339999898</v>
+        <v>59112.316500000103</v>
       </c>
       <c r="AE12">
-        <v>60629.577799999803</v>
+        <v>60629.595229999803</v>
       </c>
       <c r="AF12">
-        <v>62243.805529999998</v>
+        <v>62243.824760000003</v>
       </c>
       <c r="AG12">
-        <v>63917.829769999902</v>
+        <v>63917.844309999797</v>
       </c>
       <c r="AH12">
-        <v>65678.790670000002</v>
+        <v>65678.806249999907</v>
       </c>
       <c r="AI12">
-        <v>67537.051770000093</v>
+        <v>67537.067849999803</v>
       </c>
       <c r="AJ12">
-        <v>69465.449410000001</v>
+        <v>69465.463370000303</v>
       </c>
       <c r="AK12">
-        <v>71431.279250000094</v>
+        <v>71431.300649999597</v>
       </c>
       <c r="AL12">
-        <v>73376.675840000098</v>
+        <v>73376.697549999793</v>
       </c>
       <c r="AM12">
-        <v>75269.804399999804</v>
+        <v>75269.833349999899</v>
       </c>
       <c r="AN12">
-        <v>77109.660719999898</v>
+        <v>77109.683820000195</v>
       </c>
       <c r="AO12">
-        <v>78909.837289999894</v>
+        <v>78909.860629999894</v>
       </c>
       <c r="AP12">
-        <v>80629.883409999806</v>
+        <v>80629.910809999696</v>
       </c>
       <c r="AQ12">
-        <v>82398.433469999305</v>
+        <v>82398.463239999706</v>
       </c>
       <c r="AR12">
-        <v>84188.652059999906</v>
+        <v>84188.682700000296</v>
       </c>
       <c r="AS12">
-        <v>86067.512110000098</v>
+        <v>86067.544719999598</v>
       </c>
       <c r="AT12">
         <v>92991.5</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5783,139 +5781,139 @@
         <v>31788.2</v>
       </c>
       <c r="C13">
-        <v>33243.341390000001</v>
+        <v>33243.345809999897</v>
       </c>
       <c r="D13">
-        <v>33693.764749999798</v>
+        <v>33693.770199999897</v>
       </c>
       <c r="E13">
-        <v>33977.521590000099</v>
+        <v>33977.528050000001</v>
       </c>
       <c r="F13">
-        <v>34166.287679999899</v>
+        <v>34166.292460000099</v>
       </c>
       <c r="G13">
-        <v>34258.369089999796</v>
+        <v>34258.380290000001</v>
       </c>
       <c r="H13">
-        <v>34345.453799999799</v>
+        <v>34345.4666399997</v>
       </c>
       <c r="I13">
-        <v>34479.711809999601</v>
+        <v>34479.7225799999</v>
       </c>
       <c r="J13">
-        <v>34608.559670000002</v>
+        <v>34608.570639999904</v>
       </c>
       <c r="K13">
-        <v>34730.652939999803</v>
+        <v>34730.665669999798</v>
       </c>
       <c r="L13">
-        <v>34847.911539999797</v>
+        <v>34847.9264700001</v>
       </c>
       <c r="M13">
-        <v>34994.087009999799</v>
+        <v>34994.098779999898</v>
       </c>
       <c r="N13">
-        <v>35174.0046199996</v>
+        <v>35174.017379999801</v>
       </c>
       <c r="O13">
-        <v>35397.379170000102</v>
+        <v>35397.390959999997</v>
       </c>
       <c r="P13">
-        <v>35669.396969999798</v>
+        <v>35669.404600000002</v>
       </c>
       <c r="Q13">
-        <v>35958.332399999803</v>
+        <v>35958.342730000099</v>
       </c>
       <c r="R13">
-        <v>36266.2565000002</v>
+        <v>36266.265679999902</v>
       </c>
       <c r="S13">
-        <v>36542.984240000202</v>
+        <v>36542.995389999902</v>
       </c>
       <c r="T13">
-        <v>36829.5968400001</v>
+        <v>36829.60916</v>
       </c>
       <c r="U13">
-        <v>37114.9359199998</v>
+        <v>37114.950360000097</v>
       </c>
       <c r="V13">
-        <v>37292.089119999902</v>
+        <v>37292.109029999898</v>
       </c>
       <c r="W13">
-        <v>37460.564079999996</v>
+        <v>37460.580540000003</v>
       </c>
       <c r="X13">
-        <v>37636.058499999999</v>
+        <v>37636.079760000001</v>
       </c>
       <c r="Y13">
-        <v>37808.2620900002</v>
+        <v>37808.2870999999</v>
       </c>
       <c r="Z13">
-        <v>38022.505390000202</v>
+        <v>38022.528269999901</v>
       </c>
       <c r="AA13">
-        <v>38152.73388</v>
+        <v>38152.757010000198</v>
       </c>
       <c r="AB13">
-        <v>38306.9514099999</v>
+        <v>38306.9802099999</v>
       </c>
       <c r="AC13">
-        <v>38483.807860000001</v>
+        <v>38483.833979999901</v>
       </c>
       <c r="AD13">
-        <v>38669.428429999898</v>
+        <v>38669.461049999903</v>
       </c>
       <c r="AE13">
-        <v>38838.1835600001</v>
+        <v>38838.220970000002</v>
       </c>
       <c r="AF13">
-        <v>39061.558150000099</v>
+        <v>39061.598050000102</v>
       </c>
       <c r="AG13">
-        <v>39266.074069999901</v>
+        <v>39266.108959999699</v>
       </c>
       <c r="AH13">
-        <v>39468.999229999899</v>
+        <v>39469.034769999802</v>
       </c>
       <c r="AI13">
-        <v>39693.534099999997</v>
+        <v>39693.570730000101</v>
       </c>
       <c r="AJ13">
-        <v>39929.057040000102</v>
+        <v>39929.0946200002</v>
       </c>
       <c r="AK13">
-        <v>40178.3799099998</v>
+        <v>40178.418449999903</v>
       </c>
       <c r="AL13">
-        <v>40457.113120000002</v>
+        <v>40457.154259999901</v>
       </c>
       <c r="AM13">
-        <v>40734.884819999701</v>
+        <v>40734.9250500001</v>
       </c>
       <c r="AN13">
-        <v>41013.965619999901</v>
+        <v>41014.005249999798</v>
       </c>
       <c r="AO13">
-        <v>41317.463689999997</v>
+        <v>41317.504870000099</v>
       </c>
       <c r="AP13">
-        <v>41618.414599999996</v>
+        <v>41618.45809</v>
       </c>
       <c r="AQ13">
-        <v>41914.609549999797</v>
+        <v>41914.656420000101</v>
       </c>
       <c r="AR13">
-        <v>42240.765550000098</v>
+        <v>42240.809449999899</v>
       </c>
       <c r="AS13">
-        <v>42555.087169999897</v>
+        <v>42555.129010000099</v>
       </c>
       <c r="AT13">
         <v>40213.1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5923,139 +5921,139 @@
         <v>31788.2</v>
       </c>
       <c r="C14">
-        <v>33231.805670000002</v>
+        <v>33231.811790000102</v>
       </c>
       <c r="D14">
-        <v>33668.294830000101</v>
+        <v>33668.299700000098</v>
       </c>
       <c r="E14">
-        <v>33956.727610000104</v>
+        <v>33956.734259999801</v>
       </c>
       <c r="F14">
-        <v>34153.417950000003</v>
+        <v>34153.4225299998</v>
       </c>
       <c r="G14">
-        <v>34237.576140000099</v>
+        <v>34237.583669999702</v>
       </c>
       <c r="H14">
-        <v>34125.252300000102</v>
+        <v>34125.255640000003</v>
       </c>
       <c r="I14">
-        <v>33830.185009999899</v>
+        <v>33830.187649999898</v>
       </c>
       <c r="J14">
-        <v>33348.667880000103</v>
+        <v>33348.666869999899</v>
       </c>
       <c r="K14">
-        <v>32717.679669999801</v>
+        <v>32717.67596</v>
       </c>
       <c r="L14">
-        <v>31999.871269999901</v>
+        <v>31999.865160000001</v>
       </c>
       <c r="M14">
-        <v>31349.596199999902</v>
+        <v>31349.588979999899</v>
       </c>
       <c r="N14">
-        <v>30767.66661</v>
+        <v>30767.659429999901</v>
       </c>
       <c r="O14">
-        <v>30267.276060000098</v>
+        <v>30267.26914</v>
       </c>
       <c r="P14">
-        <v>29886.9174649999</v>
+        <v>29886.911495</v>
       </c>
       <c r="Q14">
-        <v>29535.154809</v>
+        <v>29535.149088999999</v>
       </c>
       <c r="R14">
-        <v>29248.746998999901</v>
+        <v>29248.742688999901</v>
       </c>
       <c r="S14">
-        <v>28999.749222999999</v>
+        <v>28999.747492999999</v>
       </c>
       <c r="T14">
-        <v>28805.288123999901</v>
+        <v>28805.287842999998</v>
       </c>
       <c r="U14">
-        <v>28679.588741</v>
+        <v>28679.584989000101</v>
       </c>
       <c r="V14">
-        <v>28540.619462999901</v>
+        <v>28540.614792</v>
       </c>
       <c r="W14">
-        <v>28475.567795999901</v>
+        <v>28475.564102999899</v>
       </c>
       <c r="X14">
-        <v>28466.2669459998</v>
+        <v>28466.265811999801</v>
       </c>
       <c r="Y14">
-        <v>28516.992076999901</v>
+        <v>28516.992172999999</v>
       </c>
       <c r="Z14">
-        <v>28626.179445999998</v>
+        <v>28626.180492999902</v>
       </c>
       <c r="AA14">
-        <v>28747.336773999799</v>
+        <v>28747.337321999901</v>
       </c>
       <c r="AB14">
-        <v>28874.894494999899</v>
+        <v>28874.894158999901</v>
       </c>
       <c r="AC14">
-        <v>29050.996112999899</v>
+        <v>29050.995307000001</v>
       </c>
       <c r="AD14">
-        <v>29266.069883999899</v>
+        <v>29266.070577999999</v>
       </c>
       <c r="AE14">
-        <v>29454.3377799999</v>
+        <v>29454.339108</v>
       </c>
       <c r="AF14">
         <v>29638.164892999899</v>
       </c>
       <c r="AG14">
-        <v>29856.847682</v>
+        <v>29856.846858000001</v>
       </c>
       <c r="AH14">
-        <v>30101.151176999902</v>
+        <v>30101.149617000101</v>
       </c>
       <c r="AI14">
-        <v>30351.537827</v>
+        <v>30351.536715999799</v>
       </c>
       <c r="AJ14">
-        <v>30616.705635999901</v>
+        <v>30616.703410999799</v>
       </c>
       <c r="AK14">
-        <v>30924.1343759999</v>
+        <v>30924.134515999998</v>
       </c>
       <c r="AL14">
-        <v>31236.108901999902</v>
+        <v>31236.1096799999</v>
       </c>
       <c r="AM14">
-        <v>31597.089482999902</v>
+        <v>31597.0896299999</v>
       </c>
       <c r="AN14">
-        <v>31994.082540999902</v>
+        <v>31994.0847819999</v>
       </c>
       <c r="AO14">
-        <v>32400.6455079999</v>
+        <v>32400.647337999901</v>
       </c>
       <c r="AP14">
-        <v>33008.184269999598</v>
+        <v>33008.185433999999</v>
       </c>
       <c r="AQ14">
-        <v>34230.789740000102</v>
+        <v>34230.793665999998</v>
       </c>
       <c r="AR14">
-        <v>36334.874521000202</v>
+        <v>36334.876558999997</v>
       </c>
       <c r="AS14">
-        <v>39582.177015999798</v>
+        <v>39582.179983999697</v>
       </c>
       <c r="AT14">
-        <v>36007</v>
+        <v>36006.9</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6063,139 +6061,139 @@
         <v>8913.4</v>
       </c>
       <c r="C15">
-        <v>9332.3391220000103</v>
+        <v>9332.3402640000404</v>
       </c>
       <c r="D15">
-        <v>9492.0347889999994</v>
+        <v>9492.0356380000194</v>
       </c>
       <c r="E15">
-        <v>9623.3096189999906</v>
+        <v>9623.3111939999999</v>
       </c>
       <c r="F15">
-        <v>9748.3861419999794</v>
+        <v>9748.3867250000094</v>
       </c>
       <c r="G15">
-        <v>9875.2388690000098</v>
+        <v>9873.3235089999798</v>
       </c>
       <c r="H15">
-        <v>10017.501829000001</v>
+        <v>10006.608913</v>
       </c>
       <c r="I15">
-        <v>10176.903965</v>
+        <v>10147.986298</v>
       </c>
       <c r="J15">
-        <v>10364.843359999901</v>
+        <v>10307.720614</v>
       </c>
       <c r="K15">
-        <v>10576.976701</v>
+        <v>10480.608472</v>
       </c>
       <c r="L15">
-        <v>10801.246665000001</v>
+        <v>10656.010679999999</v>
       </c>
       <c r="M15">
-        <v>11051.4418579999</v>
+        <v>10852.331241</v>
       </c>
       <c r="N15">
-        <v>11321.700112999901</v>
+        <v>11065.122136</v>
       </c>
       <c r="O15">
-        <v>11609.545232999901</v>
+        <v>11292.264084</v>
       </c>
       <c r="P15">
-        <v>11918.183483000001</v>
+        <v>11536.798261</v>
       </c>
       <c r="Q15">
-        <v>12234.9679769999</v>
+        <v>11786.3765249999</v>
       </c>
       <c r="R15">
-        <v>12594.462960999999</v>
+        <v>12073.8800989999</v>
       </c>
       <c r="S15">
-        <v>12964.887247000001</v>
+        <v>12368.546204</v>
       </c>
       <c r="T15">
-        <v>13369.155806999999</v>
+        <v>12691.870171</v>
       </c>
       <c r="U15">
-        <v>13792.867891</v>
+        <v>13029.867029999999</v>
       </c>
       <c r="V15">
-        <v>14218.6815249999</v>
+        <v>13366.072316</v>
       </c>
       <c r="W15">
-        <v>14655.8403099999</v>
+        <v>13708.9931909999</v>
       </c>
       <c r="X15">
-        <v>15106.459389</v>
+        <v>14060.496203000001</v>
       </c>
       <c r="Y15">
-        <v>15573.3686159999</v>
+        <v>14423.0321429999</v>
       </c>
       <c r="Z15">
-        <v>16057.11664</v>
+        <v>14796.9176899999</v>
       </c>
       <c r="AA15">
-        <v>16531.385991999901</v>
+        <v>15160.999271999999</v>
       </c>
       <c r="AB15">
-        <v>17022.586218999899</v>
+        <v>15547.696155</v>
       </c>
       <c r="AC15">
-        <v>17522.117780999899</v>
+        <v>15952.617876</v>
       </c>
       <c r="AD15">
-        <v>18032.380711000002</v>
+        <v>16379.9128439999</v>
       </c>
       <c r="AE15">
-        <v>18566.158450999901</v>
+        <v>16842.640562999899</v>
       </c>
       <c r="AF15">
-        <v>19117.806236</v>
+        <v>17333.689930999899</v>
       </c>
       <c r="AG15">
-        <v>19689.027404999899</v>
+        <v>17846.340939999998</v>
       </c>
       <c r="AH15">
-        <v>20277.4623389999</v>
+        <v>18375.8072609999</v>
       </c>
       <c r="AI15">
-        <v>20883.962702000001</v>
+        <v>18921.998892</v>
       </c>
       <c r="AJ15">
-        <v>21515.385244000001</v>
+        <v>19490.812600000001</v>
       </c>
       <c r="AK15">
-        <v>22150.522912</v>
+        <v>20063.036859999898</v>
       </c>
       <c r="AL15">
-        <v>22776.321741</v>
+        <v>20626.843214</v>
       </c>
       <c r="AM15">
-        <v>23377.508212000001</v>
+        <v>21168.466829000001</v>
       </c>
       <c r="AN15">
-        <v>23958.4220830001</v>
+        <v>21691.808917999799</v>
       </c>
       <c r="AO15">
-        <v>24514.713536999901</v>
+        <v>22192.944396999901</v>
       </c>
       <c r="AP15">
-        <v>25028.682512999902</v>
+        <v>22655.915655999801</v>
       </c>
       <c r="AQ15">
-        <v>25556.251799000001</v>
+        <v>23131.131417999899</v>
       </c>
       <c r="AR15">
-        <v>26089.825477999901</v>
+        <v>23611.787319999999</v>
       </c>
       <c r="AS15">
-        <v>26623.216077999801</v>
+        <v>24092.274982999999</v>
       </c>
       <c r="AT15">
-        <v>23577.599999999999</v>
+        <v>21345.8</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -6203,139 +6201,139 @@
         <v>8913.4</v>
       </c>
       <c r="C16">
-        <v>9337.2134539999897</v>
+        <v>9337.2146550000198</v>
       </c>
       <c r="D16">
-        <v>9495.4500480001007</v>
+        <v>9495.4510710000504</v>
       </c>
       <c r="E16">
-        <v>9628.2030620000096</v>
+        <v>9628.2045329999801</v>
       </c>
       <c r="F16">
-        <v>9753.6441820000091</v>
+        <v>9753.6449839999805</v>
       </c>
       <c r="G16">
-        <v>9875.0255310000102</v>
+        <v>9875.0265050000198</v>
       </c>
       <c r="H16">
-        <v>10000.9311549999</v>
+        <v>10000.931210000001</v>
       </c>
       <c r="I16">
-        <v>10136.713754</v>
+        <v>10136.714120000001</v>
       </c>
       <c r="J16">
-        <v>10293.677716</v>
+        <v>10293.677597</v>
       </c>
       <c r="K16">
-        <v>10460.4378759999</v>
+        <v>10460.438136000001</v>
       </c>
       <c r="L16">
-        <v>10641.125452</v>
+        <v>10641.1255709999</v>
       </c>
       <c r="M16">
-        <v>10840.067514</v>
+        <v>10840.066823999899</v>
       </c>
       <c r="N16">
-        <v>11053.028399999899</v>
+        <v>11053.027963999901</v>
       </c>
       <c r="O16">
-        <v>11279.663234</v>
+        <v>11279.6621809999</v>
       </c>
       <c r="P16">
-        <v>11528.737482999901</v>
+        <v>11528.736370999901</v>
       </c>
       <c r="Q16">
-        <v>11780.3294419999</v>
+        <v>11780.3278979999</v>
       </c>
       <c r="R16">
-        <v>12052.8488869999</v>
+        <v>12052.848019999999</v>
       </c>
       <c r="S16">
-        <v>12328.336163</v>
+        <v>12328.335516999899</v>
       </c>
       <c r="T16">
-        <v>12619.7286729999</v>
+        <v>12619.7281569999</v>
       </c>
       <c r="U16">
-        <v>12907.771291999899</v>
+        <v>12907.770764000001</v>
       </c>
       <c r="V16">
-        <v>13185.471181999899</v>
+        <v>13185.471172</v>
       </c>
       <c r="W16">
-        <v>13466.029789</v>
+        <v>13466.029345999999</v>
       </c>
       <c r="X16">
-        <v>13742.809208999901</v>
+        <v>13742.810621999901</v>
       </c>
       <c r="Y16">
-        <v>14030.785167</v>
+        <v>14030.786899000001</v>
       </c>
       <c r="Z16">
-        <v>14333.957691</v>
+        <v>14333.959837999901</v>
       </c>
       <c r="AA16">
-        <v>14611.218014</v>
+        <v>14611.219487999901</v>
       </c>
       <c r="AB16">
-        <v>14889.690614999899</v>
+        <v>14889.691836</v>
       </c>
       <c r="AC16">
-        <v>15168.403209</v>
+        <v>15168.404505</v>
       </c>
       <c r="AD16">
-        <v>15443.990427999999</v>
+        <v>15443.992882999901</v>
       </c>
       <c r="AE16">
-        <v>15733.610044999999</v>
+        <v>15733.6133299999</v>
       </c>
       <c r="AF16">
-        <v>16037.8893019999</v>
+        <v>16037.892339</v>
       </c>
       <c r="AG16">
-        <v>16346.4600339999</v>
+        <v>16346.463320000001</v>
       </c>
       <c r="AH16">
-        <v>16665.594542999999</v>
+        <v>16665.5971949999</v>
       </c>
       <c r="AI16">
-        <v>16997.1091329999</v>
+        <v>16997.112118999899</v>
       </c>
       <c r="AJ16">
-        <v>17333.3472800001</v>
+        <v>17333.3499659999</v>
       </c>
       <c r="AK16">
-        <v>17665.7800849999</v>
+        <v>17665.7842009999</v>
       </c>
       <c r="AL16">
-        <v>17980.211825999901</v>
+        <v>17980.215327000002</v>
       </c>
       <c r="AM16">
-        <v>18268.863026999901</v>
+        <v>18268.866690999901</v>
       </c>
       <c r="AN16">
-        <v>18531.689719999998</v>
+        <v>18531.6939859999</v>
       </c>
       <c r="AO16">
-        <v>18772.1673879999</v>
+        <v>18772.1722679999</v>
       </c>
       <c r="AP16">
-        <v>18981.405827999901</v>
+        <v>18981.409897000001</v>
       </c>
       <c r="AQ16">
-        <v>19190.651777999901</v>
+        <v>19190.657741999999</v>
       </c>
       <c r="AR16">
-        <v>19393.319379999899</v>
+        <v>19393.3245729999</v>
       </c>
       <c r="AS16">
-        <v>19604.467542999901</v>
+        <v>19604.4725260001</v>
       </c>
       <c r="AT16">
         <v>20939.5</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6343,139 +6341,139 @@
         <v>8913.4</v>
       </c>
       <c r="C17">
-        <v>9323.8077790000607</v>
+        <v>9323.8088590000207</v>
       </c>
       <c r="D17">
-        <v>9453.4724569999998</v>
+        <v>9453.4735509999391</v>
       </c>
       <c r="E17">
-        <v>9537.3842369999893</v>
+        <v>9537.3857530000205</v>
       </c>
       <c r="F17">
-        <v>9595.6341569999495</v>
+        <v>9595.6348949999792</v>
       </c>
       <c r="G17">
-        <v>9627.1633979999897</v>
+        <v>9627.1641539999891</v>
       </c>
       <c r="H17">
-        <v>9656.7810350000309</v>
+        <v>9656.7809560000096</v>
       </c>
       <c r="I17">
-        <v>9699.1548239999902</v>
+        <v>9699.1549360000008</v>
       </c>
       <c r="J17">
-        <v>9739.49909199996</v>
+        <v>9739.4988649999996</v>
       </c>
       <c r="K17">
-        <v>9777.4263299999602</v>
+        <v>9777.4263399999709</v>
       </c>
       <c r="L17">
-        <v>9813.0201939999897</v>
+        <v>9813.0201290000095</v>
       </c>
       <c r="M17">
-        <v>9855.0223340000193</v>
+        <v>9855.0215629999602</v>
       </c>
       <c r="N17">
-        <v>9904.7722839999897</v>
+        <v>9904.7716339999806</v>
       </c>
       <c r="O17">
-        <v>9964.9746199999809</v>
+        <v>9964.9735240000191</v>
       </c>
       <c r="P17">
-        <v>10037.047186</v>
+        <v>10037.0461539999</v>
       </c>
       <c r="Q17">
-        <v>10111.449474999899</v>
+        <v>10111.448106</v>
       </c>
       <c r="R17">
-        <v>10187.7591009999</v>
+        <v>10187.7583619999</v>
       </c>
       <c r="S17">
-        <v>10251.8060089999</v>
+        <v>10251.8053599999</v>
       </c>
       <c r="T17">
-        <v>10315.0689479999</v>
+        <v>10315.068864999899</v>
       </c>
       <c r="U17">
-        <v>10374.353929000001</v>
+        <v>10374.353267</v>
       </c>
       <c r="V17">
-        <v>10399.556054000001</v>
+        <v>10399.5556909999</v>
       </c>
       <c r="W17">
-        <v>10418.144945</v>
+        <v>10418.144171</v>
       </c>
       <c r="X17">
-        <v>10434.471135</v>
+        <v>10434.472104</v>
       </c>
       <c r="Y17">
-        <v>10445.6501509999</v>
+        <v>10445.651271000001</v>
       </c>
       <c r="Z17">
-        <v>10464.154784</v>
+        <v>10464.1563469999</v>
       </c>
       <c r="AA17">
-        <v>10455.4985389999</v>
+        <v>10455.4995699999</v>
       </c>
       <c r="AB17">
-        <v>10449.799982</v>
+        <v>10449.800632</v>
       </c>
       <c r="AC17">
-        <v>10446.6099869999</v>
+        <v>10446.6106969999</v>
       </c>
       <c r="AD17">
-        <v>10442.096436</v>
+        <v>10442.0976229999</v>
       </c>
       <c r="AE17">
-        <v>10429.345545</v>
+        <v>10429.3468659999</v>
       </c>
       <c r="AF17">
-        <v>10428.040972999999</v>
+        <v>10428.042449</v>
       </c>
       <c r="AG17">
-        <v>10419.282225999999</v>
+        <v>10419.28393</v>
       </c>
       <c r="AH17">
-        <v>10407.7229419999</v>
+        <v>10407.724636999899</v>
       </c>
       <c r="AI17">
-        <v>10399.460806999899</v>
+        <v>10399.462627999899</v>
       </c>
       <c r="AJ17">
-        <v>10391.629632</v>
+        <v>10391.631501</v>
       </c>
       <c r="AK17">
-        <v>10385.400513000001</v>
+        <v>10385.4026459999</v>
       </c>
       <c r="AL17">
-        <v>10385.535543</v>
+        <v>10385.5371329999</v>
       </c>
       <c r="AM17">
-        <v>10384.1422249999</v>
+        <v>10384.144145999901</v>
       </c>
       <c r="AN17">
-        <v>10381.806747999901</v>
+        <v>10381.808585999999</v>
       </c>
       <c r="AO17">
-        <v>10384.337915</v>
+        <v>10384.339986000001</v>
       </c>
       <c r="AP17">
-        <v>10385.327345</v>
+        <v>10385.328932</v>
       </c>
       <c r="AQ17">
-        <v>10384.991104000001</v>
+        <v>10384.9936909999</v>
       </c>
       <c r="AR17">
-        <v>10391.902661</v>
+        <v>10391.904936000001</v>
       </c>
       <c r="AS17">
-        <v>10395.703675999999</v>
+        <v>10395.7060429999</v>
       </c>
       <c r="AT17">
         <v>9754.9599999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -6483,144 +6481,144 @@
         <v>8913.4</v>
       </c>
       <c r="C18">
-        <v>9318.7432659999504</v>
+        <v>9318.7443860000094</v>
       </c>
       <c r="D18">
-        <v>9441.2036069999394</v>
+        <v>9441.2046340000106</v>
       </c>
       <c r="E18">
-        <v>9521.6520460000593</v>
+        <v>9521.6535359999907</v>
       </c>
       <c r="F18">
-        <v>9575.8711740000399</v>
+        <v>9575.8720449999691</v>
       </c>
       <c r="G18">
-        <v>9597.5067910000398</v>
+        <v>9597.5077090000395</v>
       </c>
       <c r="H18">
-        <v>9562.1729079999895</v>
+        <v>9562.1731490000293</v>
       </c>
       <c r="I18">
-        <v>9473.8038889999898</v>
+        <v>9473.8041619999294</v>
       </c>
       <c r="J18">
-        <v>9331.5071869999701</v>
+        <v>9331.5070520000099</v>
       </c>
       <c r="K18">
-        <v>9145.8293450000001</v>
+        <v>9145.8295480000306</v>
       </c>
       <c r="L18">
-        <v>8934.1212220000198</v>
+        <v>8934.1214669999699</v>
       </c>
       <c r="M18">
-        <v>8739.0436019999706</v>
+        <v>8739.0432709999895</v>
       </c>
       <c r="N18">
-        <v>8560.9145510000308</v>
+        <v>8560.9143729999996</v>
       </c>
       <c r="O18">
-        <v>8403.4552529999401</v>
+        <v>8403.45475299998</v>
       </c>
       <c r="P18">
-        <v>8277.3233440000295</v>
+        <v>8277.3226679999698</v>
       </c>
       <c r="Q18">
-        <v>8157.0234309999596</v>
+        <v>8157.0226890000004</v>
       </c>
       <c r="R18">
-        <v>8052.5420519999898</v>
+        <v>8052.5417099999804</v>
       </c>
       <c r="S18">
-        <v>7956.1482219999798</v>
+        <v>7956.1480020000099</v>
       </c>
       <c r="T18">
-        <v>7872.5121230000004</v>
+        <v>7872.5121349999799</v>
       </c>
       <c r="U18">
-        <v>7805.4166409999898</v>
+        <v>7805.4164430000101</v>
       </c>
       <c r="V18">
-        <v>7732.3473259999901</v>
+        <v>7732.3473379999896</v>
       </c>
       <c r="W18">
-        <v>7676.73345899999</v>
+        <v>7676.7334809999702</v>
       </c>
       <c r="X18">
-        <v>7633.4686310000197</v>
+        <v>7633.4693390000002</v>
       </c>
       <c r="Y18">
-        <v>7603.5037050000101</v>
+        <v>7603.5049310000104</v>
       </c>
       <c r="Z18">
-        <v>7586.1829630000202</v>
+        <v>7586.1843719999697</v>
       </c>
       <c r="AA18">
-        <v>7568.9113009999901</v>
+        <v>7568.9122379999999</v>
       </c>
       <c r="AB18">
-        <v>7550.0419879999899</v>
+        <v>7550.0429030000096</v>
       </c>
       <c r="AC18">
-        <v>7540.5047449999802</v>
+        <v>7540.5053029999899</v>
       </c>
       <c r="AD18">
-        <v>7537.5722839999999</v>
+        <v>7537.5734490000104</v>
       </c>
       <c r="AE18">
-        <v>7524.2161019999803</v>
+        <v>7524.2177699999902</v>
       </c>
       <c r="AF18">
-        <v>7506.3597519999903</v>
+        <v>7506.3611989999999</v>
       </c>
       <c r="AG18">
-        <v>7494.0344449999802</v>
+        <v>7494.0361679999896</v>
       </c>
       <c r="AH18">
-        <v>7484.7304379999896</v>
+        <v>7484.7320049999798</v>
       </c>
       <c r="AI18">
-        <v>7473.4763739999999</v>
+        <v>7473.4781919999996</v>
       </c>
       <c r="AJ18">
-        <v>7462.3729089999897</v>
+        <v>7462.3740769999904</v>
       </c>
       <c r="AK18">
-        <v>7457.8824939999904</v>
+        <v>7457.8843409999999</v>
       </c>
       <c r="AL18">
-        <v>7450.5752670000002</v>
+        <v>7450.57687299999</v>
       </c>
       <c r="AM18">
-        <v>7450.92472799999</v>
+        <v>7450.9265339999902</v>
       </c>
       <c r="AN18">
-        <v>7455.5260950000002</v>
+        <v>7455.5276520000198</v>
       </c>
       <c r="AO18">
-        <v>7458.0129319999996</v>
+        <v>7458.0147850000103</v>
       </c>
       <c r="AP18">
-        <v>7502.3156719999797</v>
+        <v>7502.3175630000096</v>
       </c>
       <c r="AQ18">
-        <v>7680.4210800000001</v>
+        <v>7680.4234329999999</v>
       </c>
       <c r="AR18">
-        <v>8045.93318000001</v>
+        <v>8045.9351989999896</v>
       </c>
       <c r="AS18">
-        <v>8648.2302979999495</v>
+        <v>8648.2326459999804</v>
       </c>
       <c r="AT18">
         <v>7760.31</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -6630,182 +6628,182 @@
       </c>
       <c r="C22">
         <f t="shared" ref="C22:AT22" si="0">C3/C15</f>
-        <v>0.34035022607700588</v>
+        <v>0.34035018282097929</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.34470183630086565</v>
+        <v>0.34470180431069125</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.35050866007057785</v>
+        <v>0.3505086005223495</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.35660698944028324</v>
+        <v>0.35660696554895716</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.36292923042609154</v>
+        <v>0.36286457571599229</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.36916947639521114</v>
+        <v>0.36893011439708695</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.37510224427080857</v>
+        <v>0.37463443439505523</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0.38088006512816586</v>
+        <v>0.38015130296390282</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.3861762970144213</v>
+        <v>0.38516235939779125</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.39140938801993275</v>
+        <v>0.39015704721497241</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.39623035711219767</v>
+        <v>0.39483786808972876</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0.40068381989654805</v>
+        <v>0.3991891020008882</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
-        <v>0.40451383820367859</v>
+        <v>0.40293496141725549</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>0.4078683154134824</v>
+        <v>0.40621689198141298</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>0.41148829048545621</v>
+        <v>0.4097693131350249</v>
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
-        <v>0.41506849646448934</v>
+        <v>0.41329440776982168</v>
       </c>
       <c r="S22">
         <f t="shared" si="0"/>
-        <v>0.41801001749969091</v>
+        <v>0.41618878800284831</v>
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>0.42152613219222768</v>
+        <v>0.41966695642462143</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>0.42471191352614834</v>
+        <v>0.42282338010935022</v>
       </c>
       <c r="V22">
         <f t="shared" si="0"/>
-        <v>0.428702483017322</v>
+        <v>0.42678592574809093</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
-        <v>0.43260050197695171</v>
+        <v>0.43066462764574315</v>
       </c>
       <c r="X22">
         <f t="shared" si="0"/>
-        <v>0.43655946599917084</v>
+        <v>0.43461116441225994</v>
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>0.44069676992997497</v>
+        <v>0.43874281109962193</v>
       </c>
       <c r="Z22">
         <f t="shared" si="0"/>
-        <v>0.44481867324842511</v>
+        <v>0.44286586830368685</v>
       </c>
       <c r="AA22">
         <f t="shared" si="0"/>
-        <v>0.44990389617659798</v>
+        <v>0.44802740057805868</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
-        <v>0.45481622547803796</v>
+        <v>0.45314748087190032</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>0.45989758713630674</v>
+        <v>0.45849097338461064</v>
       </c>
       <c r="AD22">
         <f t="shared" si="0"/>
-        <v>0.46501612728733049</v>
+        <v>0.46390139113489998</v>
       </c>
       <c r="AE22">
         <f t="shared" si="0"/>
-        <v>0.47022734918702475</v>
+        <v>0.46942602025057761</v>
       </c>
       <c r="AF22">
         <f t="shared" si="0"/>
-        <v>0.47538321650557136</v>
+        <v>0.4748301264625891</v>
       </c>
       <c r="AG22">
         <f t="shared" si="0"/>
-        <v>0.48053614296851394</v>
+        <v>0.48011861903832936</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>0.48564553948448874</v>
+        <v>0.48532644440213463</v>
       </c>
       <c r="AI22">
         <f t="shared" si="0"/>
-        <v>0.49074115139165697</v>
+        <v>0.4905075629680985</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="0"/>
-        <v>0.49586670031739727</v>
+        <v>0.49571425467401908</v>
       </c>
       <c r="AK22">
         <f t="shared" si="0"/>
-        <v>0.50056833597337691</v>
+        <v>0.50049300672022246</v>
       </c>
       <c r="AL22">
         <f t="shared" si="0"/>
-        <v>0.50529313823675848</v>
+        <v>0.50529089841173214</v>
       </c>
       <c r="AM22">
         <f t="shared" si="0"/>
-        <v>0.50978007163665717</v>
+        <v>0.50984593018396918</v>
       </c>
       <c r="AN22">
         <f t="shared" si="0"/>
-        <v>0.51431756925859262</v>
+        <v>0.51444754216601773</v>
       </c>
       <c r="AO22">
         <f t="shared" si="0"/>
-        <v>0.51879347563269274</v>
+        <v>0.51898362236048778</v>
       </c>
       <c r="AP22">
         <f t="shared" si="0"/>
-        <v>0.52314558695604763</v>
+        <v>0.52339093233072032</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="0"/>
-        <v>0.52818346705005403</v>
+        <v>0.52848448215063248</v>
       </c>
       <c r="AR22">
         <f t="shared" si="0"/>
-        <v>0.53291198799793105</v>
+        <v>0.53326738367385484</v>
       </c>
       <c r="AS22">
         <f t="shared" si="0"/>
-        <v>0.537732558307639</v>
+        <v>0.53814129014998802</v>
       </c>
       <c r="AT22">
         <f t="shared" si="0"/>
-        <v>0.54199748914223678</v>
+        <v>0.54220033917679367</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -6815,182 +6813,182 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.34041931521211249</v>
+        <v>0.34041926949787821</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.34466211021659676</v>
+        <v>0.34466207129382009</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.3504779185971012</v>
+        <v>0.35047786702434786</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.35659445701522585</v>
+        <v>0.35659442994957347</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.36279352673604709</v>
+        <v>0.36279349297807201</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.36884830750542513</v>
+        <v>0.36884830607688879</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>0.37454897525362141</v>
+        <v>0.37454896084215406</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.38018531374039666</v>
+        <v>0.38018531677546868</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.38514988834679814</v>
+        <v>0.38514987437616061</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.390352236869766</v>
+        <v>0.39035223231649985</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.39506105035500239</v>
+        <v>0.39506107282646669</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0.39925081346936742</v>
+        <v>0.39925082650410998</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>0.40305770861102025</v>
+        <v>0.40305774322374277</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>0.40647910778697105</v>
+        <v>0.4064791430904714</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>0.41004021430660176</v>
+        <v>0.41004026558718382</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>0.41309737935653679</v>
+        <v>0.41309740716368881</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>0.4160027153049306</v>
+        <v>0.41600273239870827</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>0.41911238720338545</v>
+        <v>0.41911240140828832</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>0.42193142261325112</v>
+        <v>0.42193143398467547</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>0.42578798076357155</v>
+        <v>0.42578797820452891</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>0.42951340555659823</v>
+        <v>0.42951341619629352</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>0.43334495862024547</v>
+        <v>0.43334490933510172</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>0.4374666715328519</v>
+        <v>0.43746661083117483</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>0.44161374384232582</v>
+        <v>0.44161367385854705</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>0.44646469238563713</v>
+        <v>0.44646464351299353</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>0.45127439587165763</v>
+        <v>0.45127435208256717</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>0.45636298063943431</v>
+        <v>0.45636293696665292</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
-        <v>0.46140098617781861</v>
+        <v>0.46140091063133493</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>0.46661572557107378</v>
+        <v>0.46661562166406795</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>0.47187730869649247</v>
+        <v>0.47187721104703945</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>0.4769479301196613</v>
+        <v>0.47694782469924507</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>0.48222181874546699</v>
+        <v>0.48222173522897377</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0.48737039141066918</v>
+        <v>0.48737028643471697</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>0.49243256683886971</v>
+        <v>0.49243249589622284</v>
       </c>
       <c r="AK23">
         <f t="shared" si="1"/>
-        <v>0.49735264809847429</v>
+        <v>0.49735252055794427</v>
       </c>
       <c r="AL23">
         <f t="shared" si="1"/>
-        <v>0.50205776774812727</v>
+        <v>0.50205765764353294</v>
       </c>
       <c r="AM23">
         <f t="shared" si="1"/>
-        <v>0.50657701972599278</v>
+        <v>0.50657690783628262</v>
       </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>0.51114987300790993</v>
+        <v>0.51114974363143473</v>
       </c>
       <c r="AO23">
         <f t="shared" si="1"/>
-        <v>0.51580755119356925</v>
+        <v>0.51580740495898592</v>
       </c>
       <c r="AP23">
         <f t="shared" si="1"/>
-        <v>0.52033529362881403</v>
+        <v>0.52033517413061203</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="1"/>
-        <v>0.52530739141214655</v>
+        <v>0.52530721841477568</v>
       </c>
       <c r="AR23">
         <f t="shared" si="1"/>
-        <v>0.53016778569652234</v>
+        <v>0.53016762640658732</v>
       </c>
       <c r="AS23">
         <f t="shared" si="1"/>
-        <v>0.53514785489524752</v>
+        <v>0.53514771188493371</v>
       </c>
       <c r="AT23">
         <f t="shared" si="1"/>
         <v>0.52899066357840441</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -7000,182 +6998,182 @@
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>0.34004544786315027</v>
+        <v>0.34004540997637295</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>0.34393968150744675</v>
+        <v>0.3439396403299908</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>0.34926175502894374</v>
+        <v>0.34926169793983614</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.35472901376892374</v>
+        <v>0.35472898304766182</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.36021074532924469</v>
+        <v>0.36021071538072308</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.3659260537432284</v>
+        <v>0.36592605673678869</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.37153911164332121</v>
+        <v>0.37153910374445015</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>0.37648576373007836</v>
+        <v>0.37648577147813961</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.38092573631286109</v>
+        <v>0.38092573336635349</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.385527500423688</v>
+        <v>0.38552750521928603</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.38975151073462622</v>
+        <v>0.38975153909564364</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.39364464534922405</v>
+        <v>0.39364466795136283</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.39718818511150483</v>
+        <v>0.39718822628755257</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.40020825842115254</v>
+        <v>0.40020829897242299</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>0.40349045644615955</v>
+        <v>0.40349050988839641</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>0.40604392673497913</v>
+        <v>0.40604395658123393</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0.40853476258946159</v>
+        <v>0.40853478659879966</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>0.41116258712185694</v>
+        <v>0.41116259120583598</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>0.4137080715939771</v>
+        <v>0.41370809645092355</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>0.41686506813264873</v>
+        <v>0.41686507768325409</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>0.42006259896588527</v>
+        <v>0.42006263046174924</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>0.42374628314116375</v>
+        <v>0.42374624053142318</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>0.42745627208016307</v>
+        <v>0.42745622069503797</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.43129017260912872</v>
+        <v>0.43129011048214067</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>0.43574873441049633</v>
+        <v>0.43574868761627744</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>0.44045897748552804</v>
+        <v>0.44045894118834417</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0.4453520424127646</v>
+        <v>0.44535201157023019</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>0.45030416265732043</v>
+        <v>0.45030410926661429</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>0.45486667457042057</v>
+        <v>0.45486661772325371</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>0.46010410358214271</v>
+        <v>0.46010403596507166</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>0.46469951384153924</v>
+        <v>0.46469943505992739</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.46958792103096192</v>
+        <v>0.46958784157541095</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>0.47464372717069542</v>
+        <v>0.47464364598128328</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="2"/>
-        <v>0.47942903590965952</v>
+        <v>0.47942894390746543</v>
       </c>
       <c r="AK24">
         <f t="shared" si="2"/>
-        <v>0.484310077469228</v>
+        <v>0.48430997424421457</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>0.48953336165959527</v>
+        <v>0.48953327997311286</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>0.49423720908252866</v>
+        <v>0.49423711245158203</v>
       </c>
       <c r="AN24">
         <f t="shared" si="2"/>
-        <v>0.49915098043973333</v>
+        <v>0.49915088879485531</v>
       </c>
       <c r="AO24">
         <f t="shared" si="2"/>
-        <v>0.50421489688204157</v>
+        <v>0.504214791605339</v>
       </c>
       <c r="AP24">
         <f t="shared" si="2"/>
-        <v>0.50909954836864213</v>
+        <v>0.50909947134257794</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="2"/>
-        <v>0.51404555377460148</v>
+        <v>0.51404541878792276</v>
       </c>
       <c r="AR24">
         <f t="shared" si="2"/>
-        <v>0.51906476657479628</v>
+        <v>0.5190646523635577</v>
       </c>
       <c r="AS24">
         <f t="shared" si="2"/>
-        <v>0.52387909031815794</v>
+        <v>0.52387896574540171</v>
       </c>
       <c r="AT24">
         <f t="shared" si="2"/>
         <v>0.51663666483511983</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -7185,175 +7183,175 @@
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>0.33998625346397832</v>
+        <v>0.3399862132456164</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.34375870610328746</v>
+        <v>0.34375866987483794</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.34912852054875215</v>
+        <v>0.34912846486499099</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>0.35474239651670419</v>
+        <v>0.35474236425012828</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.35989945099482407</v>
+        <v>0.35989941917534396</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0.36426340147916553</v>
+        <v>0.36426339093893662</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.36786387082030547</v>
+        <v>0.36786385694764967</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>0.37114052356138544</v>
+        <v>0.37114052946653514</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>0.37391974418040053</v>
+        <v>0.37391973489685448</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>0.3772423083649975</v>
+        <v>0.3772422988034142</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>0.38081333342224938</v>
+        <v>0.38081334876136741</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>0.38414050909033398</v>
+        <v>0.38414051871278893</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>0.38727323438036915</v>
+        <v>0.38727325742286861</v>
       </c>
       <c r="P25">
         <f t="shared" si="3"/>
-        <v>0.39012050034757934</v>
+        <v>0.3901205334164245</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>0.39297606589160422</v>
+        <v>0.39297610461752391</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>0.39518712556237195</v>
+        <v>0.3951871427437782</v>
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>0.39752792491401601</v>
+        <v>0.39752793515215279</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>0.40010584681064704</v>
+        <v>0.40010584810613414</v>
       </c>
       <c r="U25">
         <f t="shared" si="3"/>
-        <v>0.40297855136622607</v>
+        <v>0.40297856179356528</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
-        <v>0.40624462031570335</v>
+        <v>0.40624462168980935</v>
       </c>
       <c r="W25">
         <f t="shared" si="3"/>
-        <v>0.40990638356876347</v>
+        <v>0.40990637866850965</v>
       </c>
       <c r="X25">
         <f t="shared" si="3"/>
-        <v>0.41377756001680122</v>
+        <v>0.41377752990539657</v>
       </c>
       <c r="Y25">
         <f t="shared" si="3"/>
-        <v>0.41781928752278891</v>
+        <v>0.41781922528222343</v>
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>0.42204441875652549</v>
+        <v>0.42204433783830175</v>
       </c>
       <c r="AA25">
         <f t="shared" si="3"/>
-        <v>0.42717120078720211</v>
+        <v>0.42717115143276285</v>
       </c>
       <c r="AB25">
         <f t="shared" si="3"/>
-        <v>0.43161979081433482</v>
+        <v>0.43161973875739656</v>
       </c>
       <c r="AC25">
         <f t="shared" si="3"/>
-        <v>0.43699782961942935</v>
+        <v>0.43699779679075368</v>
       </c>
       <c r="AD25">
         <f t="shared" si="3"/>
-        <v>0.44208141274788076</v>
+        <v>0.44208134073201988</v>
       </c>
       <c r="AE25">
         <f t="shared" si="3"/>
-        <v>0.44673184805345173</v>
+        <v>0.44673174596327431</v>
       </c>
       <c r="AF25">
         <f t="shared" si="3"/>
-        <v>0.45158016143535273</v>
+        <v>0.4515800782610328</v>
       </c>
       <c r="AG25">
         <f t="shared" si="3"/>
-        <v>0.4566721486292834</v>
+        <v>0.45667204883711404</v>
       </c>
       <c r="AH25">
         <f t="shared" si="3"/>
-        <v>0.46177184505572766</v>
+        <v>0.46177174816561906</v>
       </c>
       <c r="AI25">
         <f t="shared" si="3"/>
-        <v>0.46677348729382634</v>
+        <v>0.46677337857681678</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="3"/>
-        <v>0.47185023283322425</v>
+        <v>0.47185016578739308</v>
       </c>
       <c r="AK25">
         <f t="shared" si="3"/>
-        <v>0.47714983799528804</v>
+        <v>0.47714971883337498</v>
       </c>
       <c r="AL25">
         <f t="shared" si="3"/>
-        <v>0.48229740137191879</v>
+        <v>0.48229729798802989</v>
       </c>
       <c r="AM25">
         <f t="shared" si="3"/>
-        <v>0.48766028449401816</v>
+        <v>0.48766017198257944</v>
       </c>
       <c r="AN25">
         <f t="shared" si="3"/>
-        <v>0.49322582656723973</v>
+        <v>0.49322572963880412</v>
       </c>
       <c r="AO25">
         <f t="shared" si="3"/>
-        <v>0.49813545303195378</v>
+        <v>0.49813533737852128</v>
       </c>
       <c r="AP25">
         <f t="shared" si="3"/>
-        <v>0.50602058591970167</v>
+        <v>0.50602045856106681</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="3"/>
-        <v>0.51796617747421603</v>
+        <v>0.51796601111953167</v>
       </c>
       <c r="AR25">
         <f t="shared" si="3"/>
-        <v>0.53234463364012241</v>
+        <v>0.53234450077752549</v>
       </c>
       <c r="AS25">
         <f t="shared" si="3"/>
-        <v>0.54805613402734432</v>
+        <v>0.54805599013253015</v>
       </c>
       <c r="AT25">
         <f t="shared" si="3"/>
@@ -7375,737 +7373,737 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="C28">
         <f>(C15-B15)/B15</f>
-        <v>4.7001045841094387E-2</v>
+        <v>4.7001173962802165E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:AT28" si="4">(D15-C15)/C15</f>
-        <v>1.7112072858938791E-2</v>
+        <v>1.7112039368732804E-2</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>1.3829998827239991E-2</v>
+        <v>1.3830074075410906E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>1.2997246056911778E-2</v>
+        <v>1.2997140846696545E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>1.301269001373445E-2</v>
+        <v>1.2816149740917292E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>1.4406027224979603E-2</v>
+        <v>1.3499547936267311E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>1.5912364052536553E-2</v>
+        <v>1.4128401162588712E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>1.8467246585627105E-2</v>
+        <v>1.5740493858518612E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>2.0466622951463582E-2</v>
+        <v>1.6772656581823035E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>2.1203598186880508E-2</v>
+        <v>1.6735880218081246E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
-        <v>2.3163547760706518E-2</v>
+        <v>1.8423457604867986E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>2.4454569681725876E-2</v>
+        <v>1.9607851094341665E-2</v>
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>2.5424195759211812E-2</v>
+        <v>2.0527739794303921E-2</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>2.6584869932958437E-2</v>
+        <v>2.1655017557239014E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>2.6579930947678253E-2</v>
+        <v>2.163323465953252E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>2.9382584791059645E-2</v>
+        <v>2.4392872006946405E-2</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>2.9411677746566625E-2</v>
+        <v>2.4405253537718E-2</v>
       </c>
       <c r="T28">
         <f t="shared" si="4"/>
-        <v>3.1181802995899097E-2</v>
+        <v>2.6140822184537497E-2</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
-        <v>3.1693256486557506E-2</v>
+        <v>2.6630973563872184E-2</v>
       </c>
       <c r="V28">
         <f t="shared" si="4"/>
-        <v>3.0872015694266758E-2</v>
+        <v>2.5802664388356412E-2</v>
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>3.0745381295119958E-2</v>
+        <v>2.5656069104863562E-2</v>
       </c>
       <c r="X28">
         <f t="shared" si="4"/>
-        <v>3.0746724136495672E-2</v>
+        <v>2.5640322896277063E-2</v>
       </c>
       <c r="Y28">
         <f t="shared" si="4"/>
-        <v>3.0907919253394821E-2</v>
+        <v>2.5784007531864179E-2</v>
       </c>
       <c r="Z28">
         <f t="shared" si="4"/>
-        <v>3.1062516782856042E-2</v>
+        <v>2.5922811742568441E-2</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>2.9536395769738964E-2</v>
+        <v>2.4605231280441175E-2</v>
       </c>
       <c r="AB28">
         <f t="shared" si="4"/>
-        <v>2.9713190850283577E-2</v>
+        <v>2.5506028729529021E-2</v>
       </c>
       <c r="AC28">
         <f t="shared" si="4"/>
-        <v>2.9345221435415254E-2</v>
+        <v>2.604384064128893E-2</v>
       </c>
       <c r="AD28">
         <f t="shared" si="4"/>
-        <v>2.9121076366317205E-2</v>
+        <v>2.6785256897724999E-2</v>
       </c>
       <c r="AE28">
         <f t="shared" si="4"/>
-        <v>2.9601068686082459E-2</v>
+        <v>2.8249705807775385E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="4"/>
-        <v>2.9712543198207469E-2</v>
+        <v>2.9155129575034848E-2</v>
       </c>
       <c r="AG28">
         <f t="shared" si="4"/>
-        <v>2.9879012369330014E-2</v>
+        <v>2.9575411296775565E-2</v>
       </c>
       <c r="AH28">
         <f t="shared" si="4"/>
-        <v>2.988643988837009E-2</v>
+        <v>2.9668060404089855E-2</v>
       </c>
       <c r="AI28">
         <f t="shared" si="4"/>
-        <v>2.9910072220112636E-2</v>
+        <v>2.9723408786470874E-2</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="4"/>
-        <v>3.0234805099490558E-2</v>
+        <v>3.0060973539137521E-2</v>
       </c>
       <c r="AK28">
         <f t="shared" si="4"/>
-        <v>2.9520162469650425E-2</v>
+        <v>2.9358666144063031E-2</v>
       </c>
       <c r="AL28">
         <f t="shared" si="4"/>
-        <v>2.8252101834624146E-2</v>
+        <v>2.8101745410445557E-2</v>
       </c>
       <c r="AM28">
         <f t="shared" si="4"/>
-        <v>2.6395239663206727E-2</v>
+        <v>2.6258192268237425E-2</v>
       </c>
       <c r="AN28">
         <f t="shared" si="4"/>
-        <v>2.4849263904948932E-2</v>
+        <v>2.4722720508168261E-2</v>
       </c>
       <c r="AO28">
         <f t="shared" si="4"/>
-        <v>2.3219035547191697E-2</v>
+        <v>2.3102521366222328E-2</v>
       </c>
       <c r="AP28">
         <f t="shared" si="4"/>
-        <v>2.0965734526094706E-2</v>
+        <v>2.0861191319097142E-2</v>
       </c>
       <c r="AQ28">
         <f t="shared" si="4"/>
-        <v>2.1078587965070891E-2</v>
+        <v>2.097535006819511E-2</v>
       </c>
       <c r="AR28">
         <f t="shared" si="4"/>
-        <v>2.087840123021395E-2</v>
+        <v>2.0779610530683751E-2</v>
       </c>
       <c r="AS28">
         <f t="shared" si="4"/>
-        <v>2.0444391260864479E-2</v>
+        <v>2.0349482929359196E-2</v>
       </c>
       <c r="AT28">
         <f t="shared" si="4"/>
-        <v>-0.11439700106391577</v>
+        <v>-0.11399815853579494</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:AT29" si="5">(C16-B16)/B16</f>
-        <v>4.754790024008685E-2</v>
+        <v>4.7548034981042042E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
-        <v>1.6946875508380244E-2</v>
+        <v>1.694685426507744E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>1.3980697421273775E-2</v>
+        <v>1.398074309554082E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>1.302850793572091E-2</v>
+        <v>1.302843646186184E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>1.2444717762413965E-2</v>
+        <v>1.2444734373575761E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>1.274990364375695E-2</v>
+        <v>1.2749809323168047E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>1.3576995671269724E-2</v>
+        <v>1.3577026693697246E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>1.5484699066111145E-2</v>
+        <v>1.5484650661135477E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>1.6200250736497779E-2</v>
+        <v>1.6200287742507272E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>1.7273423745927902E-2</v>
+        <v>1.7273409837209115E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>1.8695584682032754E-2</v>
+        <v>1.8695508447167532E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>1.9645715833859784E-2</v>
+        <v>1.9645740515963007E-2</v>
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
-        <v>2.0504320245852487E-2</v>
+        <v>2.0504265232853338E-2</v>
       </c>
       <c r="P29">
         <f t="shared" si="5"/>
-        <v>2.2081709695828771E-2</v>
+        <v>2.2081706526597564E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="5"/>
-        <v>2.1823027835527788E-2</v>
+        <v>2.1822992468876954E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="5"/>
-        <v>2.3133431568424401E-2</v>
+        <v>2.3133492069127317E-2</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>2.2856610796575912E-2</v>
+        <v>2.2856630776623702E-2</v>
       </c>
       <c r="T29">
         <f t="shared" si="5"/>
-        <v>2.3635996467587531E-2</v>
+        <v>2.3636008250926516E-2</v>
       </c>
       <c r="U29">
         <f t="shared" si="5"/>
-        <v>2.2824787003247651E-2</v>
+        <v>2.2824786985631704E-2</v>
       </c>
       <c r="V29">
         <f t="shared" si="5"/>
-        <v>2.1514162570583764E-2</v>
+        <v>2.1514203581497596E-2</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>2.1277859784268046E-2</v>
+        <v>2.1277826961222209E-2</v>
       </c>
       <c r="X29">
         <f t="shared" si="5"/>
-        <v>2.0553899281137312E-2</v>
+        <v>2.0554037785616267E-2</v>
       </c>
       <c r="Y29">
         <f t="shared" si="5"/>
-        <v>2.0954664626465832E-2</v>
+        <v>2.0954685684098622E-2</v>
       </c>
       <c r="Z29">
         <f t="shared" si="5"/>
-        <v>2.160766631314779E-2</v>
+        <v>2.1607693223642907E-2</v>
       </c>
       <c r="AA29">
         <f t="shared" si="5"/>
-        <v>1.934290089150232E-2</v>
+        <v>1.9342851042806298E-2</v>
       </c>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>1.9058821840388387E-2</v>
+        <v>1.9058802602261015E-2</v>
       </c>
       <c r="AC29">
         <f t="shared" si="5"/>
-        <v>1.87184946421469E-2</v>
+        <v>1.8718498144208368E-2</v>
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>1.8168505623352794E-2</v>
+        <v>1.8168580479842652E-2</v>
       </c>
       <c r="AE29">
         <f t="shared" si="5"/>
-        <v>1.8752900576454585E-2</v>
+        <v>1.875295133804428E-2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="5"/>
-        <v>1.9339443149386897E-2</v>
+        <v>1.9339423349112001E-2</v>
       </c>
       <c r="AG29">
         <f t="shared" si="5"/>
-        <v>1.9240108607154548E-2</v>
+        <v>1.9240120489500735E-2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="5"/>
-        <v>1.9523157205677204E-2</v>
+        <v>1.952311449593119E-2</v>
       </c>
       <c r="AI29">
         <f t="shared" si="5"/>
-        <v>1.9892155011004137E-2</v>
+        <v>1.9892171886853355E-2</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="5"/>
-        <v>1.9782078491653237E-2</v>
+        <v>1.9782057366330087E-2</v>
       </c>
       <c r="AK29">
         <f t="shared" si="5"/>
-        <v>1.9178800241507556E-2</v>
+        <v>1.9178879769466632E-2</v>
       </c>
       <c r="AL29">
         <f t="shared" si="5"/>
-        <v>1.7798916293936311E-2</v>
+        <v>1.7798877333863518E-2</v>
       </c>
       <c r="AM29">
         <f t="shared" si="5"/>
-        <v>1.6053826495114071E-2</v>
+        <v>1.6053832434723171E-2</v>
       </c>
       <c r="AN29">
         <f t="shared" si="5"/>
-        <v>1.4386592784217644E-2</v>
+        <v>1.4386622851075934E-2</v>
       </c>
       <c r="AO29">
         <f t="shared" si="5"/>
-        <v>1.2976564556893591E-2</v>
+        <v>1.2976594702118094E-2</v>
       </c>
       <c r="AP29">
         <f t="shared" si="5"/>
-        <v>1.1146205745733792E-2</v>
+        <v>1.1146159645933964E-2</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="5"/>
-        <v>1.1023733009877331E-2</v>
+        <v>1.1023830481268386E-2</v>
       </c>
       <c r="AR29">
         <f t="shared" si="5"/>
-        <v>1.056074615622671E-2</v>
+        <v>1.0560702698394276E-2</v>
       </c>
       <c r="AS29">
         <f t="shared" si="5"/>
-        <v>1.0887675227880601E-2</v>
+        <v>1.088766148400196E-2</v>
       </c>
       <c r="AT29">
         <f t="shared" si="5"/>
-        <v>6.8098378804314671E-2</v>
+        <v>6.8098107318589812E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:AT30" si="6">(C17-B17)/B17</f>
-        <v>4.6043909058278668E-2</v>
+        <v>4.6044030224159246E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>1.3906837321548167E-2</v>
+        <v>1.3906837212214685E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="6"/>
-        <v>8.8762917945411062E-3</v>
+        <v>8.8763354070214313E-3</v>
       </c>
       <c r="F30">
         <f t="shared" si="6"/>
-        <v>6.1075362544356143E-3</v>
+        <v>6.107453709905385E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>3.2857902337845839E-3</v>
+        <v>3.2857918569243337E-3</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>3.0764655979760537E-3</v>
+        <v>3.0763786226409144E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="6"/>
-        <v>4.3879827911992367E-3</v>
+        <v>4.388002605947394E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>4.159565315953127E-3</v>
+        <v>4.1595303164253675E-3</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
-        <v>3.894167209395164E-3</v>
+        <v>3.8941916340550146E-3</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>3.6404123947032228E-3</v>
+        <v>3.6404047202506233E-3</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>4.2802459558486522E-3</v>
+        <v>4.2801740389613171E-3</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>5.0481823697478634E-3</v>
+        <v>5.0481950426982131E-3</v>
       </c>
       <c r="O30">
         <f t="shared" si="6"/>
-        <v>6.0781140922584439E-3</v>
+        <v>6.0780694623371453E-3</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
-        <v>7.2325890178753975E-3</v>
+        <v>7.2325962358352558E-3</v>
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>7.4127666853731986E-3</v>
+        <v>7.4127338719519606E-3</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
-        <v>7.5468533160030415E-3</v>
+        <v>7.5469166433855426E-3</v>
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
-        <v>6.2866531653378256E-3</v>
+        <v>6.286662455491053E-3</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
-        <v>6.1709067596931351E-3</v>
+        <v>6.1709623601359127E-3</v>
       </c>
       <c r="U30">
         <f t="shared" si="6"/>
-        <v>5.74741490328052E-3</v>
+        <v>5.7473588180549451E-3</v>
       </c>
       <c r="V30">
         <f t="shared" si="6"/>
-        <v>2.4292717573044151E-3</v>
+        <v>2.4293007333831625E-3</v>
       </c>
       <c r="W30">
         <f t="shared" si="6"/>
-        <v>1.7874696673084946E-3</v>
+        <v>1.7874302087912699E-3</v>
       </c>
       <c r="X30">
         <f t="shared" si="6"/>
-        <v>1.5670918465993534E-3</v>
+        <v>1.5672592672935938E-3</v>
       </c>
       <c r="Y30">
         <f t="shared" si="6"/>
-        <v>1.0713543461155976E-3</v>
+        <v>1.0713687178975503E-3</v>
       </c>
       <c r="Z30">
         <f t="shared" si="6"/>
-        <v>1.7715156771097847E-3</v>
+        <v>1.7715578971389363E-3</v>
       </c>
       <c r="AA30">
         <f t="shared" si="6"/>
-        <v>-8.272283025988705E-4</v>
+        <v>-8.272790192476498E-4</v>
       </c>
       <c r="AB30">
         <f t="shared" si="6"/>
-        <v>-5.4502967779523491E-4</v>
+        <v>-5.4506606420333425E-4</v>
       </c>
       <c r="AC30">
         <f t="shared" si="6"/>
-        <v>-3.0526852242105241E-4</v>
+        <v>-3.0526276169633019E-4</v>
       </c>
       <c r="AD30">
         <f t="shared" si="6"/>
-        <v>-4.3205891724844438E-4</v>
+        <v>-4.3201322715093594E-4</v>
       </c>
       <c r="AE30">
         <f t="shared" si="6"/>
-        <v>-1.2211045050340582E-3</v>
+        <v>-1.2210915335549833E-3</v>
       </c>
       <c r="AF30">
         <f t="shared" si="6"/>
-        <v>-1.2508665997995917E-4</v>
+        <v>-1.2507178221790515E-4</v>
       </c>
       <c r="AG30">
         <f t="shared" si="6"/>
-        <v>-8.3992257248295893E-4</v>
+        <v>-8.3990058947648301E-4</v>
       </c>
       <c r="AH30">
         <f t="shared" si="6"/>
-        <v>-1.1094126974749124E-3</v>
+        <v>-1.109413379821419E-3</v>
       </c>
       <c r="AI30">
         <f t="shared" si="6"/>
-        <v>-7.9384655472133849E-4</v>
+        <v>-7.9383431904301585E-4</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="6"/>
-        <v>-7.53036637690689E-4</v>
+        <v>-7.53031890206962E-4</v>
       </c>
       <c r="AK30">
         <f t="shared" si="6"/>
-        <v>-5.9943620207726319E-4</v>
+        <v>-5.9941068921660846E-4</v>
       </c>
       <c r="AL30">
         <f t="shared" si="6"/>
-        <v>1.3001905880320709E-5</v>
+        <v>1.2949618284771384E-5</v>
       </c>
       <c r="AM30">
         <f t="shared" si="6"/>
-        <v>-1.3415947539070566E-4</v>
+        <v>-1.3412758359633315E-4</v>
       </c>
       <c r="AN30">
         <f t="shared" si="6"/>
-        <v>-2.2490803278638077E-4</v>
+        <v>-2.2491598412575898E-4</v>
       </c>
       <c r="AO30">
         <f t="shared" si="6"/>
-        <v>2.4380794803244347E-4</v>
+        <v>2.43830347962232E-4</v>
       </c>
       <c r="AP30">
         <f t="shared" si="6"/>
-        <v>9.528099028541958E-5</v>
+        <v>9.5234362639586915E-5</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="6"/>
-        <v>-3.2376543254647237E-5</v>
+        <v>-3.2280248636878023E-5</v>
       </c>
       <c r="AR30">
         <f t="shared" si="6"/>
-        <v>6.6553326149093324E-4</v>
+        <v>6.655030523601361E-4</v>
       </c>
       <c r="AS30">
         <f t="shared" si="6"/>
-        <v>3.6576699416787363E-4</v>
+        <v>3.657757671292149E-4</v>
       </c>
       <c r="AT30">
         <f t="shared" si="6"/>
-        <v>-6.1635430940500009E-2</v>
+        <v>-6.1635644596872437E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:AT31" si="7">(C18-B18)/B18</f>
-        <v>4.5475718132244797E-2</v>
+        <v>4.547584378576186E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="7"/>
-        <v>1.3141293574080283E-2</v>
+        <v>1.3141282014772189E-2</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>8.5209939695054769E-3</v>
+        <v>8.5210420829418907E-3</v>
       </c>
       <c r="F31">
         <f t="shared" si="7"/>
-        <v>5.6942983988537456E-3</v>
+        <v>5.6942324980620357E-3</v>
       </c>
       <c r="G31">
         <f t="shared" si="7"/>
-        <v>2.2593888959934979E-3</v>
+        <v>2.2593935986610671E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>-3.6815689500927719E-3</v>
+        <v>-3.6816391370934087E-3</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
-        <v>-9.2415207139862204E-3</v>
+        <v>-9.2415171345585946E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
-        <v>-1.5020017689540734E-2</v>
+        <v>-1.5020060322830278E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="7"/>
-        <v>-1.9897947703308203E-2</v>
+        <v>-1.9897911769801779E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="7"/>
-        <v>-2.3148050878045365E-2</v>
+        <v>-2.3148045772005021E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="7"/>
-        <v>-2.1835121233823876E-2</v>
+        <v>-2.1835185106956756E-2</v>
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>-2.0383128762416772E-2</v>
+        <v>-2.0383112026816527E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>-1.8392812714349231E-2</v>
+        <v>-1.8392850709572171E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="7"/>
-        <v>-1.500952943789198E-2</v>
+        <v>-1.5009551274728033E-2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>-1.4533673266161756E-2</v>
+        <v>-1.453368242669187E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
-        <v>-1.2808762888052851E-2</v>
+        <v>-1.2808715015702458E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="7"/>
-        <v>-1.1970608706857842E-2</v>
+        <v>-1.1970594064761539E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="7"/>
-        <v>-1.0512134347712707E-2</v>
+        <v>-1.0512105478556414E-2</v>
       </c>
       <c r="U31">
         <f t="shared" si="7"/>
-        <v>-8.5227537222822801E-3</v>
+        <v>-8.5227803843798116E-3</v>
       </c>
       <c r="V31">
         <f t="shared" si="7"/>
-        <v>-9.3613599838071517E-3</v>
+        <v>-9.3613333168853195E-3</v>
       </c>
       <c r="W31">
         <f t="shared" si="7"/>
-        <v>-7.1923653523683038E-3</v>
+        <v>-7.1923640479404777E-3</v>
       </c>
       <c r="X31">
         <f t="shared" si="7"/>
-        <v>-5.6358382417521355E-3</v>
+        <v>-5.6357488646765416E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" si="7"/>
-        <v>-3.9254665799398339E-3</v>
+        <v>-3.9253983567994807E-3</v>
       </c>
       <c r="Z31">
         <f t="shared" si="7"/>
-        <v>-2.2779948129176132E-3</v>
+        <v>-2.2779703777692836E-3</v>
       </c>
       <c r="AA31">
         <f t="shared" si="7"/>
-        <v>-2.2767262646140943E-3</v>
+        <v>-2.2767880601109493E-3</v>
       </c>
       <c r="AB31">
         <f t="shared" si="7"/>
-        <v>-2.4930022627570191E-3</v>
+        <v>-2.4930048607587404E-3</v>
       </c>
       <c r="AC31">
         <f t="shared" si="7"/>
-        <v>-1.2632039682915971E-3</v>
+        <v>-1.2632510997030097E-3</v>
       </c>
       <c r="AD31">
         <f t="shared" si="7"/>
-        <v>-3.8889452352971489E-4</v>
+        <v>-3.8881399616721025E-4</v>
       </c>
       <c r="AE31">
         <f t="shared" si="7"/>
-        <v>-1.7719474516179039E-3</v>
+        <v>-1.7718804453961384E-3</v>
       </c>
       <c r="AF31">
         <f t="shared" si="7"/>
-        <v>-2.3731840975757851E-3</v>
+        <v>-2.3732129433024474E-3</v>
       </c>
       <c r="AG31">
         <f t="shared" si="7"/>
-        <v>-1.6419819202944707E-3</v>
+        <v>-1.6419448349557517E-3</v>
       </c>
       <c r="AH31">
         <f t="shared" si="7"/>
-        <v>-1.2415217821954724E-3</v>
+        <v>-1.2415423133049666E-3</v>
       </c>
       <c r="AI31">
         <f t="shared" si="7"/>
-        <v>-1.5036031147966046E-3</v>
+        <v>-1.503569265066864E-3</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="7"/>
-        <v>-1.4857162108170661E-3</v>
+        <v>-1.4858028236297807E-3</v>
       </c>
       <c r="AK31">
         <f t="shared" si="7"/>
-        <v>-6.0174090128672615E-4</v>
+        <v>-6.0164981729184488E-4</v>
       </c>
       <c r="AL31">
         <f t="shared" si="7"/>
-        <v>-9.797991595964456E-4</v>
+        <v>-9.7983123173912682E-4</v>
       </c>
       <c r="AM31">
         <f t="shared" si="7"/>
-        <v>4.6903894996889176E-5</v>
+        <v>4.6930728446991352E-5</v>
       </c>
       <c r="AN31">
         <f t="shared" si="7"/>
-        <v>6.1755650043257559E-4</v>
+        <v>6.1752293208553691E-4</v>
       </c>
       <c r="AO31">
         <f t="shared" si="7"/>
-        <v>3.3355620627057418E-4</v>
+        <v>3.3359583869604952E-4</v>
       </c>
       <c r="AP31">
         <f t="shared" si="7"/>
-        <v>5.9402873666108682E-3</v>
+        <v>5.940290985893942E-3</v>
       </c>
       <c r="AQ31">
         <f t="shared" si="7"/>
-        <v>2.3740057841706456E-2</v>
+        <v>2.374011343886245E-2</v>
       </c>
       <c r="AR31">
         <f t="shared" si="7"/>
-        <v>4.7590112077554203E-2</v>
+        <v>4.7590054010501273E-2</v>
       </c>
       <c r="AS31">
         <f t="shared" si="7"/>
-        <v>7.485733531780818E-2</v>
+        <v>7.4857357423764606E-2</v>
       </c>
       <c r="AT31">
         <f t="shared" si="7"/>
-        <v>-0.10267075082462776</v>
+        <v>-0.10267099445002395</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -8123,7 +8121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -8133,193 +8131,193 @@
       </c>
       <c r="C34">
         <f>B34*(1+C28)</f>
-        <v>4269864261.041564</v>
+        <v>4269864783.5456281</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:AT34" si="8">C34*(1+D28)</f>
-        <v>4342930489.3742867</v>
+        <v>4342930877.8208265</v>
       </c>
       <c r="E34">
         <f t="shared" si="8"/>
-        <v>4402993212.9491177</v>
+        <v>4402993933.5654783</v>
       </c>
       <c r="F34">
         <f t="shared" si="8"/>
-        <v>4460219999.1247301</v>
+        <v>4460220265.8671789</v>
       </c>
       <c r="G34">
         <f t="shared" si="8"/>
-        <v>4518259459.3663988</v>
+        <v>4517383116.6720066</v>
       </c>
       <c r="H34">
         <f t="shared" si="8"/>
-        <v>4583349628.1475525</v>
+        <v>4578365746.602005</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
-        <v>4656281556.0106945</v>
+        <v>4643050734.539053</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>4742270255.6776514</v>
+        <v>4716134646.1108551</v>
       </c>
       <c r="K34">
         <f t="shared" si="8"/>
-        <v>4839328512.9345465</v>
+        <v>4795236752.9237108</v>
       </c>
       <c r="L34">
         <f t="shared" si="8"/>
-        <v>4941939690.2171249</v>
+        <v>4875489260.8379831</v>
       </c>
       <c r="M34">
         <f t="shared" si="8"/>
-        <v>5056412546.262001</v>
+        <v>4965312630.5380211</v>
       </c>
       <c r="N34">
         <f t="shared" si="8"/>
-        <v>5180064939.214118</v>
+        <v>5062671741.2344646</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
-        <v>5311763924.274128</v>
+        <v>5166596949.4025021</v>
       </c>
       <c r="P34">
         <f t="shared" si="8"/>
-        <v>5452976477.3155365</v>
+        <v>5278479697.0529909</v>
       </c>
       <c r="Q34">
         <f t="shared" si="8"/>
-        <v>5597916215.5418968</v>
+        <v>5392670286.9849157</v>
       </c>
       <c r="R34">
         <f t="shared" si="8"/>
-        <v>5762397463.398304</v>
+        <v>5524213003.071002</v>
       </c>
       <c r="S34">
         <f t="shared" si="8"/>
-        <v>5931879240.6394081</v>
+        <v>5659032822.007308</v>
       </c>
       <c r="T34">
         <f t="shared" si="8"/>
-        <v>6116845930.516489</v>
+        <v>5806964592.7438622</v>
       </c>
       <c r="U34">
         <f t="shared" si="8"/>
-        <v>6310708697.4811039</v>
+        <v>5961609713.2995653</v>
       </c>
       <c r="V34">
         <f t="shared" si="8"/>
-        <v>6505532995.4316864</v>
+        <v>6115435127.9461994</v>
       </c>
       <c r="W34">
         <f t="shared" si="8"/>
-        <v>6705548087.9042177</v>
+        <v>6272333154.195097</v>
       </c>
       <c r="X34">
         <f t="shared" si="8"/>
-        <v>6911721725.1470146</v>
+        <v>6433157801.5816841</v>
       </c>
       <c r="Y34">
         <f t="shared" si="8"/>
-        <v>7125348662.1297932</v>
+        <v>6599030390.791338</v>
       </c>
       <c r="Z34">
         <f t="shared" si="8"/>
-        <v>7346679924.5309</v>
+        <v>6770095813.29531</v>
       </c>
       <c r="AA34">
         <f t="shared" si="8"/>
-        <v>7563674370.3754406</v>
+        <v>6936675586.5721884</v>
       </c>
       <c r="AB34">
         <f t="shared" si="8"/>
-        <v>7788415270.4718056</v>
+        <v>7113602633.3707209</v>
       </c>
       <c r="AC34">
         <f t="shared" si="8"/>
-        <v>8016968041.2147703</v>
+        <v>7298868166.7396803</v>
       </c>
       <c r="AD34">
         <f t="shared" si="8"/>
-        <v>8250430779.76931</v>
+        <v>7494370225.6484289</v>
       </c>
       <c r="AE34">
         <f t="shared" si="8"/>
-        <v>8494652347.9710293</v>
+        <v>7706083979.7375479</v>
       </c>
       <c r="AF34">
         <f t="shared" si="8"/>
-        <v>8747050072.8138733</v>
+        <v>7930755856.6828957</v>
       </c>
       <c r="AG34">
         <f t="shared" si="8"/>
-        <v>9008403290.1346283</v>
+        <v>8165311223.0386047</v>
       </c>
       <c r="AH34">
         <f t="shared" si="8"/>
-        <v>9277632393.5554314</v>
+        <v>8407560169.6219063</v>
       </c>
       <c r="AI34">
         <f t="shared" si="8"/>
-        <v>9555127048.4783306</v>
+        <v>8657461517.4404278</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="8"/>
-        <v>9844024452.4899426</v>
+        <v>8917713239.0323048</v>
       </c>
       <c r="AK34">
         <f t="shared" si="8"/>
-        <v>10134621653.682657</v>
+        <v>9179525404.7855453</v>
       </c>
       <c r="AL34">
         <f t="shared" si="8"/>
-        <v>10420946016.697887</v>
+        <v>9437486090.6995449</v>
       </c>
       <c r="AM34">
         <f t="shared" si="8"/>
-        <v>10696009384.325968</v>
+        <v>9685297414.9979496</v>
       </c>
       <c r="AN34">
         <f t="shared" si="8"/>
-        <v>10961797344.246893</v>
+        <v>9924744316.0274296</v>
       </c>
       <c r="AO34">
         <f t="shared" si="8"/>
-        <v>11216319706.444073</v>
+        <v>10154030933.642748</v>
       </c>
       <c r="AP34">
         <f t="shared" si="8"/>
-        <v>11451478087.769184</v>
+        <v>10365856115.609501</v>
       </c>
       <c r="AQ34">
         <f t="shared" si="8"/>
-        <v>11692859075.972307</v>
+        <v>10583283576.390951</v>
       </c>
       <c r="AR34">
         <f t="shared" si="8"/>
-        <v>11936987279.288805</v>
+        <v>10803200087.244137</v>
       </c>
       <c r="AS34">
         <f t="shared" si="8"/>
-        <v>12181031717.702547</v>
+        <v>11023039623.001963</v>
       </c>
       <c r="AT34">
         <f t="shared" si="8"/>
-        <v>10787558219.332937</v>
+        <v>9766433404.5126343</v>
       </c>
       <c r="AV34">
         <f>AVERAGE(AK34:AT34)</f>
-        <v>11147960848.546324</v>
+        <v>10092289696.69124</v>
       </c>
       <c r="AW34">
         <v>247030</v>
       </c>
       <c r="AX34">
         <f>AV34/AW34</f>
-        <v>45127.963601774376</v>
+        <v>40854.510369960088</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -8329,193 +8327,193 @@
       </c>
       <c r="C35">
         <f>B35*(1+C29)</f>
-        <v>4272094434.6058855</v>
+        <v>4272094984.104466</v>
       </c>
       <c r="D35">
         <f t="shared" ref="D35:AT35" si="9">C35*(1+D29)</f>
-        <v>4344493087.1491947</v>
+        <v>4344493555.2066526</v>
       </c>
       <c r="E35">
         <f t="shared" si="9"/>
-        <v>4405232130.4494429</v>
+        <v>4405232803.4822292</v>
       </c>
       <c r="F35">
         <f t="shared" si="9"/>
-        <v>4462625732.219696</v>
+        <v>4462626099.1621065</v>
       </c>
       <c r="G35">
         <f t="shared" si="9"/>
-        <v>4518161849.9364567</v>
+        <v>4518162295.5747662</v>
       </c>
       <c r="H35">
         <f t="shared" si="9"/>
-        <v>4575767978.1700459</v>
+        <v>4575768003.3344707</v>
       </c>
       <c r="I35">
         <f t="shared" si="9"/>
-        <v>4637893160.2023954</v>
+        <v>4637893327.6599083</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>4709709540.0889044</v>
+        <v>4709709485.642333</v>
       </c>
       <c r="K35">
         <f t="shared" si="9"/>
-        <v>4786008015.53442</v>
+        <v>4786008134.4933548</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
-        <v>4868678760.0381536</v>
+        <v>4868678814.4846754</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>4959701556.0860605</v>
+        <v>4959701240.3874197</v>
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>5057138443.4776802</v>
+        <v>5057138243.9927702</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>5160831629.6503592</v>
+        <v>5160831147.8668041</v>
       </c>
       <c r="P35">
         <f t="shared" si="9"/>
-        <v>5274791615.4853497</v>
+        <v>5274791106.7073221</v>
       </c>
       <c r="Q35">
         <f t="shared" si="9"/>
-        <v>5389903539.7366953</v>
+        <v>5389902833.303895</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
-        <v>5514590504.4336023</v>
+        <v>5514590107.7514973</v>
       </c>
       <c r="S35">
         <f t="shared" si="9"/>
-        <v>5640635353.2959347</v>
+        <v>5640635057.7287951</v>
       </c>
       <c r="T35">
         <f t="shared" si="9"/>
-        <v>5773957390.5813875</v>
+        <v>5773957154.4937391</v>
       </c>
       <c r="U35">
         <f t="shared" si="9"/>
-        <v>5905746738.1872349</v>
+        <v>5905746496.6092234</v>
       </c>
       <c r="V35">
         <f t="shared" si="9"/>
-        <v>6032803933.6132898</v>
+        <v>6032803929.0379906</v>
       </c>
       <c r="W35">
         <f t="shared" si="9"/>
-        <v>6161169089.8186941</v>
+        <v>6161168887.1310425</v>
       </c>
       <c r="X35">
         <f t="shared" si="9"/>
-        <v>6287805138.7448845</v>
+        <v>6287805785.2406979</v>
       </c>
       <c r="Y35">
         <f t="shared" si="9"/>
-        <v>6419563986.6638517</v>
+        <v>6419564779.1130733</v>
       </c>
       <c r="Z35">
         <f t="shared" si="9"/>
-        <v>6558275783.1635847</v>
+        <v>6558276765.4894514</v>
       </c>
       <c r="AA35">
         <f t="shared" si="9"/>
-        <v>6685131861.6564569</v>
+        <v>6685132536.0618105</v>
       </c>
       <c r="AB35">
         <f t="shared" si="9"/>
-        <v>6812542598.7872715</v>
+        <v>6812543157.4365654</v>
       </c>
       <c r="AC35">
         <f t="shared" si="9"/>
-        <v>6940063140.9220676</v>
+        <v>6940063733.8863811</v>
       </c>
       <c r="AD35">
         <f t="shared" si="9"/>
-        <v>7066153717.1243334</v>
+        <v>7066154840.3707333</v>
       </c>
       <c r="AE35">
         <f t="shared" si="9"/>
-        <v>7198664595.2395115</v>
+        <v>7198666098.2392912</v>
       </c>
       <c r="AF35">
         <f t="shared" si="9"/>
-        <v>7337882759.9306507</v>
+        <v>7337884149.4620409</v>
       </c>
       <c r="AG35">
         <f t="shared" si="9"/>
-        <v>7479064421.1782837</v>
+        <v>7479065924.6356878</v>
       </c>
       <c r="AH35">
         <f t="shared" si="9"/>
-        <v>7625079371.6243334</v>
+        <v>7625080585.0049677</v>
       </c>
       <c r="AI35">
         <f t="shared" si="9"/>
-        <v>7776758632.4558945</v>
+        <v>7776759998.6529951</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="9"/>
-        <v>7930599082.1337786</v>
+        <v>7930600311.0705299</v>
       </c>
       <c r="AK35">
         <f t="shared" si="9"/>
-        <v>8082698457.7255058</v>
+        <v>8082700340.9362459</v>
       </c>
       <c r="AL35">
         <f t="shared" si="9"/>
-        <v>8226561731.0036898</v>
+        <v>8226563332.8309469</v>
       </c>
       <c r="AM35">
         <f t="shared" si="9"/>
-        <v>8358629525.6845675</v>
+        <v>8358631202.0898533</v>
       </c>
       <c r="AN35">
         <f t="shared" si="9"/>
-        <v>8478881724.9047298</v>
+        <v>8478883676.7455549</v>
       </c>
       <c r="AO35">
         <f t="shared" si="9"/>
-        <v>8588908480.9782209</v>
+        <v>8588910713.7450867</v>
       </c>
       <c r="AP35">
         <f t="shared" si="9"/>
-        <v>8684642222.0384827</v>
+        <v>8684644083.7451611</v>
       </c>
       <c r="AQ35">
         <f t="shared" si="9"/>
-        <v>8780379399.180542</v>
+        <v>8780382127.9145184</v>
       </c>
       <c r="AR35">
         <f t="shared" si="9"/>
-        <v>8873106757.1706505</v>
+        <v>8873109133.1457176</v>
       </c>
       <c r="AS35">
         <f t="shared" si="9"/>
-        <v>8969714261.8050365</v>
+        <v>8969716541.6980133</v>
       </c>
       <c r="AT35">
         <f t="shared" si="9"/>
-        <v>9580537261.3718987</v>
+        <v>9580537261.3718948</v>
       </c>
       <c r="AV35">
         <f>AVERAGE(AK35:AT35)</f>
-        <v>8662405982.1863327</v>
+        <v>8662407841.4222984</v>
       </c>
       <c r="AW35">
         <v>236870</v>
       </c>
       <c r="AX35">
         <f>AV35/AW35</f>
-        <v>36570.295867717876</v>
+        <v>36570.303716900824</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -8525,193 +8523,193 @@
       </c>
       <c r="C36">
         <f>B36*(1+C30)</f>
-        <v>4265960879.8958559</v>
+        <v>4265961374.0327668</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:AT36" si="10">C36*(1+D30)</f>
-        <v>4325286903.8726559</v>
+        <v>4325287404.4150362</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>4363679412.5265369</v>
+        <v>4363680106.1483889</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>4390330742.7412767</v>
+        <v>4390331080.4015245</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>4404756448.6188602</v>
+        <v>4404756794.5147095</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>4418307530.300499</v>
+        <v>4418307494.1552868</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>4437694987.7096834</v>
+        <v>4437695038.953517</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>4456153869.8633404</v>
+        <v>4456153766.0030947</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>4473506878.1433811</v>
+        <v>4473506882.7187262</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>4489792288.030364</v>
+        <v>4489792258.2906494</v>
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>4509009703.3138065</v>
+        <v>4509009350.5549145</v>
       </c>
       <c r="N36">
         <f t="shared" si="10"/>
-        <v>4531772006.6030979</v>
+        <v>4531771709.2058659</v>
       </c>
       <c r="O36">
         <f t="shared" si="10"/>
-        <v>4559316633.899334</v>
+        <v>4559316132.4418736</v>
       </c>
       <c r="P36">
         <f t="shared" si="10"/>
-        <v>4592292297.3146915</v>
+        <v>4592291825.1393557</v>
       </c>
       <c r="Q36">
         <f t="shared" si="10"/>
-        <v>4626333888.6657219</v>
+        <v>4626333262.3014545</v>
       </c>
       <c r="R36">
         <f t="shared" si="10"/>
-        <v>4661248151.9143362</v>
+        <v>4661247813.7965651</v>
       </c>
       <c r="S36">
         <f t="shared" si="10"/>
-        <v>4690551802.3629932</v>
+        <v>4690551505.4232998</v>
       </c>
       <c r="T36">
         <f t="shared" si="10"/>
-        <v>4719496760.1868858</v>
+        <v>4719496722.211545</v>
       </c>
       <c r="U36">
         <f t="shared" si="10"/>
-        <v>4746621666.2023687</v>
+        <v>4746621363.3147287</v>
       </c>
       <c r="V36">
         <f t="shared" si="10"/>
-        <v>4758152500.1586838</v>
+        <v>4758152334.0737209</v>
       </c>
       <c r="W36">
         <f t="shared" si="10"/>
-        <v>4766657553.4251461</v>
+        <v>4766657199.2936745</v>
       </c>
       <c r="X36">
         <f t="shared" si="10"/>
-        <v>4774127343.6126499</v>
+        <v>4774127786.9632788</v>
       </c>
       <c r="Y36">
         <f t="shared" si="10"/>
-        <v>4779242125.6911383</v>
+        <v>4779242638.1294765</v>
       </c>
       <c r="Z36">
         <f t="shared" si="10"/>
-        <v>4787708628.0415039</v>
+        <v>4787709343.1673975</v>
       </c>
       <c r="AA36">
         <f t="shared" si="10"/>
-        <v>4783748099.9597912</v>
+        <v>4783748571.6775389</v>
       </c>
       <c r="AB36">
         <f t="shared" si="10"/>
-        <v>4781140815.2742167</v>
+        <v>4781141112.6714363</v>
       </c>
       <c r="AC36">
         <f t="shared" si="10"/>
-        <v>4779681283.4820509</v>
+        <v>4779681608.3313227</v>
       </c>
       <c r="AD36">
         <f t="shared" si="10"/>
-        <v>4777616179.5619173</v>
+        <v>4777616722.654954</v>
       </c>
       <c r="AE36">
         <f t="shared" si="10"/>
-        <v>4771782210.92173</v>
+        <v>4771782815.3243494</v>
       </c>
       <c r="AF36">
         <f t="shared" si="10"/>
-        <v>4771185324.6228142</v>
+        <v>4771185999.9432802</v>
       </c>
       <c r="AG36">
         <f t="shared" si="10"/>
-        <v>4767177898.3711643</v>
+        <v>4767178678.0094261</v>
       </c>
       <c r="AH36">
         <f t="shared" si="10"/>
-        <v>4761889130.6795893</v>
+        <v>4761889906.2000427</v>
       </c>
       <c r="AI36">
         <f t="shared" si="10"/>
-        <v>4758108921.3992338</v>
+        <v>4758109754.5689964</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="10"/>
-        <v>4754525891.0552979</v>
+        <v>4754526746.1867018</v>
       </c>
       <c r="AK36">
         <f t="shared" si="10"/>
-        <v>4751675856.1124859</v>
+        <v>4751676832.0328712</v>
       </c>
       <c r="AL36">
         <f t="shared" si="10"/>
-        <v>4751737636.9547415</v>
+        <v>4751738364.4340591</v>
       </c>
       <c r="AM36">
         <f t="shared" si="10"/>
-        <v>4751100146.3261728</v>
+        <v>4751101025.2493553</v>
       </c>
       <c r="AN36">
         <f t="shared" si="10"/>
-        <v>4750031585.7386913</v>
+        <v>4750032426.6865807</v>
       </c>
       <c r="AO36">
         <f t="shared" si="10"/>
-        <v>4751189681.1926994</v>
+        <v>4751190628.7460108</v>
       </c>
       <c r="AP36">
         <f t="shared" si="10"/>
-        <v>4751642379.2505579</v>
+        <v>4751643105.3573189</v>
       </c>
       <c r="AQ36">
         <f t="shared" si="10"/>
-        <v>4751488537.4955359</v>
+        <v>4751489721.1364441</v>
       </c>
       <c r="AR36">
         <f t="shared" si="10"/>
-        <v>4754650811.1588316</v>
+        <v>4754651852.049118</v>
       </c>
       <c r="AS36">
         <f t="shared" si="10"/>
-        <v>4756389905.4943476</v>
+        <v>4756390988.4777336</v>
       </c>
       <c r="AT36">
         <f t="shared" si="10"/>
-        <v>4463227763.9481592</v>
+        <v>4463227763.9481535</v>
       </c>
       <c r="AV36">
         <f>AVERAGE(AK36:AT36)</f>
-        <v>4723313430.3672218</v>
+        <v>4723314270.8117647</v>
       </c>
       <c r="AW36">
         <v>250690</v>
       </c>
       <c r="AX36">
         <f>AV36/AW36</f>
-        <v>18841.251866317849</v>
+        <v>18841.255218843053</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -8721,331 +8719,331 @@
       </c>
       <c r="C37">
         <f>B37*(1+C31)</f>
-        <v>4263643692.0208697</v>
+        <v>4263644204.4591947</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:AT37" si="11">C37*(1+D31)</f>
-        <v>4319673485.472991</v>
+        <v>4319673955.3606424</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
-        <v>4356481397.1929388</v>
+        <v>4356482078.9188585</v>
       </c>
       <c r="F37">
         <f t="shared" si="11"/>
-        <v>4381288502.2376108</v>
+        <v>4381288900.7498627</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>4391187536.82971</v>
+        <v>4391187956.8461018</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
-        <v>4375021077.1400833</v>
+        <v>4375021187.4058437</v>
       </c>
       <c r="I37">
         <f t="shared" si="11"/>
-        <v>4334589229.2315674</v>
+        <v>4334589354.1383762</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>4269483622.3316164</v>
+        <v>4269483560.5645199</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
-        <v>4184529660.4943309</v>
+        <v>4184529753.3737879</v>
       </c>
       <c r="L37">
         <f t="shared" si="11"/>
-        <v>4087665955.0125179</v>
+        <v>4087666067.1083746</v>
       </c>
       <c r="M37">
         <f t="shared" si="11"/>
-        <v>3998411273.321445</v>
+        <v>3998411121.8776374</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>3916911141.4922352</v>
+        <v>3916911060.0511365</v>
       </c>
       <c r="O37">
         <f t="shared" si="11"/>
-        <v>3844868128.4480205</v>
+        <v>3844867899.680944</v>
       </c>
       <c r="P37">
         <f t="shared" si="11"/>
-        <v>3787158467.0892673</v>
+        <v>3787158157.7961268</v>
       </c>
       <c r="Q37">
         <f t="shared" si="11"/>
-        <v>3732117143.321414</v>
+        <v>3732116803.8310628</v>
       </c>
       <c r="R37">
         <f t="shared" si="11"/>
-        <v>3684313339.7621727</v>
+        <v>3684313183.2854762</v>
       </c>
       <c r="S37">
         <f t="shared" si="11"/>
-        <v>3640209866.4184232</v>
+        <v>3640209765.7609162</v>
       </c>
       <c r="T37">
         <f t="shared" si="11"/>
-        <v>3601943491.2487636</v>
+        <v>3601943496.7391663</v>
       </c>
       <c r="U37">
         <f t="shared" si="11"/>
-        <v>3571245013.9512725</v>
+        <v>3571244923.3595133</v>
       </c>
       <c r="V37">
         <f t="shared" si="11"/>
-        <v>3537813303.7852983</v>
+        <v>3537813309.2757106</v>
       </c>
       <c r="W37">
         <f t="shared" si="11"/>
-        <v>3512368057.9560051</v>
+        <v>3512368068.0217509</v>
       </c>
       <c r="X37">
         <f t="shared" si="11"/>
-        <v>3492572919.735868</v>
+        <v>3492573243.6700711</v>
       </c>
       <c r="Y37">
         <f t="shared" si="11"/>
-        <v>3478862941.461442</v>
+        <v>3478863502.3983669</v>
       </c>
       <c r="Z37">
         <f t="shared" si="11"/>
-        <v>3470938109.7259417</v>
+        <v>3470938754.3916006</v>
       </c>
       <c r="AA37">
         <f t="shared" si="11"/>
-        <v>3463035733.7686787</v>
+        <v>3463036162.4782252</v>
       </c>
       <c r="AB37">
         <f t="shared" si="11"/>
-        <v>3454402377.8483849</v>
+        <v>3454402796.4921837</v>
       </c>
       <c r="AC37">
         <f t="shared" si="11"/>
-        <v>3450038763.0566111</v>
+        <v>3450039018.3606977</v>
       </c>
       <c r="AD37">
         <f t="shared" si="11"/>
-        <v>3448697061.8756928</v>
+        <v>3448697594.9030361</v>
       </c>
       <c r="AE37">
         <f t="shared" si="11"/>
-        <v>3442586151.9054999</v>
+        <v>3442586915.0725427</v>
       </c>
       <c r="AF37">
         <f t="shared" si="11"/>
-        <v>3434416261.1952629</v>
+        <v>3434416923.2472491</v>
       </c>
       <c r="AG37">
         <f t="shared" si="11"/>
-        <v>3428777011.7876148</v>
+        <v>3428777800.1190386</v>
       </c>
       <c r="AH37">
         <f t="shared" si="11"/>
-        <v>3424520110.4411893</v>
+        <v>3424520827.3972702</v>
       </c>
       <c r="AI37">
         <f t="shared" si="11"/>
-        <v>3419370991.3364463</v>
+        <v>3419371823.1336141</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="11"/>
-        <v>3414290776.42382</v>
+        <v>3414291310.8237619</v>
       </c>
       <c r="AK37">
         <f t="shared" si="11"/>
-        <v>3412236258.01476</v>
+        <v>3412237103.0804238</v>
       </c>
       <c r="AL37">
         <f t="shared" si="11"/>
-        <v>3408892951.7968125</v>
+        <v>3408893686.5967264</v>
       </c>
       <c r="AM37">
         <f t="shared" si="11"/>
-        <v>3409052842.1538792</v>
+        <v>3409053668.4606366</v>
       </c>
       <c r="AN37">
         <f t="shared" si="11"/>
-        <v>3411158124.8968692</v>
+        <v>3411158837.2776213</v>
       </c>
       <c r="AO37">
         <f t="shared" si="11"/>
-        <v>3412295937.8599987</v>
+        <v>3412296785.6708684</v>
       </c>
       <c r="AP37">
         <f t="shared" si="11"/>
-        <v>3432565956.3108058</v>
+        <v>3432566821.5079837</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="11"/>
-        <v>3514055270.6590967</v>
+        <v>3514056347.2370586</v>
       </c>
       <c r="AR37">
         <f t="shared" si="11"/>
-        <v>3681289554.836483</v>
+        <v>3681290478.5980148</v>
       </c>
       <c r="AS37">
         <f t="shared" si="11"/>
-        <v>3956861081.4448223</v>
+        <v>3956862155.7351274</v>
       </c>
       <c r="AT37">
         <f t="shared" si="11"/>
-        <v>3550607183.3041339</v>
+        <v>3550607183.3041363</v>
       </c>
       <c r="AV37">
         <f>AVERAGE(AK37:AT37)</f>
-        <v>3518901516.1277657</v>
+        <v>3518902306.7468596</v>
       </c>
       <c r="AW37">
         <v>229370</v>
       </c>
       <c r="AX37">
         <f>AV37/AW37</f>
-        <v>15341.594437492984</v>
+        <v>15341.597884408857</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -9064,219 +9062,219 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
         <f>AVERAGE('Input data'!AK3:AT3)</f>
-        <v>12714.50534829997</v>
+        <v>11514.61837159994</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <f>AVERAGE('Input data'!AK4:AT4)</f>
-        <v>9803.0598787999879</v>
+        <v>9803.0596916000013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <f>AVERAGE('Input data'!AK5:AT5)</f>
-        <v>5216.9532891999943</v>
+        <v>5216.9532520999883</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <f>AVERAGE('Input data'!AK6:AT6)</f>
-        <v>3899.4038792299953</v>
+        <v>3899.4038928099908</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4">
         <f>AVERAGE('Input data'!AK7:AT7)</f>
-        <v>-1.1138060294759788</v>
+        <v>-1.0490709575377661</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4">
         <f>AVERAGE('Input data'!AK8:AT8)</f>
-        <v>-0.69486566092557944</v>
+        <v>-0.69486519205922492</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE('Input data'!AK9:AT9)</f>
-        <v>-0.74733642636320563</v>
+        <v>-0.74733779180886473</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4">
         <f>AVERAGE('Input data'!AK10:AT10)</f>
-        <v>1.2143495039023571</v>
+        <v>1.2143504749990672</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f>AVERAGE('Input data'!AK11:AT11)</f>
-        <v>98785.578076999824</v>
+        <v>89430.519645999899</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f>AVERAGE('Input data'!AK12:AT12)</f>
-        <v>80237.323854999893</v>
+        <v>80237.347746999862</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f>AVERAGE('Input data'!AK13:AT13)</f>
-        <v>41224.378402999922</v>
+        <v>41224.41608499999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f>AVERAGE('Input data'!AK14:AT14)</f>
-        <v>33731.508635699916</v>
+        <v>33731.500158899937</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22">
         <f>AVERAGE('Input data'!AK15:AT15)</f>
-        <v>24365.306435299957</v>
+        <v>22058.000959499928</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
         <f>AVERAGE('Input data'!AK16:AT16)</f>
-        <v>18932.805657499917</v>
+        <v>18932.809721099959</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24">
         <f>AVERAGE('Input data'!AK17:AT17)</f>
-        <v>10323.410772999981</v>
+        <v>10323.41260989995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25">
         <f>AVERAGE('Input data'!AK18:AT18)</f>
-        <v>7691.0131745999915</v>
+        <v>7691.0149025999981</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28">
         <f>AVERAGE('Input data'!AK22:AT22)</f>
-        <v>0.52127236801919863</v>
+        <v>0.52145454273244185</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29">
         <f>AVERAGE('Input data'!AK23:AT23)</f>
-        <v>0.51728938489852072</v>
+        <v>0.51728926290434929</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30">
         <f>AVERAGE('Input data'!AK24:AT24)</f>
-        <v>0.50541721494044445</v>
+        <v>0.50541712201436828</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31">
         <f>AVERAGE('Input data'!AK25:AT25)</f>
-        <v>0.50607209559093502</v>
+        <v>0.50607198377995122</v>
       </c>
     </row>
   </sheetData>
@@ -9289,11 +9287,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data analysis master - barbados.xlsx
+++ b/Data analysis master - barbados.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\SEI\projects\GoLoCarSce\two sector WORKING\scenario\scenario_BB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="21075" windowHeight="9795" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="21072" windowHeight="9792"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="1" r:id="rId1"/>
     <sheet name="2050 timeslices" sheetId="2" r:id="rId2"/>
     <sheet name="Charts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -135,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +212,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -390,130 +395,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.9392299999999994E-2</c:v>
+                  <c:v>8.8660299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6536466389999905E-2</c:v>
+                  <c:v>7.9543941020000203E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6719330560000206E-2</c:v>
+                  <c:v>7.1648523414999402E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.69630510439997E-2</c:v>
+                  <c:v>6.2222884443037099E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6813393531722002E-2</c:v>
+                  <c:v>5.1210287800388797E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.662200951893E-2</c:v>
+                  <c:v>3.8859583823425102E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6928602090968701E-2</c:v>
+                  <c:v>2.5216374705426901E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7725403585786E-2</c:v>
+                  <c:v>1.03058465514898E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0248634130491792E-3</c:v>
+                  <c:v>-5.8521249868600002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0711224196399996E-4</c:v>
+                  <c:v>-2.3344433953920701E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.1950645919329898E-3</c:v>
+                  <c:v>-4.2081576608840002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5641839141509999E-2</c:v>
+                  <c:v>-6.21059843783449E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.4528951064369899E-2</c:v>
+                  <c:v>-8.34895548534903E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.3983337867581002E-2</c:v>
+                  <c:v>-0.10655714039665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.4065771316623002E-2</c:v>
+                  <c:v>-0.13150689645213501</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.4483235005024798E-2</c:v>
+                  <c:v>-0.15871701578272901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.4534050682839794E-2</c:v>
+                  <c:v>-0.18794965670739999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.4390807572050993E-2</c:v>
+                  <c:v>-0.21991018719550001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.3836757964990002E-2</c:v>
+                  <c:v>-0.25433370853740001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.30681315372799E-2</c:v>
+                  <c:v>-0.29195576775604798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.10253255570754</c:v>
+                  <c:v>-0.33353245444257901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.112385449086015</c:v>
+                  <c:v>-0.378229619142399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.12282095639444</c:v>
+                  <c:v>-0.42665561979709798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.13382472806289</c:v>
+                  <c:v>-0.47911214111080003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.14543292081824</c:v>
+                  <c:v>-0.53606444357281102</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.16090143197610099</c:v>
+                  <c:v>-0.59929541922969998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.18477151537875899</c:v>
+                  <c:v>-0.66736359033230097</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.21741119341169901</c:v>
+                  <c:v>-0.74077195269547202</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.25916743564106998</c:v>
+                  <c:v>-0.82005336403719997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.31004997305439902</c:v>
+                  <c:v>-0.90480221242799896</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.36752540797529998</c:v>
+                  <c:v>-0.99576557547299904</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.42709945957199902</c:v>
+                  <c:v>-1.0941798877895901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.488798978745699</c:v>
+                  <c:v>-1.2005005699519899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.55267461623240199</c:v>
+                  <c:v>-1.31547513231999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.61865860395899697</c:v>
+                  <c:v>-1.4395286389908999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.68734984272739796</c:v>
+                  <c:v>-1.5749378912180001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.75921978774249499</c:v>
+                  <c:v>-1.7234136202229899</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.83500319814399904</c:v>
+                  <c:v>-1.8878511629404</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.91466411970699901</c:v>
+                  <c:v>-2.0693422133929</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.99862935854199897</c:v>
+                  <c:v>-2.270531123324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -664,130 +669,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.9392299999999994E-2</c:v>
+                  <c:v>8.8660299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6446272760000003E-2</c:v>
+                  <c:v>7.9406461960000396E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6653120529999998E-2</c:v>
+                  <c:v>7.1522789841999598E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6891898136000103E-2</c:v>
+                  <c:v>6.2111831703669802E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6773428645939898E-2</c:v>
+                  <c:v>5.1203353523207797E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6263048126202999E-2</c:v>
+                  <c:v>3.9024632004179903E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5377187194535002E-2</c:v>
+                  <c:v>2.5808419620600001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3952611500393E-2</c:v>
+                  <c:v>1.13660138196259E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9404206412521E-3</c:v>
+                  <c:v>-4.35252488450998E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0703281415410999E-2</c:v>
+                  <c:v>-2.1434551237362001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.356070136581E-2</c:v>
+                  <c:v>-3.9765798889019897E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.6057041324834997E-2</c:v>
+                  <c:v>-5.9385536615441999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.8279610738021797E-2</c:v>
+                  <c:v>-8.05090523184602E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.0196095724199997E-2</c:v>
+                  <c:v>-0.10318179107016499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.1838335052091001E-2</c:v>
+                  <c:v>-0.127636121553559</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.3754895577542704E-2</c:v>
+                  <c:v>-0.15433793478357899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9.6432696281498906E-2</c:v>
+                  <c:v>-0.18317613668561999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.10995698998797</c:v>
+                  <c:v>-0.21449274703780999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.124258236879897</c:v>
+                  <c:v>-0.24842849689619001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.139391348165079</c:v>
+                  <c:v>-0.28535107730425902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.15569418564882001</c:v>
+                  <c:v>-0.326151790467402</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.17286456650106299</c:v>
+                  <c:v>-0.37041769061560098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.19091438078164899</c:v>
+                  <c:v>-0.41857716078320101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.2097589707619</c:v>
+                  <c:v>-0.47085553811589798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.22947205596827</c:v>
+                  <c:v>-0.52778002047900097</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.25095074536292</c:v>
+                  <c:v>-0.59173376789849796</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.27336963424084998</c:v>
+                  <c:v>-0.66130796101009803</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.29683559079319899</c:v>
+                  <c:v>-0.73736553815143902</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.32143126125863802</c:v>
+                  <c:v>-0.82079969733358804</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.346898101852471</c:v>
+                  <c:v>-0.91173815167099903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.37291078737501798</c:v>
+                  <c:v>-1.0109736419312001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.39892249253813999</c:v>
+                  <c:v>-1.11947352175139</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.42474946124479901</c:v>
+                  <c:v>-1.2377705511376</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.45053232953440098</c:v>
+                  <c:v>-1.3672127000448899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.47623401414260302</c:v>
+                  <c:v>-1.5088184600040999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.50244644147348105</c:v>
+                  <c:v>-1.6647570074253899</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.53006124017487299</c:v>
+                  <c:v>-1.8376155734483901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.55937629053409998</c:v>
+                  <c:v>-2.0305190405257898</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.59064374173980005</c:v>
+                  <c:v>-2.2464729043473199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.62365383517560102</c:v>
+                  <c:v>-2.48797071903468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -938,130 +943,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.9392299999999994E-2</c:v>
+                  <c:v>8.8660299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6637137519999801E-2</c:v>
+                  <c:v>8.0886819610000493E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7378780520000195E-2</c:v>
+                  <c:v>7.6064937930000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8585314266999998E-2</c:v>
+                  <c:v>7.1582398903200103E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9822499391819798E-2</c:v>
+                  <c:v>6.7534338853337803E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1198357427179998E-2</c:v>
+                  <c:v>6.4550601422731294E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.25403144083901E-2</c:v>
+                  <c:v>6.2690215568049906E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.36039246908675E-2</c:v>
+                  <c:v>6.1651204715319999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4475191895335001E-2</c:v>
+                  <c:v>6.1748059659640003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1164786954709897E-3</c:v>
+                  <c:v>6.3175963648139002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.4546044048109903E-3</c:v>
+                  <c:v>6.6284595646510097E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.42262048957399E-2</c:v>
+                  <c:v>7.1336808805759599E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.43222529807119E-2</c:v>
+                  <c:v>7.8392904878496802E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.4837349957450997E-2</c:v>
+                  <c:v>8.7503426934736006E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.5850690162800099E-2</c:v>
+                  <c:v>9.8838328340757495E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.7456917247751899E-2</c:v>
+                  <c:v>0.11298019455305899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.96170885574698E-2</c:v>
+                  <c:v>0.13037064305148899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.2314822195919901E-2</c:v>
+                  <c:v>0.15174814511782</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.5562435138249996E-2</c:v>
+                  <c:v>0.17740170731979299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.109556409724339</c:v>
+                  <c:v>0.207398038842659</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.124635653741049</c:v>
+                  <c:v>0.243717546316399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.140321220315999</c:v>
+                  <c:v>0.28703696157334901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.15666343675892899</c:v>
+                  <c:v>0.33771673575352901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.173852518443153</c:v>
+                  <c:v>0.39653059000640001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.19180462809098001</c:v>
+                  <c:v>0.4642091765404</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.21133139141453</c:v>
+                  <c:v>0.54444325688844997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.23167147797740301</c:v>
+                  <c:v>0.63769702415359797</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.25287128865782299</c:v>
+                  <c:v>0.74516365441090204</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.27497442580369003</c:v>
+                  <c:v>0.86886876686019798</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.29813040824116899</c:v>
+                  <c:v>1.0121809036690901</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.32193910980340001</c:v>
+                  <c:v>1.1766146619005899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.346941780512319</c:v>
+                  <c:v>1.3664122432096999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.37296577526573899</c:v>
+                  <c:v>1.5849900838666999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.40015583119106002</c:v>
+                  <c:v>1.8344378437078901</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.42868239326524799</c:v>
+                  <c:v>2.1197257233929001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.45846134185626902</c:v>
+                  <c:v>2.4438420982151201</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.48889127239879998</c:v>
+                  <c:v>2.8138163348404901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.52102260087130003</c:v>
+                  <c:v>3.23411477666671</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.55484060835542803</c:v>
+                  <c:v>3.7115470126999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.58987573133100102</c:v>
+                  <c:v>4.2532424854555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -1212,130 +1217,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.9392299999999994E-2</c:v>
+                  <c:v>8.8660299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6743989050000003E-2</c:v>
+                  <c:v>8.1242359599999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7616059930000097E-2</c:v>
+                  <c:v>7.7001788839999502E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8924382913999998E-2</c:v>
+                  <c:v>7.3263101399550196E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.02831356293897E-2</c:v>
+                  <c:v>7.0210782502895003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2485124489069999E-2</c:v>
+                  <c:v>6.8373852972027693E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7518732842824899E-2</c:v>
+                  <c:v>6.9537015432349997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.565204775005E-2</c:v>
+                  <c:v>7.4649106247661204E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7488014530790099E-2</c:v>
+                  <c:v>8.5132513905479601E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3349072613647101E-2</c:v>
+                  <c:v>0.10182721778830101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3150297389968001E-2</c:v>
+                  <c:v>0.12537873993524801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6060113262438602E-2</c:v>
+                  <c:v>0.15548971047086299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1893384092265306E-2</c:v>
+                  <c:v>0.19185001627270001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.100794031905878</c:v>
+                  <c:v>0.23501097212470001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.122656532814909</c:v>
+                  <c:v>0.28507418866675299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.147571310002239</c:v>
+                  <c:v>0.34433587403799898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17413312846846901</c:v>
+                  <c:v>0.41343059461681098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20207068997406999</c:v>
+                  <c:v>0.49301507643268899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.231282886766877</c:v>
+                  <c:v>0.58418123232400399</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.261597224837119</c:v>
+                  <c:v>0.68769141796215405</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29356983058760999</c:v>
+                  <c:v>0.8066389823265</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.32692122597685802</c:v>
+                  <c:v>0.94169778364529999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.36150751952770199</c:v>
+                  <c:v>1.0948305142677</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.397274149602099</c:v>
+                  <c:v>1.2679928698887699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43407219525899898</c:v>
+                  <c:v>1.4631967984688601</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.47360720131971901</c:v>
+                  <c:v>1.6886271064228999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51577563964611794</c:v>
+                  <c:v>1.94705269901319</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56004148605420201</c:v>
+                  <c:v>2.2407160142784202</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.60737492718539998</c:v>
+                  <c:v>2.5775072362511899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.65729788098120001</c:v>
+                  <c:v>2.9611871714497902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.71075411651510201</c:v>
+                  <c:v>3.4009118837157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.76768695170867896</c:v>
+                  <c:v>3.902811904779</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82768879940890205</c:v>
+                  <c:v>4.4725359735209702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.89111830729819996</c:v>
+                  <c:v>5.1197551718810201</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.95832085875178197</c:v>
+                  <c:v>5.8543549828879904</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0291801777534999</c:v>
+                  <c:v>6.685381827074</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1061362617555901</c:v>
+                  <c:v>7.6380536628989804</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1864699976727</c:v>
+                  <c:v>8.7097536272139706</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2725877228643201</c:v>
+                  <c:v>9.9306320072383993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3651695155268899</c:v>
+                  <c:v>11.322637971973901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-04ED-4FED-97B8-69588E210723}"/>
             </c:ext>
@@ -1349,7 +1354,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="79788672"/>
         <c:axId val="79794944"/>
@@ -1407,7 +1411,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1590,130 +1594,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34599591626091053</c:v>
+                  <c:v>0.34316272745379711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34035018282097929</c:v>
+                  <c:v>0.34085150074164616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34470180431069125</c:v>
+                  <c:v>0.34644457859727795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3505086005223495</c:v>
+                  <c:v>0.35264193751316658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35660696554895716</c:v>
+                  <c:v>0.35872405047010897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36286457571599229</c:v>
+                  <c:v>0.36469513573538859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36893011439708695</c:v>
+                  <c:v>0.37030374207825123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37463443439505523</c:v>
+                  <c:v>0.37544854400092242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38015130296390282</c:v>
+                  <c:v>0.38035431963162047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38516235939779125</c:v>
+                  <c:v>0.38470661002470014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39015704721497241</c:v>
+                  <c:v>0.38893297557821066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39483786808972876</c:v>
+                  <c:v>0.39280599566880642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3991891020008882</c:v>
+                  <c:v>0.39634867084834902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40293496141725549</c:v>
+                  <c:v>0.39929592625624882</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40621689198141298</c:v>
+                  <c:v>0.40179004226162174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4097693131350249</c:v>
+                  <c:v>0.40447655835647323</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41329440776982168</c:v>
+                  <c:v>0.40716588653613472</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41618878800284831</c:v>
+                  <c:v>0.40928794914678179</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41966695642462143</c:v>
+                  <c:v>0.41203307987064425</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42282338010935022</c:v>
+                  <c:v>0.41450301970026021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42678592574809093</c:v>
+                  <c:v>0.41766902286165597</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.43066462764574315</c:v>
+                  <c:v>0.42062796563735694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43461116441225994</c:v>
+                  <c:v>0.42369299204581029</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.43874281109962193</c:v>
+                  <c:v>0.42694916719336656</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.44286586830368685</c:v>
+                  <c:v>0.43021006959020569</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44802740057805868</c:v>
+                  <c:v>0.43436478843821913</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45314748087190032</c:v>
+                  <c:v>0.43841157915147566</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45849097338461064</c:v>
+                  <c:v>0.44270045196151542</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.46390139113489998</c:v>
+                  <c:v>0.44707232198574792</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.46942602025057761</c:v>
+                  <c:v>0.45158584868372242</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4748301264625891</c:v>
+                  <c:v>0.45596143721259136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.48011861903832936</c:v>
+                  <c:v>0.46017246077286117</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.48532644440213463</c:v>
+                  <c:v>0.4642468594390512</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4905075629680985</c:v>
+                  <c:v>0.46825355260316376</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.49571425467401908</c:v>
+                  <c:v>0.47226954273328009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.50049300672022246</c:v>
+                  <c:v>0.47582360460357764</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.50529089841173214</c:v>
+                  <c:v>0.47931075541201529</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.50984593018396918</c:v>
+                  <c:v>0.48250528103207724</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.51444754216601773</c:v>
+                  <c:v>0.48571983314543948</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.51898362236048778</c:v>
+                  <c:v>0.4888602450788988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -1864,130 +1868,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34599591626091053</c:v>
+                  <c:v>0.34316272745379711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34041926949787821</c:v>
+                  <c:v>0.34093696220490055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34466207129382009</c:v>
+                  <c:v>0.34640753954317499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35047786702434786</c:v>
+                  <c:v>0.35260541953119479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35659442994957347</c:v>
+                  <c:v>0.35868929816719775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36279349297807201</c:v>
+                  <c:v>0.36457451641725042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36884830607688879</c:v>
+                  <c:v>0.37013269222188416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37454896084215406</c:v>
+                  <c:v>0.37526526247620118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38018531677546868</c:v>
+                  <c:v>0.38028785458486969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38514987437616061</c:v>
+                  <c:v>0.38458554907606618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39035223231649985</c:v>
+                  <c:v>0.38904282592245826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39506107282646669</c:v>
+                  <c:v>0.39294341394890536</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39925082650410998</c:v>
+                  <c:v>0.39631921271803916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40305774322374277</c:v>
+                  <c:v>0.39929472641153207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4064791430904714</c:v>
+                  <c:v>0.4019180916721527</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41004026558718382</c:v>
+                  <c:v>0.40459833774505666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41309740716368881</c:v>
+                  <c:v>0.40677736732313868</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41600273239870827</c:v>
+                  <c:v>0.40883411041116691</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41911240140828832</c:v>
+                  <c:v>0.41116923599649147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42193143398467547</c:v>
+                  <c:v>0.41322993825787419</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42578797820452891</c:v>
+                  <c:v>0.41623546200538392</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42951341619629352</c:v>
+                  <c:v>0.41904831059854569</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43334490933510172</c:v>
+                  <c:v>0.42198407704309171</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.43746661083117483</c:v>
+                  <c:v>0.42525968832636463</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.44161367385854705</c:v>
+                  <c:v>0.42861360639355811</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44646464351299353</c:v>
+                  <c:v>0.43249301859039785</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45127435208256717</c:v>
+                  <c:v>0.43621498287573945</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45636293696665292</c:v>
+                  <c:v>0.44022673170696158</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.46140091063133493</c:v>
+                  <c:v>0.4442006795166446</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.46661562166406795</c:v>
+                  <c:v>0.44839330453461218</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47187721104703945</c:v>
+                  <c:v>0.45264330064889291</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.47694782469924507</c:v>
+                  <c:v>0.45667491072704469</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.48222173522897377</c:v>
+                  <c:v>0.46087014771308776</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.48737028643471697</c:v>
+                  <c:v>0.46494550428248577</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.49243249589622284</c:v>
+                  <c:v>0.4688864748323272</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.49735252055794427</c:v>
+                  <c:v>0.47262792252972946</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.50205765764353294</c:v>
+                  <c:v>0.47608729348210294</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.50657690783628262</c:v>
+                  <c:v>0.47930578953684061</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.51114974363143473</c:v>
+                  <c:v>0.48253376517566926</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.51580740495898592</c:v>
+                  <c:v>0.48584011638932412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -2138,130 +2142,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34599591626091053</c:v>
+                  <c:v>0.34316272745379711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34004540997637295</c:v>
+                  <c:v>0.34053354735444363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3439396403299908</c:v>
+                  <c:v>0.34558140270319532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34926169793983614</c:v>
+                  <c:v>0.35120537116446349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35472898304766182</c:v>
+                  <c:v>0.35658783816899775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36021071538072308</c:v>
+                  <c:v>0.36170923074131173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36592605673678869</c:v>
+                  <c:v>0.36695194281964366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37153910374445015</c:v>
+                  <c:v>0.37211662992793482</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37648577147813961</c:v>
+                  <c:v>0.37656883947509856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38092573336635349</c:v>
+                  <c:v>0.38046430867992959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38552750521928603</c:v>
+                  <c:v>0.38445823049188721</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38975153909564364</c:v>
+                  <c:v>0.38804353219800225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39364466795136283</c:v>
+                  <c:v>0.39132776620875981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39718822628755257</c:v>
+                  <c:v>0.39429375441689724</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40020829897242299</c:v>
+                  <c:v>0.3967691741425089</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40349050988839641</c:v>
+                  <c:v>0.39944065329346173</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40604395658123393</c:v>
+                  <c:v>0.40133539942910768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40853478659879966</c:v>
+                  <c:v>0.40316149156933351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41116259120583598</c:v>
+                  <c:v>0.40521027983737351</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.41370809645092355</c:v>
+                  <c:v>0.40723508633244176</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41686507768325409</c:v>
+                  <c:v>0.40973013183168733</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42006263046174924</c:v>
+                  <c:v>0.41223577899698377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.42374624053142318</c:v>
+                  <c:v>0.41528435709870748</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42745622069503797</c:v>
+                  <c:v>0.41840698975771395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43129011048214067</c:v>
+                  <c:v>0.42171925081933886</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.43574868761627744</c:v>
+                  <c:v>0.42548219585416736</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.44045894118834417</c:v>
+                  <c:v>0.42940196561048094</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.44535201157023019</c:v>
+                  <c:v>0.43355581595219939</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.45030410926661429</c:v>
+                  <c:v>0.4377607696549014</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45486661772325371</c:v>
+                  <c:v>0.44155525311378535</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.46010403596507166</c:v>
+                  <c:v>0.44602114465226961</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46469943505992739</c:v>
+                  <c:v>0.44983462759711079</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46958784157541095</c:v>
+                  <c:v>0.45386971288415118</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47464364598128328</c:v>
+                  <c:v>0.45807451504801538</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47942894390746543</c:v>
+                  <c:v>0.46200472829668054</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.48430997424421457</c:v>
+                  <c:v>0.46599250346192417</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.48953327997311286</c:v>
+                  <c:v>0.4702938343940149</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.49423711245158203</c:v>
+                  <c:v>0.47406693226121299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.49915088879485531</c:v>
+                  <c:v>0.47797928254054095</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.504214791605339</c:v>
+                  <c:v>0.48203462578879497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -2412,130 +2416,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34599591626091053</c:v>
+                  <c:v>0.34316272745379711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3399862132456164</c:v>
+                  <c:v>0.34045417347011098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34375866987483794</c:v>
+                  <c:v>0.3453710837733045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34912846486499099</c:v>
+                  <c:v>0.35103962951963219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35474236425012828</c:v>
+                  <c:v>0.35655108333588831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35989941917534396</c:v>
+                  <c:v>0.36135110641694412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36426339093893662</c:v>
+                  <c:v>0.36506679389654773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36786385694764967</c:v>
+                  <c:v>0.36792930405578078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37114052946653514</c:v>
+                  <c:v>0.37040334850828305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37391973489685448</c:v>
+                  <c:v>0.3724608344176476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3772422988034142</c:v>
+                  <c:v>0.37516653171182773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38081334876136741</c:v>
+                  <c:v>0.37837077310492606</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38414051871278893</c:v>
+                  <c:v>0.38154966075525515</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38727325742286861</c:v>
+                  <c:v>0.38465416421951881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3901205334164245</c:v>
+                  <c:v>0.38759361400913367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39297610461752391</c:v>
+                  <c:v>0.39043427778908835</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3951871427437782</c:v>
+                  <c:v>0.39259311107420936</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.39752793515215279</c:v>
+                  <c:v>0.39487302864268103</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40010584810613414</c:v>
+                  <c:v>0.39744055809055723</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40297856179356528</c:v>
+                  <c:v>0.40033232887382991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40624462168980935</c:v>
+                  <c:v>0.40350180375607886</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.40990637866850965</c:v>
+                  <c:v>0.40698092031933303</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41377752990539657</c:v>
+                  <c:v>0.41066259992591958</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41781922528222343</c:v>
+                  <c:v>0.41449216103078623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42204433783830175</c:v>
+                  <c:v>0.41844203534057633</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42717115143276285</c:v>
+                  <c:v>0.42312650695399895</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43161973875739656</c:v>
+                  <c:v>0.42694043325611442</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43699779679075368</c:v>
+                  <c:v>0.43162379308090398</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44208134073201988</c:v>
+                  <c:v>0.43602781233192872</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44673174596327431</c:v>
+                  <c:v>0.43986523697651081</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4515800782610328</c:v>
+                  <c:v>0.44382972741785659</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45667204883711404</c:v>
+                  <c:v>0.44807035923830385</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46177174816561906</c:v>
+                  <c:v>0.45229917617403864</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46677337857681678</c:v>
+                  <c:v>0.45636152607262082</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47185016578739308</c:v>
+                  <c:v>0.46045718963763765</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47714971883337498</c:v>
+                  <c:v>0.46476340774736125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.48229729798802989</c:v>
+                  <c:v>0.46884452726228054</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.48766017198257944</c:v>
+                  <c:v>0.47313748949902135</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.49322572963880412</c:v>
+                  <c:v>0.4775696156707131</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.49813533737852128</c:v>
+                  <c:v>0.48130458104781737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4325-4C48-8B1F-BAFFA2C9ABFC}"/>
             </c:ext>
@@ -2549,7 +2553,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="124217984"/>
         <c:axId val="128000384"/>
@@ -2607,7 +2610,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2790,130 +2793,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>31788.2</c:v>
+                  <c:v>32050.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33273.981140000004</c:v>
+                  <c:v>33225.041109999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33832.058579999801</c:v>
+                  <c:v>33661.865539999897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34285.54808</c:v>
+                  <c:v>34078.130949999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34713.584690000098</c:v>
+                  <c:v>34508.713129999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35140.485719999997</c:v>
+                  <c:v>34964.095090000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35601.192379999899</c:v>
+                  <c:v>35469.126209999798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36094.939100000003</c:v>
+                  <c:v>36016.669059999898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36658.401759999899</c:v>
+                  <c:v>36638.828250000101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37273.259819999897</c:v>
+                  <c:v>37317.408879999799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37903.304549999899</c:v>
+                  <c:v>38022.588119999702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38616.705060000102</c:v>
+                  <c:v>38816.449109999703</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39398.189540000101</c:v>
+                  <c:v>39680.525659999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40240.848729999998</c:v>
+                  <c:v>40607.5768899998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41156.236289999899</c:v>
+                  <c:v>41609.6711699999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42101.476670000098</c:v>
+                  <c:v>42652.373599999897</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43195.6449400001</c:v>
+                  <c:v>43845.793980000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44329.9642199999</c:v>
+                  <c:v>45077.374020000098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45582.638439999901</c:v>
+                  <c:v>46427.140769999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46904.928010000003</c:v>
+                  <c:v>47846.424789999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48240.164429999997</c:v>
+                  <c:v>49293.125229999903</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49622.607159999898</c:v>
+                  <c:v>50806.629349999901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51060.645199999999</c:v>
+                  <c:v>52376.392889999901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52564.966870000098</c:v>
+                  <c:v>54016.933520000202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54138.698559999902</c:v>
+                  <c:v>55731.2996200001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55706.892890000003</c:v>
+                  <c:v>57459.073329999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>57391.586940000001</c:v>
+                  <c:v>59320.594469999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>59179.568269999902</c:v>
+                  <c:v>61290.377289999902</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>61089.355049999802</c:v>
+                  <c:v>63388.894149999702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63173.4885599997</c:v>
+                  <c:v>65669.154250000094</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>65407.7631899997</c:v>
+                  <c:v>68114.433810000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67767.441510000106</c:v>
+                  <c:v>70704.773850000201</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>70237.986050000094</c:v>
+                  <c:v>73427.163280000197</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72822.643410000004</c:v>
+                  <c:v>76283.528190000099</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75548.038099999801</c:v>
+                  <c:v>79298.389959999899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>78341.484139999899</c:v>
+                  <c:v>82403.094899999895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>81155.440070000099</c:v>
+                  <c:v>85554.257179999797</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83936.707569999897</c:v>
+                  <c:v>88692.825359999595</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86700.949840000307</c:v>
+                  <c:v>91828.774020000099</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>89432.723650000204</c:v>
+                  <c:v>94943.460329999696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3064,130 +3067,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>31788.2</c:v>
+                  <c:v>32050.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33296.943899999998</c:v>
+                  <c:v>33246.384259999897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33859.714030000097</c:v>
+                  <c:v>33689.103609999896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34332.804620000003</c:v>
+                  <c:v>34125.650369999603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34781.063479999902</c:v>
+                  <c:v>34577.9338299999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35218.097809999897</c:v>
+                  <c:v>35046.050489999798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35677.932079999897</c:v>
+                  <c:v>35554.127639999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36179.947279999898</c:v>
+                  <c:v>36110.88839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36764.845150000103</c:v>
+                  <c:v>36754.934159999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37392.406869999999</c:v>
+                  <c:v>37447.277399999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38079.018589999898</c:v>
+                  <c:v>38207.1833999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38842.787469999901</c:v>
+                  <c:v>39052.117359999902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39669.386770000303</c:v>
+                  <c:v>39962.822119999902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40558.47898</c:v>
+                  <c:v>40940.704589999899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41542.648449999702</c:v>
+                  <c:v>42014.078909999698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42551.412519999998</c:v>
+                  <c:v>43123.7337799999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43652.624150000003</c:v>
+                  <c:v>44330.848830000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44782.582439999896</c:v>
+                  <c:v>45567.81465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45989.497609999802</c:v>
+                  <c:v>46877.947789999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47204.543189999902</c:v>
+                  <c:v>48198.552569999803</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48403.5283000001</c:v>
+                  <c:v>49514.390709999701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49636.691509999902</c:v>
+                  <c:v>50876.300199999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50880.774660000003</c:v>
+                  <c:v>52250.6128199999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52192.5019500001</c:v>
+                  <c:v>53690.673919999899</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53588.706559999897</c:v>
+                  <c:v>55214.082300000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>54918.0885099999</c:v>
+                  <c:v>56692.214900000101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56284.724829999803</c:v>
+                  <c:v>58227.829790000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57686.542909999698</c:v>
+                  <c:v>59801.003280000201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59112.316500000103</c:v>
+                  <c:v>61401.249840000099</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60629.595229999803</c:v>
+                  <c:v>63093.5244199999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62243.824760000003</c:v>
+                  <c:v>64888.709199999903</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>63917.844309999797</c:v>
+                  <c:v>66755.313190000103</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65678.806249999907</c:v>
+                  <c:v>68721.626859999698</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67537.067849999803</c:v>
+                  <c:v>70794.445189999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>69465.463370000303</c:v>
+                  <c:v>72953.795779999899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71431.300649999597</c:v>
+                  <c:v>75168.083439999798</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>73376.697549999793</c:v>
+                  <c:v>77379.361739999906</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>75269.833349999899</c:v>
+                  <c:v>79552.458599999896</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>77109.683820000195</c:v>
+                  <c:v>81682.561350000193</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>78909.860629999894</c:v>
+                  <c:v>83777.124960000103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3338,130 +3341,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>31788.2</c:v>
+                  <c:v>32050.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33243.345809999897</c:v>
+                  <c:v>33195.692289999897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33693.770199999897</c:v>
+                  <c:v>33533.698120000103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33977.528050000001</c:v>
+                  <c:v>33789.485479999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34166.292460000099</c:v>
+                  <c:v>33988.184540000198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34258.380290000001</c:v>
+                  <c:v>34116.442770000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34345.4666399997</c:v>
+                  <c:v>34249.434569999903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34479.7225799999</c:v>
+                  <c:v>34426.199989999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34608.570639999904</c:v>
+                  <c:v>34600.924259999898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34730.665669999798</c:v>
+                  <c:v>34772.773459999597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34847.9264700001</c:v>
+                  <c:v>34944.831759999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34994.098779999898</c:v>
+                  <c:v>35148.113780000102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35174.017379999801</c:v>
+                  <c:v>35382.252869999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35397.390959999997</c:v>
+                  <c:v>35657.2224199997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35669.404600000002</c:v>
+                  <c:v>35978.571230000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35958.342730000099</c:v>
+                  <c:v>36322.903859999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36266.265679999902</c:v>
+                  <c:v>36691.739910000098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36542.995389999902</c:v>
+                  <c:v>37030.021710000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36829.60916</c:v>
+                  <c:v>37370.602699999698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37114.950360000097</c:v>
+                  <c:v>37704.875979999902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37292.109029999898</c:v>
+                  <c:v>37941.483419999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37460.580540000003</c:v>
+                  <c:v>38171.8013600001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37636.079760000001</c:v>
+                  <c:v>38402.938300000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37808.2870999999</c:v>
+                  <c:v>38625.977139999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38022.528269999901</c:v>
+                  <c:v>38885.425549999898</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38152.757010000198</c:v>
+                  <c:v>39073.327260000202</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38306.9802099999</c:v>
+                  <c:v>39293.346539999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38483.833979999901</c:v>
+                  <c:v>39530.876519999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38669.461049999903</c:v>
+                  <c:v>39777.4449199999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38838.220970000002</c:v>
+                  <c:v>40009.025760000099</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39061.598050000102</c:v>
+                  <c:v>40294.912609999898</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39266.108959999699</c:v>
+                  <c:v>40563.62932</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39469.034769999802</c:v>
+                  <c:v>40835.870289999802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39693.570730000101</c:v>
+                  <c:v>41129.306049999897</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39929.0946200002</c:v>
+                  <c:v>41434.965459999701</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40178.418449999903</c:v>
+                  <c:v>41757.738879999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40457.154259999901</c:v>
+                  <c:v>42112.196210000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40734.9250500001</c:v>
+                  <c:v>42468.04679</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41014.005249999798</c:v>
+                  <c:v>42830.646520000199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41317.504870000099</c:v>
+                  <c:v>43218.6393199999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3612,130 +3615,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>31788.2</c:v>
+                  <c:v>32050.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33231.811790000102</c:v>
+                  <c:v>33186.1308499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33668.299700000098</c:v>
+                  <c:v>33511.11404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33956.734259999801</c:v>
+                  <c:v>33771.861239999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34153.4225299998</c:v>
+                  <c:v>33980.164700000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34237.583669999702</c:v>
+                  <c:v>34100.03282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34125.255640000003</c:v>
+                  <c:v>34050.1528500001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33830.187649999898</c:v>
+                  <c:v>33824.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33348.666869999899</c:v>
+                  <c:v>33415.037199999897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32717.67596</c:v>
+                  <c:v>32845.833960000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31999.865160000001</c:v>
+                  <c:v>32176.925299999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31349.588979999899</c:v>
+                  <c:v>31551.972629999898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30767.659429999901</c:v>
+                  <c:v>30976.589479999901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30267.26914</c:v>
+                  <c:v>30473.362867999898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29886.911495</c:v>
+                  <c:v>30081.762008000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29535.149088999999</c:v>
+                  <c:v>29727.433266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29248.742688999901</c:v>
+                  <c:v>29442.004623000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28999.747492999999</c:v>
+                  <c:v>29194.727434</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28805.287842999998</c:v>
+                  <c:v>28998.460375000101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28679.584989000101</c:v>
+                  <c:v>28869.162066000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28540.614792</c:v>
+                  <c:v>28734.6243929999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28475.564102999899</c:v>
+                  <c:v>28680.256513</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28466.265811999801</c:v>
+                  <c:v>28682.188343000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28516.992172999999</c:v>
+                  <c:v>28745.897488999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28626.180492999902</c:v>
+                  <c:v>28872.623734999801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28747.337321999901</c:v>
+                  <c:v>29022.135624999901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28874.894158999901</c:v>
+                  <c:v>29191.368025</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29050.995307000001</c:v>
+                  <c:v>29412.701653999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29266.070577999999</c:v>
+                  <c:v>29672.387226999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29454.339108</c:v>
+                  <c:v>29914.140998999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29638.164892999899</c:v>
+                  <c:v>30155.7255890001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29856.846858000001</c:v>
+                  <c:v>30430.019173999899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30101.149617000101</c:v>
+                  <c:v>30731.569544000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30351.536715999799</c:v>
+                  <c:v>31044.012520000098</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30616.703410999799</c:v>
+                  <c:v>31374.250749999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30924.134515999998</c:v>
+                  <c:v>31748.292228999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31236.1096799999</c:v>
+                  <c:v>32132.387700999901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31597.0896299999</c:v>
+                  <c:v>32566.951768999901</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31994.0847819999</c:v>
+                  <c:v>33042.947827000098</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32400.647337999901</c:v>
+                  <c:v>33533.672451999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-05A3-4B4E-A0B8-321F1296FD31}"/>
             </c:ext>
@@ -3749,7 +3752,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="79942784"/>
         <c:axId val="79944320"/>
@@ -3969,7 +3971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4004,7 +4006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4215,17 +4217,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX61"/>
   <sheetViews>
-    <sheetView topLeftCell="AD25" workbookViewId="0">
-      <selection activeCell="AG56" sqref="AG56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AT18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4373,7 +4375,7 @@
         <v>2355.5100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4381,139 +4383,139 @@
         <v>3084</v>
       </c>
       <c r="C3">
-        <v>3176.263715</v>
+        <v>3176.2637299999901</v>
       </c>
       <c r="D3">
-        <v>3271.9218109999902</v>
+        <v>3271.9218219999998</v>
       </c>
       <c r="E3">
-        <v>3373.0533390000001</v>
+        <v>3373.0533599999899</v>
       </c>
       <c r="F3">
-        <v>3476.3426089999898</v>
+        <v>3476.3426339999901</v>
       </c>
       <c r="G3">
-        <v>3582.6793460000099</v>
+        <v>3582.6793669999902</v>
       </c>
       <c r="H3">
-        <v>3691.7393710000001</v>
+        <v>3691.7393540000098</v>
       </c>
       <c r="I3">
-        <v>3801.7851070000002</v>
+        <v>3801.7851110000001</v>
       </c>
       <c r="J3">
-        <v>3918.49342199998</v>
+        <v>3918.4934760000101</v>
       </c>
       <c r="K3">
-        <v>4036.7358869999998</v>
+        <v>4036.7359120000001</v>
       </c>
       <c r="L3">
-        <v>4157.5176620000102</v>
+        <v>4157.5176769999698</v>
       </c>
       <c r="M3">
-        <v>4284.9113310000002</v>
+        <v>4284.9113369999804</v>
       </c>
       <c r="N3">
-        <v>4417.0761689999899</v>
+        <v>4417.0761819999898</v>
       </c>
       <c r="O3">
-        <v>4550.0479930000001</v>
+        <v>4550.0480209999896</v>
       </c>
       <c r="P3">
-        <v>4686.44233299999</v>
+        <v>4686.4423899999902</v>
       </c>
       <c r="Q3">
-        <v>4829.6954129999904</v>
+        <v>4829.6954209999803</v>
       </c>
       <c r="R3">
-        <v>4990.0671249999996</v>
+        <v>4990.0672259999901</v>
       </c>
       <c r="S3">
-        <v>5147.6502539999901</v>
+        <v>5147.6503000000303</v>
       </c>
       <c r="T3">
-        <v>5326.35852600001</v>
+        <v>5326.3585509999903</v>
       </c>
       <c r="U3">
-        <v>5509.3324199999797</v>
+        <v>5509.332437</v>
       </c>
       <c r="V3">
-        <v>5704.4515469999897</v>
+        <v>5704.4516379999804</v>
       </c>
       <c r="W3">
-        <v>5903.9784479999998</v>
+        <v>5903.9784909999898</v>
       </c>
       <c r="X3">
-        <v>6110.8486269999903</v>
+        <v>6110.848712</v>
       </c>
       <c r="Y3">
-        <v>6328.0016669999804</v>
+        <v>6328.0017370000196</v>
       </c>
       <c r="Z3">
-        <v>6553.0498009999901</v>
+        <v>6553.0498319999897</v>
       </c>
       <c r="AA3">
-        <v>6792.5430939999997</v>
+        <v>6792.5431230000004</v>
       </c>
       <c r="AB3">
-        <v>7045.3993459999801</v>
+        <v>7045.3993180000298</v>
       </c>
       <c r="AC3">
-        <v>7314.1312979999802</v>
+        <v>7314.1313270000101</v>
       </c>
       <c r="AD3">
-        <v>7598.6643549999699</v>
+        <v>7598.6644809999998</v>
       </c>
       <c r="AE3">
-        <v>7906.3737299999902</v>
+        <v>7906.3738649999796</v>
       </c>
       <c r="AF3">
-        <v>8230.5581819999898</v>
+        <v>8230.5582529999992</v>
       </c>
       <c r="AG3">
-        <v>8568.3605669999997</v>
+        <v>8568.3606539999491</v>
       </c>
       <c r="AH3">
-        <v>8918.2652010000093</v>
+        <v>8918.2654129999992</v>
       </c>
       <c r="AI3">
-        <v>9281.3835629999794</v>
+        <v>9281.3837910000093</v>
       </c>
       <c r="AJ3">
-        <v>9661.8736409999801</v>
+        <v>9661.8736789999894</v>
       </c>
       <c r="AK3">
-        <v>10041.409642000001</v>
+        <v>10041.4098379999</v>
       </c>
       <c r="AL3">
-        <v>10422.556139</v>
+        <v>10422.556322</v>
       </c>
       <c r="AM3">
-        <v>10792.656661000001</v>
+        <v>10792.6568239999</v>
       </c>
       <c r="AN3">
-        <v>11159.2977829999</v>
+        <v>11159.297895</v>
       </c>
       <c r="AO3">
-        <v>11517.7746739999</v>
+        <v>11517.775179999901</v>
       </c>
       <c r="AP3">
-        <v>11857.9008179999</v>
+        <v>11857.9012089999</v>
       </c>
       <c r="AQ3">
-        <v>12224.444008999901</v>
+        <v>12224.444208000001</v>
       </c>
       <c r="AR3">
-        <v>12591.3960479999</v>
+        <v>12591.396287</v>
       </c>
       <c r="AS3">
-        <v>12965.047941999899</v>
+        <v>12965.0484549999</v>
       </c>
       <c r="AT3">
         <v>11573.7</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4521,139 +4523,139 @@
         <v>3084</v>
       </c>
       <c r="C4">
-        <v>3178.5677919999898</v>
+        <v>3178.56781</v>
       </c>
       <c r="D4">
-        <v>3272.7218339999999</v>
+        <v>3272.7218509999998</v>
       </c>
       <c r="E4">
-        <v>3374.4725879999901</v>
+        <v>3374.472569</v>
       </c>
       <c r="F4">
-        <v>3478.0954729999899</v>
+        <v>3478.0954510000101</v>
       </c>
       <c r="G4">
-        <v>3582.5953589999999</v>
+        <v>3582.595339</v>
       </c>
       <c r="H4">
-        <v>3688.82653599999</v>
+        <v>3688.8265299999898</v>
       </c>
       <c r="I4">
-        <v>3796.6957399999901</v>
+        <v>3796.69574899999</v>
       </c>
       <c r="J4">
-        <v>3913.5050779999901</v>
+        <v>3913.5050919999899</v>
       </c>
       <c r="K4">
-        <v>4028.8364339999998</v>
+        <v>4028.8364799999799</v>
       </c>
       <c r="L4">
-        <v>4153.7871210000003</v>
+        <v>4153.7871230000001</v>
       </c>
       <c r="M4">
-        <v>4282.48842899999</v>
+        <v>4282.4884579999798</v>
       </c>
       <c r="N4">
-        <v>4412.93055</v>
+        <v>4412.9305799999802</v>
       </c>
       <c r="O4">
-        <v>4546.3551830000197</v>
+        <v>4546.3552170000103</v>
       </c>
       <c r="P4">
-        <v>4686.1908809999904</v>
+        <v>4686.1909260000102</v>
       </c>
       <c r="Q4">
-        <v>4830.4087799999897</v>
+        <v>4830.4088090000096</v>
       </c>
       <c r="R4">
-        <v>4979.000266</v>
+        <v>4979.0002890000096</v>
       </c>
       <c r="S4">
-        <v>5128.6212610000002</v>
+        <v>5128.6213189999698</v>
       </c>
       <c r="T4">
-        <v>5289.0845730000201</v>
+        <v>5289.0846099999999</v>
       </c>
       <c r="U4">
-        <v>5446.1942279999903</v>
+        <v>5446.1943039999996</v>
       </c>
       <c r="V4">
-        <v>5614.2151119999799</v>
+        <v>5614.21515</v>
       </c>
       <c r="W4">
-        <v>5783.8402669999996</v>
+        <v>5783.84031399999</v>
       </c>
       <c r="X4">
-        <v>5955.37702300002</v>
+        <v>5955.3770879999902</v>
       </c>
       <c r="Y4">
-        <v>6138.0007919999798</v>
+        <v>6138.0008859999998</v>
       </c>
       <c r="Z4">
-        <v>6330.0726649999997</v>
+        <v>6330.0727200000101</v>
       </c>
       <c r="AA4">
-        <v>6523.3928999999798</v>
+        <v>6523.3929559999897</v>
       </c>
       <c r="AB4">
-        <v>6719.3360359999897</v>
+        <v>6719.3361369999702</v>
       </c>
       <c r="AC4">
-        <v>6922.2976290000097</v>
+        <v>6922.2977000000001</v>
       </c>
       <c r="AD4">
-        <v>7125.8723800000098</v>
+        <v>7125.8724139999904</v>
       </c>
       <c r="AE4">
-        <v>7341.5497649999697</v>
+        <v>7341.5498670000097</v>
       </c>
       <c r="AF4">
-        <v>7567.9159079999999</v>
+        <v>7567.9160409999804</v>
       </c>
       <c r="AG4">
-        <v>7796.4101220000002</v>
+        <v>7796.4102780000203</v>
       </c>
       <c r="AH4">
-        <v>8036.5131979999696</v>
+        <v>8036.5133109999897</v>
       </c>
       <c r="AI4">
-        <v>8283.8874019999803</v>
+        <v>8283.8877310000207</v>
       </c>
       <c r="AJ4">
-        <v>8535.5047860000395</v>
+        <v>8535.5046929999899</v>
       </c>
       <c r="AK4">
-        <v>8786.12230000001</v>
+        <v>8786.1225059999906</v>
       </c>
       <c r="AL4">
-        <v>9027.1047909999706</v>
+        <v>9027.1050129999894</v>
       </c>
       <c r="AM4">
-        <v>9254.5859979999896</v>
+        <v>9254.5861859999895</v>
       </c>
       <c r="AN4">
-        <v>9472.4706300000507</v>
+        <v>9472.4708469999896</v>
       </c>
       <c r="AO4">
-        <v>9682.8254630000702</v>
+        <v>9682.8256910000091</v>
       </c>
       <c r="AP4">
-        <v>9876.6952240000192</v>
+        <v>9876.6953750000102</v>
       </c>
       <c r="AQ4">
-        <v>10080.991038</v>
+        <v>10080.991225</v>
       </c>
       <c r="AR4">
-        <v>10281.7128569999</v>
+        <v>10281.713193</v>
       </c>
       <c r="AS4">
-        <v>10491.288614999999</v>
+        <v>10491.2887519999</v>
       </c>
       <c r="AT4">
         <v>11076.8</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4661,139 +4663,139 @@
         <v>3084</v>
       </c>
       <c r="C5">
-        <v>3170.5184060000001</v>
+        <v>3170.5183919999999</v>
       </c>
       <c r="D5">
-        <v>3251.424293</v>
+        <v>3251.4243059999999</v>
       </c>
       <c r="E5">
-        <v>3331.0435419999899</v>
+        <v>3331.043557</v>
       </c>
       <c r="F5">
-        <v>3403.8498079999999</v>
+        <v>3403.8498409999902</v>
       </c>
       <c r="G5">
-        <v>3467.80768699999</v>
+        <v>3467.8077029999999</v>
       </c>
       <c r="H5">
-        <v>3533.6677759999998</v>
+        <v>3533.6677760000098</v>
       </c>
       <c r="I5">
-        <v>3603.6153319999999</v>
+        <v>3603.6153669999899</v>
       </c>
       <c r="J5">
-        <v>3666.7827439999901</v>
+        <v>3666.7827540000098</v>
       </c>
       <c r="K5">
-        <v>3724.4732989999902</v>
+        <v>3724.47332399999</v>
       </c>
       <c r="L5">
-        <v>3783.1891690000102</v>
+        <v>3783.18914699999</v>
       </c>
       <c r="M5">
-        <v>3841.00982199999</v>
+        <v>3841.0098429999898</v>
       </c>
       <c r="N5">
-        <v>3898.9605409999999</v>
+        <v>3898.9605729999998</v>
       </c>
       <c r="O5">
-        <v>3957.97015899999</v>
+        <v>3957.9701839999998</v>
       </c>
       <c r="P5">
-        <v>4016.9091680000001</v>
+        <v>4016.9091739999899</v>
       </c>
       <c r="Q5">
-        <v>4079.8733520000001</v>
+        <v>4079.87336399999</v>
       </c>
       <c r="R5">
-        <v>4136.6777139999904</v>
+        <v>4136.6777100000199</v>
       </c>
       <c r="S5">
-        <v>4188.2191149999899</v>
+        <v>4188.2191339999899</v>
       </c>
       <c r="T5">
-        <v>4241.170443</v>
+        <v>4241.17043499997</v>
       </c>
       <c r="U5">
-        <v>4291.9539419999901</v>
+        <v>4291.9539579999901</v>
       </c>
       <c r="V5">
-        <v>4335.2115910000002</v>
+        <v>4335.2116430000096</v>
       </c>
       <c r="W5">
-        <v>4376.2730449999999</v>
+        <v>4376.2730419999998</v>
       </c>
       <c r="X5">
-        <v>4421.5683260000096</v>
+        <v>4421.5683600000102</v>
       </c>
       <c r="Y5">
-        <v>4465.0586149999799</v>
+        <v>4465.0586730000095</v>
       </c>
       <c r="Z5">
-        <v>4513.0871469999802</v>
+        <v>4513.0871230000002</v>
       </c>
       <c r="AA5">
-        <v>4555.9702160000097</v>
+        <v>4555.9702559999996</v>
       </c>
       <c r="AB5">
-        <v>4602.70812200001</v>
+        <v>4602.7082150000097</v>
       </c>
       <c r="AC5">
-        <v>4652.4190879999896</v>
+        <v>4652.4190939999899</v>
       </c>
       <c r="AD5">
-        <v>4702.1194690000002</v>
+        <v>4702.1194919999698</v>
       </c>
       <c r="AE5">
-        <v>4743.9617339999904</v>
+        <v>4743.9617259999804</v>
       </c>
       <c r="AF5">
-        <v>4797.98441799999</v>
+        <v>4797.9844440000197</v>
       </c>
       <c r="AG5">
-        <v>4841.8353559999796</v>
+        <v>4841.8353849999903</v>
       </c>
       <c r="AH5">
-        <v>4887.34094800001</v>
+        <v>4887.3409789999796</v>
       </c>
       <c r="AI5">
-        <v>4936.0388579999699</v>
+        <v>4936.0388380000004</v>
       </c>
       <c r="AJ5">
-        <v>4982.0489159999797</v>
+        <v>4982.04897600001</v>
       </c>
       <c r="AK5">
-        <v>5029.7540880000097</v>
+        <v>5029.7541269999901</v>
       </c>
       <c r="AL5">
-        <v>5084.066057</v>
+        <v>5084.0661270000001</v>
       </c>
       <c r="AM5">
-        <v>5132.2294179999899</v>
+        <v>5132.22947199999</v>
       </c>
       <c r="AN5">
-        <v>5182.0889829999596</v>
+        <v>5182.0890169999902</v>
       </c>
       <c r="AO5">
-        <v>5235.9378219999799</v>
+        <v>5235.9378710000001</v>
       </c>
       <c r="AP5">
-        <v>5287.1654689999796</v>
+        <v>5287.1654610000096</v>
       </c>
       <c r="AQ5">
-        <v>5338.3584309999796</v>
+        <v>5338.3585029999904</v>
       </c>
       <c r="AR5">
-        <v>5394.0705229999803</v>
+        <v>5394.0705289999696</v>
       </c>
       <c r="AS5">
-        <v>5446.0917300000101</v>
+        <v>5446.0917850000096</v>
       </c>
       <c r="AT5">
         <v>5039.7700000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4801,2561 +4803,2561 @@
         <v>3084</v>
       </c>
       <c r="C6">
-        <v>3168.2446159999899</v>
+        <v>3168.2446100000002</v>
       </c>
       <c r="D6">
-        <v>3245.4959469999999</v>
+        <v>3245.4959359999898</v>
       </c>
       <c r="E6">
-        <v>3324.2802819999902</v>
+        <v>3324.2802919999999</v>
       </c>
       <c r="F6">
         <v>3396.9674890000001</v>
       </c>
       <c r="G6">
-        <v>3454.1374500000002</v>
+        <v>3454.1374250000099</v>
       </c>
       <c r="H6">
-        <v>3483.1496160000002</v>
+        <v>3483.149629</v>
       </c>
       <c r="I6">
-        <v>3485.0701389999899</v>
+        <v>3485.07017</v>
       </c>
       <c r="J6">
-        <v>3463.3004679999899</v>
+        <v>3463.300463</v>
       </c>
       <c r="K6">
-        <v>3419.8061599999901</v>
+        <v>3419.806169</v>
       </c>
       <c r="L6">
-        <v>3370.32852</v>
+        <v>3370.3285129999999</v>
       </c>
       <c r="M6">
-        <v>3327.9443329999999</v>
+        <v>3327.9443249999899</v>
       </c>
       <c r="N6">
-        <v>3288.59408789999</v>
+        <v>3288.5940738999998</v>
       </c>
       <c r="O6">
         <v>3254.43329579999</v>
       </c>
       <c r="P6">
-        <v>3229.1535345000102</v>
+        <v>3229.15352449999</v>
       </c>
       <c r="Q6">
-        <v>3205.5150015999802</v>
+        <v>3205.5149772999998</v>
       </c>
       <c r="R6">
-        <v>3182.26095019999</v>
+        <v>3182.2609470000002</v>
       </c>
       <c r="S6">
-        <v>3162.7910869999901</v>
+        <v>3162.7910929999898</v>
       </c>
       <c r="T6">
-        <v>3149.8381445</v>
+        <v>3149.8381294999999</v>
       </c>
       <c r="U6">
-        <v>3145.4154923999899</v>
+        <v>3145.41549080001</v>
       </c>
       <c r="V6">
-        <v>3141.2245191000102</v>
+        <v>3141.2245036000099</v>
       </c>
       <c r="W6">
-        <v>3146.7420212000002</v>
+        <v>3146.7420498000101</v>
       </c>
       <c r="X6">
-        <v>3158.5580877000002</v>
+        <v>3158.5580245999799</v>
       </c>
       <c r="Y6">
-        <v>3176.8905396999899</v>
+        <v>3176.8905006999898</v>
       </c>
       <c r="Z6">
-        <v>3201.7061600000002</v>
+        <v>3201.7061792</v>
       </c>
       <c r="AA6">
-        <v>3233.22095579999</v>
+        <v>3233.2209290999899</v>
       </c>
       <c r="AB6">
-        <v>3258.7475454</v>
+        <v>3258.7475435000001</v>
       </c>
       <c r="AC6">
-        <v>3295.18420409999</v>
+        <v>3295.1842078</v>
       </c>
       <c r="AD6">
-        <v>3332.2205761999999</v>
+        <v>3332.2206039999901</v>
       </c>
       <c r="AE6">
-        <v>3361.3069413999901</v>
+        <v>3361.3069643999902</v>
       </c>
       <c r="AF6">
-        <v>3389.7231777000002</v>
+        <v>3389.7231485999901</v>
       </c>
       <c r="AG6">
-        <v>3422.3168508999902</v>
+        <v>3422.3168119000002</v>
       </c>
       <c r="AH6">
-        <v>3456.2377824999999</v>
+        <v>3456.2377841000198</v>
       </c>
       <c r="AI6">
-        <v>3488.4206654</v>
+        <v>3488.4206293000002</v>
       </c>
       <c r="AJ6">
-        <v>3521.1224453999898</v>
+        <v>3521.12239459999</v>
       </c>
       <c r="AK6">
-        <v>3558.5274163999802</v>
+        <v>3558.5274237999902</v>
       </c>
       <c r="AL6">
-        <v>3593.3930943</v>
+        <v>3593.39308999999</v>
       </c>
       <c r="AM6">
-        <v>3633.5201149999998</v>
+        <v>3633.5200725999898</v>
       </c>
       <c r="AN6">
-        <v>3677.2580659999899</v>
+        <v>3677.2580207000001</v>
       </c>
       <c r="AO6">
-        <v>3715.1007110999799</v>
+        <v>3715.1006505999899</v>
       </c>
       <c r="AP6">
-        <v>3796.3261735000101</v>
+        <v>3796.3261720999899</v>
       </c>
       <c r="AQ6">
-        <v>3978.1982892999899</v>
+        <v>3978.1983481999901</v>
       </c>
       <c r="AR6">
-        <v>4283.20935679997</v>
+        <v>4283.2093510000104</v>
       </c>
       <c r="AS6">
-        <v>4739.7157056999904</v>
+        <v>4739.7156633000004</v>
       </c>
       <c r="AT6">
         <v>4018.79</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>8.9392299999999994E-2</v>
+        <v>8.8660299999999997E-2</v>
       </c>
       <c r="C7">
-        <v>7.6536466389999905E-2</v>
+        <v>7.9543941020000203E-2</v>
       </c>
       <c r="D7">
-        <v>6.6719330560000206E-2</v>
+        <v>7.1648523414999402E-2</v>
       </c>
       <c r="E7">
-        <v>5.69630510439997E-2</v>
+        <v>6.2222884443037099E-2</v>
       </c>
       <c r="F7">
-        <v>4.6813393531722002E-2</v>
+        <v>5.1210287800388797E-2</v>
       </c>
       <c r="G7">
-        <v>3.662200951893E-2</v>
+        <v>3.8859583823425102E-2</v>
       </c>
       <c r="H7">
-        <v>2.6928602090968701E-2</v>
+        <v>2.5216374705426901E-2</v>
       </c>
       <c r="I7">
-        <v>1.7725403585786E-2</v>
+        <v>1.03058465514898E-2</v>
       </c>
       <c r="J7">
-        <v>9.0248634130491792E-3</v>
+        <v>-5.8521249868600002E-3</v>
       </c>
       <c r="K7">
-        <v>8.0711224196399996E-4</v>
+        <v>-2.3344433953920701E-2</v>
       </c>
       <c r="L7">
-        <v>-7.1950645919329898E-3</v>
+        <v>-4.2081576608840002E-2</v>
       </c>
       <c r="M7">
-        <v>-1.5641839141509999E-2</v>
+        <v>-6.21059843783449E-2</v>
       </c>
       <c r="N7">
-        <v>-2.4528951064369899E-2</v>
+        <v>-8.34895548534903E-2</v>
       </c>
       <c r="O7">
-        <v>-3.3983337867581002E-2</v>
+        <v>-0.10655714039665</v>
       </c>
       <c r="P7">
-        <v>-4.4065771316623002E-2</v>
+        <v>-0.13150689645213501</v>
       </c>
       <c r="Q7">
-        <v>-5.4483235005024798E-2</v>
+        <v>-0.15871701578272901</v>
       </c>
       <c r="R7">
-        <v>-6.4534050682839794E-2</v>
+        <v>-0.18794965670739999</v>
       </c>
       <c r="S7">
-        <v>-7.4390807572050993E-2</v>
+        <v>-0.21991018719550001</v>
       </c>
       <c r="T7">
-        <v>-8.3836757964990002E-2</v>
+        <v>-0.25433370853740001</v>
       </c>
       <c r="U7">
-        <v>-9.30681315372799E-2</v>
+        <v>-0.29195576775604798</v>
       </c>
       <c r="V7">
-        <v>-0.10253255570754</v>
+        <v>-0.33353245444257901</v>
       </c>
       <c r="W7">
-        <v>-0.112385449086015</v>
+        <v>-0.378229619142399</v>
       </c>
       <c r="X7">
-        <v>-0.12282095639444</v>
+        <v>-0.42665561979709798</v>
       </c>
       <c r="Y7">
-        <v>-0.13382472806289</v>
+        <v>-0.47911214111080003</v>
       </c>
       <c r="Z7">
-        <v>-0.14543292081824</v>
+        <v>-0.53606444357281102</v>
       </c>
       <c r="AA7">
-        <v>-0.16090143197610099</v>
+        <v>-0.59929541922969998</v>
       </c>
       <c r="AB7">
-        <v>-0.18477151537875899</v>
+        <v>-0.66736359033230097</v>
       </c>
       <c r="AC7">
-        <v>-0.21741119341169901</v>
+        <v>-0.74077195269547202</v>
       </c>
       <c r="AD7">
-        <v>-0.25916743564106998</v>
+        <v>-0.82005336403719997</v>
       </c>
       <c r="AE7">
-        <v>-0.31004997305439902</v>
+        <v>-0.90480221242799896</v>
       </c>
       <c r="AF7">
-        <v>-0.36752540797529998</v>
+        <v>-0.99576557547299904</v>
       </c>
       <c r="AG7">
-        <v>-0.42709945957199902</v>
+        <v>-1.0941798877895901</v>
       </c>
       <c r="AH7">
-        <v>-0.488798978745699</v>
+        <v>-1.2005005699519899</v>
       </c>
       <c r="AI7">
-        <v>-0.55267461623240199</v>
+        <v>-1.31547513231999</v>
       </c>
       <c r="AJ7">
-        <v>-0.61865860395899697</v>
+        <v>-1.4395286389908999</v>
       </c>
       <c r="AK7">
-        <v>-0.68734984272739796</v>
+        <v>-1.5749378912180001</v>
       </c>
       <c r="AL7">
-        <v>-0.75921978774249499</v>
+        <v>-1.7234136202229899</v>
       </c>
       <c r="AM7">
-        <v>-0.83500319814399904</v>
+        <v>-1.8878511629404</v>
       </c>
       <c r="AN7">
-        <v>-0.91466411970699901</v>
+        <v>-2.0693422133929</v>
       </c>
       <c r="AO7">
-        <v>-0.99862935854199897</v>
+        <v>-2.270531123324</v>
       </c>
       <c r="AP7">
-        <v>-1.08807998947999</v>
+        <v>-2.4958901582173998</v>
       </c>
       <c r="AQ7">
-        <v>-1.1806940229179901</v>
+        <v>-2.7426059089710901</v>
       </c>
       <c r="AR7">
-        <v>-1.2775261425719999</v>
+        <v>-3.01545189647259</v>
       </c>
       <c r="AS7">
-        <v>-1.3786831135447899</v>
+        <v>-3.3161251861130099</v>
       </c>
       <c r="AT7">
-        <v>-1.37086</v>
+        <v>-1.9779</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>8.9392299999999994E-2</v>
+        <v>8.8660299999999997E-2</v>
       </c>
       <c r="C8">
-        <v>7.6446272760000003E-2</v>
+        <v>7.9406461960000396E-2</v>
       </c>
       <c r="D8">
-        <v>6.6653120529999998E-2</v>
+        <v>7.1522789841999598E-2</v>
       </c>
       <c r="E8">
-        <v>5.6891898136000103E-2</v>
+        <v>6.2111831703669802E-2</v>
       </c>
       <c r="F8">
-        <v>4.6773428645939898E-2</v>
+        <v>5.1203353523207797E-2</v>
       </c>
       <c r="G8">
-        <v>3.6263048126202999E-2</v>
+        <v>3.9024632004179903E-2</v>
       </c>
       <c r="H8">
-        <v>2.5377187194535002E-2</v>
+        <v>2.5808419620600001E-2</v>
       </c>
       <c r="I8">
-        <v>1.3952611500393E-2</v>
+        <v>1.13660138196259E-2</v>
       </c>
       <c r="J8">
-        <v>1.9404206412521E-3</v>
+        <v>-4.35252488450998E-3</v>
       </c>
       <c r="K8">
-        <v>-1.0703281415410999E-2</v>
+        <v>-2.1434551237362001E-2</v>
       </c>
       <c r="L8">
-        <v>-2.356070136581E-2</v>
+        <v>-3.9765798889019897E-2</v>
       </c>
       <c r="M8">
-        <v>-3.6057041324834997E-2</v>
+        <v>-5.9385536615441999E-2</v>
       </c>
       <c r="N8">
-        <v>-4.8279610738021797E-2</v>
+        <v>-8.05090523184602E-2</v>
       </c>
       <c r="O8">
-        <v>-6.0196095724199997E-2</v>
+        <v>-0.10318179107016499</v>
       </c>
       <c r="P8">
-        <v>-7.1838335052091001E-2</v>
+        <v>-0.127636121553559</v>
       </c>
       <c r="Q8">
-        <v>-8.3754895577542704E-2</v>
+        <v>-0.15433793478357899</v>
       </c>
       <c r="R8">
-        <v>-9.6432696281498906E-2</v>
+        <v>-0.18317613668561999</v>
       </c>
       <c r="S8">
-        <v>-0.10995698998797</v>
+        <v>-0.21449274703780999</v>
       </c>
       <c r="T8">
-        <v>-0.124258236879897</v>
+        <v>-0.24842849689619001</v>
       </c>
       <c r="U8">
-        <v>-0.139391348165079</v>
+        <v>-0.28535107730425902</v>
       </c>
       <c r="V8">
-        <v>-0.15569418564882001</v>
+        <v>-0.326151790467402</v>
       </c>
       <c r="W8">
-        <v>-0.17286456650106299</v>
+        <v>-0.37041769061560098</v>
       </c>
       <c r="X8">
-        <v>-0.19091438078164899</v>
+        <v>-0.41857716078320101</v>
       </c>
       <c r="Y8">
-        <v>-0.2097589707619</v>
+        <v>-0.47085553811589798</v>
       </c>
       <c r="Z8">
-        <v>-0.22947205596827</v>
+        <v>-0.52778002047900097</v>
       </c>
       <c r="AA8">
-        <v>-0.25095074536292</v>
+        <v>-0.59173376789849796</v>
       </c>
       <c r="AB8">
-        <v>-0.27336963424084998</v>
+        <v>-0.66130796101009803</v>
       </c>
       <c r="AC8">
-        <v>-0.29683559079319899</v>
+        <v>-0.73736553815143902</v>
       </c>
       <c r="AD8">
-        <v>-0.32143126125863802</v>
+        <v>-0.82079969733358804</v>
       </c>
       <c r="AE8">
-        <v>-0.346898101852471</v>
+        <v>-0.91173815167099903</v>
       </c>
       <c r="AF8">
-        <v>-0.37291078737501798</v>
+        <v>-1.0109736419312001</v>
       </c>
       <c r="AG8">
-        <v>-0.39892249253813999</v>
+        <v>-1.11947352175139</v>
       </c>
       <c r="AH8">
-        <v>-0.42474946124479901</v>
+        <v>-1.2377705511376</v>
       </c>
       <c r="AI8">
-        <v>-0.45053232953440098</v>
+        <v>-1.3672127000448899</v>
       </c>
       <c r="AJ8">
-        <v>-0.47623401414260302</v>
+        <v>-1.5088184600040999</v>
       </c>
       <c r="AK8">
-        <v>-0.50244644147348105</v>
+        <v>-1.6647570074253899</v>
       </c>
       <c r="AL8">
-        <v>-0.53006124017487299</v>
+        <v>-1.8376155734483901</v>
       </c>
       <c r="AM8">
-        <v>-0.55937629053409998</v>
+        <v>-2.0305190405257898</v>
       </c>
       <c r="AN8">
-        <v>-0.59064374173980005</v>
+        <v>-2.2464729043473199</v>
       </c>
       <c r="AO8">
-        <v>-0.62365383517560102</v>
+        <v>-2.48797071903468</v>
       </c>
       <c r="AP8">
-        <v>-0.65900976955409896</v>
+        <v>-2.7602521274980898</v>
       </c>
       <c r="AQ8">
-        <v>-0.6957190793993</v>
+        <v>-3.0630120130311802</v>
       </c>
       <c r="AR8">
-        <v>-0.734165018433797</v>
+        <v>-3.4010009435196</v>
       </c>
       <c r="AS8">
-        <v>-0.77388650410719895</v>
+        <v>-3.7761640922409798</v>
       </c>
       <c r="AT8">
-        <v>-1.27969</v>
+        <v>-6.8814900000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>8.9392299999999994E-2</v>
+        <v>8.8660299999999997E-2</v>
       </c>
       <c r="C9">
-        <v>7.6637137519999801E-2</v>
+        <v>8.0886819610000493E-2</v>
       </c>
       <c r="D9">
-        <v>6.7378780520000195E-2</v>
+        <v>7.6064937930000007E-2</v>
       </c>
       <c r="E9">
-        <v>5.8585314266999998E-2</v>
+        <v>7.1582398903200103E-2</v>
       </c>
       <c r="F9">
-        <v>4.9822499391819798E-2</v>
+        <v>6.7534338853337803E-2</v>
       </c>
       <c r="G9">
-        <v>4.1198357427179998E-2</v>
+        <v>6.4550601422731294E-2</v>
       </c>
       <c r="H9">
-        <v>3.25403144083901E-2</v>
+        <v>6.2690215568049906E-2</v>
       </c>
       <c r="I9">
-        <v>2.36039246908675E-2</v>
+        <v>6.1651204715319999E-2</v>
       </c>
       <c r="J9">
-        <v>1.4475191895335001E-2</v>
+        <v>6.1748059659640003E-2</v>
       </c>
       <c r="K9">
-        <v>5.1164786954709897E-3</v>
+        <v>6.3175963648139002E-2</v>
       </c>
       <c r="L9">
-        <v>-4.4546044048109903E-3</v>
+        <v>6.6284595646510097E-2</v>
       </c>
       <c r="M9">
-        <v>-1.42262048957399E-2</v>
+        <v>7.1336808805759599E-2</v>
       </c>
       <c r="N9">
-        <v>-2.43222529807119E-2</v>
+        <v>7.8392904878496802E-2</v>
       </c>
       <c r="O9">
-        <v>-3.4837349957450997E-2</v>
+        <v>8.7503426934736006E-2</v>
       </c>
       <c r="P9">
-        <v>-4.5850690162800099E-2</v>
+        <v>9.8838328340757495E-2</v>
       </c>
       <c r="Q9">
-        <v>-5.7456917247751899E-2</v>
+        <v>0.11298019455305899</v>
       </c>
       <c r="R9">
-        <v>-6.96170885574698E-2</v>
+        <v>0.13037064305148899</v>
       </c>
       <c r="S9">
-        <v>-8.2314822195919901E-2</v>
+        <v>0.15174814511782</v>
       </c>
       <c r="T9">
-        <v>-9.5562435138249996E-2</v>
+        <v>0.17740170731979299</v>
       </c>
       <c r="U9">
-        <v>-0.109556409724339</v>
+        <v>0.207398038842659</v>
       </c>
       <c r="V9">
-        <v>-0.124635653741049</v>
+        <v>0.243717546316399</v>
       </c>
       <c r="W9">
-        <v>-0.140321220315999</v>
+        <v>0.28703696157334901</v>
       </c>
       <c r="X9">
-        <v>-0.15666343675892899</v>
+        <v>0.33771673575352901</v>
       </c>
       <c r="Y9">
-        <v>-0.173852518443153</v>
+        <v>0.39653059000640001</v>
       </c>
       <c r="Z9">
-        <v>-0.19180462809098001</v>
+        <v>0.4642091765404</v>
       </c>
       <c r="AA9">
-        <v>-0.21133139141453</v>
+        <v>0.54444325688844997</v>
       </c>
       <c r="AB9">
-        <v>-0.23167147797740301</v>
+        <v>0.63769702415359797</v>
       </c>
       <c r="AC9">
-        <v>-0.25287128865782299</v>
+        <v>0.74516365441090204</v>
       </c>
       <c r="AD9">
-        <v>-0.27497442580369003</v>
+        <v>0.86886876686019798</v>
       </c>
       <c r="AE9">
-        <v>-0.29813040824116899</v>
+        <v>1.0121809036690901</v>
       </c>
       <c r="AF9">
-        <v>-0.32193910980340001</v>
+        <v>1.1766146619005899</v>
       </c>
       <c r="AG9">
-        <v>-0.346941780512319</v>
+        <v>1.3664122432096999</v>
       </c>
       <c r="AH9">
-        <v>-0.37296577526573899</v>
+        <v>1.5849900838666999</v>
       </c>
       <c r="AI9">
-        <v>-0.40015583119106002</v>
+        <v>1.8344378437078901</v>
       </c>
       <c r="AJ9">
-        <v>-0.42868239326524799</v>
+        <v>2.1197257233929001</v>
       </c>
       <c r="AK9">
-        <v>-0.45846134185626902</v>
+        <v>2.4438420982151201</v>
       </c>
       <c r="AL9">
-        <v>-0.48889127239879998</v>
+        <v>2.8138163348404901</v>
       </c>
       <c r="AM9">
-        <v>-0.52102260087130003</v>
+        <v>3.23411477666671</v>
       </c>
       <c r="AN9">
-        <v>-0.55484060835542803</v>
+        <v>3.7115470126999899</v>
       </c>
       <c r="AO9">
-        <v>-0.58987573133100102</v>
+        <v>4.2532424854555</v>
       </c>
       <c r="AP9">
-        <v>-0.62689002680612904</v>
+        <v>4.8678395769715204</v>
       </c>
       <c r="AQ9">
-        <v>-0.66589613121760005</v>
+        <v>5.5650789640442904</v>
       </c>
       <c r="AR9">
-        <v>-0.70545000106381905</v>
+        <v>6.3594520835292903</v>
       </c>
       <c r="AS9">
-        <v>-0.74730020418830101</v>
+        <v>7.2627392302280001</v>
       </c>
       <c r="AT9">
-        <v>-2.1147499999999999</v>
+        <v>0.46174399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>8.9392299999999994E-2</v>
+        <v>8.8660299999999997E-2</v>
       </c>
       <c r="C10">
-        <v>7.6743989050000003E-2</v>
+        <v>8.1242359599999994E-2</v>
       </c>
       <c r="D10">
-        <v>6.7616059930000097E-2</v>
+        <v>7.7001788839999502E-2</v>
       </c>
       <c r="E10">
-        <v>5.8924382913999998E-2</v>
+        <v>7.3263101399550196E-2</v>
       </c>
       <c r="F10">
-        <v>5.02831356293897E-2</v>
+        <v>7.0210782502895003E-2</v>
       </c>
       <c r="G10">
-        <v>4.2485124489069999E-2</v>
+        <v>6.8373852972027693E-2</v>
       </c>
       <c r="H10">
-        <v>3.7518732842824899E-2</v>
+        <v>6.9537015432349997E-2</v>
       </c>
       <c r="I10">
-        <v>3.565204775005E-2</v>
+        <v>7.4649106247661204E-2</v>
       </c>
       <c r="J10">
-        <v>3.7488014530790099E-2</v>
+        <v>8.5132513905479601E-2</v>
       </c>
       <c r="K10">
-        <v>4.3349072613647101E-2</v>
+        <v>0.10182721778830101</v>
       </c>
       <c r="L10">
-        <v>5.3150297389968001E-2</v>
+        <v>0.12537873993524801</v>
       </c>
       <c r="M10">
-        <v>6.6060113262438602E-2</v>
+        <v>0.15548971047086299</v>
       </c>
       <c r="N10">
-        <v>8.1893384092265306E-2</v>
+        <v>0.19185001627270001</v>
       </c>
       <c r="O10">
-        <v>0.100794031905878</v>
+        <v>0.23501097212470001</v>
       </c>
       <c r="P10">
-        <v>0.122656532814909</v>
+        <v>0.28507418866675299</v>
       </c>
       <c r="Q10">
-        <v>0.147571310002239</v>
+        <v>0.34433587403799898</v>
       </c>
       <c r="R10">
-        <v>0.17413312846846901</v>
+        <v>0.41343059461681098</v>
       </c>
       <c r="S10">
-        <v>0.20207068997406999</v>
+        <v>0.49301507643268899</v>
       </c>
       <c r="T10">
-        <v>0.231282886766877</v>
+        <v>0.58418123232400399</v>
       </c>
       <c r="U10">
-        <v>0.261597224837119</v>
+        <v>0.68769141796215405</v>
       </c>
       <c r="V10">
-        <v>0.29356983058760999</v>
+        <v>0.8066389823265</v>
       </c>
       <c r="W10">
-        <v>0.32692122597685802</v>
+        <v>0.94169778364529999</v>
       </c>
       <c r="X10">
-        <v>0.36150751952770199</v>
+        <v>1.0948305142677</v>
       </c>
       <c r="Y10">
-        <v>0.397274149602099</v>
+        <v>1.2679928698887699</v>
       </c>
       <c r="Z10">
-        <v>0.43407219525899898</v>
+        <v>1.4631967984688601</v>
       </c>
       <c r="AA10">
-        <v>0.47360720131971901</v>
+        <v>1.6886271064228999</v>
       </c>
       <c r="AB10">
-        <v>0.51577563964611794</v>
+        <v>1.94705269901319</v>
       </c>
       <c r="AC10">
-        <v>0.56004148605420201</v>
+        <v>2.2407160142784202</v>
       </c>
       <c r="AD10">
-        <v>0.60737492718539998</v>
+        <v>2.5775072362511899</v>
       </c>
       <c r="AE10">
-        <v>0.65729788098120001</v>
+        <v>2.9611871714497902</v>
       </c>
       <c r="AF10">
-        <v>0.71075411651510201</v>
+        <v>3.4009118837157</v>
       </c>
       <c r="AG10">
-        <v>0.76768695170867896</v>
+        <v>3.902811904779</v>
       </c>
       <c r="AH10">
-        <v>0.82768879940890205</v>
+        <v>4.4725359735209702</v>
       </c>
       <c r="AI10">
-        <v>0.89111830729819996</v>
+        <v>5.1197551718810201</v>
       </c>
       <c r="AJ10">
-        <v>0.95832085875178197</v>
+        <v>5.8543549828879904</v>
       </c>
       <c r="AK10">
-        <v>1.0291801777534999</v>
+        <v>6.685381827074</v>
       </c>
       <c r="AL10">
-        <v>1.1061362617555901</v>
+        <v>7.6380536628989804</v>
       </c>
       <c r="AM10">
-        <v>1.1864699976727</v>
+        <v>8.7097536272139706</v>
       </c>
       <c r="AN10">
-        <v>1.2725877228643201</v>
+        <v>9.9306320072383993</v>
       </c>
       <c r="AO10">
-        <v>1.3651695155268899</v>
+        <v>11.322637971973901</v>
       </c>
       <c r="AP10">
-        <v>1.45712347174844</v>
+        <v>12.842590824182</v>
       </c>
       <c r="AQ10">
-        <v>1.5273979687986501</v>
+        <v>14.315300242499999</v>
       </c>
       <c r="AR10">
-        <v>1.56782311770552</v>
+        <v>15.6228174280369</v>
       </c>
       <c r="AS10">
-        <v>1.5700968161650599</v>
+        <v>16.6334099696615</v>
       </c>
       <c r="AT10">
-        <v>6.1519699999999997E-2</v>
+        <v>5.8948200000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
-        <v>31788.2</v>
+        <v>32050.6</v>
       </c>
       <c r="C11">
-        <v>33273.981140000004</v>
+        <v>33225.041109999896</v>
       </c>
       <c r="D11">
-        <v>33832.058579999801</v>
+        <v>33661.865539999897</v>
       </c>
       <c r="E11">
-        <v>34285.54808</v>
+        <v>34078.130949999999</v>
       </c>
       <c r="F11">
-        <v>34713.584690000098</v>
+        <v>34508.713129999996</v>
       </c>
       <c r="G11">
-        <v>35140.485719999997</v>
+        <v>34964.095090000003</v>
       </c>
       <c r="H11">
-        <v>35601.192379999899</v>
+        <v>35469.126209999798</v>
       </c>
       <c r="I11">
-        <v>36094.939100000003</v>
+        <v>36016.669059999898</v>
       </c>
       <c r="J11">
-        <v>36658.401759999899</v>
+        <v>36638.828250000101</v>
       </c>
       <c r="K11">
-        <v>37273.259819999897</v>
+        <v>37317.408879999799</v>
       </c>
       <c r="L11">
-        <v>37903.304549999899</v>
+        <v>38022.588119999702</v>
       </c>
       <c r="M11">
-        <v>38616.705060000102</v>
+        <v>38816.449109999703</v>
       </c>
       <c r="N11">
-        <v>39398.189540000101</v>
+        <v>39680.525659999999</v>
       </c>
       <c r="O11">
-        <v>40240.848729999998</v>
+        <v>40607.5768899998</v>
       </c>
       <c r="P11">
-        <v>41156.236289999899</v>
+        <v>41609.6711699999</v>
       </c>
       <c r="Q11">
-        <v>42101.476670000098</v>
+        <v>42652.373599999897</v>
       </c>
       <c r="R11">
-        <v>43195.6449400001</v>
+        <v>43845.793980000002</v>
       </c>
       <c r="S11">
-        <v>44329.9642199999</v>
+        <v>45077.374020000098</v>
       </c>
       <c r="T11">
-        <v>45582.638439999901</v>
+        <v>46427.140769999998</v>
       </c>
       <c r="U11">
-        <v>46904.928010000003</v>
+        <v>47846.424789999997</v>
       </c>
       <c r="V11">
-        <v>48240.164429999997</v>
+        <v>49293.125229999903</v>
       </c>
       <c r="W11">
-        <v>49622.607159999898</v>
+        <v>50806.629349999901</v>
       </c>
       <c r="X11">
-        <v>51060.645199999999</v>
+        <v>52376.392889999901</v>
       </c>
       <c r="Y11">
-        <v>52564.966870000098</v>
+        <v>54016.933520000202</v>
       </c>
       <c r="Z11">
-        <v>54138.698559999902</v>
+        <v>55731.2996200001</v>
       </c>
       <c r="AA11">
-        <v>55706.892890000003</v>
+        <v>57459.073329999999</v>
       </c>
       <c r="AB11">
-        <v>57391.586940000001</v>
+        <v>59320.594469999996</v>
       </c>
       <c r="AC11">
-        <v>59179.568269999902</v>
+        <v>61290.377289999902</v>
       </c>
       <c r="AD11">
-        <v>61089.355049999802</v>
+        <v>63388.894149999702</v>
       </c>
       <c r="AE11">
-        <v>63173.4885599997</v>
+        <v>65669.154250000094</v>
       </c>
       <c r="AF11">
-        <v>65407.7631899997</v>
+        <v>68114.433810000002</v>
       </c>
       <c r="AG11">
-        <v>67767.441510000106</v>
+        <v>70704.773850000201</v>
       </c>
       <c r="AH11">
-        <v>70237.986050000094</v>
+        <v>73427.163280000197</v>
       </c>
       <c r="AI11">
-        <v>72822.643410000004</v>
+        <v>76283.528190000099</v>
       </c>
       <c r="AJ11">
-        <v>75548.038099999801</v>
+        <v>79298.389959999899</v>
       </c>
       <c r="AK11">
-        <v>78341.484139999899</v>
+        <v>82403.094899999895</v>
       </c>
       <c r="AL11">
-        <v>81155.440070000099</v>
+        <v>85554.257179999797</v>
       </c>
       <c r="AM11">
-        <v>83936.707569999897</v>
+        <v>88692.825359999595</v>
       </c>
       <c r="AN11">
-        <v>86700.949840000307</v>
+        <v>91828.774020000099</v>
       </c>
       <c r="AO11">
-        <v>89432.723650000204</v>
+        <v>94943.460329999696</v>
       </c>
       <c r="AP11">
-        <v>92064.615290000307</v>
+        <v>97971.131200000003</v>
       </c>
       <c r="AQ11">
-        <v>94796.907839999607</v>
+        <v>101094.49718999999</v>
       </c>
       <c r="AR11">
-        <v>97604.296889999605</v>
+        <v>104293.71837</v>
       </c>
       <c r="AS11">
-        <v>100465.57116999901</v>
+        <v>107563.55613</v>
       </c>
       <c r="AT11">
-        <v>89806.5</v>
+        <v>95885.9</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
-        <v>31788.2</v>
+        <v>32050.6</v>
       </c>
       <c r="C12">
-        <v>33296.943899999998</v>
+        <v>33246.384259999897</v>
       </c>
       <c r="D12">
-        <v>33859.714030000097</v>
+        <v>33689.103609999896</v>
       </c>
       <c r="E12">
-        <v>34332.804620000003</v>
+        <v>34125.650369999603</v>
       </c>
       <c r="F12">
-        <v>34781.063479999902</v>
+        <v>34577.9338299999</v>
       </c>
       <c r="G12">
-        <v>35218.097809999897</v>
+        <v>35046.050489999798</v>
       </c>
       <c r="H12">
-        <v>35677.932079999897</v>
+        <v>35554.127639999999</v>
       </c>
       <c r="I12">
-        <v>36179.947279999898</v>
+        <v>36110.88839</v>
       </c>
       <c r="J12">
-        <v>36764.845150000103</v>
+        <v>36754.934159999997</v>
       </c>
       <c r="K12">
-        <v>37392.406869999999</v>
+        <v>37447.277399999999</v>
       </c>
       <c r="L12">
-        <v>38079.018589999898</v>
+        <v>38207.1833999999</v>
       </c>
       <c r="M12">
-        <v>38842.787469999901</v>
+        <v>39052.117359999902</v>
       </c>
       <c r="N12">
-        <v>39669.386770000303</v>
+        <v>39962.822119999902</v>
       </c>
       <c r="O12">
-        <v>40558.47898</v>
+        <v>40940.704589999899</v>
       </c>
       <c r="P12">
-        <v>41542.648449999702</v>
+        <v>42014.078909999698</v>
       </c>
       <c r="Q12">
-        <v>42551.412519999998</v>
+        <v>43123.7337799999</v>
       </c>
       <c r="R12">
-        <v>43652.624150000003</v>
+        <v>44330.848830000003</v>
       </c>
       <c r="S12">
-        <v>44782.582439999896</v>
+        <v>45567.81465</v>
       </c>
       <c r="T12">
-        <v>45989.497609999802</v>
+        <v>46877.947789999896</v>
       </c>
       <c r="U12">
-        <v>47204.543189999902</v>
+        <v>48198.552569999803</v>
       </c>
       <c r="V12">
-        <v>48403.5283000001</v>
+        <v>49514.390709999701</v>
       </c>
       <c r="W12">
-        <v>49636.691509999902</v>
+        <v>50876.300199999998</v>
       </c>
       <c r="X12">
-        <v>50880.774660000003</v>
+        <v>52250.6128199999</v>
       </c>
       <c r="Y12">
-        <v>52192.5019500001</v>
+        <v>53690.673919999899</v>
       </c>
       <c r="Z12">
-        <v>53588.706559999897</v>
+        <v>55214.082300000002</v>
       </c>
       <c r="AA12">
-        <v>54918.0885099999</v>
+        <v>56692.214900000101</v>
       </c>
       <c r="AB12">
-        <v>56284.724829999803</v>
+        <v>58227.829790000003</v>
       </c>
       <c r="AC12">
-        <v>57686.542909999698</v>
+        <v>59801.003280000201</v>
       </c>
       <c r="AD12">
-        <v>59112.316500000103</v>
+        <v>61401.249840000099</v>
       </c>
       <c r="AE12">
-        <v>60629.595229999803</v>
+        <v>63093.5244199999</v>
       </c>
       <c r="AF12">
-        <v>62243.824760000003</v>
+        <v>64888.709199999903</v>
       </c>
       <c r="AG12">
-        <v>63917.844309999797</v>
+        <v>66755.313190000103</v>
       </c>
       <c r="AH12">
-        <v>65678.806249999907</v>
+        <v>68721.626859999698</v>
       </c>
       <c r="AI12">
-        <v>67537.067849999803</v>
+        <v>70794.445189999999</v>
       </c>
       <c r="AJ12">
-        <v>69465.463370000303</v>
+        <v>72953.795779999899</v>
       </c>
       <c r="AK12">
-        <v>71431.300649999597</v>
+        <v>75168.083439999798</v>
       </c>
       <c r="AL12">
-        <v>73376.697549999793</v>
+        <v>77379.361739999906</v>
       </c>
       <c r="AM12">
-        <v>75269.833349999899</v>
+        <v>79552.458599999896</v>
       </c>
       <c r="AN12">
-        <v>77109.683820000195</v>
+        <v>81682.561350000193</v>
       </c>
       <c r="AO12">
-        <v>78909.860629999894</v>
+        <v>83777.124960000103</v>
       </c>
       <c r="AP12">
-        <v>80629.910809999696</v>
+        <v>85796.493589999998</v>
       </c>
       <c r="AQ12">
-        <v>82398.463239999706</v>
+        <v>87858.608470000196</v>
       </c>
       <c r="AR12">
-        <v>84188.682700000296</v>
+        <v>89943.891999999905</v>
       </c>
       <c r="AS12">
-        <v>86067.544719999598</v>
+        <v>92120.860859999899</v>
       </c>
       <c r="AT12">
-        <v>92991.5</v>
+        <v>100323</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
-        <v>31788.2</v>
+        <v>32050.6</v>
       </c>
       <c r="C13">
-        <v>33243.345809999897</v>
+        <v>33195.692289999897</v>
       </c>
       <c r="D13">
-        <v>33693.770199999897</v>
+        <v>33533.698120000103</v>
       </c>
       <c r="E13">
-        <v>33977.528050000001</v>
+        <v>33789.485479999901</v>
       </c>
       <c r="F13">
-        <v>34166.292460000099</v>
+        <v>33988.184540000198</v>
       </c>
       <c r="G13">
-        <v>34258.380290000001</v>
+        <v>34116.442770000001</v>
       </c>
       <c r="H13">
-        <v>34345.4666399997</v>
+        <v>34249.434569999903</v>
       </c>
       <c r="I13">
-        <v>34479.7225799999</v>
+        <v>34426.199989999899</v>
       </c>
       <c r="J13">
-        <v>34608.570639999904</v>
+        <v>34600.924259999898</v>
       </c>
       <c r="K13">
-        <v>34730.665669999798</v>
+        <v>34772.773459999597</v>
       </c>
       <c r="L13">
-        <v>34847.9264700001</v>
+        <v>34944.831759999899</v>
       </c>
       <c r="M13">
-        <v>34994.098779999898</v>
+        <v>35148.113780000102</v>
       </c>
       <c r="N13">
-        <v>35174.017379999801</v>
+        <v>35382.252869999997</v>
       </c>
       <c r="O13">
-        <v>35397.390959999997</v>
+        <v>35657.2224199997</v>
       </c>
       <c r="P13">
-        <v>35669.404600000002</v>
+        <v>35978.571230000001</v>
       </c>
       <c r="Q13">
-        <v>35958.342730000099</v>
+        <v>36322.903859999999</v>
       </c>
       <c r="R13">
-        <v>36266.265679999902</v>
+        <v>36691.739910000098</v>
       </c>
       <c r="S13">
-        <v>36542.995389999902</v>
+        <v>37030.021710000001</v>
       </c>
       <c r="T13">
-        <v>36829.60916</v>
+        <v>37370.602699999698</v>
       </c>
       <c r="U13">
-        <v>37114.950360000097</v>
+        <v>37704.875979999902</v>
       </c>
       <c r="V13">
-        <v>37292.109029999898</v>
+        <v>37941.483419999997</v>
       </c>
       <c r="W13">
-        <v>37460.580540000003</v>
+        <v>38171.8013600001</v>
       </c>
       <c r="X13">
-        <v>37636.079760000001</v>
+        <v>38402.938300000002</v>
       </c>
       <c r="Y13">
-        <v>37808.2870999999</v>
+        <v>38625.977139999901</v>
       </c>
       <c r="Z13">
-        <v>38022.528269999901</v>
+        <v>38885.425549999898</v>
       </c>
       <c r="AA13">
-        <v>38152.757010000198</v>
+        <v>39073.327260000202</v>
       </c>
       <c r="AB13">
-        <v>38306.9802099999</v>
+        <v>39293.346539999999</v>
       </c>
       <c r="AC13">
-        <v>38483.833979999901</v>
+        <v>39530.876519999998</v>
       </c>
       <c r="AD13">
-        <v>38669.461049999903</v>
+        <v>39777.4449199999</v>
       </c>
       <c r="AE13">
-        <v>38838.220970000002</v>
+        <v>40009.025760000099</v>
       </c>
       <c r="AF13">
-        <v>39061.598050000102</v>
+        <v>40294.912609999898</v>
       </c>
       <c r="AG13">
-        <v>39266.108959999699</v>
+        <v>40563.62932</v>
       </c>
       <c r="AH13">
-        <v>39469.034769999802</v>
+        <v>40835.870289999802</v>
       </c>
       <c r="AI13">
-        <v>39693.570730000101</v>
+        <v>41129.306049999897</v>
       </c>
       <c r="AJ13">
-        <v>39929.0946200002</v>
+        <v>41434.965459999701</v>
       </c>
       <c r="AK13">
-        <v>40178.418449999903</v>
+        <v>41757.738879999997</v>
       </c>
       <c r="AL13">
-        <v>40457.154259999901</v>
+        <v>42112.196210000002</v>
       </c>
       <c r="AM13">
-        <v>40734.9250500001</v>
+        <v>42468.04679</v>
       </c>
       <c r="AN13">
-        <v>41014.005249999798</v>
+        <v>42830.646520000199</v>
       </c>
       <c r="AO13">
-        <v>41317.504870000099</v>
+        <v>43218.6393199999</v>
       </c>
       <c r="AP13">
-        <v>41618.45809</v>
+        <v>43607.784359999903</v>
       </c>
       <c r="AQ13">
-        <v>41914.656420000101</v>
+        <v>43994.629769999898</v>
       </c>
       <c r="AR13">
-        <v>42240.809449999899</v>
+        <v>44411.730429999901</v>
       </c>
       <c r="AS13">
-        <v>42555.129010000099</v>
+        <v>44821.361589999899</v>
       </c>
       <c r="AT13">
-        <v>40213.1</v>
+        <v>42380.6</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>31788.2</v>
+        <v>32050.6</v>
       </c>
       <c r="C14">
-        <v>33231.811790000102</v>
+        <v>33186.1308499999</v>
       </c>
       <c r="D14">
-        <v>33668.299700000098</v>
+        <v>33511.11404</v>
       </c>
       <c r="E14">
-        <v>33956.734259999801</v>
+        <v>33771.861239999998</v>
       </c>
       <c r="F14">
-        <v>34153.4225299998</v>
+        <v>33980.164700000001</v>
       </c>
       <c r="G14">
-        <v>34237.583669999702</v>
+        <v>34100.03282</v>
       </c>
       <c r="H14">
-        <v>34125.255640000003</v>
+        <v>34050.1528500001</v>
       </c>
       <c r="I14">
-        <v>33830.187649999898</v>
+        <v>33824.17</v>
       </c>
       <c r="J14">
-        <v>33348.666869999899</v>
+        <v>33415.037199999897</v>
       </c>
       <c r="K14">
-        <v>32717.67596</v>
+        <v>32845.833960000004</v>
       </c>
       <c r="L14">
-        <v>31999.865160000001</v>
+        <v>32176.925299999999</v>
       </c>
       <c r="M14">
-        <v>31349.588979999899</v>
+        <v>31551.972629999898</v>
       </c>
       <c r="N14">
-        <v>30767.659429999901</v>
+        <v>30976.589479999901</v>
       </c>
       <c r="O14">
-        <v>30267.26914</v>
+        <v>30473.362867999898</v>
       </c>
       <c r="P14">
-        <v>29886.911495</v>
+        <v>30081.762008000002</v>
       </c>
       <c r="Q14">
-        <v>29535.149088999999</v>
+        <v>29727.433266</v>
       </c>
       <c r="R14">
-        <v>29248.742688999901</v>
+        <v>29442.004623000001</v>
       </c>
       <c r="S14">
-        <v>28999.747492999999</v>
+        <v>29194.727434</v>
       </c>
       <c r="T14">
-        <v>28805.287842999998</v>
+        <v>28998.460375000101</v>
       </c>
       <c r="U14">
-        <v>28679.584989000101</v>
+        <v>28869.162066000001</v>
       </c>
       <c r="V14">
-        <v>28540.614792</v>
+        <v>28734.6243929999</v>
       </c>
       <c r="W14">
-        <v>28475.564102999899</v>
+        <v>28680.256513</v>
       </c>
       <c r="X14">
-        <v>28466.265811999801</v>
+        <v>28682.188343000002</v>
       </c>
       <c r="Y14">
-        <v>28516.992172999999</v>
+        <v>28745.897488999999</v>
       </c>
       <c r="Z14">
-        <v>28626.180492999902</v>
+        <v>28872.623734999801</v>
       </c>
       <c r="AA14">
-        <v>28747.337321999901</v>
+        <v>29022.135624999901</v>
       </c>
       <c r="AB14">
-        <v>28874.894158999901</v>
+        <v>29191.368025</v>
       </c>
       <c r="AC14">
-        <v>29050.995307000001</v>
+        <v>29412.701653999899</v>
       </c>
       <c r="AD14">
-        <v>29266.070577999999</v>
+        <v>29672.387226999999</v>
       </c>
       <c r="AE14">
-        <v>29454.339108</v>
+        <v>29914.140998999999</v>
       </c>
       <c r="AF14">
-        <v>29638.164892999899</v>
+        <v>30155.7255890001</v>
       </c>
       <c r="AG14">
-        <v>29856.846858000001</v>
+        <v>30430.019173999899</v>
       </c>
       <c r="AH14">
-        <v>30101.149617000101</v>
+        <v>30731.569544000002</v>
       </c>
       <c r="AI14">
-        <v>30351.536715999799</v>
+        <v>31044.012520000098</v>
       </c>
       <c r="AJ14">
-        <v>30616.703410999799</v>
+        <v>31374.250749999999</v>
       </c>
       <c r="AK14">
-        <v>30924.134515999998</v>
+        <v>31748.292228999999</v>
       </c>
       <c r="AL14">
-        <v>31236.1096799999</v>
+        <v>32132.387700999901</v>
       </c>
       <c r="AM14">
-        <v>31597.0896299999</v>
+        <v>32566.951768999901</v>
       </c>
       <c r="AN14">
-        <v>31994.0847819999</v>
+        <v>33042.947827000098</v>
       </c>
       <c r="AO14">
-        <v>32400.647337999901</v>
+        <v>33533.672451999999</v>
       </c>
       <c r="AP14">
-        <v>33008.185433999999</v>
+        <v>34225.275999999802</v>
       </c>
       <c r="AQ14">
-        <v>34230.793665999998</v>
+        <v>35513.885922000001</v>
       </c>
       <c r="AR14">
-        <v>36334.876558999997</v>
+        <v>37692.794456999902</v>
       </c>
       <c r="AS14">
-        <v>39582.179983999697</v>
+        <v>41060.281140000203</v>
       </c>
       <c r="AT14">
-        <v>36006.9</v>
+        <v>37376.300000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15">
-        <v>8913.4</v>
+        <v>8986.99</v>
       </c>
       <c r="C15">
-        <v>9332.3402640000404</v>
+        <v>9318.6144790000199</v>
       </c>
       <c r="D15">
-        <v>9492.0356380000194</v>
+        <v>9444.28639999999</v>
       </c>
       <c r="E15">
-        <v>9623.3111939999999</v>
+        <v>9565.0942249999698</v>
       </c>
       <c r="F15">
-        <v>9748.3867250000094</v>
+        <v>9690.8546540000098</v>
       </c>
       <c r="G15">
-        <v>9873.3235089999798</v>
+        <v>9823.7651559999704</v>
       </c>
       <c r="H15">
-        <v>10006.608913</v>
+        <v>9969.4897310000306</v>
       </c>
       <c r="I15">
-        <v>10147.986298</v>
+        <v>10125.981766999899</v>
       </c>
       <c r="J15">
-        <v>10307.720614</v>
+        <v>10302.218940999899</v>
       </c>
       <c r="K15">
-        <v>10480.608472</v>
+        <v>10493.024572</v>
       </c>
       <c r="L15">
-        <v>10656.010679999999</v>
+        <v>10689.5479119999</v>
       </c>
       <c r="M15">
-        <v>10852.331241</v>
+        <v>10908.467243999999</v>
       </c>
       <c r="N15">
-        <v>11065.122136</v>
+        <v>11144.4203219999</v>
       </c>
       <c r="O15">
-        <v>11292.264084</v>
+        <v>11395.177666</v>
       </c>
       <c r="P15">
-        <v>11536.798261</v>
+        <v>11663.908751000001</v>
       </c>
       <c r="Q15">
-        <v>11786.3765249999</v>
+        <v>11940.606497999999</v>
       </c>
       <c r="R15">
-        <v>12073.8800989999</v>
+        <v>12255.612247999899</v>
       </c>
       <c r="S15">
-        <v>12368.546204</v>
+        <v>12577.087379999901</v>
       </c>
       <c r="T15">
-        <v>12691.870171</v>
+        <v>12927.016813</v>
       </c>
       <c r="U15">
-        <v>13029.867029999999</v>
+        <v>13291.4168899999</v>
       </c>
       <c r="V15">
-        <v>13366.072316</v>
+        <v>13657.8279109999</v>
       </c>
       <c r="W15">
-        <v>13708.9931909999</v>
+        <v>14036.105474</v>
       </c>
       <c r="X15">
-        <v>14060.496203000001</v>
+        <v>14422.822248</v>
       </c>
       <c r="Y15">
-        <v>14423.0321429999</v>
+        <v>14821.440638</v>
       </c>
       <c r="Z15">
-        <v>14796.9176899999</v>
+        <v>15232.209321</v>
       </c>
       <c r="AA15">
-        <v>15160.999271999999</v>
+        <v>15637.8769729999</v>
       </c>
       <c r="AB15">
-        <v>15547.696155</v>
+        <v>16070.285669999999</v>
       </c>
       <c r="AC15">
-        <v>15952.617876</v>
+        <v>16521.626066999899</v>
       </c>
       <c r="AD15">
-        <v>16379.9128439999</v>
+        <v>16996.499464</v>
       </c>
       <c r="AE15">
-        <v>16842.640562999899</v>
+        <v>17508.019544999901</v>
       </c>
       <c r="AF15">
-        <v>17333.689930999899</v>
+        <v>18050.996380999899</v>
       </c>
       <c r="AG15">
-        <v>17846.340939999998</v>
+        <v>18619.8901159999</v>
       </c>
       <c r="AH15">
-        <v>18375.8072609999</v>
+        <v>19210.179307999901</v>
       </c>
       <c r="AI15">
-        <v>18921.998892</v>
+        <v>19821.277893999901</v>
       </c>
       <c r="AJ15">
-        <v>19490.812600000001</v>
+        <v>20458.388281999902</v>
       </c>
       <c r="AK15">
-        <v>20063.036859999898</v>
+        <v>21103.219219999999</v>
       </c>
       <c r="AL15">
-        <v>20626.843214</v>
+        <v>21744.883051999899</v>
       </c>
       <c r="AM15">
-        <v>21168.466829000001</v>
+        <v>22367.955851000101</v>
       </c>
       <c r="AN15">
-        <v>21691.808917999799</v>
+        <v>22974.762679000101</v>
       </c>
       <c r="AO15">
-        <v>22192.944396999901</v>
+        <v>23560.465993999998</v>
       </c>
       <c r="AP15">
-        <v>22655.915655999801</v>
+        <v>24109.4516899999</v>
       </c>
       <c r="AQ15">
-        <v>23131.131417999899</v>
+        <v>24667.805727999999</v>
       </c>
       <c r="AR15">
-        <v>23611.787319999999</v>
+        <v>25230.067221000001</v>
       </c>
       <c r="AS15">
-        <v>24092.274982999999</v>
+        <v>25794.438011999999</v>
       </c>
       <c r="AT15">
-        <v>21345.8</v>
+        <v>22790.799999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>8913.4</v>
+        <v>8986.99</v>
       </c>
       <c r="C16">
-        <v>9337.2146550000198</v>
+        <v>9323.0366970000305</v>
       </c>
       <c r="D16">
-        <v>9495.4510710000504</v>
+        <v>9447.6057169999895</v>
       </c>
       <c r="E16">
-        <v>9628.2045329999801</v>
+        <v>9570.1097659999596</v>
       </c>
       <c r="F16">
-        <v>9753.6449839999805</v>
+        <v>9696.6802990000197</v>
       </c>
       <c r="G16">
-        <v>9875.0265050000198</v>
+        <v>9826.7848619999804</v>
       </c>
       <c r="H16">
-        <v>10000.931210000001</v>
+        <v>9966.2272679999896</v>
       </c>
       <c r="I16">
-        <v>10136.714120000001</v>
+        <v>10117.3653109999</v>
       </c>
       <c r="J16">
-        <v>10293.677597</v>
+        <v>10290.902128</v>
       </c>
       <c r="K16">
-        <v>10460.438136000001</v>
+        <v>10475.787480000001</v>
       </c>
       <c r="L16">
-        <v>10641.1255709999</v>
+        <v>10676.940548</v>
       </c>
       <c r="M16">
-        <v>10840.066823999899</v>
+        <v>10898.486413000001</v>
       </c>
       <c r="N16">
-        <v>11053.027963999901</v>
+        <v>11134.7884189999</v>
       </c>
       <c r="O16">
-        <v>11279.6621809999</v>
+        <v>11385.963591</v>
       </c>
       <c r="P16">
-        <v>11528.736370999901</v>
+        <v>11659.5670189999</v>
       </c>
       <c r="Q16">
-        <v>11780.3278979999</v>
+        <v>11938.7757149999</v>
       </c>
       <c r="R16">
-        <v>12052.848019999999</v>
+        <v>12240.1113949999</v>
       </c>
       <c r="S16">
-        <v>12328.335516999899</v>
+        <v>12544.5044539999</v>
       </c>
       <c r="T16">
-        <v>12619.7281569999</v>
+        <v>12863.522236000001</v>
       </c>
       <c r="U16">
-        <v>12907.770764000001</v>
+        <v>13179.573403999901</v>
       </c>
       <c r="V16">
-        <v>13185.471172</v>
+        <v>13488.075049999899</v>
       </c>
       <c r="W16">
-        <v>13466.029345999999</v>
+        <v>13802.323425999901</v>
       </c>
       <c r="X16">
-        <v>13742.810621999901</v>
+        <v>14112.800487</v>
       </c>
       <c r="Y16">
-        <v>14030.786899000001</v>
+        <v>14433.5356829999</v>
       </c>
       <c r="Z16">
-        <v>14333.959837999901</v>
+        <v>14768.716218</v>
       </c>
       <c r="AA16">
-        <v>14611.219487999901</v>
+        <v>15083.2329669999</v>
       </c>
       <c r="AB16">
-        <v>14889.691836</v>
+        <v>15403.726146000001</v>
       </c>
       <c r="AC16">
-        <v>15168.404505</v>
+        <v>15724.392003999999</v>
       </c>
       <c r="AD16">
-        <v>15443.992882999901</v>
+        <v>16042.011510999901</v>
       </c>
       <c r="AE16">
-        <v>15733.6133299999</v>
+        <v>16373.014031999901</v>
       </c>
       <c r="AF16">
-        <v>16037.892339</v>
+        <v>16719.381530999999</v>
       </c>
       <c r="AG16">
-        <v>16346.463320000001</v>
+        <v>17072.123068000001</v>
       </c>
       <c r="AH16">
-        <v>16665.5971949999</v>
+        <v>17437.695522000002</v>
       </c>
       <c r="AI16">
-        <v>16997.112118999899</v>
+        <v>17816.900377999998</v>
       </c>
       <c r="AJ16">
-        <v>17333.3499659999</v>
+        <v>18203.776715999898</v>
       </c>
       <c r="AK16">
-        <v>17665.7842009999</v>
+        <v>18589.935311000001</v>
       </c>
       <c r="AL16">
-        <v>17980.215327000002</v>
+        <v>18961.0290729999</v>
       </c>
       <c r="AM16">
-        <v>18268.866690999901</v>
+        <v>19308.312956000002</v>
       </c>
       <c r="AN16">
-        <v>18531.6939859999</v>
+        <v>19630.690182999901</v>
       </c>
       <c r="AO16">
-        <v>18772.1722679999</v>
+        <v>19930.066217999902</v>
       </c>
       <c r="AP16">
-        <v>18981.409897000001</v>
+        <v>20197.698195000001</v>
       </c>
       <c r="AQ16">
-        <v>19190.657741999999</v>
+        <v>20462.3303109999</v>
       </c>
       <c r="AR16">
-        <v>19393.3245729999</v>
+        <v>20719.071203</v>
       </c>
       <c r="AS16">
-        <v>19604.4725260001</v>
+        <v>20983.3001539998</v>
       </c>
       <c r="AT16">
-        <v>20939.5</v>
+        <v>22590.2</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>8913.4</v>
+        <v>8986.99</v>
       </c>
       <c r="C17">
-        <v>9323.8088590000207</v>
+        <v>9310.4436159999605</v>
       </c>
       <c r="D17">
-        <v>9453.4735509999391</v>
+        <v>9408.56273100004</v>
       </c>
       <c r="E17">
-        <v>9537.3857530000205</v>
+        <v>9484.6031140000105</v>
       </c>
       <c r="F17">
-        <v>9595.6348949999792</v>
+        <v>9545.6139460000395</v>
       </c>
       <c r="G17">
-        <v>9627.1641539999891</v>
+        <v>9587.2800809999699</v>
       </c>
       <c r="H17">
-        <v>9656.7809560000096</v>
+        <v>9629.7835319999995</v>
       </c>
       <c r="I17">
-        <v>9699.1549360000008</v>
+        <v>9684.1019109999907</v>
       </c>
       <c r="J17">
-        <v>9739.4988649999996</v>
+        <v>9737.3504380000195</v>
       </c>
       <c r="K17">
-        <v>9777.4263399999709</v>
+        <v>9789.2844059999607</v>
       </c>
       <c r="L17">
-        <v>9813.0201290000095</v>
+        <v>9840.3125410000102</v>
       </c>
       <c r="M17">
-        <v>9855.0215629999602</v>
+        <v>9898.39934000004</v>
       </c>
       <c r="N17">
-        <v>9904.7716339999806</v>
+        <v>9963.4140729999708</v>
       </c>
       <c r="O17">
-        <v>9964.9735240000191</v>
+        <v>10038.125483</v>
       </c>
       <c r="P17">
-        <v>10037.0461539999</v>
+        <v>10124.0455049999</v>
       </c>
       <c r="Q17">
-        <v>10111.448106</v>
+        <v>10213.966280999901</v>
       </c>
       <c r="R17">
-        <v>10187.7583619999</v>
+        <v>10307.283423999899</v>
       </c>
       <c r="S17">
-        <v>10251.8053599999</v>
+        <v>10388.4404179999</v>
       </c>
       <c r="T17">
-        <v>10315.068864999899</v>
+        <v>10466.591412</v>
       </c>
       <c r="U17">
-        <v>10374.353267</v>
+        <v>10539.253865999901</v>
       </c>
       <c r="V17">
-        <v>10399.5556909999</v>
+        <v>10580.651277999899</v>
       </c>
       <c r="W17">
-        <v>10418.144171</v>
+        <v>10615.946662</v>
       </c>
       <c r="X17">
-        <v>10434.472104</v>
+        <v>10647.086229999901</v>
       </c>
       <c r="Y17">
-        <v>10445.651271000001</v>
+        <v>10671.5680719999</v>
       </c>
       <c r="Z17">
-        <v>10464.1563469999</v>
+        <v>10701.638860999899</v>
       </c>
       <c r="AA17">
-        <v>10455.4995699999</v>
+        <v>10707.7811959999</v>
       </c>
       <c r="AB17">
-        <v>10449.800632</v>
+        <v>10718.880171999999</v>
       </c>
       <c r="AC17">
-        <v>10446.6106969999</v>
+        <v>10730.842311</v>
       </c>
       <c r="AD17">
-        <v>10442.0976229999</v>
+        <v>10741.299399</v>
       </c>
       <c r="AE17">
-        <v>10429.3468659999</v>
+        <v>10743.755606000001</v>
       </c>
       <c r="AF17">
-        <v>10428.042449</v>
+        <v>10757.302656</v>
       </c>
       <c r="AG17">
-        <v>10419.28393</v>
+        <v>10763.589746</v>
       </c>
       <c r="AH17">
-        <v>10407.724636999899</v>
+        <v>10768.158439000001</v>
       </c>
       <c r="AI17">
-        <v>10399.462627999899</v>
+        <v>10775.624218000001</v>
       </c>
       <c r="AJ17">
-        <v>10391.631501</v>
+        <v>10783.5454289999</v>
       </c>
       <c r="AK17">
-        <v>10385.4026459999</v>
+        <v>10793.6374289999</v>
       </c>
       <c r="AL17">
-        <v>10385.5371329999</v>
+        <v>10810.403528999999</v>
       </c>
       <c r="AM17">
-        <v>10384.144145999901</v>
+        <v>10825.9596329999</v>
       </c>
       <c r="AN17">
-        <v>10381.808585999999</v>
+        <v>10841.6603109999</v>
       </c>
       <c r="AO17">
-        <v>10384.339986000001</v>
+        <v>10862.161328</v>
       </c>
       <c r="AP17">
-        <v>10385.328932</v>
+        <v>10881.748793000001</v>
       </c>
       <c r="AQ17">
-        <v>10384.9936909999</v>
+        <v>10900.3487269999</v>
       </c>
       <c r="AR17">
-        <v>10391.904936000001</v>
+        <v>10925.994575999999</v>
       </c>
       <c r="AS17">
-        <v>10395.7060429999</v>
+        <v>10949.327321999999</v>
       </c>
       <c r="AT17">
-        <v>9754.9599999999991</v>
+        <v>10280.700000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>8913.4</v>
+        <v>8986.99</v>
       </c>
       <c r="C18">
-        <v>9318.7443860000094</v>
+        <v>9305.9355910000195</v>
       </c>
       <c r="D18">
-        <v>9441.2046340000106</v>
+        <v>9397.12699899994</v>
       </c>
       <c r="E18">
-        <v>9521.6535359999907</v>
+        <v>9469.8148370000108</v>
       </c>
       <c r="F18">
-        <v>9575.8720449999691</v>
+        <v>9527.2953799999905</v>
       </c>
       <c r="G18">
-        <v>9597.5077090000395</v>
+        <v>9558.9507369999901</v>
       </c>
       <c r="H18">
-        <v>9562.1731490000293</v>
+        <v>9541.1296980000097</v>
       </c>
       <c r="I18">
-        <v>9473.8041619999294</v>
+        <v>9472.1190499999902</v>
       </c>
       <c r="J18">
-        <v>9331.5070520000099</v>
+        <v>9350.0787099999798</v>
       </c>
       <c r="K18">
-        <v>9145.8295480000306</v>
+        <v>9181.6530839999796</v>
       </c>
       <c r="L18">
-        <v>8934.1214669999699</v>
+        <v>8983.5532439999497</v>
       </c>
       <c r="M18">
-        <v>8739.0432709999895</v>
+        <v>8795.45821599999</v>
       </c>
       <c r="N18">
-        <v>8560.9143729999996</v>
+        <v>8619.0459910000209</v>
       </c>
       <c r="O18">
-        <v>8403.45475299998</v>
+        <v>8460.6735049999697</v>
       </c>
       <c r="P18">
-        <v>8277.3226679999698</v>
+        <v>8331.2867080000306</v>
       </c>
       <c r="Q18">
-        <v>8157.0226890000004</v>
+        <v>8210.1269270000194</v>
       </c>
       <c r="R18">
-        <v>8052.5417099999804</v>
+        <v>8105.7483109999803</v>
       </c>
       <c r="S18">
-        <v>7956.1480020000099</v>
+        <v>8009.6407289999697</v>
       </c>
       <c r="T18">
-        <v>7872.5121349999799</v>
+        <v>7925.3062259999797</v>
       </c>
       <c r="U18">
-        <v>7805.4164430000101</v>
+        <v>7857.0109479999801</v>
       </c>
       <c r="V18">
-        <v>7732.3473379999896</v>
+        <v>7784.9082070000204</v>
       </c>
       <c r="W18">
-        <v>7676.7334809999702</v>
+        <v>7731.9154109999899</v>
       </c>
       <c r="X18">
-        <v>7633.4693390000002</v>
+        <v>7691.3700569999801</v>
       </c>
       <c r="Y18">
-        <v>7603.5049310000104</v>
+        <v>7664.5369909999999</v>
       </c>
       <c r="Z18">
-        <v>7586.1843719999697</v>
+        <v>7651.4927009999901</v>
       </c>
       <c r="AA18">
-        <v>7568.9122379999999</v>
+        <v>7641.2630170000102</v>
       </c>
       <c r="AB18">
-        <v>7550.0429030000096</v>
+        <v>7632.7920469999899</v>
       </c>
       <c r="AC18">
-        <v>7540.5053029999899</v>
+        <v>7634.3896249999998</v>
       </c>
       <c r="AD18">
-        <v>7537.5734490000104</v>
+        <v>7642.2203120000004</v>
       </c>
       <c r="AE18">
-        <v>7524.2177699999902</v>
+        <v>7641.6744989999897</v>
       </c>
       <c r="AF18">
-        <v>7506.3611989999999</v>
+        <v>7637.4405299999999</v>
       </c>
       <c r="AG18">
-        <v>7494.0361679999896</v>
+        <v>7637.9004799999702</v>
       </c>
       <c r="AH18">
-        <v>7484.7320049999798</v>
+        <v>7641.4859150000002</v>
       </c>
       <c r="AI18">
-        <v>7473.4781919999996</v>
+        <v>7643.9849329999997</v>
       </c>
       <c r="AJ18">
-        <v>7462.3740769999904</v>
+        <v>7647.0136069999899</v>
       </c>
       <c r="AK18">
-        <v>7457.8843409999999</v>
+        <v>7656.6428519999899</v>
       </c>
       <c r="AL18">
-        <v>7450.57687299999</v>
+        <v>7664.3596779999898</v>
       </c>
       <c r="AM18">
-        <v>7450.9265339999902</v>
+        <v>7679.6283389999799</v>
       </c>
       <c r="AN18">
-        <v>7455.5276520000198</v>
+        <v>7699.9413279999999</v>
       </c>
       <c r="AO18">
-        <v>7458.0147850000103</v>
+        <v>7718.8142329999901</v>
       </c>
       <c r="AP18">
-        <v>7502.3175630000096</v>
+        <v>7778.9440070000201</v>
       </c>
       <c r="AQ18">
-        <v>7680.4234329999999</v>
+        <v>7968.3119469999801</v>
       </c>
       <c r="AR18">
-        <v>8045.9351989999896</v>
+        <v>8346.6287679999696</v>
       </c>
       <c r="AS18">
-        <v>8648.2326459999804</v>
+        <v>8971.1784229999994</v>
       </c>
       <c r="AT18">
-        <v>7760.31</v>
+        <v>8055.44</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
         <f>B3/B15</f>
-        <v>0.34599591626091053</v>
+        <v>0.34316272745379711</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:AT22" si="0">C3/C15</f>
-        <v>0.34035018282097929</v>
+        <v>0.34085150074164616</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.34470180431069125</v>
+        <v>0.34644457859727795</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.3505086005223495</v>
+        <v>0.35264193751316658</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.35660696554895716</v>
+        <v>0.35872405047010897</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.36286457571599229</v>
+        <v>0.36469513573538859</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.36893011439708695</v>
+        <v>0.37030374207825123</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.37463443439505523</v>
+        <v>0.37544854400092242</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0.38015130296390282</v>
+        <v>0.38035431963162047</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.38516235939779125</v>
+        <v>0.38470661002470014</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.39015704721497241</v>
+        <v>0.38893297557821066</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.39483786808972876</v>
+        <v>0.39280599566880642</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0.3991891020008882</v>
+        <v>0.39634867084834902</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
-        <v>0.40293496141725549</v>
+        <v>0.39929592625624882</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>0.40621689198141298</v>
+        <v>0.40179004226162174</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>0.4097693131350249</v>
+        <v>0.40447655835647323</v>
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
-        <v>0.41329440776982168</v>
+        <v>0.40716588653613472</v>
       </c>
       <c r="S22">
         <f t="shared" si="0"/>
-        <v>0.41618878800284831</v>
+        <v>0.40928794914678179</v>
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>0.41966695642462143</v>
+        <v>0.41203307987064425</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>0.42282338010935022</v>
+        <v>0.41450301970026021</v>
       </c>
       <c r="V22">
         <f t="shared" si="0"/>
-        <v>0.42678592574809093</v>
+        <v>0.41766902286165597</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
-        <v>0.43066462764574315</v>
+        <v>0.42062796563735694</v>
       </c>
       <c r="X22">
         <f t="shared" si="0"/>
-        <v>0.43461116441225994</v>
+        <v>0.42369299204581029</v>
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>0.43874281109962193</v>
+        <v>0.42694916719336656</v>
       </c>
       <c r="Z22">
         <f t="shared" si="0"/>
-        <v>0.44286586830368685</v>
+        <v>0.43021006959020569</v>
       </c>
       <c r="AA22">
         <f t="shared" si="0"/>
-        <v>0.44802740057805868</v>
+        <v>0.43436478843821913</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
-        <v>0.45314748087190032</v>
+        <v>0.43841157915147566</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>0.45849097338461064</v>
+        <v>0.44270045196151542</v>
       </c>
       <c r="AD22">
         <f t="shared" si="0"/>
-        <v>0.46390139113489998</v>
+        <v>0.44707232198574792</v>
       </c>
       <c r="AE22">
         <f t="shared" si="0"/>
-        <v>0.46942602025057761</v>
+        <v>0.45158584868372242</v>
       </c>
       <c r="AF22">
         <f t="shared" si="0"/>
-        <v>0.4748301264625891</v>
+        <v>0.45596143721259136</v>
       </c>
       <c r="AG22">
         <f t="shared" si="0"/>
-        <v>0.48011861903832936</v>
+        <v>0.46017246077286117</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>0.48532644440213463</v>
+        <v>0.4642468594390512</v>
       </c>
       <c r="AI22">
         <f t="shared" si="0"/>
-        <v>0.4905075629680985</v>
+        <v>0.46825355260316376</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="0"/>
-        <v>0.49571425467401908</v>
+        <v>0.47226954273328009</v>
       </c>
       <c r="AK22">
         <f t="shared" si="0"/>
-        <v>0.50049300672022246</v>
+        <v>0.47582360460357764</v>
       </c>
       <c r="AL22">
         <f t="shared" si="0"/>
-        <v>0.50529089841173214</v>
+        <v>0.47931075541201529</v>
       </c>
       <c r="AM22">
         <f t="shared" si="0"/>
-        <v>0.50984593018396918</v>
+        <v>0.48250528103207724</v>
       </c>
       <c r="AN22">
         <f t="shared" si="0"/>
-        <v>0.51444754216601773</v>
+        <v>0.48571983314543948</v>
       </c>
       <c r="AO22">
         <f t="shared" si="0"/>
-        <v>0.51898362236048778</v>
+        <v>0.4888602450788988</v>
       </c>
       <c r="AP22">
         <f t="shared" si="0"/>
-        <v>0.52339093233072032</v>
+        <v>0.49183620438445352</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="0"/>
-        <v>0.52848448215063248</v>
+        <v>0.49556269182565538</v>
       </c>
       <c r="AR22">
         <f t="shared" si="0"/>
-        <v>0.53326738367385484</v>
+        <v>0.49906312879419018</v>
       </c>
       <c r="AS22">
         <f t="shared" si="0"/>
-        <v>0.53814129014998802</v>
+        <v>0.50262961530576267</v>
       </c>
       <c r="AT22">
         <f t="shared" si="0"/>
-        <v>0.54220033917679367</v>
+        <v>0.50782333222177378</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:AT23" si="1">B4/B16</f>
-        <v>0.34599591626091053</v>
+        <v>0.34316272745379711</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.34041926949787821</v>
+        <v>0.34093696220490055</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.34466207129382009</v>
+        <v>0.34640753954317499</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.35047786702434786</v>
+        <v>0.35260541953119479</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.35659442994957347</v>
+        <v>0.35868929816719775</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.36279349297807201</v>
+        <v>0.36457451641725042</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.36884830607688879</v>
+        <v>0.37013269222188416</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>0.37454896084215406</v>
+        <v>0.37526526247620118</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.38018531677546868</v>
+        <v>0.38028785458486969</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.38514987437616061</v>
+        <v>0.38458554907606618</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.39035223231649985</v>
+        <v>0.38904282592245826</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.39506107282646669</v>
+        <v>0.39294341394890536</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0.39925082650410998</v>
+        <v>0.39631921271803916</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>0.40305774322374277</v>
+        <v>0.39929472641153207</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>0.4064791430904714</v>
+        <v>0.4019180916721527</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>0.41004026558718382</v>
+        <v>0.40459833774505666</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>0.41309740716368881</v>
+        <v>0.40677736732313868</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>0.41600273239870827</v>
+        <v>0.40883411041116691</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>0.41911240140828832</v>
+        <v>0.41116923599649147</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>0.42193143398467547</v>
+        <v>0.41322993825787419</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>0.42578797820452891</v>
+        <v>0.41623546200538392</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>0.42951341619629352</v>
+        <v>0.41904831059854569</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>0.43334490933510172</v>
+        <v>0.42198407704309171</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>0.43746661083117483</v>
+        <v>0.42525968832636463</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>0.44161367385854705</v>
+        <v>0.42861360639355811</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>0.44646464351299353</v>
+        <v>0.43249301859039785</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>0.45127435208256717</v>
+        <v>0.43621498287573945</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>0.45636293696665292</v>
+        <v>0.44022673170696158</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
-        <v>0.46140091063133493</v>
+        <v>0.4442006795166446</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>0.46661562166406795</v>
+        <v>0.44839330453461218</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>0.47187721104703945</v>
+        <v>0.45264330064889291</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>0.47694782469924507</v>
+        <v>0.45667491072704469</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>0.48222173522897377</v>
+        <v>0.46087014771308776</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0.48737028643471697</v>
+        <v>0.46494550428248577</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>0.49243249589622284</v>
+        <v>0.4688864748323272</v>
       </c>
       <c r="AK23">
         <f t="shared" si="1"/>
-        <v>0.49735252055794427</v>
+        <v>0.47262792252972946</v>
       </c>
       <c r="AL23">
         <f t="shared" si="1"/>
-        <v>0.50205765764353294</v>
+        <v>0.47608729348210294</v>
       </c>
       <c r="AM23">
         <f t="shared" si="1"/>
-        <v>0.50657690783628262</v>
+        <v>0.47930578953684061</v>
       </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>0.51114974363143473</v>
+        <v>0.48253376517566926</v>
       </c>
       <c r="AO23">
         <f t="shared" si="1"/>
-        <v>0.51580740495898592</v>
+        <v>0.48584011638932412</v>
       </c>
       <c r="AP23">
         <f t="shared" si="1"/>
-        <v>0.52033517413061203</v>
+        <v>0.48900103762541691</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="1"/>
-        <v>0.52530721841477568</v>
+        <v>0.49266095658619968</v>
       </c>
       <c r="AR23">
         <f t="shared" si="1"/>
-        <v>0.53016762640658732</v>
+        <v>0.49624392388357969</v>
       </c>
       <c r="AS23">
         <f t="shared" si="1"/>
-        <v>0.53514771188493371</v>
+        <v>0.49998278035402688</v>
       </c>
       <c r="AT23">
         <f t="shared" si="1"/>
-        <v>0.52899066357840441</v>
+        <v>0.49033651760497909</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:AT24" si="2">B5/B17</f>
-        <v>0.34599591626091053</v>
+        <v>0.34316272745379711</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>0.34004540997637295</v>
+        <v>0.34053354735444363</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>0.3439396403299908</v>
+        <v>0.34558140270319532</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>0.34926169793983614</v>
+        <v>0.35120537116446349</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.35472898304766182</v>
+        <v>0.35658783816899775</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.36021071538072308</v>
+        <v>0.36170923074131173</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.36592605673678869</v>
+        <v>0.36695194281964366</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.37153910374445015</v>
+        <v>0.37211662992793482</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>0.37648577147813961</v>
+        <v>0.37656883947509856</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.38092573336635349</v>
+        <v>0.38046430867992959</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.38552750521928603</v>
+        <v>0.38445823049188721</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.38975153909564364</v>
+        <v>0.38804353219800225</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.39364466795136283</v>
+        <v>0.39132776620875981</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.39718822628755257</v>
+        <v>0.39429375441689724</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.40020829897242299</v>
+        <v>0.3967691741425089</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>0.40349050988839641</v>
+        <v>0.39944065329346173</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>0.40604395658123393</v>
+        <v>0.40133539942910768</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0.40853478659879966</v>
+        <v>0.40316149156933351</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>0.41116259120583598</v>
+        <v>0.40521027983737351</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>0.41370809645092355</v>
+        <v>0.40723508633244176</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>0.41686507768325409</v>
+        <v>0.40973013183168733</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>0.42006263046174924</v>
+        <v>0.41223577899698377</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>0.42374624053142318</v>
+        <v>0.41528435709870748</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>0.42745622069503797</v>
+        <v>0.41840698975771395</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.43129011048214067</v>
+        <v>0.42171925081933886</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>0.43574868761627744</v>
+        <v>0.42548219585416736</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>0.44045894118834417</v>
+        <v>0.42940196561048094</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0.44535201157023019</v>
+        <v>0.43355581595219939</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>0.45030410926661429</v>
+        <v>0.4377607696549014</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>0.45486661772325371</v>
+        <v>0.44155525311378535</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>0.46010403596507166</v>
+        <v>0.44602114465226961</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>0.46469943505992739</v>
+        <v>0.44983462759711079</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.46958784157541095</v>
+        <v>0.45386971288415118</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>0.47464364598128328</v>
+        <v>0.45807451504801538</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="2"/>
-        <v>0.47942894390746543</v>
+        <v>0.46200472829668054</v>
       </c>
       <c r="AK24">
         <f t="shared" si="2"/>
-        <v>0.48430997424421457</v>
+        <v>0.46599250346192417</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>0.48953327997311286</v>
+        <v>0.4702938343940149</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>0.49423711245158203</v>
+        <v>0.47406693226121299</v>
       </c>
       <c r="AN24">
         <f t="shared" si="2"/>
-        <v>0.49915088879485531</v>
+        <v>0.47797928254054095</v>
       </c>
       <c r="AO24">
         <f t="shared" si="2"/>
-        <v>0.504214791605339</v>
+        <v>0.48203462578879497</v>
       </c>
       <c r="AP24">
         <f t="shared" si="2"/>
-        <v>0.50909947134257794</v>
+        <v>0.48587461092661244</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="2"/>
-        <v>0.51404541878792276</v>
+        <v>0.4897419923618595</v>
       </c>
       <c r="AR24">
         <f t="shared" si="2"/>
-        <v>0.5190646523635577</v>
+        <v>0.49369148881407698</v>
       </c>
       <c r="AS24">
         <f t="shared" si="2"/>
-        <v>0.52387896574540171</v>
+        <v>0.4973905359516852</v>
       </c>
       <c r="AT24">
         <f t="shared" si="2"/>
-        <v>0.51663666483511983</v>
+        <v>0.49021661949089068</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:AT25" si="3">B6/B18</f>
-        <v>0.34599591626091053</v>
+        <v>0.34316272745379711</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>0.3399862132456164</v>
+        <v>0.34045417347011098</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.34375866987483794</v>
+        <v>0.3453710837733045</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.34912846486499099</v>
+        <v>0.35103962951963219</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>0.35474236425012828</v>
+        <v>0.35655108333588831</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.35989941917534396</v>
+        <v>0.36135110641694412</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0.36426339093893662</v>
+        <v>0.36506679389654773</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.36786385694764967</v>
+        <v>0.36792930405578078</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>0.37114052946653514</v>
+        <v>0.37040334850828305</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>0.37391973489685448</v>
+        <v>0.3724608344176476</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>0.3772422988034142</v>
+        <v>0.37516653171182773</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>0.38081334876136741</v>
+        <v>0.37837077310492606</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>0.38414051871278893</v>
+        <v>0.38154966075525515</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>0.38727325742286861</v>
+        <v>0.38465416421951881</v>
       </c>
       <c r="P25">
         <f t="shared" si="3"/>
-        <v>0.3901205334164245</v>
+        <v>0.38759361400913367</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>0.39297610461752391</v>
+        <v>0.39043427778908835</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>0.3951871427437782</v>
+        <v>0.39259311107420936</v>
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>0.39752793515215279</v>
+        <v>0.39487302864268103</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>0.40010584810613414</v>
+        <v>0.39744055809055723</v>
       </c>
       <c r="U25">
         <f t="shared" si="3"/>
-        <v>0.40297856179356528</v>
+        <v>0.40033232887382991</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
-        <v>0.40624462168980935</v>
+        <v>0.40350180375607886</v>
       </c>
       <c r="W25">
         <f t="shared" si="3"/>
-        <v>0.40990637866850965</v>
+        <v>0.40698092031933303</v>
       </c>
       <c r="X25">
         <f t="shared" si="3"/>
-        <v>0.41377752990539657</v>
+        <v>0.41066259992591958</v>
       </c>
       <c r="Y25">
         <f t="shared" si="3"/>
-        <v>0.41781922528222343</v>
+        <v>0.41449216103078623</v>
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>0.42204433783830175</v>
+        <v>0.41844203534057633</v>
       </c>
       <c r="AA25">
         <f t="shared" si="3"/>
-        <v>0.42717115143276285</v>
+        <v>0.42312650695399895</v>
       </c>
       <c r="AB25">
         <f t="shared" si="3"/>
-        <v>0.43161973875739656</v>
+        <v>0.42694043325611442</v>
       </c>
       <c r="AC25">
         <f t="shared" si="3"/>
-        <v>0.43699779679075368</v>
+        <v>0.43162379308090398</v>
       </c>
       <c r="AD25">
         <f t="shared" si="3"/>
-        <v>0.44208134073201988</v>
+        <v>0.43602781233192872</v>
       </c>
       <c r="AE25">
         <f t="shared" si="3"/>
-        <v>0.44673174596327431</v>
+        <v>0.43986523697651081</v>
       </c>
       <c r="AF25">
         <f t="shared" si="3"/>
-        <v>0.4515800782610328</v>
+        <v>0.44382972741785659</v>
       </c>
       <c r="AG25">
         <f t="shared" si="3"/>
-        <v>0.45667204883711404</v>
+        <v>0.44807035923830385</v>
       </c>
       <c r="AH25">
         <f t="shared" si="3"/>
-        <v>0.46177174816561906</v>
+        <v>0.45229917617403864</v>
       </c>
       <c r="AI25">
         <f t="shared" si="3"/>
-        <v>0.46677337857681678</v>
+        <v>0.45636152607262082</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="3"/>
-        <v>0.47185016578739308</v>
+        <v>0.46045718963763765</v>
       </c>
       <c r="AK25">
         <f t="shared" si="3"/>
-        <v>0.47714971883337498</v>
+        <v>0.46476340774736125</v>
       </c>
       <c r="AL25">
         <f t="shared" si="3"/>
-        <v>0.48229729798802989</v>
+        <v>0.46884452726228054</v>
       </c>
       <c r="AM25">
         <f t="shared" si="3"/>
-        <v>0.48766017198257944</v>
+        <v>0.47313748949902135</v>
       </c>
       <c r="AN25">
         <f t="shared" si="3"/>
-        <v>0.49322572963880412</v>
+        <v>0.4775696156707131</v>
       </c>
       <c r="AO25">
         <f t="shared" si="3"/>
-        <v>0.49813533737852128</v>
+        <v>0.48130458104781737</v>
       </c>
       <c r="AP25">
         <f t="shared" si="3"/>
-        <v>0.50602045856106681</v>
+        <v>0.48802590283254371</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="3"/>
-        <v>0.51796601111953167</v>
+        <v>0.49925233533279995</v>
       </c>
       <c r="AR25">
         <f t="shared" si="3"/>
-        <v>0.53234450077752549</v>
+        <v>0.51316638969512463</v>
       </c>
       <c r="AS25">
         <f t="shared" si="3"/>
-        <v>0.54805599013253015</v>
+        <v>0.52832698669201361</v>
       </c>
       <c r="AT25">
         <f t="shared" si="3"/>
-        <v>0.51786462138754763</v>
+        <v>0.49889143237365063</v>
       </c>
     </row>
     <row r="26" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -7373,737 +7375,737 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="C28">
         <f>(C15-B15)/B15</f>
-        <v>4.7001173962802165E-2</v>
+        <v>3.6900506064880462E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:AT28" si="4">(D15-C15)/C15</f>
-        <v>1.7112039368732804E-2</v>
+        <v>1.348611655554356E-2</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>1.3830074075410906E-2</v>
+        <v>1.2791630821358825E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>1.2997140846696545E-2</v>
+        <v>1.314785051163888E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>1.2816149740917292E-2</v>
+        <v>1.3715044415107423E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>1.3499547936267311E-2</v>
+        <v>1.4833882191397599E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>1.4128401162588712E-2</v>
+        <v>1.5697095861712786E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>1.5740493858518612E-2</v>
+        <v>1.7404453025419084E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>1.6772656581823035E-2</v>
+        <v>1.8520828580020663E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>1.6735880218081246E-2</v>
+        <v>1.8728950709246437E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
-        <v>1.8423457604867986E-2</v>
+        <v>2.047975590757627E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>1.9607851094341665E-2</v>
+        <v>2.1630268737313395E-2</v>
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>2.0527739794303921E-2</v>
+        <v>2.2500707686436267E-2</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>2.1655017557239014E-2</v>
+        <v>2.3582878027590487E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>2.163323465953252E-2</v>
+        <v>2.3722557583989654E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>2.4392872006946405E-2</v>
+        <v>2.6381051084185911E-2</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>2.4405253537718E-2</v>
+        <v>2.62308504458817E-2</v>
       </c>
       <c r="T28">
         <f t="shared" si="4"/>
-        <v>2.6140822184537497E-2</v>
+        <v>2.7822771872966199E-2</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
-        <v>2.6630973563872184E-2</v>
+        <v>2.8189030947452839E-2</v>
       </c>
       <c r="V28">
         <f t="shared" si="4"/>
-        <v>2.5802664388356412E-2</v>
+        <v>2.756749141437867E-2</v>
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>2.5656069104863562E-2</v>
+        <v>2.7696758625537967E-2</v>
       </c>
       <c r="X28">
         <f t="shared" si="4"/>
-        <v>2.5640322896277063E-2</v>
+        <v>2.7551572244618804E-2</v>
       </c>
       <c r="Y28">
         <f t="shared" si="4"/>
-        <v>2.5784007531864179E-2</v>
+        <v>2.7638029724402633E-2</v>
       </c>
       <c r="Z28">
         <f t="shared" si="4"/>
-        <v>2.5922811742568441E-2</v>
+        <v>2.7714490988605359E-2</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>2.4605231280441175E-2</v>
+        <v>2.6632226714520216E-2</v>
       </c>
       <c r="AB28">
         <f t="shared" si="4"/>
-        <v>2.5506028729529021E-2</v>
+        <v>2.7651368388860502E-2</v>
       </c>
       <c r="AC28">
         <f t="shared" si="4"/>
-        <v>2.604384064128893E-2</v>
+        <v>2.8085399741366261E-2</v>
       </c>
       <c r="AD28">
         <f t="shared" si="4"/>
-        <v>2.6785256897724999E-2</v>
+        <v>2.8742533881008708E-2</v>
       </c>
       <c r="AE28">
         <f t="shared" si="4"/>
-        <v>2.8249705807775385E-2</v>
+        <v>3.0095613634051093E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="4"/>
-        <v>2.9155129575034848E-2</v>
+        <v>3.1013035746528295E-2</v>
       </c>
       <c r="AG28">
         <f t="shared" si="4"/>
-        <v>2.9575411296775565E-2</v>
+        <v>3.1515918733372922E-2</v>
       </c>
       <c r="AH28">
         <f t="shared" si="4"/>
-        <v>2.9668060404089855E-2</v>
+        <v>3.1702077097263325E-2</v>
       </c>
       <c r="AI28">
         <f t="shared" si="4"/>
-        <v>2.9723408786470874E-2</v>
+        <v>3.1811185944813837E-2</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="4"/>
-        <v>3.0060973539137521E-2</v>
+        <v>3.2142750402226118E-2</v>
       </c>
       <c r="AK28">
         <f t="shared" si="4"/>
-        <v>2.9358666144063031E-2</v>
+        <v>3.1519146528636625E-2</v>
       </c>
       <c r="AL28">
         <f t="shared" si="4"/>
-        <v>2.8101745410445557E-2</v>
+        <v>3.0405969123032225E-2</v>
       </c>
       <c r="AM28">
         <f t="shared" si="4"/>
-        <v>2.6258192268237425E-2</v>
+        <v>2.8653766383116824E-2</v>
       </c>
       <c r="AN28">
         <f t="shared" si="4"/>
-        <v>2.4722720508168261E-2</v>
+        <v>2.7128398859606544E-2</v>
       </c>
       <c r="AO28">
         <f t="shared" si="4"/>
-        <v>2.3102521366222328E-2</v>
+        <v>2.5493334716151582E-2</v>
       </c>
       <c r="AP28">
         <f t="shared" si="4"/>
-        <v>2.0861191319097142E-2</v>
+        <v>2.33011391260134E-2</v>
       </c>
       <c r="AQ28">
         <f t="shared" si="4"/>
-        <v>2.097535006819511E-2</v>
+        <v>2.3159134648910045E-2</v>
       </c>
       <c r="AR28">
         <f t="shared" si="4"/>
-        <v>2.0779610530683751E-2</v>
+        <v>2.2793332297156389E-2</v>
       </c>
       <c r="AS28">
         <f t="shared" si="4"/>
-        <v>2.0349482929359196E-2</v>
+        <v>2.2368976905866068E-2</v>
       </c>
       <c r="AT28">
         <f t="shared" si="4"/>
-        <v>-0.11399815853579494</v>
+        <v>-0.11644518134501157</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:AT29" si="5">(C16-B16)/B16</f>
-        <v>4.7548034981042042E-2</v>
+        <v>3.7392574933323694E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
-        <v>1.694685426507744E-2</v>
+        <v>1.3361421181581623E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>1.398074309554082E-2</v>
+        <v>1.2966676708315287E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>1.302843646186184E-2</v>
+        <v>1.3225609328926545E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>1.2444734373575761E-2</v>
+        <v>1.3417433491478309E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>1.2749809323168047E-2</v>
+        <v>1.4190033460407866E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>1.3577026693697246E-2</v>
+        <v>1.5165020718039483E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>1.5484650661135477E-2</v>
+        <v>1.7152372348503205E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>1.6200287742507272E-2</v>
+        <v>1.7965903251276276E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>1.7273409837209115E-2</v>
+        <v>1.9201713320744038E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>1.8695508447167532E-2</v>
+        <v>2.0749938992729516E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>1.9645740515963007E-2</v>
+        <v>2.1682093920678068E-2</v>
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
-        <v>2.0504265232853338E-2</v>
+        <v>2.255769598383256E-2</v>
       </c>
       <c r="P29">
         <f t="shared" si="5"/>
-        <v>2.2081706526597564E-2</v>
+        <v>2.4029887836297781E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="5"/>
-        <v>2.1822992468876954E-2</v>
+        <v>2.3946746525408184E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="5"/>
-        <v>2.3133492069127317E-2</v>
+        <v>2.5240082165326336E-2</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>2.2856630776623702E-2</v>
+        <v>2.4868487645001738E-2</v>
       </c>
       <c r="T29">
         <f t="shared" si="5"/>
-        <v>2.3636008250926516E-2</v>
+        <v>2.5430879567217967E-2</v>
       </c>
       <c r="U29">
         <f t="shared" si="5"/>
-        <v>2.2824786985631704E-2</v>
+        <v>2.4569566733083067E-2</v>
       </c>
       <c r="V29">
         <f t="shared" si="5"/>
-        <v>2.1514203581497596E-2</v>
+        <v>2.3407559299785143E-2</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>2.1277826961222209E-2</v>
+        <v>2.3298237504988061E-2</v>
       </c>
       <c r="X29">
         <f t="shared" si="5"/>
-        <v>2.0554037785616267E-2</v>
+        <v>2.2494550476570022E-2</v>
       </c>
       <c r="Y29">
         <f t="shared" si="5"/>
-        <v>2.0954685684098622E-2</v>
+        <v>2.2726545046487738E-2</v>
       </c>
       <c r="Z29">
         <f t="shared" si="5"/>
-        <v>2.1607693223642907E-2</v>
+        <v>2.3222344293289256E-2</v>
       </c>
       <c r="AA29">
         <f t="shared" si="5"/>
-        <v>1.9342851042806298E-2</v>
+        <v>2.129614682531239E-2</v>
       </c>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>1.9058802602261015E-2</v>
+        <v>2.124830795236653E-2</v>
       </c>
       <c r="AC29">
         <f t="shared" si="5"/>
-        <v>1.8718498144208368E-2</v>
+        <v>2.0817421379778822E-2</v>
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>1.8168580479842652E-2</v>
+        <v>2.019915980974683E-2</v>
       </c>
       <c r="AE29">
         <f t="shared" si="5"/>
-        <v>1.875295133804428E-2</v>
+        <v>2.0633479833438228E-2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="5"/>
-        <v>1.9339423349112001E-2</v>
+        <v>2.1154779341369116E-2</v>
       </c>
       <c r="AG29">
         <f t="shared" si="5"/>
-        <v>1.9240120489500735E-2</v>
+        <v>2.1097762279422304E-2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="5"/>
-        <v>1.952311449593119E-2</v>
+        <v>2.1413414871945851E-2</v>
       </c>
       <c r="AI29">
         <f t="shared" si="5"/>
-        <v>1.9892171886853355E-2</v>
+        <v>2.1746271204333086E-2</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="5"/>
-        <v>1.9782057366330087E-2</v>
+        <v>2.1714009159393866E-2</v>
       </c>
       <c r="AK29">
         <f t="shared" si="5"/>
-        <v>1.9178879769466632E-2</v>
+        <v>2.1213103249101882E-2</v>
       </c>
       <c r="AL29">
         <f t="shared" si="5"/>
-        <v>1.7798877333863518E-2</v>
+        <v>1.9962079253730145E-2</v>
       </c>
       <c r="AM29">
         <f t="shared" si="5"/>
-        <v>1.6053832434723171E-2</v>
+        <v>1.8315666394638188E-2</v>
       </c>
       <c r="AN29">
         <f t="shared" si="5"/>
-        <v>1.4386622851075934E-2</v>
+        <v>1.6696291785540031E-2</v>
       </c>
       <c r="AO29">
         <f t="shared" si="5"/>
-        <v>1.2976594702118094E-2</v>
+        <v>1.5250408019747547E-2</v>
       </c>
       <c r="AP29">
         <f t="shared" si="5"/>
-        <v>1.1146159645933964E-2</v>
+        <v>1.3428554329557946E-2</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="5"/>
-        <v>1.1023830481268386E-2</v>
+        <v>1.3102092795178476E-2</v>
       </c>
       <c r="AR29">
         <f t="shared" si="5"/>
-        <v>1.0560702698394276E-2</v>
+        <v>1.2547001641454497E-2</v>
       </c>
       <c r="AS29">
         <f t="shared" si="5"/>
-        <v>1.088766148400196E-2</v>
+        <v>1.2752934164420559E-2</v>
       </c>
       <c r="AT29">
         <f t="shared" si="5"/>
-        <v>6.8098107318589812E-2</v>
+        <v>7.6579939008969283E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:AT30" si="6">(C17-B17)/B17</f>
-        <v>4.6044030224159246E-2</v>
+        <v>3.5991318116517394E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>1.3906837212214685E-2</v>
+        <v>1.0538607938236395E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="6"/>
-        <v>8.8763354070214313E-3</v>
+        <v>8.0820402833077665E-3</v>
       </c>
       <c r="F30">
         <f t="shared" si="6"/>
-        <v>6.107453709905385E-3</v>
+        <v>6.4326183464622063E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>3.2857918569243337E-3</v>
+        <v>4.3649507758890659E-3</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>3.0763786226409144E-3</v>
+        <v>4.4333169200160066E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="6"/>
-        <v>4.388002605947394E-3</v>
+        <v>5.6406645922506896E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>4.1595303164253675E-3</v>
+        <v>5.4985508712526903E-3</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
-        <v>3.8941916340550146E-3</v>
+        <v>5.3334804298784191E-3</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>3.6404047202506233E-3</v>
+        <v>5.2126522106941625E-3</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>4.2801740389613171E-3</v>
+        <v>5.9029424886667993E-3</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>5.0481950426982131E-3</v>
+        <v>6.5682067137059546E-3</v>
       </c>
       <c r="O30">
         <f t="shared" si="6"/>
-        <v>6.0780694623371453E-3</v>
+        <v>7.4985752326093462E-3</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
-        <v>7.2325962358352558E-3</v>
+        <v>8.5593691915297806E-3</v>
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>7.4127338719519606E-3</v>
+        <v>8.8819016030293636E-3</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
-        <v>7.5469166433855426E-3</v>
+        <v>9.1362297889692138E-3</v>
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
-        <v>6.286662455491053E-3</v>
+        <v>7.8737520510042056E-3</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
-        <v>6.1709623601359127E-3</v>
+        <v>7.5228803223136922E-3</v>
       </c>
       <c r="U30">
         <f t="shared" si="6"/>
-        <v>5.7473588180549451E-3</v>
+        <v>6.942322590007024E-3</v>
       </c>
       <c r="V30">
         <f t="shared" si="6"/>
-        <v>2.4293007333831625E-3</v>
+        <v>3.9279262580008932E-3</v>
       </c>
       <c r="W30">
         <f t="shared" si="6"/>
-        <v>1.7874302087912699E-3</v>
+        <v>3.3358422910591367E-3</v>
       </c>
       <c r="X30">
         <f t="shared" si="6"/>
-        <v>1.5672592672935938E-3</v>
+        <v>2.9332822584127319E-3</v>
       </c>
       <c r="Y30">
         <f t="shared" si="6"/>
-        <v>1.0713687178975503E-3</v>
+        <v>2.2993936060194246E-3</v>
       </c>
       <c r="Z30">
         <f t="shared" si="6"/>
-        <v>1.7715578971389363E-3</v>
+        <v>2.817841651490681E-3</v>
       </c>
       <c r="AA30">
         <f t="shared" si="6"/>
-        <v>-8.272790192476498E-4</v>
+        <v>5.7396208933802061E-4</v>
       </c>
       <c r="AB30">
         <f t="shared" si="6"/>
-        <v>-5.4506606420333425E-4</v>
+        <v>1.0365336942302851E-3</v>
       </c>
       <c r="AC30">
         <f t="shared" si="6"/>
-        <v>-3.0526276169633019E-4</v>
+        <v>1.1159877532028741E-3</v>
       </c>
       <c r="AD30">
         <f t="shared" si="6"/>
-        <v>-4.3201322715093594E-4</v>
+        <v>9.744890193083746E-4</v>
       </c>
       <c r="AE30">
         <f t="shared" si="6"/>
-        <v>-1.2210915335549833E-3</v>
+        <v>2.286694475930683E-4</v>
       </c>
       <c r="AF30">
         <f t="shared" si="6"/>
-        <v>-1.2507178221790515E-4</v>
+        <v>1.2609231349635017E-3</v>
       </c>
       <c r="AG30">
         <f t="shared" si="6"/>
-        <v>-8.3990058947648301E-4</v>
+        <v>5.8444855565099451E-4</v>
       </c>
       <c r="AH30">
         <f t="shared" si="6"/>
-        <v>-1.109413379821419E-3</v>
+        <v>4.24458113678934E-4</v>
       </c>
       <c r="AI30">
         <f t="shared" si="6"/>
-        <v>-7.9383431904301585E-4</v>
+        <v>6.9331994345111353E-4</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="6"/>
-        <v>-7.53031890206962E-4</v>
+        <v>7.3510460643820704E-4</v>
       </c>
       <c r="AK30">
         <f t="shared" si="6"/>
-        <v>-5.9941068921660846E-4</v>
+        <v>9.3587030967203118E-4</v>
       </c>
       <c r="AL30">
         <f t="shared" si="6"/>
-        <v>1.2949618284771384E-5</v>
+        <v>1.5533317762789116E-3</v>
       </c>
       <c r="AM30">
         <f t="shared" si="6"/>
-        <v>-1.3412758359633315E-4</v>
+        <v>1.4389938320221144E-3</v>
       </c>
       <c r="AN30">
         <f t="shared" si="6"/>
-        <v>-2.2491598412575898E-4</v>
+        <v>1.4502804861880449E-3</v>
       </c>
       <c r="AO30">
         <f t="shared" si="6"/>
-        <v>2.43830347962232E-4</v>
+        <v>1.89094810315172E-3</v>
       </c>
       <c r="AP30">
         <f t="shared" si="6"/>
-        <v>9.5234362639586915E-5</v>
+        <v>1.8032750949397904E-3</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="6"/>
-        <v>-3.2280248636878023E-5</v>
+        <v>1.7092780171386376E-3</v>
       </c>
       <c r="AR30">
         <f t="shared" si="6"/>
-        <v>6.655030523601361E-4</v>
+        <v>2.3527549110951406E-3</v>
       </c>
       <c r="AS30">
         <f t="shared" si="6"/>
-        <v>3.657757671292149E-4</v>
+        <v>2.1355260464116163E-3</v>
       </c>
       <c r="AT30">
         <f t="shared" si="6"/>
-        <v>-6.1635644596872437E-2</v>
+        <v>-6.1065607259411743E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:AT31" si="7">(C18-B18)/B18</f>
-        <v>4.547584378576186E-2</v>
+        <v>3.5489701334931907E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="7"/>
-        <v>1.3141282014772189E-2</v>
+        <v>9.7992734968114139E-3</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>8.5210420829418907E-3</v>
+        <v>7.7351128709664506E-3</v>
       </c>
       <c r="F31">
         <f t="shared" si="7"/>
-        <v>5.6942324980620357E-3</v>
+        <v>6.0698697904202322E-3</v>
       </c>
       <c r="G31">
         <f t="shared" si="7"/>
-        <v>2.2593935986610671E-3</v>
+        <v>3.322596365223608E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>-3.6816391370934087E-3</v>
+        <v>-1.8643300389654882E-3</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
-        <v>-9.2415171345585946E-3</v>
+        <v>-7.2329640393092405E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
-        <v>-1.5020060322830278E-2</v>
+        <v>-1.288416449960166E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="7"/>
-        <v>-1.9897911769801779E-2</v>
+        <v>-1.8013284296726585E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="7"/>
-        <v>-2.3148045772005021E-2</v>
+        <v>-2.1575618049133244E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="7"/>
-        <v>-2.1835185106956756E-2</v>
+        <v>-2.0937709488791312E-2</v>
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>-2.0383112026816527E-2</v>
+        <v>-2.0057195505636557E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>-1.8392850709572171E-2</v>
+        <v>-1.8374711791238053E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="7"/>
-        <v>-1.5009551274728033E-2</v>
+        <v>-1.5292730173723876E-2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>-1.453368242669187E-2</v>
+        <v>-1.4542745346126283E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
-        <v>-1.2808715015702458E-2</v>
+        <v>-1.2713398578136114E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="7"/>
-        <v>-1.1970594064761539E-2</v>
+        <v>-1.1856719245721814E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="7"/>
-        <v>-1.0512105478556414E-2</v>
+        <v>-1.0529124320725867E-2</v>
       </c>
       <c r="U31">
         <f t="shared" si="7"/>
-        <v>-8.5227803843798116E-3</v>
+        <v>-8.6173677145683289E-3</v>
       </c>
       <c r="V31">
         <f t="shared" si="7"/>
-        <v>-9.3613333168853195E-3</v>
+        <v>-9.1768665561441781E-3</v>
       </c>
       <c r="W31">
         <f t="shared" si="7"/>
-        <v>-7.1923640479404777E-3</v>
+        <v>-6.807118926897622E-3</v>
       </c>
       <c r="X31">
         <f t="shared" si="7"/>
-        <v>-5.6357488646765416E-3</v>
+        <v>-5.2438951857035412E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" si="7"/>
-        <v>-3.9253983567994807E-3</v>
+        <v>-3.488723829580809E-3</v>
       </c>
       <c r="Z31">
         <f t="shared" si="7"/>
-        <v>-2.2779703777692836E-3</v>
+        <v>-1.701901891181025E-3</v>
       </c>
       <c r="AA31">
         <f t="shared" si="7"/>
-        <v>-2.2767880601109493E-3</v>
+        <v>-1.3369527227860987E-3</v>
       </c>
       <c r="AB31">
         <f t="shared" si="7"/>
-        <v>-2.4930048607587404E-3</v>
+        <v>-1.1085824399938078E-3</v>
       </c>
       <c r="AC31">
         <f t="shared" si="7"/>
-        <v>-1.2632510997030097E-3</v>
+        <v>2.0930453629190712E-4</v>
       </c>
       <c r="AD31">
         <f t="shared" si="7"/>
-        <v>-3.8881399616721025E-4</v>
+        <v>1.0257122552872824E-3</v>
       </c>
       <c r="AE31">
         <f t="shared" si="7"/>
-        <v>-1.7718804453961384E-3</v>
+        <v>-7.1420736085505215E-5</v>
       </c>
       <c r="AF31">
         <f t="shared" si="7"/>
-        <v>-2.3732129433024474E-3</v>
+        <v>-5.5406298718218791E-4</v>
       </c>
       <c r="AG31">
         <f t="shared" si="7"/>
-        <v>-1.6419448349557517E-3</v>
+        <v>6.0223054852431912E-5</v>
       </c>
       <c r="AH31">
         <f t="shared" si="7"/>
-        <v>-1.2415423133049666E-3</v>
+        <v>4.6942677630044071E-4</v>
       </c>
       <c r="AI31">
         <f t="shared" si="7"/>
-        <v>-1.503569265066864E-3</v>
+        <v>3.2703299172403481E-4</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="7"/>
-        <v>-1.4858028236297807E-3</v>
+        <v>3.962166365497378E-4</v>
       </c>
       <c r="AK31">
         <f t="shared" si="7"/>
-        <v>-6.0164981729184488E-4</v>
+        <v>1.2592164071979133E-3</v>
       </c>
       <c r="AL31">
         <f t="shared" si="7"/>
-        <v>-9.7983123173912682E-4</v>
+        <v>1.0078602527456462E-3</v>
       </c>
       <c r="AM31">
         <f t="shared" si="7"/>
-        <v>4.6930728446991352E-5</v>
+        <v>1.992163943429963E-3</v>
       </c>
       <c r="AN31">
         <f t="shared" si="7"/>
-        <v>6.1752293208553691E-4</v>
+        <v>2.6450484454909346E-3</v>
       </c>
       <c r="AO31">
         <f t="shared" si="7"/>
-        <v>3.3359583869604952E-4</v>
+        <v>2.4510452997038952E-3</v>
       </c>
       <c r="AP31">
         <f t="shared" si="7"/>
-        <v>5.940290985893942E-3</v>
+        <v>7.7900273519939355E-3</v>
       </c>
       <c r="AQ31">
         <f t="shared" si="7"/>
-        <v>2.374011343886245E-2</v>
+        <v>2.4343656392121344E-2</v>
       </c>
       <c r="AR31">
         <f t="shared" si="7"/>
-        <v>4.7590054010501273E-2</v>
+        <v>4.7477661958556149E-2</v>
       </c>
       <c r="AS31">
         <f t="shared" si="7"/>
-        <v>7.4857357423764606E-2</v>
+        <v>7.4826576377097609E-2</v>
       </c>
       <c r="AT31">
         <f t="shared" si="7"/>
-        <v>-0.10267099445002395</v>
+        <v>-0.10207560030823387</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -8131,193 +8133,193 @@
       </c>
       <c r="C34">
         <f>B34*(1+C28)</f>
-        <v>4269864783.5456281</v>
+        <v>4228672388.3314099</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:AT34" si="8">C34*(1+D28)</f>
-        <v>4342930877.8208265</v>
+        <v>4285700757.035656</v>
       </c>
       <c r="E34">
         <f t="shared" si="8"/>
-        <v>4402993933.5654783</v>
+        <v>4340521858.9304743</v>
       </c>
       <c r="F34">
         <f t="shared" si="8"/>
-        <v>4460220265.8671789</v>
+        <v>4397590391.4741936</v>
       </c>
       <c r="G34">
         <f t="shared" si="8"/>
-        <v>4517383116.6720066</v>
+        <v>4457903539.0127125</v>
       </c>
       <c r="H34">
         <f t="shared" si="8"/>
-        <v>4578365746.602005</v>
+        <v>4524031554.9310417</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
-        <v>4643050734.539053</v>
+        <v>4595045711.9302082</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>4716134646.1108551</v>
+        <v>4675019969.173151</v>
       </c>
       <c r="K34">
         <f t="shared" si="8"/>
-        <v>4795236752.9237108</v>
+        <v>4761605212.6303806</v>
       </c>
       <c r="L34">
         <f t="shared" si="8"/>
-        <v>4875489260.8379831</v>
+        <v>4850785081.9546261</v>
       </c>
       <c r="M34">
         <f t="shared" si="8"/>
-        <v>4965312630.5380211</v>
+        <v>4950127976.3931694</v>
       </c>
       <c r="N34">
         <f t="shared" si="8"/>
-        <v>5062671741.2344646</v>
+        <v>5057200574.8066463</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
-        <v>5166596949.4025021</v>
+        <v>5170991166.6520481</v>
       </c>
       <c r="P34">
         <f t="shared" si="8"/>
-        <v>5278479697.0529909</v>
+        <v>5292938020.616951</v>
       </c>
       <c r="Q34">
         <f t="shared" si="8"/>
-        <v>5392670286.9849157</v>
+        <v>5418500047.5995245</v>
       </c>
       <c r="R34">
         <f t="shared" si="8"/>
-        <v>5524213003.071002</v>
+        <v>5561445774.154912</v>
       </c>
       <c r="S34">
         <f t="shared" si="8"/>
-        <v>5659032822.007308</v>
+        <v>5707327226.5196505</v>
       </c>
       <c r="T34">
         <f t="shared" si="8"/>
-        <v>5806964592.7438622</v>
+        <v>5866120889.9474754</v>
       </c>
       <c r="U34">
         <f t="shared" si="8"/>
-        <v>5961609713.2995653</v>
+        <v>6031481153.2557049</v>
       </c>
       <c r="V34">
         <f t="shared" si="8"/>
-        <v>6115435127.9461994</v>
+        <v>6197753958.1640682</v>
       </c>
       <c r="W34">
         <f t="shared" si="8"/>
-        <v>6272333154.195097</v>
+        <v>6369411653.5638103</v>
       </c>
       <c r="X34">
         <f t="shared" si="8"/>
-        <v>6433157801.5816841</v>
+        <v>6544898958.8926916</v>
       </c>
       <c r="Y34">
         <f t="shared" si="8"/>
-        <v>6599030390.791338</v>
+        <v>6725787070.8617792</v>
       </c>
       <c r="Z34">
         <f t="shared" si="8"/>
-        <v>6770095813.29531</v>
+        <v>6912188836.0284567</v>
       </c>
       <c r="AA34">
         <f t="shared" si="8"/>
-        <v>6936675586.5721884</v>
+        <v>7096275816.2031422</v>
       </c>
       <c r="AB34">
         <f t="shared" si="8"/>
-        <v>7113602633.3707209</v>
+        <v>7292497552.9859362</v>
       </c>
       <c r="AC34">
         <f t="shared" si="8"/>
-        <v>7298868166.7396803</v>
+        <v>7497310261.8744822</v>
       </c>
       <c r="AD34">
         <f t="shared" si="8"/>
-        <v>7494370225.6484289</v>
+        <v>7712801956.092844</v>
       </c>
       <c r="AE34">
         <f t="shared" si="8"/>
-        <v>7706083979.7375479</v>
+        <v>7944923463.7993679</v>
       </c>
       <c r="AF34">
         <f t="shared" si="8"/>
-        <v>7930755856.6828957</v>
+        <v>8191319659.1856098</v>
       </c>
       <c r="AG34">
         <f t="shared" si="8"/>
-        <v>8165311223.0386047</v>
+        <v>8449476623.8835831</v>
       </c>
       <c r="AH34">
         <f t="shared" si="8"/>
-        <v>8407560169.6219063</v>
+        <v>8717342583.2454643</v>
       </c>
       <c r="AI34">
         <f t="shared" si="8"/>
-        <v>8657461517.4404278</v>
+        <v>8994651589.1057301</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="8"/>
-        <v>8917713239.0323048</v>
+        <v>9283764430.0893421</v>
       </c>
       <c r="AK34">
         <f t="shared" si="8"/>
-        <v>9179525404.7855453</v>
+        <v>9576380761.4986725</v>
       </c>
       <c r="AL34">
         <f t="shared" si="8"/>
-        <v>9437486090.6995449</v>
+        <v>9867559899.2432022</v>
       </c>
       <c r="AM34">
         <f t="shared" si="8"/>
-        <v>9685297414.9979496</v>
+        <v>10150302655.367529</v>
       </c>
       <c r="AN34">
         <f t="shared" si="8"/>
-        <v>9924744316.0274296</v>
+        <v>10425664114.348063</v>
       </c>
       <c r="AO34">
         <f t="shared" si="8"/>
-        <v>10154030933.642748</v>
+        <v>10691449059.253309</v>
       </c>
       <c r="AP34">
         <f t="shared" si="8"/>
-        <v>10365856115.609501</v>
+        <v>10940572001.241655</v>
       </c>
       <c r="AQ34">
         <f t="shared" si="8"/>
-        <v>10583283576.390951</v>
+        <v>11193946181.354506</v>
       </c>
       <c r="AR34">
         <f t="shared" si="8"/>
-        <v>10803200087.244137</v>
+        <v>11449093516.382603</v>
       </c>
       <c r="AS34">
         <f t="shared" si="8"/>
-        <v>11023039623.001963</v>
+        <v>11705198024.843666</v>
       </c>
       <c r="AT34">
         <f t="shared" si="8"/>
-        <v>9766433404.5126343</v>
+        <v>10342184118.161474</v>
       </c>
       <c r="AV34">
         <f>AVERAGE(AK34:AT34)</f>
-        <v>10092289696.69124</v>
+        <v>10634235033.169468</v>
       </c>
       <c r="AW34">
         <v>247030</v>
       </c>
       <c r="AX34">
         <f>AV34/AW34</f>
-        <v>40854.510369960088</v>
+        <v>43048.354585149449</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -8327,193 +8329,193 @@
       </c>
       <c r="C35">
         <f>B35*(1+C29)</f>
-        <v>4272094984.104466</v>
+        <v>4230679136.3510828</v>
       </c>
       <c r="D35">
         <f t="shared" ref="D35:AT35" si="9">C35*(1+D29)</f>
-        <v>4344493555.2066526</v>
+        <v>4287207022.1759992</v>
       </c>
       <c r="E35">
         <f t="shared" si="9"/>
-        <v>4405232803.4822292</v>
+        <v>4342797849.6141739</v>
       </c>
       <c r="F35">
         <f t="shared" si="9"/>
-        <v>4462626099.1621065</v>
+        <v>4400233997.3676729</v>
       </c>
       <c r="G35">
         <f t="shared" si="9"/>
-        <v>4518162295.5747662</v>
+        <v>4459273844.3742952</v>
       </c>
       <c r="H35">
         <f t="shared" si="9"/>
-        <v>4575768003.3344707</v>
+        <v>4522551089.4350882</v>
       </c>
       <c r="I35">
         <f t="shared" si="9"/>
-        <v>4637893327.6599083</v>
+        <v>4591135670.4047632</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>4709709485.642333</v>
+        <v>4669884538.9260406</v>
       </c>
       <c r="K35">
         <f t="shared" si="9"/>
-        <v>4786008134.4933548</v>
+        <v>4753783232.7470169</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
-        <v>4868678814.4846754</v>
+        <v>4845064015.5711851</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>4959701240.3874197</v>
+        <v>4945598798.3101559</v>
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>5057138243.9927702</v>
+        <v>5052829735.9491091</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>5160831147.8668041</v>
+        <v>5166809932.9907179</v>
       </c>
       <c r="P35">
         <f t="shared" si="9"/>
-        <v>5274791106.7073221</v>
+        <v>5290967796.1519547</v>
       </c>
       <c r="Q35">
         <f t="shared" si="9"/>
-        <v>5389902833.303895</v>
+        <v>5417669260.8405027</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
-        <v>5514590107.7514973</v>
+        <v>5554411678.1286793</v>
       </c>
       <c r="S35">
         <f t="shared" si="9"/>
-        <v>5640635057.7287951</v>
+        <v>5692541496.321476</v>
       </c>
       <c r="T35">
         <f t="shared" si="9"/>
-        <v>5773957154.4937391</v>
+        <v>5837307833.5458183</v>
       </c>
       <c r="U35">
         <f t="shared" si="9"/>
-        <v>5905746496.6092234</v>
+        <v>5980727957.9036703</v>
       </c>
       <c r="V35">
         <f t="shared" si="9"/>
-        <v>6032803929.0379906</v>
+        <v>6120722202.2341833</v>
       </c>
       <c r="W35">
         <f t="shared" si="9"/>
-        <v>6161168887.1310425</v>
+        <v>6263324241.8038893</v>
       </c>
       <c r="X35">
         <f t="shared" si="9"/>
-        <v>6287805785.2406979</v>
+        <v>6404214905.1122723</v>
       </c>
       <c r="Y35">
         <f t="shared" si="9"/>
-        <v>6419564779.1130733</v>
+        <v>6549760583.6406946</v>
       </c>
       <c r="Z35">
         <f t="shared" si="9"/>
-        <v>6558276765.4894514</v>
+        <v>6701861378.9526138</v>
       </c>
       <c r="AA35">
         <f t="shared" si="9"/>
-        <v>6685132536.0618105</v>
+        <v>6844585202.8816786</v>
       </c>
       <c r="AB35">
         <f t="shared" si="9"/>
-        <v>6812543157.4365654</v>
+        <v>6990021057.0787191</v>
       </c>
       <c r="AC35">
         <f t="shared" si="9"/>
-        <v>6940063733.8863811</v>
+        <v>7135535270.8774529</v>
       </c>
       <c r="AD35">
         <f t="shared" si="9"/>
-        <v>7066154840.3707333</v>
+        <v>7279667088.1419916</v>
       </c>
       <c r="AE35">
         <f t="shared" si="9"/>
-        <v>7198666098.2392912</v>
+        <v>7429871952.1993132</v>
       </c>
       <c r="AF35">
         <f t="shared" si="9"/>
-        <v>7337884149.4620409</v>
+        <v>7587049253.8827171</v>
       </c>
       <c r="AG35">
         <f t="shared" si="9"/>
-        <v>7479065924.6356878</v>
+        <v>7747119015.4434042</v>
       </c>
       <c r="AH35">
         <f t="shared" si="9"/>
-        <v>7625080585.0049677</v>
+        <v>7913011288.9834337</v>
       </c>
       <c r="AI35">
         <f t="shared" si="9"/>
-        <v>7776759998.6529951</v>
+        <v>8085089778.5166168</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="9"/>
-        <v>7930600311.0705299</v>
+        <v>8260649492.0218487</v>
       </c>
       <c r="AK35">
         <f t="shared" si="9"/>
-        <v>8082700340.9362459</v>
+        <v>8435883502.600749</v>
       </c>
       <c r="AL35">
         <f t="shared" si="9"/>
-        <v>8226563332.8309469</v>
+        <v>8604281277.6548996</v>
       </c>
       <c r="AM35">
         <f t="shared" si="9"/>
-        <v>8358631202.0898533</v>
+        <v>8761874423.1020584</v>
       </c>
       <c r="AN35">
         <f t="shared" si="9"/>
-        <v>8478883676.7455549</v>
+        <v>8908165235.0584297</v>
       </c>
       <c r="AO35">
         <f t="shared" si="9"/>
-        <v>8588910713.7450867</v>
+        <v>9044018389.6004009</v>
       </c>
       <c r="AP35">
         <f t="shared" si="9"/>
-        <v>8684644083.7451611</v>
+        <v>9165466481.9026718</v>
       </c>
       <c r="AQ35">
         <f t="shared" si="9"/>
-        <v>8780382127.9145184</v>
+        <v>9285553274.2596569</v>
       </c>
       <c r="AR35">
         <f t="shared" si="9"/>
-        <v>8873109133.1457176</v>
+        <v>9402059126.4336052</v>
       </c>
       <c r="AS35">
         <f t="shared" si="9"/>
-        <v>8969716541.6980133</v>
+        <v>9521962967.4830017</v>
       </c>
       <c r="AT35">
         <f t="shared" si="9"/>
-        <v>9580537261.3718948</v>
+        <v>10251154310.778513</v>
       </c>
       <c r="AV35">
         <f>AVERAGE(AK35:AT35)</f>
-        <v>8662407841.4222984</v>
+        <v>9138041898.8873997</v>
       </c>
       <c r="AW35">
         <v>236870</v>
       </c>
       <c r="AX35">
         <f>AV35/AW35</f>
-        <v>36570.303716900824</v>
+        <v>38578.29990664668</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -8523,193 +8525,193 @@
       </c>
       <c r="C36">
         <f>B36*(1+C30)</f>
-        <v>4265961374.0327668</v>
+        <v>4224964551.4169145</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:AT36" si="10">C36*(1+D30)</f>
-        <v>4325287404.4150362</v>
+        <v>4269489796.377244</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>4363680106.1483889</v>
+        <v>4303995984.9007359</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>4390331080.4015245</v>
+        <v>4331681948.4363079</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>4404756794.5147095</v>
+        <v>4350589526.9180403</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>4418307494.1552868</v>
+        <v>4369877069.0797701</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>4437695038.953517</v>
+        <v>4394526079.9358168</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>4456153766.0030947</v>
+        <v>4418689605.1413898</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>4473506882.7187262</v>
+        <v>4442256599.6761179</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>4489792258.2906494</v>
+        <v>4465412538.3608904</v>
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>4509009350.5549145</v>
+        <v>4491771611.7630062</v>
       </c>
       <c r="N36">
         <f t="shared" si="10"/>
-        <v>4531771709.2058659</v>
+        <v>4521274496.2198219</v>
       </c>
       <c r="O36">
         <f t="shared" si="10"/>
-        <v>4559316132.4418736</v>
+        <v>4555177613.1770039</v>
       </c>
       <c r="P36">
         <f t="shared" si="10"/>
-        <v>4592291825.1393557</v>
+        <v>4594167060.1011772</v>
       </c>
       <c r="Q36">
         <f t="shared" si="10"/>
-        <v>4626333262.3014545</v>
+        <v>4634971999.876874</v>
       </c>
       <c r="R36">
         <f t="shared" si="10"/>
-        <v>4661247813.7965651</v>
+        <v>4677318169.1331873</v>
       </c>
       <c r="S36">
         <f t="shared" si="10"/>
-        <v>4690551505.4232998</v>
+        <v>4714146212.6605988</v>
       </c>
       <c r="T36">
         <f t="shared" si="10"/>
-        <v>4719496722.211545</v>
+        <v>4749610170.4403334</v>
       </c>
       <c r="U36">
         <f t="shared" si="10"/>
-        <v>4746621363.3147287</v>
+        <v>4782583496.4203081</v>
       </c>
       <c r="V36">
         <f t="shared" si="10"/>
-        <v>4758152334.0737209</v>
+        <v>4801369131.71698</v>
       </c>
       <c r="W36">
         <f t="shared" si="10"/>
-        <v>4766657199.2936745</v>
+        <v>4817385741.9215479</v>
       </c>
       <c r="X36">
         <f t="shared" si="10"/>
-        <v>4774127786.9632788</v>
+        <v>4831516494.0502567</v>
       </c>
       <c r="Y36">
         <f t="shared" si="10"/>
-        <v>4779242638.1294765</v>
+        <v>4842626052.1840534</v>
       </c>
       <c r="Z36">
         <f t="shared" si="10"/>
-        <v>4787709343.1673975</v>
+        <v>4856271805.5764914</v>
       </c>
       <c r="AA36">
         <f t="shared" si="10"/>
-        <v>4783748571.6775389</v>
+        <v>4859059121.4884138</v>
       </c>
       <c r="AB36">
         <f t="shared" si="10"/>
-        <v>4781141112.6714363</v>
+        <v>4864095699.9900932</v>
       </c>
       <c r="AC36">
         <f t="shared" si="10"/>
-        <v>4779681608.3313227</v>
+        <v>4869523971.2216892</v>
       </c>
       <c r="AD36">
         <f t="shared" si="10"/>
-        <v>4777616722.654954</v>
+        <v>4874269268.8609037</v>
       </c>
       <c r="AE36">
         <f t="shared" si="10"/>
-        <v>4771782815.3243494</v>
+        <v>4875383865.3220339</v>
       </c>
       <c r="AF36">
         <f t="shared" si="10"/>
-        <v>4771185999.9432802</v>
+        <v>4881531349.6296453</v>
       </c>
       <c r="AG36">
         <f t="shared" si="10"/>
-        <v>4767178678.0094261</v>
+        <v>4884384353.5763016</v>
       </c>
       <c r="AH36">
         <f t="shared" si="10"/>
-        <v>4761889906.2000427</v>
+        <v>4886457570.145504</v>
       </c>
       <c r="AI36">
         <f t="shared" si="10"/>
-        <v>4758109754.5689964</v>
+        <v>4889845448.6317139</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="10"/>
-        <v>4754526746.1867018</v>
+        <v>4893439996.5457735</v>
       </c>
       <c r="AK36">
         <f t="shared" si="10"/>
-        <v>4751676832.0328712</v>
+        <v>4898019621.7507019</v>
       </c>
       <c r="AL36">
         <f t="shared" si="10"/>
-        <v>4751738364.4340591</v>
+        <v>4905627871.2700043</v>
       </c>
       <c r="AM36">
         <f t="shared" si="10"/>
-        <v>4751101025.2493553</v>
+        <v>4912687039.5189571</v>
       </c>
       <c r="AN36">
         <f t="shared" si="10"/>
-        <v>4750032426.6865807</v>
+        <v>4919811813.66712</v>
       </c>
       <c r="AO36">
         <f t="shared" si="10"/>
-        <v>4751190628.7460108</v>
+        <v>4929114922.4840374</v>
       </c>
       <c r="AP36">
         <f t="shared" si="10"/>
-        <v>4751643105.3573189</v>
+        <v>4938003472.6638489</v>
       </c>
       <c r="AQ36">
         <f t="shared" si="10"/>
-        <v>4751489721.1364441</v>
+        <v>4946443893.4482269</v>
       </c>
       <c r="AR36">
         <f t="shared" si="10"/>
-        <v>4754651852.049118</v>
+        <v>4958081663.6109934</v>
       </c>
       <c r="AS36">
         <f t="shared" si="10"/>
-        <v>4756390988.4777336</v>
+        <v>4968669776.1438704</v>
       </c>
       <c r="AT36">
         <f t="shared" si="10"/>
-        <v>4463227763.9481535</v>
+        <v>4665254938.9921589</v>
       </c>
       <c r="AV36">
         <f>AVERAGE(AK36:AT36)</f>
-        <v>4723314270.8117647</v>
+        <v>4904171501.354991</v>
       </c>
       <c r="AW36">
         <v>250690</v>
       </c>
       <c r="AX36">
         <f>AV36/AW36</f>
-        <v>18841.255218843053</v>
+        <v>19562.692972814995</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -8719,331 +8721,331 @@
       </c>
       <c r="C37">
         <f>B37*(1+C31)</f>
-        <v>4263644204.4591947</v>
+        <v>4222918865.2383399</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:AT37" si="11">C37*(1+D31)</f>
-        <v>4319673955.3606424</v>
+        <v>4264300402.1536546</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
-        <v>4356482078.9188585</v>
+        <v>4297285247.0800209</v>
       </c>
       <c r="F37">
         <f t="shared" si="11"/>
-        <v>4381288900.7498627</v>
+        <v>4323369208.982091</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>4391187956.8461018</v>
+        <v>4337734019.8013744</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
-        <v>4375021187.4058437</v>
+        <v>4329647051.9672165</v>
       </c>
       <c r="I37">
         <f t="shared" si="11"/>
-        <v>4334589354.1383762</v>
+        <v>4298330870.5374365</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>4269483560.5645199</v>
+        <v>4242950468.5277162</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
-        <v>4184529753.3737879</v>
+        <v>4166520995.4811974</v>
       </c>
       <c r="L37">
         <f t="shared" si="11"/>
-        <v>4087666067.1083746</v>
+        <v>4076625729.8890009</v>
       </c>
       <c r="M37">
         <f t="shared" si="11"/>
-        <v>3998411121.8776374</v>
+        <v>3991270524.6620536</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>3916911060.0511365</v>
+        <v>3911216831.433022</v>
       </c>
       <c r="O37">
         <f t="shared" si="11"/>
-        <v>3844867899.680944</v>
+        <v>3839349349.402401</v>
       </c>
       <c r="P37">
         <f t="shared" si="11"/>
-        <v>3787158157.7961268</v>
+        <v>3780635215.7593274</v>
       </c>
       <c r="Q37">
         <f t="shared" si="11"/>
-        <v>3732116803.8310628</v>
+        <v>3725654400.569942</v>
       </c>
       <c r="R37">
         <f t="shared" si="11"/>
-        <v>3684313183.2854762</v>
+        <v>3678288671.2111096</v>
       </c>
       <c r="S37">
         <f t="shared" si="11"/>
-        <v>3640209765.7609162</v>
+        <v>3634676235.1318402</v>
       </c>
       <c r="T37">
         <f t="shared" si="11"/>
-        <v>3601943496.7391663</v>
+        <v>3596406277.1865492</v>
       </c>
       <c r="U37">
         <f t="shared" si="11"/>
-        <v>3571244923.3595133</v>
+        <v>3565414721.8450508</v>
       </c>
       <c r="V37">
         <f t="shared" si="11"/>
-        <v>3537813309.2757106</v>
+        <v>3532695386.7253671</v>
       </c>
       <c r="W37">
         <f t="shared" si="11"/>
-        <v>3512368068.0217509</v>
+        <v>3508647909.0954247</v>
       </c>
       <c r="X37">
         <f t="shared" si="11"/>
-        <v>3492573243.6700711</v>
+        <v>3490248927.2165904</v>
       </c>
       <c r="Y37">
         <f t="shared" si="11"/>
-        <v>3478863502.3983669</v>
+        <v>3478072412.6130414</v>
       </c>
       <c r="Z37">
         <f t="shared" si="11"/>
-        <v>3470938754.3916006</v>
+        <v>3472153074.5963507</v>
       </c>
       <c r="AA37">
         <f t="shared" si="11"/>
-        <v>3463036162.4782252</v>
+        <v>3467510970.0893388</v>
       </c>
       <c r="AB37">
         <f t="shared" si="11"/>
-        <v>3454402796.4921837</v>
+        <v>3463666948.3174119</v>
       </c>
       <c r="AC37">
         <f t="shared" si="11"/>
-        <v>3450039018.3606977</v>
+        <v>3464391909.5218987</v>
       </c>
       <c r="AD37">
         <f t="shared" si="11"/>
-        <v>3448697594.9030361</v>
+        <v>3467945378.7606134</v>
       </c>
       <c r="AE37">
         <f t="shared" si="11"/>
-        <v>3442586915.0725427</v>
+        <v>3467697695.5489583</v>
       </c>
       <c r="AF37">
         <f t="shared" si="11"/>
-        <v>3434416923.2472491</v>
+        <v>3465776372.6051178</v>
       </c>
       <c r="AG37">
         <f t="shared" si="11"/>
-        <v>3428777800.1190386</v>
+        <v>3465985092.2457118</v>
       </c>
       <c r="AH37">
         <f t="shared" si="11"/>
-        <v>3424520827.3972702</v>
+        <v>3467612118.4542699</v>
       </c>
       <c r="AI37">
         <f t="shared" si="11"/>
-        <v>3419371823.1336141</v>
+        <v>3468746142.0195065</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="11"/>
-        <v>3414291310.8237619</v>
+        <v>3470120516.9489422</v>
       </c>
       <c r="AK37">
         <f t="shared" si="11"/>
-        <v>3412237103.0804238</v>
+        <v>3474490149.6388383</v>
       </c>
       <c r="AL37">
         <f t="shared" si="11"/>
-        <v>3408893686.5967264</v>
+        <v>3477991950.1592155</v>
       </c>
       <c r="AM37">
         <f t="shared" si="11"/>
-        <v>3409053668.4606366</v>
+        <v>3484920680.317862</v>
       </c>
       <c r="AN37">
         <f t="shared" si="11"/>
-        <v>3411158837.2776213</v>
+        <v>3494138464.3459959</v>
       </c>
       <c r="AO37">
         <f t="shared" si="11"/>
-        <v>3412296785.6708684</v>
+        <v>3502702756.0055461</v>
       </c>
       <c r="AP37">
         <f t="shared" si="11"/>
-        <v>3432566821.5079837</v>
+        <v>3529988906.2807341</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="11"/>
-        <v>3514056347.2370586</v>
+        <v>3615921743.2832322</v>
       </c>
       <c r="AR37">
         <f t="shared" si="11"/>
-        <v>3681290478.5980148</v>
+        <v>3787597253.4794269</v>
       </c>
       <c r="AS37">
         <f t="shared" si="11"/>
-        <v>3956862155.7351274</v>
+        <v>4071010188.6525908</v>
       </c>
       <c r="AT37">
         <f t="shared" si="11"/>
-        <v>3550607183.3041363</v>
+        <v>3655459379.7849407</v>
       </c>
       <c r="AV37">
         <f>AVERAGE(AK37:AT37)</f>
-        <v>3518902306.7468596</v>
+        <v>3609422147.1948385</v>
       </c>
       <c r="AW37">
         <v>229370</v>
       </c>
       <c r="AX37">
         <f>AV37/AW37</f>
-        <v>15341.597884408857</v>
+        <v>15736.243393620955</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -9062,219 +9064,219 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
         <f>AVERAGE('Input data'!AK3:AT3)</f>
-        <v>11514.61837159994</v>
+        <v>11514.618621799949</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <f>AVERAGE('Input data'!AK4:AT4)</f>
-        <v>9803.0596916000013</v>
+        <v>9803.0598787999879</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <f>AVERAGE('Input data'!AK5:AT5)</f>
-        <v>5216.9532520999883</v>
+        <v>5216.9532891999943</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <f>AVERAGE('Input data'!AK6:AT6)</f>
-        <v>3899.4038928099908</v>
+        <v>3899.4038792299953</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4">
         <f>AVERAGE('Input data'!AK7:AT7)</f>
-        <v>-1.0490709575377661</v>
+        <v>-2.3074049160872376</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4">
         <f>AVERAGE('Input data'!AK8:AT8)</f>
-        <v>-0.69486519205922492</v>
+        <v>-3.0149254421071414</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE('Input data'!AK9:AT9)</f>
-        <v>-0.74733779180886473</v>
+        <v>4.0973416562650913</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4">
         <f>AVERAGE('Input data'!AK10:AT10)</f>
-        <v>1.2143504749990672</v>
+        <v>10.959539756077964</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f>AVERAGE('Input data'!AK11:AT11)</f>
-        <v>89430.519645999899</v>
+        <v>95023.12146799991</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f>AVERAGE('Input data'!AK12:AT12)</f>
-        <v>80237.347746999862</v>
+        <v>85360.244500999994</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f>AVERAGE('Input data'!AK13:AT13)</f>
-        <v>41224.41608499999</v>
+        <v>43160.337386999963</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f>AVERAGE('Input data'!AK14:AT14)</f>
-        <v>33731.500158899937</v>
+        <v>34889.278949699983</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22">
         <f>AVERAGE('Input data'!AK15:AT15)</f>
-        <v>22058.000959499928</v>
+        <v>23434.384944699999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
         <f>AVERAGE('Input data'!AK16:AT16)</f>
-        <v>18932.809721099959</v>
+        <v>20137.263360399942</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24">
         <f>AVERAGE('Input data'!AK17:AT17)</f>
-        <v>10323.41260989995</v>
+        <v>10807.194164799959</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25">
         <f>AVERAGE('Input data'!AK18:AT18)</f>
-        <v>7691.0149025999981</v>
+        <v>7953.9889574999934</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28">
         <f>AVERAGE('Input data'!AK22:AT22)</f>
-        <v>0.52145454273244185</v>
+        <v>0.49091346918038442</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29">
         <f>AVERAGE('Input data'!AK23:AT23)</f>
-        <v>0.51728926290434929</v>
+        <v>0.48646201031678682</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30">
         <f>AVERAGE('Input data'!AK24:AT24)</f>
-        <v>0.50541712201436828</v>
+        <v>0.48272824259916119</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31">
         <f>AVERAGE('Input data'!AK25:AT25)</f>
-        <v>0.50607198377995122</v>
+        <v>0.48932826681533259</v>
       </c>
     </row>
   </sheetData>
@@ -9287,11 +9289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data analysis master - barbados.xlsx
+++ b/Data analysis master - barbados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="21072" windowHeight="9792"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="21072" windowHeight="9792" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="1" r:id="rId1"/>
@@ -395,124 +395,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.8660299999999997E-2</c:v>
+                  <c:v>8.8361200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9543941020000203E-2</c:v>
+                  <c:v>7.4151933869999798E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1648523414999402E-2</c:v>
+                  <c:v>6.16813721069999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2222884443037099E-2</c:v>
+                  <c:v>4.82247164974271E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1210287800388797E-2</c:v>
+                  <c:v>3.3836766872702803E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8859583823425102E-2</c:v>
+                  <c:v>1.8882626076959799E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5216374705426901E-2</c:v>
+                  <c:v>3.5363675563699999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.03058465514898E-2</c:v>
+                  <c:v>-1.20571550023189E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.8521249868600002E-3</c:v>
+                  <c:v>-2.77579753760679E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3344433953920701E-2</c:v>
+                  <c:v>-4.3507688531375002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.2081576608840002E-2</c:v>
+                  <c:v>-5.9111179822882803E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.21059843783449E-2</c:v>
+                  <c:v>-7.4417705329819894E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.34895548534903E-2</c:v>
+                  <c:v>-8.9402443696099898E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10655714039665</c:v>
+                  <c:v>-0.104201193222309</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.13150689645213501</c:v>
+                  <c:v>-0.118786531091699</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.15871701578272901</c:v>
+                  <c:v>-0.133287694602999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.18794965670739999</c:v>
+                  <c:v>-0.147290537990999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.21991018719550001</c:v>
+                  <c:v>-0.16119834540299999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.25433370853740001</c:v>
+                  <c:v>-0.17463271699399999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.29195576775604798</c:v>
+                  <c:v>-0.18797124032000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.33353245444257901</c:v>
+                  <c:v>-0.20137210849999901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.378229619142399</c:v>
+                  <c:v>-0.21390590806999901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.42665561979709798</c:v>
+                  <c:v>-0.22569824119999901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.47911214111080003</c:v>
+                  <c:v>-0.236709617899999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.53606444357281102</c:v>
+                  <c:v>-0.2469768299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.59929541922969998</c:v>
+                  <c:v>-0.25693905230000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.66736359033230097</c:v>
+                  <c:v>-0.26541746159999902</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.74077195269547202</c:v>
+                  <c:v>-0.27248972720000098</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.82005336403719997</c:v>
+                  <c:v>-0.2781492438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.90480221242799896</c:v>
+                  <c:v>-0.28225117119999898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.99576557547299904</c:v>
+                  <c:v>-0.284784420199999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.0941798877895901</c:v>
+                  <c:v>-0.28568541619999899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.2005005699519899</c:v>
+                  <c:v>-0.28478758109999902</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.31547513231999</c:v>
+                  <c:v>-0.28197735679999902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.4395286389908999</c:v>
+                  <c:v>-0.27709134759999798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.5749378912180001</c:v>
+                  <c:v>-0.27023776799999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7234136202229899</c:v>
+                  <c:v>-0.26114446420000198</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.8878511629404</c:v>
+                  <c:v>-0.24976385479999899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.0693422133929</c:v>
+                  <c:v>-0.235830843899999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.270531123324</c:v>
+                  <c:v>-0.21921547129999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,124 +669,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.8660299999999997E-2</c:v>
+                  <c:v>8.8361200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9406461960000396E-2</c:v>
+                  <c:v>7.4017731399999495E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1522789841999598E-2</c:v>
+                  <c:v>6.1570676294999897E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2111831703669802E-2</c:v>
+                  <c:v>4.8143594959490103E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1203353523207797E-2</c:v>
+                  <c:v>3.3871591021359899E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9024632004179903E-2</c:v>
+                  <c:v>1.9093864360148899E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5808419620600001E-2</c:v>
+                  <c:v>4.1434004027769899E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.13660138196259E-2</c:v>
+                  <c:v>-1.10555848587499E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.35252488450998E-3</c:v>
+                  <c:v>-2.6406282094980998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.1434551237362001E-2</c:v>
+                  <c:v>-4.1859538736180001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.9765798889019897E-2</c:v>
+                  <c:v>-5.7231076845208999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.9385536615441999E-2</c:v>
+                  <c:v>-7.23592229137901E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.05090523184602E-2</c:v>
+                  <c:v>-8.7281634078800296E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10318179107016499</c:v>
+                  <c:v>-0.101886164395559</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.127636121553559</c:v>
+                  <c:v>-0.1162775481477</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.15433793478357899</c:v>
+                  <c:v>-0.13061468714630001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.18317613668561999</c:v>
+                  <c:v>-0.14453797951389899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.21449274703780999</c:v>
+                  <c:v>-0.15806969323119899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.24842849689619001</c:v>
+                  <c:v>-0.17120242400499999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28535107730425902</c:v>
+                  <c:v>-0.18404007421599899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.326151790467402</c:v>
+                  <c:v>-0.19676909831</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.37041769061560098</c:v>
+                  <c:v>-0.20869277596999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.41857716078320101</c:v>
+                  <c:v>-0.219933922569999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.47085553811589798</c:v>
+                  <c:v>-0.23041740769999899</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.52778002047900097</c:v>
+                  <c:v>-0.24024627230000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.59173376789849796</c:v>
+                  <c:v>-0.25003179149999899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.66130796101009803</c:v>
+                  <c:v>-0.25840277010000101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.73736553815143902</c:v>
+                  <c:v>-0.26541804390000201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.82079969733358804</c:v>
+                  <c:v>-0.27116676360000103</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.91173815167099903</c:v>
+                  <c:v>-0.27542298279999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0109736419312001</c:v>
+                  <c:v>-0.27816223160000098</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.11947352175139</c:v>
+                  <c:v>-0.27941118790000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.2377705511376</c:v>
+                  <c:v>-0.278875867</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.3672127000448899</c:v>
+                  <c:v>-0.27651107829999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.5088184600040999</c:v>
+                  <c:v>-0.27221253690000102</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.6647570074253899</c:v>
+                  <c:v>-0.2658655325</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.8376155734483901</c:v>
+                  <c:v>-0.25739455260000099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.0305190405257898</c:v>
+                  <c:v>-0.246567972999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.2464729043473199</c:v>
+                  <c:v>-0.233123236499999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.48797071903468</c:v>
+                  <c:v>-0.21691943259999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,124 +943,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.8660299999999997E-2</c:v>
+                  <c:v>8.8361200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0886819610000493E-2</c:v>
+                  <c:v>7.5472704520000405E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6064937930000007E-2</c:v>
+                  <c:v>6.5905602663999904E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1582398903200103E-2</c:v>
+                  <c:v>5.6899255311279803E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7534338853337803E-2</c:v>
+                  <c:v>4.8476310128919703E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4550601422731294E-2</c:v>
+                  <c:v>4.1166286228600101E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2690215568049906E-2</c:v>
+                  <c:v>3.4951329499644003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1651204715319999E-2</c:v>
+                  <c:v>2.9433275659289999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1748059659640003E-2</c:v>
+                  <c:v>2.4839021116691999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3175963648139002E-2</c:v>
+                  <c:v>2.12923250354775E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6284595646510097E-2</c:v>
+                  <c:v>1.8975718865830399E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1336808805759599E-2</c:v>
+                  <c:v>1.8036711480289899E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8392904878496802E-2</c:v>
+                  <c:v>1.83667756691329E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.7503426934736006E-2</c:v>
+                  <c:v>1.9875254497759901E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.8838328340757495E-2</c:v>
+                  <c:v>2.2494477513068999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11298019455305899</c:v>
+                  <c:v>2.64041419325599E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13037064305148899</c:v>
+                  <c:v>3.1913066567593802E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15174814511782</c:v>
+                  <c:v>3.9356660274936998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17740170731979299</c:v>
+                  <c:v>4.85664945472849E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.207398038842659</c:v>
+                  <c:v>5.9367863376879902E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.243717546316399</c:v>
+                  <c:v>7.2560638912520098E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28703696157334901</c:v>
+                  <c:v>8.8456855491159794E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.33771673575352901</c:v>
+                  <c:v>0.106805131647369</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.39653059000640001</c:v>
+                  <c:v>0.12759686426363201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4642091765404</c:v>
+                  <c:v>0.150595455447459</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.54444325688844997</c:v>
+                  <c:v>0.17710628582766</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.63769702415359797</c:v>
+                  <c:v>0.207347603852167</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.74516365441090204</c:v>
+                  <c:v>0.241082392876</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.86886876686019798</c:v>
+                  <c:v>0.27841835139099902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0121809036690901</c:v>
+                  <c:v>0.31992461875091999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1766146619005899</c:v>
+                  <c:v>0.36567489300821798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3664122432096999</c:v>
+                  <c:v>0.41616987455849902</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5849900838666999</c:v>
+                  <c:v>0.471868148330852</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8344378437078901</c:v>
+                  <c:v>0.53262530920079998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.1197257233929001</c:v>
+                  <c:v>0.59888207659000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4438420982151201</c:v>
+                  <c:v>0.67051367252600103</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.8138163348404901</c:v>
+                  <c:v>0.74795089137000204</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.23411477666671</c:v>
+                  <c:v>0.83150992911999799</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.7115470126999899</c:v>
+                  <c:v>0.92180837949000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.2532424854555</c:v>
+                  <c:v>1.0188794458999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,124 +1217,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.8660299999999997E-2</c:v>
+                  <c:v>8.8361200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1242359599999994E-2</c:v>
+                  <c:v>7.5820876330000203E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7001788839999502E-2</c:v>
+                  <c:v>6.6790149928999801E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3263101399550196E-2</c:v>
+                  <c:v>5.8435574941500097E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0210782502895003E-2</c:v>
+                  <c:v>5.0853044134745E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8373852972027693E-2</c:v>
+                  <c:v>4.4434862422263702E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9537015432349997E-2</c:v>
+                  <c:v>4.0704529213013499E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4649106247661204E-2</c:v>
+                  <c:v>4.0221163978149801E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5132513905479601E-2</c:v>
+                  <c:v>4.3861588680226098E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10182721778830101</c:v>
+                  <c:v>5.17856202244159E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12537873993524801</c:v>
+                  <c:v>6.3953114011060005E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15548971047086299</c:v>
+                  <c:v>7.93782261360573E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19185001627270001</c:v>
+                  <c:v>9.7130049065399696E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23501097212470001</c:v>
+                  <c:v>0.11702022846278699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28507418866675299</c:v>
+                  <c:v>0.13845184337744901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34433587403799898</c:v>
+                  <c:v>0.162344913142669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41343059461681098</c:v>
+                  <c:v>0.18847123543570901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49301507643268899</c:v>
+                  <c:v>0.21670931154607001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.58418123232400399</c:v>
+                  <c:v>0.24690358768105899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.68769141796215405</c:v>
+                  <c:v>0.27869061185163702</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8066389823265</c:v>
+                  <c:v>0.31276523482298901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94169778364529999</c:v>
+                  <c:v>0.34904990558078902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0948305142677</c:v>
+                  <c:v>0.38765833656206999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2679928698887699</c:v>
+                  <c:v>0.42861946089940001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4631967984688601</c:v>
+                  <c:v>0.47192717431588899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6886271064228999</c:v>
+                  <c:v>0.51958093451350196</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.94705269901319</c:v>
+                  <c:v>0.57210479405819903</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2407160142784202</c:v>
+                  <c:v>0.6291373453511</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5775072362511899</c:v>
+                  <c:v>0.69122198974510096</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9611871714497902</c:v>
+                  <c:v>0.75900746851760204</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.4009118837157</c:v>
+                  <c:v>0.833302519269701</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.902811904779</c:v>
+                  <c:v>0.91395925445699899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.4725359735209702</c:v>
+                  <c:v>1.0007652838799901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1197551718810201</c:v>
+                  <c:v>1.094533030852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.8543549828879904</c:v>
+                  <c:v>1.19537150522999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.685381827074</c:v>
+                  <c:v>1.3030903417499999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.6380536628989804</c:v>
+                  <c:v>1.42007053726999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7097536272139706</c:v>
+                  <c:v>1.5439185968</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.9306320072383993</c:v>
+                  <c:v>1.6772693978</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.322637971973901</c:v>
+                  <c:v>1.8208211760999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,124 +1594,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34316272745379711</c:v>
+                  <c:v>0.34200507684579051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34085150074164616</c:v>
+                  <c:v>0.33974970628974599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34644457859727795</c:v>
+                  <c:v>0.34534627111015176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35264193751316658</c:v>
+                  <c:v>0.3515397836405591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35872405047010897</c:v>
+                  <c:v>0.35761125961001072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36469513573538859</c:v>
+                  <c:v>0.36356696723949983</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37030374207825123</c:v>
+                  <c:v>0.36915403471206282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37544854400092242</c:v>
+                  <c:v>0.37426726792450771</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38035431963162047</c:v>
+                  <c:v>0.3791275380466122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38470661002470014</c:v>
+                  <c:v>0.38341894791475156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38893297557821066</c:v>
+                  <c:v>0.38757376878433958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39280599566880642</c:v>
+                  <c:v>0.3913672810942862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39634867084834902</c:v>
+                  <c:v>0.39481768206009427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39929592625624882</c:v>
+                  <c:v>0.39765750843426168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40179004226162174</c:v>
+                  <c:v>0.40002959932767967</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40447655835647323</c:v>
+                  <c:v>0.40258341541048143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40716588653613472</c:v>
+                  <c:v>0.40513812513953401</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40928794914678179</c:v>
+                  <c:v>0.40711928361913913</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41203307987064425</c:v>
+                  <c:v>0.40972118751221343</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.41450301970026021</c:v>
+                  <c:v>0.41204366241133661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41766902286165597</c:v>
+                  <c:v>0.41506244312651192</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42062796563735694</c:v>
+                  <c:v>0.41789690599296814</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.42369299204581029</c:v>
+                  <c:v>0.42084523772156845</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42694916719336656</c:v>
+                  <c:v>0.42399128381792539</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43021006959020569</c:v>
+                  <c:v>0.42714624097838261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.43436478843821913</c:v>
+                  <c:v>0.43119884568650391</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43841157915147566</c:v>
+                  <c:v>0.43516729845408086</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.44270045196151542</c:v>
+                  <c:v>0.43938496583138781</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44707232198574792</c:v>
+                  <c:v>0.44368847847698267</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45158584868372242</c:v>
+                  <c:v>0.44813274085036231</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.45596143721259136</c:v>
+                  <c:v>0.45243873401099355</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46017246077286117</c:v>
+                  <c:v>0.45658126566975854</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4642468594390512</c:v>
+                  <c:v>0.46059078355519667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46825355260316376</c:v>
+                  <c:v>0.46453715010663249</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47226954273328009</c:v>
+                  <c:v>0.46849668844876358</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47582360460357764</c:v>
+                  <c:v>0.47200009137728832</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.47931075541201529</c:v>
+                  <c:v>0.47544634254876067</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.48250528103207724</c:v>
+                  <c:v>0.47861100292539188</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.48571983314543948</c:v>
+                  <c:v>0.48180683934216278</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4888602450788988</c:v>
+                  <c:v>0.48493872871449756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,124 +1868,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34316272745379711</c:v>
+                  <c:v>0.34200507684579051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34093696220490055</c:v>
+                  <c:v>0.33983217655810949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34640753954317499</c:v>
+                  <c:v>0.34530339426790962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35260541953119479</c:v>
+                  <c:v>0.35149340719430022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35868929816719775</c:v>
+                  <c:v>0.3575624656831457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36457451641725042</c:v>
+                  <c:v>0.36342868581981963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37013269222188416</c:v>
+                  <c:v>0.36896466185297666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37526526247620118</c:v>
+                  <c:v>0.37406420100262533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38028785458486969</c:v>
+                  <c:v>0.37903932690982906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38458554907606618</c:v>
+                  <c:v>0.38327333092628424</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38904282592245826</c:v>
+                  <c:v>0.38765263313647924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39294341394890536</c:v>
+                  <c:v>0.39146562436386551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39631921271803916</c:v>
+                  <c:v>0.39473947520262187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39929472641153207</c:v>
+                  <c:v>0.39760101435594558</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4019180916721527</c:v>
+                  <c:v>0.40009455302223607</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40459833774505666</c:v>
+                  <c:v>0.40263407386925548</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40677736732313868</c:v>
+                  <c:v>0.40467370393899033</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40883411041116691</c:v>
+                  <c:v>0.40659237141947413</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41116923599649147</c:v>
+                  <c:v>0.4087893832340696</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.41322993825787419</c:v>
+                  <c:v>0.41071583187138849</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41623546200538392</c:v>
+                  <c:v>0.41359304274776876</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41904831059854569</c:v>
+                  <c:v>0.41630057358012129</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.42198407704309171</c:v>
+                  <c:v>0.4191426913494351</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42525968832636463</c:v>
+                  <c:v>0.42233074467158155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42861360639355811</c:v>
+                  <c:v>0.42559831751066102</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.43249301859039785</c:v>
+                  <c:v>0.42939603913741592</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43621498287573945</c:v>
+                  <c:v>0.43306468717628699</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.44022673170696158</c:v>
+                  <c:v>0.43703412680403858</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4442006795166446</c:v>
+                  <c:v>0.44097310918131427</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44839330453461218</c:v>
+                  <c:v>0.44513299785151983</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.45264330064889291</c:v>
+                  <c:v>0.44935102583143377</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45667491072704469</c:v>
+                  <c:v>0.45335149335777625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46087014771308776</c:v>
+                  <c:v>0.45751807534372058</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.46494550428248577</c:v>
+                  <c:v>0.46156437316257182</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4688864748323272</c:v>
+                  <c:v>0.46547840801173812</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47262792252972946</c:v>
+                  <c:v>0.4691973625666615</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.47608729348210294</c:v>
+                  <c:v>0.47264101277952125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.47930578953684061</c:v>
+                  <c:v>0.47585278166876671</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.48253376517566926</c:v>
+                  <c:v>0.47908383326793652</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.48584011638932412</c:v>
+                  <c:v>0.48240226293605681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,124 +2142,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34316272745379711</c:v>
+                  <c:v>0.34200507684579051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34053354735444363</c:v>
+                  <c:v>0.33943300177634789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34558140270319532</c:v>
+                  <c:v>0.3444982643584808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35120537116446349</c:v>
+                  <c:v>0.35014645536490008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35658783816899775</c:v>
+                  <c:v>0.35556078515505812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36170923074131173</c:v>
+                  <c:v>0.36072871164242432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36695194281964366</c:v>
+                  <c:v>0.36602920536362266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37211662992793482</c:v>
+                  <c:v>0.37124524144898857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37656883947509856</c:v>
+                  <c:v>0.37574088677878353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38046430867992959</c:v>
+                  <c:v>0.37967341112698766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38445823049188721</c:v>
+                  <c:v>0.38369912074919665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38804353219800225</c:v>
+                  <c:v>0.38731288011950749</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39132776620875981</c:v>
+                  <c:v>0.39061403104460279</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39429375441689724</c:v>
+                  <c:v>0.39358214828169991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3967691741425089</c:v>
+                  <c:v>0.39604048491042348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39944065329346173</c:v>
+                  <c:v>0.39868088145999808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40133539942910768</c:v>
+                  <c:v>0.40054292409785602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40316149156933351</c:v>
+                  <c:v>0.4023417157283169</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40521027983737351</c:v>
+                  <c:v>0.40436473195905492</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40723508633244176</c:v>
+                  <c:v>0.40636397304124861</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40973013183168733</c:v>
+                  <c:v>0.4088475229655566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41223577899698377</c:v>
+                  <c:v>0.41136327662972832</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41528435709870748</c:v>
+                  <c:v>0.41443192156382175</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41840698975771395</c:v>
+                  <c:v>0.41757889451625402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42171925081933886</c:v>
+                  <c:v>0.42091177127774038</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42548219585416736</c:v>
+                  <c:v>0.42470257773844555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.42940196561048094</c:v>
+                  <c:v>0.42866934726905198</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43355581595219939</c:v>
+                  <c:v>0.43287261686945178</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4377607696549014</c:v>
+                  <c:v>0.43712801370537474</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44155525311378535</c:v>
+                  <c:v>0.44097255725732915</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.44602114465226961</c:v>
+                  <c:v>0.4454882964614495</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44983462759711079</c:v>
+                  <c:v>0.44934720664663069</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45386971288415118</c:v>
+                  <c:v>0.45343173387635799</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45807451504801538</c:v>
+                  <c:v>0.45768499089553832</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.46200472829668054</c:v>
+                  <c:v>0.4616588726160985</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.46599250346192417</c:v>
+                  <c:v>0.46568926816967682</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4702938343940149</c:v>
+                  <c:v>0.47003185702560196</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.47406693226121299</c:v>
+                  <c:v>0.47384074188083725</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.47797928254054095</c:v>
+                  <c:v>0.47779129724028885</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.48203462578879497</c:v>
+                  <c:v>0.481883237954227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,124 +2416,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.34316272745379711</c:v>
+                  <c:v>0.34200507684579051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34045417347011098</c:v>
+                  <c:v>0.33935533849345645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3453710837733045</c:v>
+                  <c:v>0.34429134666096783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35103962951963219</c:v>
+                  <c:v>0.34998473874092501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35655108333588831</c:v>
+                  <c:v>0.35552911201394932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36135110641694412</c:v>
+                  <c:v>0.36037286048049344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36506679389654773</c:v>
+                  <c:v>0.36416516595068915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36792930405578078</c:v>
+                  <c:v>0.36713918406610457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37040334850828305</c:v>
+                  <c:v>0.36977067861550855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3724608344176476</c:v>
+                  <c:v>0.37202678892561836</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37516653171182773</c:v>
+                  <c:v>0.37496948725935703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37837077310492606</c:v>
+                  <c:v>0.37842558576541757</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38154966075525515</c:v>
+                  <c:v>0.38184890345377936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38465416421951881</c:v>
+                  <c:v>0.38518056065041367</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.38759361400913367</c:v>
+                  <c:v>0.38831248362267079</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39043427778908835</c:v>
+                  <c:v>0.39132272923138206</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39259311107420936</c:v>
+                  <c:v>0.3936308970609434</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.39487302864268103</c:v>
+                  <c:v>0.39604849941787823</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39744055809055723</c:v>
+                  <c:v>0.39873953569506587</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40033232887382991</c:v>
+                  <c:v>0.40173584331705242</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40350180375607886</c:v>
+                  <c:v>0.40500054349677062</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.40698092031933303</c:v>
+                  <c:v>0.4085674087814043</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41066259992591958</c:v>
+                  <c:v>0.41231961078685714</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41449216103078623</c:v>
+                  <c:v>0.41619934494405281</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.41844203534057633</c:v>
+                  <c:v>0.420178157735767</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42312650695399895</c:v>
+                  <c:v>0.42488103675729727</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.42694043325611442</c:v>
+                  <c:v>0.42870818917570264</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43162379308090398</c:v>
+                  <c:v>0.4334044640599391</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.43602781233192872</c:v>
+                  <c:v>0.4378038428665923</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.43986523697651081</c:v>
+                  <c:v>0.44163472319311636</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.44382972741785659</c:v>
+                  <c:v>0.44559848086788639</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44807035923830385</c:v>
+                  <c:v>0.44983355666424285</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45229917617403864</c:v>
+                  <c:v>0.45404892125298918</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45636152607262082</c:v>
+                  <c:v>0.45809394965362321</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.46045718963763765</c:v>
+                  <c:v>0.46216926983594503</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.46476340774736125</c:v>
+                  <c:v>0.46644698280214192</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.46884452726228054</c:v>
+                  <c:v>0.47049686072130265</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.47313748949902135</c:v>
+                  <c:v>0.47474814291540141</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4775696156707131</c:v>
+                  <c:v>0.47913252052659955</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.48130458104781737</c:v>
+                  <c:v>0.48280854214551222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2793,124 +2793,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32050.6</c:v>
+                  <c:v>32159.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33225.041109999896</c:v>
+                  <c:v>33332.788640000101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33661.865539999897</c:v>
+                  <c:v>33768.920680000097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34078.130949999999</c:v>
+                  <c:v>34184.973779999797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34508.713129999996</c:v>
+                  <c:v>34616.094120000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34964.095090000003</c:v>
+                  <c:v>35072.592030000102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35469.126209999798</c:v>
+                  <c:v>35579.5926000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36016.669059999898</c:v>
+                  <c:v>36130.345399999802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36638.828250000101</c:v>
+                  <c:v>36757.385169999798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37317.408879999799</c:v>
+                  <c:v>37442.735069999901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38022.588119999702</c:v>
+                  <c:v>38155.932359999701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38816.449109999703</c:v>
+                  <c:v>38959.141949999903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39680.525659999999</c:v>
+                  <c:v>39834.3965899998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40607.5768899998</c:v>
+                  <c:v>40774.886569999799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41609.6711699999</c:v>
+                  <c:v>41792.788549999903</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42652.373599999897</c:v>
+                  <c:v>42852.946470000097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43845.793980000002</c:v>
+                  <c:v>44065.24811</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45077.374020000098</c:v>
+                  <c:v>45317.494929999797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46427.140769999998</c:v>
+                  <c:v>46689.1100299998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47846.424789999997</c:v>
+                  <c:v>48132.006520000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49293.125229999903</c:v>
+                  <c:v>49602.6849699999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50806.629349999901</c:v>
+                  <c:v>51138.662389999903</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52376.392889999901</c:v>
+                  <c:v>52730.813189999899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54016.933520000202</c:v>
+                  <c:v>54393.773690000096</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55731.2996200001</c:v>
+                  <c:v>56131.049740000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>57459.073329999999</c:v>
+                  <c:v>57880.947969999899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59320.594469999996</c:v>
+                  <c:v>59762.846460000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61290.377289999902</c:v>
+                  <c:v>61752.859329999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63388.894149999702</c:v>
+                  <c:v>63872.336470000097</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65669.154250000094</c:v>
+                  <c:v>66175.171089999902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68114.433810000002</c:v>
+                  <c:v>68644.776950000101</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70704.773850000201</c:v>
+                  <c:v>71260.897809999602</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>73427.163280000197</c:v>
+                  <c:v>74010.016610000195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76283.528190000099</c:v>
+                  <c:v>76893.813119999701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>79298.389959999899</c:v>
+                  <c:v>79936.98921</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>82403.094899999895</c:v>
+                  <c:v>83070.614739999801</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>85554.257179999797</c:v>
+                  <c:v>86249.641699999906</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88692.825359999595</c:v>
+                  <c:v>89414.488680000097</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>91828.774020000099</c:v>
+                  <c:v>92574.558679999798</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94943.460329999696</c:v>
+                  <c:v>95711.234519999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,124 +3067,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32050.6</c:v>
+                  <c:v>32159.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33246.384259999897</c:v>
+                  <c:v>33354.467689999903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33689.103609999896</c:v>
+                  <c:v>33796.829270000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34125.650369999603</c:v>
+                  <c:v>34233.613519999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34577.9338299999</c:v>
+                  <c:v>34686.904260000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35046.050489999798</c:v>
+                  <c:v>35156.544119999897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35554.127639999999</c:v>
+                  <c:v>35666.681519999896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36110.88839</c:v>
+                  <c:v>36226.835259999898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36754.934159999997</c:v>
+                  <c:v>36876.000390000299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37447.277399999999</c:v>
+                  <c:v>37575.484299999902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38207.1833999999</c:v>
+                  <c:v>38344.201579999797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39052.117359999902</c:v>
+                  <c:v>39199.542339999898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39962.822119999902</c:v>
+                  <c:v>40122.753199999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40940.704589999899</c:v>
+                  <c:v>41115.105329999802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42014.078909999698</c:v>
+                  <c:v>42205.5708999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43123.7337799999</c:v>
+                  <c:v>43334.1154300001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44330.848830000003</c:v>
+                  <c:v>44561.298679999898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45567.81465</c:v>
+                  <c:v>45819.052600000097</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46877.947789999896</c:v>
+                  <c:v>47150.858889999901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48198.552569999803</c:v>
+                  <c:v>48493.587610000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49514.390709999701</c:v>
+                  <c:v>49830.737079999897</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50876.300199999998</c:v>
+                  <c:v>51212.102740000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52250.6128199999</c:v>
+                  <c:v>52604.824370000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53690.673919999899</c:v>
+                  <c:v>54063.030630000103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55214.082300000002</c:v>
+                  <c:v>55605.26281</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56692.214900000101</c:v>
+                  <c:v>57101.104240000102</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58227.829790000003</c:v>
+                  <c:v>58651.404450000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>59801.003280000201</c:v>
+                  <c:v>60237.859800000202</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>61401.249840000099</c:v>
+                  <c:v>61850.65913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63093.5244199999</c:v>
+                  <c:v>63555.645000000099</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>64888.709199999903</c:v>
+                  <c:v>65364.1305499999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>66755.313190000103</c:v>
+                  <c:v>67244.682749999803</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68721.626859999698</c:v>
+                  <c:v>69225.124949999896</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>70794.445189999999</c:v>
+                  <c:v>71313.039679999696</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>72953.795779999899</c:v>
+                  <c:v>73487.9388700001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75168.083439999798</c:v>
+                  <c:v>75717.676450000596</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>77379.361739999906</c:v>
+                  <c:v>77943.575760000094</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>79552.458599999896</c:v>
+                  <c:v>80129.727830000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81682.561350000193</c:v>
+                  <c:v>82270.766300000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>83777.124960000103</c:v>
+                  <c:v>84374.167149999805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,124 +3341,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32050.6</c:v>
+                  <c:v>32159.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33195.692289999897</c:v>
+                  <c:v>33303.323459999803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33533.698120000103</c:v>
+                  <c:v>33639.132980000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33789.485479999901</c:v>
+                  <c:v>33891.672899999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33988.184540000198</c:v>
+                  <c:v>34086.360840000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34116.442770000001</c:v>
+                  <c:v>34209.178169999897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34249.434569999903</c:v>
+                  <c:v>34335.774679999799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34426.199989999899</c:v>
+                  <c:v>34507.004219999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34600.924259999898</c:v>
+                  <c:v>34677.16663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34772.773459999597</c:v>
+                  <c:v>34845.210499999797</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34944.831759999899</c:v>
+                  <c:v>35013.966859999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35148.113780000102</c:v>
+                  <c:v>35214.418629999898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35382.252869999997</c:v>
+                  <c:v>35446.904439999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35657.2224199997</c:v>
+                  <c:v>35721.694040000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35978.571230000001</c:v>
+                  <c:v>36044.767970000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36322.903859999999</c:v>
+                  <c:v>36392.124669999903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36691.739910000098</c:v>
+                  <c:v>36764.333429999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37030.021710000001</c:v>
+                  <c:v>37105.47277</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37370.602699999698</c:v>
+                  <c:v>37448.744840000101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37704.875979999902</c:v>
+                  <c:v>37785.702659999901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37941.483419999997</c:v>
+                  <c:v>38023.38968</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38171.8013600001</c:v>
+                  <c:v>38252.762259999799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38402.938300000002</c:v>
+                  <c:v>38481.928480000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38625.977139999901</c:v>
+                  <c:v>38702.575859999903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38885.425549999898</c:v>
+                  <c:v>38960.0252799999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39073.327260000202</c:v>
+                  <c:v>39145.054409999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39293.346539999999</c:v>
+                  <c:v>39360.500109999601</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39530.876519999998</c:v>
+                  <c:v>39593.2696</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39777.4449199999</c:v>
+                  <c:v>39835.025290000201</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40009.025760000099</c:v>
+                  <c:v>40061.8918599998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40294.912609999898</c:v>
+                  <c:v>40343.107909999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40563.62932</c:v>
+                  <c:v>40607.629090000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40835.870289999802</c:v>
+                  <c:v>40875.3158700001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41129.306049999897</c:v>
+                  <c:v>41164.311889999903</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41434.965459999701</c:v>
+                  <c:v>41466.0049099998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41757.738879999997</c:v>
+                  <c:v>41784.931539999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42112.196210000002</c:v>
+                  <c:v>42135.666619999902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42468.04679</c:v>
+                  <c:v>42488.318499999899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42830.646520000199</c:v>
+                  <c:v>42847.497580000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43218.6393199999</c:v>
+                  <c:v>43232.218099999802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,124 +3615,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>32050.6</c:v>
+                  <c:v>32159.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33186.1308499999</c:v>
+                  <c:v>33293.588309999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33511.11404</c:v>
+                  <c:v>33616.208200000197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33771.861239999998</c:v>
+                  <c:v>33873.654739999904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33980.164700000001</c:v>
+                  <c:v>34077.841079999802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34100.03282</c:v>
+                  <c:v>34192.5978700001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34050.1528500001</c:v>
+                  <c:v>34134.456949999803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33824.17</c:v>
+                  <c:v>33896.962129999898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33415.037199999897</c:v>
+                  <c:v>33472.210160000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32845.833960000004</c:v>
+                  <c:v>32884.154979999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32176.925299999999</c:v>
+                  <c:v>32193.8325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31551.972629999898</c:v>
+                  <c:v>31547.402740000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30976.589479999901</c:v>
+                  <c:v>30952.3131299999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30473.362867999898</c:v>
+                  <c:v>30431.716549999899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30081.762008000002</c:v>
+                  <c:v>30026.073514</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29727.433266</c:v>
+                  <c:v>29659.940603999901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29442.004623000001</c:v>
+                  <c:v>29364.383028999899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29194.727434</c:v>
+                  <c:v>29108.077669999901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28998.460375000101</c:v>
+                  <c:v>28903.991977000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28869.162066000001</c:v>
+                  <c:v>28768.303209000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28734.6243929999</c:v>
+                  <c:v>28628.289405</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28680.256513</c:v>
+                  <c:v>28568.890874000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28682.188343000002</c:v>
+                  <c:v>28566.921726999899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28745.897488999999</c:v>
+                  <c:v>28627.987706</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28872.623734999801</c:v>
+                  <c:v>28753.326262999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29022.135624999901</c:v>
+                  <c:v>28902.289992999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29191.368025</c:v>
+                  <c:v>29071.001875999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29412.701653999899</c:v>
+                  <c:v>29291.858380999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29672.387226999999</c:v>
+                  <c:v>29552.015022999902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29914.140998999999</c:v>
+                  <c:v>29794.283841999899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30155.7255890001</c:v>
+                  <c:v>30036.026414999898</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30430.019173999899</c:v>
+                  <c:v>30310.745631999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30731.569544000002</c:v>
+                  <c:v>30613.142030999901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31044.012520000098</c:v>
+                  <c:v>30926.609335000099</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31374.250749999999</c:v>
+                  <c:v>31258.027168999899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>31748.292228999999</c:v>
+                  <c:v>31633.702530999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32132.387700999901</c:v>
+                  <c:v>32019.542900999899</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32566.951768999901</c:v>
+                  <c:v>32456.464896000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33042.947827000098</c:v>
+                  <c:v>32935.163233000101</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33533.672451999999</c:v>
+                  <c:v>33429.2142699998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4217,7 +4217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AT18"/>
     </sheetView>
   </sheetViews>
@@ -4940,139 +4940,139 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>8.8660299999999997E-2</v>
+        <v>8.8361200000000001E-2</v>
       </c>
       <c r="C7">
-        <v>7.9543941020000203E-2</v>
+        <v>7.4151933869999798E-2</v>
       </c>
       <c r="D7">
-        <v>7.1648523414999402E-2</v>
+        <v>6.16813721069999E-2</v>
       </c>
       <c r="E7">
-        <v>6.2222884443037099E-2</v>
+        <v>4.82247164974271E-2</v>
       </c>
       <c r="F7">
-        <v>5.1210287800388797E-2</v>
+        <v>3.3836766872702803E-2</v>
       </c>
       <c r="G7">
-        <v>3.8859583823425102E-2</v>
+        <v>1.8882626076959799E-2</v>
       </c>
       <c r="H7">
-        <v>2.5216374705426901E-2</v>
+        <v>3.5363675563699999E-3</v>
       </c>
       <c r="I7">
-        <v>1.03058465514898E-2</v>
+        <v>-1.20571550023189E-2</v>
       </c>
       <c r="J7">
-        <v>-5.8521249868600002E-3</v>
+        <v>-2.77579753760679E-2</v>
       </c>
       <c r="K7">
-        <v>-2.3344433953920701E-2</v>
+        <v>-4.3507688531375002E-2</v>
       </c>
       <c r="L7">
-        <v>-4.2081576608840002E-2</v>
+        <v>-5.9111179822882803E-2</v>
       </c>
       <c r="M7">
-        <v>-6.21059843783449E-2</v>
+        <v>-7.4417705329819894E-2</v>
       </c>
       <c r="N7">
-        <v>-8.34895548534903E-2</v>
+        <v>-8.9402443696099898E-2</v>
       </c>
       <c r="O7">
-        <v>-0.10655714039665</v>
+        <v>-0.104201193222309</v>
       </c>
       <c r="P7">
-        <v>-0.13150689645213501</v>
+        <v>-0.118786531091699</v>
       </c>
       <c r="Q7">
-        <v>-0.15871701578272901</v>
+        <v>-0.133287694602999</v>
       </c>
       <c r="R7">
-        <v>-0.18794965670739999</v>
+        <v>-0.147290537990999</v>
       </c>
       <c r="S7">
-        <v>-0.21991018719550001</v>
+        <v>-0.16119834540299999</v>
       </c>
       <c r="T7">
-        <v>-0.25433370853740001</v>
+        <v>-0.17463271699399999</v>
       </c>
       <c r="U7">
-        <v>-0.29195576775604798</v>
+        <v>-0.18797124032000001</v>
       </c>
       <c r="V7">
-        <v>-0.33353245444257901</v>
+        <v>-0.20137210849999901</v>
       </c>
       <c r="W7">
-        <v>-0.378229619142399</v>
+        <v>-0.21390590806999901</v>
       </c>
       <c r="X7">
-        <v>-0.42665561979709798</v>
+        <v>-0.22569824119999901</v>
       </c>
       <c r="Y7">
-        <v>-0.47911214111080003</v>
+        <v>-0.236709617899999</v>
       </c>
       <c r="Z7">
-        <v>-0.53606444357281102</v>
+        <v>-0.2469768299</v>
       </c>
       <c r="AA7">
-        <v>-0.59929541922969998</v>
+        <v>-0.25693905230000003</v>
       </c>
       <c r="AB7">
-        <v>-0.66736359033230097</v>
+        <v>-0.26541746159999902</v>
       </c>
       <c r="AC7">
-        <v>-0.74077195269547202</v>
+        <v>-0.27248972720000098</v>
       </c>
       <c r="AD7">
-        <v>-0.82005336403719997</v>
+        <v>-0.2781492438</v>
       </c>
       <c r="AE7">
-        <v>-0.90480221242799896</v>
+        <v>-0.28225117119999898</v>
       </c>
       <c r="AF7">
-        <v>-0.99576557547299904</v>
+        <v>-0.284784420199999</v>
       </c>
       <c r="AG7">
-        <v>-1.0941798877895901</v>
+        <v>-0.28568541619999899</v>
       </c>
       <c r="AH7">
-        <v>-1.2005005699519899</v>
+        <v>-0.28478758109999902</v>
       </c>
       <c r="AI7">
-        <v>-1.31547513231999</v>
+        <v>-0.28197735679999902</v>
       </c>
       <c r="AJ7">
-        <v>-1.4395286389908999</v>
+        <v>-0.27709134759999798</v>
       </c>
       <c r="AK7">
-        <v>-1.5749378912180001</v>
+        <v>-0.27023776799999999</v>
       </c>
       <c r="AL7">
-        <v>-1.7234136202229899</v>
+        <v>-0.26114446420000198</v>
       </c>
       <c r="AM7">
-        <v>-1.8878511629404</v>
+        <v>-0.24976385479999899</v>
       </c>
       <c r="AN7">
-        <v>-2.0693422133929</v>
+        <v>-0.235830843899999</v>
       </c>
       <c r="AO7">
-        <v>-2.270531123324</v>
+        <v>-0.21921547129999899</v>
       </c>
       <c r="AP7">
-        <v>-2.4958901582173998</v>
+        <v>-0.19978097</v>
       </c>
       <c r="AQ7">
-        <v>-2.7426059089710901</v>
+        <v>-0.17721946129999999</v>
       </c>
       <c r="AR7">
-        <v>-3.01545189647259</v>
+        <v>-0.151774679669999</v>
       </c>
       <c r="AS7">
-        <v>-3.3161251861130099</v>
+        <v>-0.123127630839999</v>
       </c>
       <c r="AT7">
-        <v>-1.9779</v>
+        <v>-7.2992399999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.3">
@@ -5080,139 +5080,139 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>8.8660299999999997E-2</v>
+        <v>8.8361200000000001E-2</v>
       </c>
       <c r="C8">
-        <v>7.9406461960000396E-2</v>
+        <v>7.4017731399999495E-2</v>
       </c>
       <c r="D8">
-        <v>7.1522789841999598E-2</v>
+        <v>6.1570676294999897E-2</v>
       </c>
       <c r="E8">
-        <v>6.2111831703669802E-2</v>
+        <v>4.8143594959490103E-2</v>
       </c>
       <c r="F8">
-        <v>5.1203353523207797E-2</v>
+        <v>3.3871591021359899E-2</v>
       </c>
       <c r="G8">
-        <v>3.9024632004179903E-2</v>
+        <v>1.9093864360148899E-2</v>
       </c>
       <c r="H8">
-        <v>2.5808419620600001E-2</v>
+        <v>4.1434004027769899E-3</v>
       </c>
       <c r="I8">
-        <v>1.13660138196259E-2</v>
+        <v>-1.10555848587499E-2</v>
       </c>
       <c r="J8">
-        <v>-4.35252488450998E-3</v>
+        <v>-2.6406282094980998E-2</v>
       </c>
       <c r="K8">
-        <v>-2.1434551237362001E-2</v>
+        <v>-4.1859538736180001E-2</v>
       </c>
       <c r="L8">
-        <v>-3.9765798889019897E-2</v>
+        <v>-5.7231076845208999E-2</v>
       </c>
       <c r="M8">
-        <v>-5.9385536615441999E-2</v>
+        <v>-7.23592229137901E-2</v>
       </c>
       <c r="N8">
-        <v>-8.05090523184602E-2</v>
+        <v>-8.7281634078800296E-2</v>
       </c>
       <c r="O8">
-        <v>-0.10318179107016499</v>
+        <v>-0.101886164395559</v>
       </c>
       <c r="P8">
-        <v>-0.127636121553559</v>
+        <v>-0.1162775481477</v>
       </c>
       <c r="Q8">
-        <v>-0.15433793478357899</v>
+        <v>-0.13061468714630001</v>
       </c>
       <c r="R8">
-        <v>-0.18317613668561999</v>
+        <v>-0.14453797951389899</v>
       </c>
       <c r="S8">
-        <v>-0.21449274703780999</v>
+        <v>-0.15806969323119899</v>
       </c>
       <c r="T8">
-        <v>-0.24842849689619001</v>
+        <v>-0.17120242400499999</v>
       </c>
       <c r="U8">
-        <v>-0.28535107730425902</v>
+        <v>-0.18404007421599899</v>
       </c>
       <c r="V8">
-        <v>-0.326151790467402</v>
+        <v>-0.19676909831</v>
       </c>
       <c r="W8">
-        <v>-0.37041769061560098</v>
+        <v>-0.20869277596999999</v>
       </c>
       <c r="X8">
-        <v>-0.41857716078320101</v>
+        <v>-0.219933922569999</v>
       </c>
       <c r="Y8">
-        <v>-0.47085553811589798</v>
+        <v>-0.23041740769999899</v>
       </c>
       <c r="Z8">
-        <v>-0.52778002047900097</v>
+        <v>-0.24024627230000001</v>
       </c>
       <c r="AA8">
-        <v>-0.59173376789849796</v>
+        <v>-0.25003179149999899</v>
       </c>
       <c r="AB8">
-        <v>-0.66130796101009803</v>
+        <v>-0.25840277010000101</v>
       </c>
       <c r="AC8">
-        <v>-0.73736553815143902</v>
+        <v>-0.26541804390000201</v>
       </c>
       <c r="AD8">
-        <v>-0.82079969733358804</v>
+        <v>-0.27116676360000103</v>
       </c>
       <c r="AE8">
-        <v>-0.91173815167099903</v>
+        <v>-0.27542298279999999</v>
       </c>
       <c r="AF8">
-        <v>-1.0109736419312001</v>
+        <v>-0.27816223160000098</v>
       </c>
       <c r="AG8">
-        <v>-1.11947352175139</v>
+        <v>-0.27941118790000002</v>
       </c>
       <c r="AH8">
-        <v>-1.2377705511376</v>
+        <v>-0.278875867</v>
       </c>
       <c r="AI8">
-        <v>-1.3672127000448899</v>
+        <v>-0.27651107829999999</v>
       </c>
       <c r="AJ8">
-        <v>-1.5088184600040999</v>
+        <v>-0.27221253690000102</v>
       </c>
       <c r="AK8">
-        <v>-1.6647570074253899</v>
+        <v>-0.2658655325</v>
       </c>
       <c r="AL8">
-        <v>-1.8376155734483901</v>
+        <v>-0.25739455260000099</v>
       </c>
       <c r="AM8">
-        <v>-2.0305190405257898</v>
+        <v>-0.246567972999999</v>
       </c>
       <c r="AN8">
-        <v>-2.2464729043473199</v>
+        <v>-0.233123236499999</v>
       </c>
       <c r="AO8">
-        <v>-2.48797071903468</v>
+        <v>-0.21691943259999999</v>
       </c>
       <c r="AP8">
-        <v>-2.7602521274980898</v>
+        <v>-0.19775124569999999</v>
       </c>
       <c r="AQ8">
-        <v>-3.0630120130311802</v>
+        <v>-0.17539586612999999</v>
       </c>
       <c r="AR8">
-        <v>-3.4010009435196</v>
+        <v>-0.14986046612999901</v>
       </c>
       <c r="AS8">
-        <v>-3.7761640922409798</v>
+        <v>-0.120983957589999</v>
       </c>
       <c r="AT8">
-        <v>-6.8814900000000003</v>
+        <v>-6.3287399999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.3">
@@ -5220,139 +5220,139 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>8.8660299999999997E-2</v>
+        <v>8.8361200000000001E-2</v>
       </c>
       <c r="C9">
-        <v>8.0886819610000493E-2</v>
+        <v>7.5472704520000405E-2</v>
       </c>
       <c r="D9">
-        <v>7.6064937930000007E-2</v>
+        <v>6.5905602663999904E-2</v>
       </c>
       <c r="E9">
-        <v>7.1582398903200103E-2</v>
+        <v>5.6899255311279803E-2</v>
       </c>
       <c r="F9">
-        <v>6.7534338853337803E-2</v>
+        <v>4.8476310128919703E-2</v>
       </c>
       <c r="G9">
-        <v>6.4550601422731294E-2</v>
+        <v>4.1166286228600101E-2</v>
       </c>
       <c r="H9">
-        <v>6.2690215568049906E-2</v>
+        <v>3.4951329499644003E-2</v>
       </c>
       <c r="I9">
-        <v>6.1651204715319999E-2</v>
+        <v>2.9433275659289999E-2</v>
       </c>
       <c r="J9">
-        <v>6.1748059659640003E-2</v>
+        <v>2.4839021116691999E-2</v>
       </c>
       <c r="K9">
-        <v>6.3175963648139002E-2</v>
+        <v>2.12923250354775E-2</v>
       </c>
       <c r="L9">
-        <v>6.6284595646510097E-2</v>
+        <v>1.8975718865830399E-2</v>
       </c>
       <c r="M9">
-        <v>7.1336808805759599E-2</v>
+        <v>1.8036711480289899E-2</v>
       </c>
       <c r="N9">
-        <v>7.8392904878496802E-2</v>
+        <v>1.83667756691329E-2</v>
       </c>
       <c r="O9">
-        <v>8.7503426934736006E-2</v>
+        <v>1.9875254497759901E-2</v>
       </c>
       <c r="P9">
-        <v>9.8838328340757495E-2</v>
+        <v>2.2494477513068999E-2</v>
       </c>
       <c r="Q9">
-        <v>0.11298019455305899</v>
+        <v>2.64041419325599E-2</v>
       </c>
       <c r="R9">
-        <v>0.13037064305148899</v>
+        <v>3.1913066567593802E-2</v>
       </c>
       <c r="S9">
-        <v>0.15174814511782</v>
+        <v>3.9356660274936998E-2</v>
       </c>
       <c r="T9">
-        <v>0.17740170731979299</v>
+        <v>4.85664945472849E-2</v>
       </c>
       <c r="U9">
-        <v>0.207398038842659</v>
+        <v>5.9367863376879902E-2</v>
       </c>
       <c r="V9">
-        <v>0.243717546316399</v>
+        <v>7.2560638912520098E-2</v>
       </c>
       <c r="W9">
-        <v>0.28703696157334901</v>
+        <v>8.8456855491159794E-2</v>
       </c>
       <c r="X9">
-        <v>0.33771673575352901</v>
+        <v>0.106805131647369</v>
       </c>
       <c r="Y9">
-        <v>0.39653059000640001</v>
+        <v>0.12759686426363201</v>
       </c>
       <c r="Z9">
-        <v>0.4642091765404</v>
+        <v>0.150595455447459</v>
       </c>
       <c r="AA9">
-        <v>0.54444325688844997</v>
+        <v>0.17710628582766</v>
       </c>
       <c r="AB9">
-        <v>0.63769702415359797</v>
+        <v>0.207347603852167</v>
       </c>
       <c r="AC9">
-        <v>0.74516365441090204</v>
+        <v>0.241082392876</v>
       </c>
       <c r="AD9">
-        <v>0.86886876686019798</v>
+        <v>0.27841835139099902</v>
       </c>
       <c r="AE9">
-        <v>1.0121809036690901</v>
+        <v>0.31992461875091999</v>
       </c>
       <c r="AF9">
-        <v>1.1766146619005899</v>
+        <v>0.36567489300821798</v>
       </c>
       <c r="AG9">
-        <v>1.3664122432096999</v>
+        <v>0.41616987455849902</v>
       </c>
       <c r="AH9">
-        <v>1.5849900838666999</v>
+        <v>0.471868148330852</v>
       </c>
       <c r="AI9">
-        <v>1.8344378437078901</v>
+        <v>0.53262530920079998</v>
       </c>
       <c r="AJ9">
-        <v>2.1197257233929001</v>
+        <v>0.59888207659000003</v>
       </c>
       <c r="AK9">
-        <v>2.4438420982151201</v>
+        <v>0.67051367252600103</v>
       </c>
       <c r="AL9">
-        <v>2.8138163348404901</v>
+        <v>0.74795089137000204</v>
       </c>
       <c r="AM9">
-        <v>3.23411477666671</v>
+        <v>0.83150992911999799</v>
       </c>
       <c r="AN9">
-        <v>3.7115470126999899</v>
+        <v>0.92180837949000005</v>
       </c>
       <c r="AO9">
-        <v>4.2532424854555</v>
+        <v>1.0188794458999899</v>
       </c>
       <c r="AP9">
-        <v>4.8678395769715204</v>
+        <v>1.12343283179999</v>
       </c>
       <c r="AQ9">
-        <v>5.5650789640442904</v>
+        <v>1.23609462709999</v>
       </c>
       <c r="AR9">
-        <v>6.3594520835292903</v>
+        <v>1.3566713077999999</v>
       </c>
       <c r="AS9">
-        <v>7.2627392302280001</v>
+        <v>1.48664832719999</v>
       </c>
       <c r="AT9">
-        <v>0.46174399999999999</v>
+        <v>1.5368299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.3">
@@ -5360,139 +5360,139 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>8.8660299999999997E-2</v>
+        <v>8.8361200000000001E-2</v>
       </c>
       <c r="C10">
-        <v>8.1242359599999994E-2</v>
+        <v>7.5820876330000203E-2</v>
       </c>
       <c r="D10">
-        <v>7.7001788839999502E-2</v>
+        <v>6.6790149928999801E-2</v>
       </c>
       <c r="E10">
-        <v>7.3263101399550196E-2</v>
+        <v>5.8435574941500097E-2</v>
       </c>
       <c r="F10">
-        <v>7.0210782502895003E-2</v>
+        <v>5.0853044134745E-2</v>
       </c>
       <c r="G10">
-        <v>6.8373852972027693E-2</v>
+        <v>4.4434862422263702E-2</v>
       </c>
       <c r="H10">
-        <v>6.9537015432349997E-2</v>
+        <v>4.0704529213013499E-2</v>
       </c>
       <c r="I10">
-        <v>7.4649106247661204E-2</v>
+        <v>4.0221163978149801E-2</v>
       </c>
       <c r="J10">
-        <v>8.5132513905479601E-2</v>
+        <v>4.3861588680226098E-2</v>
       </c>
       <c r="K10">
-        <v>0.10182721778830101</v>
+        <v>5.17856202244159E-2</v>
       </c>
       <c r="L10">
-        <v>0.12537873993524801</v>
+        <v>6.3953114011060005E-2</v>
       </c>
       <c r="M10">
-        <v>0.15548971047086299</v>
+        <v>7.93782261360573E-2</v>
       </c>
       <c r="N10">
-        <v>0.19185001627270001</v>
+        <v>9.7130049065399696E-2</v>
       </c>
       <c r="O10">
-        <v>0.23501097212470001</v>
+        <v>0.11702022846278699</v>
       </c>
       <c r="P10">
-        <v>0.28507418866675299</v>
+        <v>0.13845184337744901</v>
       </c>
       <c r="Q10">
-        <v>0.34433587403799898</v>
+        <v>0.162344913142669</v>
       </c>
       <c r="R10">
-        <v>0.41343059461681098</v>
+        <v>0.18847123543570901</v>
       </c>
       <c r="S10">
-        <v>0.49301507643268899</v>
+        <v>0.21670931154607001</v>
       </c>
       <c r="T10">
-        <v>0.58418123232400399</v>
+        <v>0.24690358768105899</v>
       </c>
       <c r="U10">
-        <v>0.68769141796215405</v>
+        <v>0.27869061185163702</v>
       </c>
       <c r="V10">
-        <v>0.8066389823265</v>
+        <v>0.31276523482298901</v>
       </c>
       <c r="W10">
-        <v>0.94169778364529999</v>
+        <v>0.34904990558078902</v>
       </c>
       <c r="X10">
-        <v>1.0948305142677</v>
+        <v>0.38765833656206999</v>
       </c>
       <c r="Y10">
-        <v>1.2679928698887699</v>
+        <v>0.42861946089940001</v>
       </c>
       <c r="Z10">
-        <v>1.4631967984688601</v>
+        <v>0.47192717431588899</v>
       </c>
       <c r="AA10">
-        <v>1.6886271064228999</v>
+        <v>0.51958093451350196</v>
       </c>
       <c r="AB10">
-        <v>1.94705269901319</v>
+        <v>0.57210479405819903</v>
       </c>
       <c r="AC10">
-        <v>2.2407160142784202</v>
+        <v>0.6291373453511</v>
       </c>
       <c r="AD10">
-        <v>2.5775072362511899</v>
+        <v>0.69122198974510096</v>
       </c>
       <c r="AE10">
-        <v>2.9611871714497902</v>
+        <v>0.75900746851760204</v>
       </c>
       <c r="AF10">
-        <v>3.4009118837157</v>
+        <v>0.833302519269701</v>
       </c>
       <c r="AG10">
-        <v>3.902811904779</v>
+        <v>0.91395925445699899</v>
       </c>
       <c r="AH10">
-        <v>4.4725359735209702</v>
+        <v>1.0007652838799901</v>
       </c>
       <c r="AI10">
-        <v>5.1197551718810201</v>
+        <v>1.094533030852</v>
       </c>
       <c r="AJ10">
-        <v>5.8543549828879904</v>
+        <v>1.19537150522999</v>
       </c>
       <c r="AK10">
-        <v>6.685381827074</v>
+        <v>1.3030903417499999</v>
       </c>
       <c r="AL10">
-        <v>7.6380536628989804</v>
+        <v>1.42007053726999</v>
       </c>
       <c r="AM10">
-        <v>8.7097536272139706</v>
+        <v>1.5439185968</v>
       </c>
       <c r="AN10">
-        <v>9.9306320072383993</v>
+        <v>1.6772693978</v>
       </c>
       <c r="AO10">
-        <v>11.322637971973901</v>
+        <v>1.8208211760999999</v>
       </c>
       <c r="AP10">
-        <v>12.842590824182</v>
+        <v>1.96501282129999</v>
       </c>
       <c r="AQ10">
-        <v>14.315300242499999</v>
+        <v>2.0796782137999901</v>
       </c>
       <c r="AR10">
-        <v>15.6228174280369</v>
+        <v>2.1482353366</v>
       </c>
       <c r="AS10">
-        <v>16.6334099696615</v>
+        <v>2.1588377316999998</v>
       </c>
       <c r="AT10">
-        <v>5.8948200000000002</v>
+        <v>2.11775</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.3">
@@ -5500,139 +5500,139 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>32050.6</v>
+        <v>32159.1</v>
       </c>
       <c r="C11">
-        <v>33225.041109999896</v>
+        <v>33332.788640000101</v>
       </c>
       <c r="D11">
-        <v>33661.865539999897</v>
+        <v>33768.920680000097</v>
       </c>
       <c r="E11">
-        <v>34078.130949999999</v>
+        <v>34184.973779999797</v>
       </c>
       <c r="F11">
-        <v>34508.713129999996</v>
+        <v>34616.094120000002</v>
       </c>
       <c r="G11">
-        <v>34964.095090000003</v>
+        <v>35072.592030000102</v>
       </c>
       <c r="H11">
-        <v>35469.126209999798</v>
+        <v>35579.5926000002</v>
       </c>
       <c r="I11">
-        <v>36016.669059999898</v>
+        <v>36130.345399999802</v>
       </c>
       <c r="J11">
-        <v>36638.828250000101</v>
+        <v>36757.385169999798</v>
       </c>
       <c r="K11">
-        <v>37317.408879999799</v>
+        <v>37442.735069999901</v>
       </c>
       <c r="L11">
-        <v>38022.588119999702</v>
+        <v>38155.932359999701</v>
       </c>
       <c r="M11">
-        <v>38816.449109999703</v>
+        <v>38959.141949999903</v>
       </c>
       <c r="N11">
-        <v>39680.525659999999</v>
+        <v>39834.3965899998</v>
       </c>
       <c r="O11">
-        <v>40607.5768899998</v>
+        <v>40774.886569999799</v>
       </c>
       <c r="P11">
-        <v>41609.6711699999</v>
+        <v>41792.788549999903</v>
       </c>
       <c r="Q11">
-        <v>42652.373599999897</v>
+        <v>42852.946470000097</v>
       </c>
       <c r="R11">
-        <v>43845.793980000002</v>
+        <v>44065.24811</v>
       </c>
       <c r="S11">
-        <v>45077.374020000098</v>
+        <v>45317.494929999797</v>
       </c>
       <c r="T11">
-        <v>46427.140769999998</v>
+        <v>46689.1100299998</v>
       </c>
       <c r="U11">
-        <v>47846.424789999997</v>
+        <v>48132.006520000003</v>
       </c>
       <c r="V11">
-        <v>49293.125229999903</v>
+        <v>49602.6849699999</v>
       </c>
       <c r="W11">
-        <v>50806.629349999901</v>
+        <v>51138.662389999903</v>
       </c>
       <c r="X11">
-        <v>52376.392889999901</v>
+        <v>52730.813189999899</v>
       </c>
       <c r="Y11">
-        <v>54016.933520000202</v>
+        <v>54393.773690000096</v>
       </c>
       <c r="Z11">
-        <v>55731.2996200001</v>
+        <v>56131.049740000002</v>
       </c>
       <c r="AA11">
-        <v>57459.073329999999</v>
+        <v>57880.947969999899</v>
       </c>
       <c r="AB11">
-        <v>59320.594469999996</v>
+        <v>59762.846460000001</v>
       </c>
       <c r="AC11">
-        <v>61290.377289999902</v>
+        <v>61752.859329999999</v>
       </c>
       <c r="AD11">
-        <v>63388.894149999702</v>
+        <v>63872.336470000097</v>
       </c>
       <c r="AE11">
-        <v>65669.154250000094</v>
+        <v>66175.171089999902</v>
       </c>
       <c r="AF11">
-        <v>68114.433810000002</v>
+        <v>68644.776950000101</v>
       </c>
       <c r="AG11">
-        <v>70704.773850000201</v>
+        <v>71260.897809999602</v>
       </c>
       <c r="AH11">
-        <v>73427.163280000197</v>
+        <v>74010.016610000195</v>
       </c>
       <c r="AI11">
-        <v>76283.528190000099</v>
+        <v>76893.813119999701</v>
       </c>
       <c r="AJ11">
-        <v>79298.389959999899</v>
+        <v>79936.98921</v>
       </c>
       <c r="AK11">
-        <v>82403.094899999895</v>
+        <v>83070.614739999801</v>
       </c>
       <c r="AL11">
-        <v>85554.257179999797</v>
+        <v>86249.641699999906</v>
       </c>
       <c r="AM11">
-        <v>88692.825359999595</v>
+        <v>89414.488680000097</v>
       </c>
       <c r="AN11">
-        <v>91828.774020000099</v>
+        <v>92574.558679999798</v>
       </c>
       <c r="AO11">
-        <v>94943.460329999696</v>
+        <v>95711.234519999998</v>
       </c>
       <c r="AP11">
-        <v>97971.131200000003</v>
+        <v>98757.847859999805</v>
       </c>
       <c r="AQ11">
-        <v>101094.49718999999</v>
+        <v>101898.17608</v>
       </c>
       <c r="AR11">
-        <v>104293.71837</v>
+        <v>105114.38967999999</v>
       </c>
       <c r="AS11">
-        <v>107563.55613</v>
+        <v>108400.18614000001</v>
       </c>
       <c r="AT11">
-        <v>95885.9</v>
+        <v>96572.4</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.3">
@@ -5640,139 +5640,139 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>32050.6</v>
+        <v>32159.1</v>
       </c>
       <c r="C12">
-        <v>33246.384259999897</v>
+        <v>33354.467689999903</v>
       </c>
       <c r="D12">
-        <v>33689.103609999896</v>
+        <v>33796.829270000002</v>
       </c>
       <c r="E12">
-        <v>34125.650369999603</v>
+        <v>34233.613519999999</v>
       </c>
       <c r="F12">
-        <v>34577.9338299999</v>
+        <v>34686.904260000003</v>
       </c>
       <c r="G12">
-        <v>35046.050489999798</v>
+        <v>35156.544119999897</v>
       </c>
       <c r="H12">
-        <v>35554.127639999999</v>
+        <v>35666.681519999896</v>
       </c>
       <c r="I12">
-        <v>36110.88839</v>
+        <v>36226.835259999898</v>
       </c>
       <c r="J12">
-        <v>36754.934159999997</v>
+        <v>36876.000390000299</v>
       </c>
       <c r="K12">
-        <v>37447.277399999999</v>
+        <v>37575.484299999902</v>
       </c>
       <c r="L12">
-        <v>38207.1833999999</v>
+        <v>38344.201579999797</v>
       </c>
       <c r="M12">
-        <v>39052.117359999902</v>
+        <v>39199.542339999898</v>
       </c>
       <c r="N12">
-        <v>39962.822119999902</v>
+        <v>40122.753199999999</v>
       </c>
       <c r="O12">
-        <v>40940.704589999899</v>
+        <v>41115.105329999802</v>
       </c>
       <c r="P12">
-        <v>42014.078909999698</v>
+        <v>42205.5708999997</v>
       </c>
       <c r="Q12">
-        <v>43123.7337799999</v>
+        <v>43334.1154300001</v>
       </c>
       <c r="R12">
-        <v>44330.848830000003</v>
+        <v>44561.298679999898</v>
       </c>
       <c r="S12">
-        <v>45567.81465</v>
+        <v>45819.052600000097</v>
       </c>
       <c r="T12">
-        <v>46877.947789999896</v>
+        <v>47150.858889999901</v>
       </c>
       <c r="U12">
-        <v>48198.552569999803</v>
+        <v>48493.587610000002</v>
       </c>
       <c r="V12">
-        <v>49514.390709999701</v>
+        <v>49830.737079999897</v>
       </c>
       <c r="W12">
-        <v>50876.300199999998</v>
+        <v>51212.102740000002</v>
       </c>
       <c r="X12">
-        <v>52250.6128199999</v>
+        <v>52604.824370000002</v>
       </c>
       <c r="Y12">
-        <v>53690.673919999899</v>
+        <v>54063.030630000103</v>
       </c>
       <c r="Z12">
-        <v>55214.082300000002</v>
+        <v>55605.26281</v>
       </c>
       <c r="AA12">
-        <v>56692.214900000101</v>
+        <v>57101.104240000102</v>
       </c>
       <c r="AB12">
-        <v>58227.829790000003</v>
+        <v>58651.404450000002</v>
       </c>
       <c r="AC12">
-        <v>59801.003280000201</v>
+        <v>60237.859800000202</v>
       </c>
       <c r="AD12">
-        <v>61401.249840000099</v>
+        <v>61850.65913</v>
       </c>
       <c r="AE12">
-        <v>63093.5244199999</v>
+        <v>63555.645000000099</v>
       </c>
       <c r="AF12">
-        <v>64888.709199999903</v>
+        <v>65364.1305499999</v>
       </c>
       <c r="AG12">
-        <v>66755.313190000103</v>
+        <v>67244.682749999803</v>
       </c>
       <c r="AH12">
-        <v>68721.626859999698</v>
+        <v>69225.124949999896</v>
       </c>
       <c r="AI12">
-        <v>70794.445189999999</v>
+        <v>71313.039679999696</v>
       </c>
       <c r="AJ12">
-        <v>72953.795779999899</v>
+        <v>73487.9388700001</v>
       </c>
       <c r="AK12">
-        <v>75168.083439999798</v>
+        <v>75717.676450000596</v>
       </c>
       <c r="AL12">
-        <v>77379.361739999906</v>
+        <v>77943.575760000094</v>
       </c>
       <c r="AM12">
-        <v>79552.458599999896</v>
+        <v>80129.727830000003</v>
       </c>
       <c r="AN12">
-        <v>81682.561350000193</v>
+        <v>82270.766300000003</v>
       </c>
       <c r="AO12">
-        <v>83777.124960000103</v>
+        <v>84374.167149999805</v>
       </c>
       <c r="AP12">
-        <v>85796.493589999998</v>
+        <v>86400.179379999798</v>
       </c>
       <c r="AQ12">
-        <v>87858.608470000196</v>
+        <v>88467.555459999799</v>
       </c>
       <c r="AR12">
-        <v>89943.891999999905</v>
+        <v>90557.568109999702</v>
       </c>
       <c r="AS12">
-        <v>92120.860859999899</v>
+        <v>92739.205730000307</v>
       </c>
       <c r="AT12">
-        <v>100323</v>
+        <v>101004</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.3">
@@ -5780,139 +5780,139 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>32050.6</v>
+        <v>32159.1</v>
       </c>
       <c r="C13">
-        <v>33195.692289999897</v>
+        <v>33303.323459999803</v>
       </c>
       <c r="D13">
-        <v>33533.698120000103</v>
+        <v>33639.132980000002</v>
       </c>
       <c r="E13">
-        <v>33789.485479999901</v>
+        <v>33891.672899999998</v>
       </c>
       <c r="F13">
-        <v>33988.184540000198</v>
+        <v>34086.360840000001</v>
       </c>
       <c r="G13">
-        <v>34116.442770000001</v>
+        <v>34209.178169999897</v>
       </c>
       <c r="H13">
-        <v>34249.434569999903</v>
+        <v>34335.774679999799</v>
       </c>
       <c r="I13">
-        <v>34426.199989999899</v>
+        <v>34507.004219999901</v>
       </c>
       <c r="J13">
-        <v>34600.924259999898</v>
+        <v>34677.16663</v>
       </c>
       <c r="K13">
-        <v>34772.773459999597</v>
+        <v>34845.210499999797</v>
       </c>
       <c r="L13">
-        <v>34944.831759999899</v>
+        <v>35013.966859999899</v>
       </c>
       <c r="M13">
-        <v>35148.113780000102</v>
+        <v>35214.418629999898</v>
       </c>
       <c r="N13">
-        <v>35382.252869999997</v>
+        <v>35446.904439999897</v>
       </c>
       <c r="O13">
-        <v>35657.2224199997</v>
+        <v>35721.694040000002</v>
       </c>
       <c r="P13">
-        <v>35978.571230000001</v>
+        <v>36044.767970000001</v>
       </c>
       <c r="Q13">
-        <v>36322.903859999999</v>
+        <v>36392.124669999903</v>
       </c>
       <c r="R13">
-        <v>36691.739910000098</v>
+        <v>36764.333429999999</v>
       </c>
       <c r="S13">
-        <v>37030.021710000001</v>
+        <v>37105.47277</v>
       </c>
       <c r="T13">
-        <v>37370.602699999698</v>
+        <v>37448.744840000101</v>
       </c>
       <c r="U13">
-        <v>37704.875979999902</v>
+        <v>37785.702659999901</v>
       </c>
       <c r="V13">
-        <v>37941.483419999997</v>
+        <v>38023.38968</v>
       </c>
       <c r="W13">
-        <v>38171.8013600001</v>
+        <v>38252.762259999799</v>
       </c>
       <c r="X13">
-        <v>38402.938300000002</v>
+        <v>38481.928480000002</v>
       </c>
       <c r="Y13">
-        <v>38625.977139999901</v>
+        <v>38702.575859999903</v>
       </c>
       <c r="Z13">
-        <v>38885.425549999898</v>
+        <v>38960.0252799999</v>
       </c>
       <c r="AA13">
-        <v>39073.327260000202</v>
+        <v>39145.054409999997</v>
       </c>
       <c r="AB13">
-        <v>39293.346539999999</v>
+        <v>39360.500109999601</v>
       </c>
       <c r="AC13">
-        <v>39530.876519999998</v>
+        <v>39593.2696</v>
       </c>
       <c r="AD13">
-        <v>39777.4449199999</v>
+        <v>39835.025290000201</v>
       </c>
       <c r="AE13">
-        <v>40009.025760000099</v>
+        <v>40061.8918599998</v>
       </c>
       <c r="AF13">
-        <v>40294.912609999898</v>
+        <v>40343.107909999999</v>
       </c>
       <c r="AG13">
-        <v>40563.62932</v>
+        <v>40607.629090000002</v>
       </c>
       <c r="AH13">
-        <v>40835.870289999802</v>
+        <v>40875.3158700001</v>
       </c>
       <c r="AI13">
-        <v>41129.306049999897</v>
+        <v>41164.311889999903</v>
       </c>
       <c r="AJ13">
-        <v>41434.965459999701</v>
+        <v>41466.0049099998</v>
       </c>
       <c r="AK13">
-        <v>41757.738879999997</v>
+        <v>41784.931539999998</v>
       </c>
       <c r="AL13">
-        <v>42112.196210000002</v>
+        <v>42135.666619999902</v>
       </c>
       <c r="AM13">
-        <v>42468.04679</v>
+        <v>42488.318499999899</v>
       </c>
       <c r="AN13">
-        <v>42830.646520000199</v>
+        <v>42847.497580000003</v>
       </c>
       <c r="AO13">
-        <v>43218.6393199999</v>
+        <v>43232.218099999802</v>
       </c>
       <c r="AP13">
-        <v>43607.784359999903</v>
+        <v>43618.1722899999</v>
       </c>
       <c r="AQ13">
-        <v>43994.629769999898</v>
+        <v>44001.651469999902</v>
       </c>
       <c r="AR13">
-        <v>44411.730429999901</v>
+        <v>44415.655219999702</v>
       </c>
       <c r="AS13">
-        <v>44821.361589999899</v>
+        <v>44822.103560000003</v>
       </c>
       <c r="AT13">
-        <v>42380.6</v>
+        <v>42312.3</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.3">
@@ -5920,139 +5920,139 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>32050.6</v>
+        <v>32159.1</v>
       </c>
       <c r="C14">
-        <v>33186.1308499999</v>
+        <v>33293.588309999999</v>
       </c>
       <c r="D14">
-        <v>33511.11404</v>
+        <v>33616.208200000197</v>
       </c>
       <c r="E14">
-        <v>33771.861239999998</v>
+        <v>33873.654739999904</v>
       </c>
       <c r="F14">
-        <v>33980.164700000001</v>
+        <v>34077.841079999802</v>
       </c>
       <c r="G14">
-        <v>34100.03282</v>
+        <v>34192.5978700001</v>
       </c>
       <c r="H14">
-        <v>34050.1528500001</v>
+        <v>34134.456949999803</v>
       </c>
       <c r="I14">
-        <v>33824.17</v>
+        <v>33896.962129999898</v>
       </c>
       <c r="J14">
-        <v>33415.037199999897</v>
+        <v>33472.210160000002</v>
       </c>
       <c r="K14">
-        <v>32845.833960000004</v>
+        <v>32884.154979999999</v>
       </c>
       <c r="L14">
-        <v>32176.925299999999</v>
+        <v>32193.8325</v>
       </c>
       <c r="M14">
-        <v>31551.972629999898</v>
+        <v>31547.402740000001</v>
       </c>
       <c r="N14">
-        <v>30976.589479999901</v>
+        <v>30952.3131299999</v>
       </c>
       <c r="O14">
-        <v>30473.362867999898</v>
+        <v>30431.716549999899</v>
       </c>
       <c r="P14">
-        <v>30081.762008000002</v>
+        <v>30026.073514</v>
       </c>
       <c r="Q14">
-        <v>29727.433266</v>
+        <v>29659.940603999901</v>
       </c>
       <c r="R14">
-        <v>29442.004623000001</v>
+        <v>29364.383028999899</v>
       </c>
       <c r="S14">
-        <v>29194.727434</v>
+        <v>29108.077669999901</v>
       </c>
       <c r="T14">
-        <v>28998.460375000101</v>
+        <v>28903.991977000001</v>
       </c>
       <c r="U14">
-        <v>28869.162066000001</v>
+        <v>28768.303209000002</v>
       </c>
       <c r="V14">
-        <v>28734.6243929999</v>
+        <v>28628.289405</v>
       </c>
       <c r="W14">
-        <v>28680.256513</v>
+        <v>28568.890874000001</v>
       </c>
       <c r="X14">
-        <v>28682.188343000002</v>
+        <v>28566.921726999899</v>
       </c>
       <c r="Y14">
-        <v>28745.897488999999</v>
+        <v>28627.987706</v>
       </c>
       <c r="Z14">
-        <v>28872.623734999801</v>
+        <v>28753.326262999999</v>
       </c>
       <c r="AA14">
-        <v>29022.135624999901</v>
+        <v>28902.289992999999</v>
       </c>
       <c r="AB14">
-        <v>29191.368025</v>
+        <v>29071.001875999998</v>
       </c>
       <c r="AC14">
-        <v>29412.701653999899</v>
+        <v>29291.858380999998</v>
       </c>
       <c r="AD14">
-        <v>29672.387226999999</v>
+        <v>29552.015022999902</v>
       </c>
       <c r="AE14">
-        <v>29914.140998999999</v>
+        <v>29794.283841999899</v>
       </c>
       <c r="AF14">
-        <v>30155.7255890001</v>
+        <v>30036.026414999898</v>
       </c>
       <c r="AG14">
-        <v>30430.019173999899</v>
+        <v>30310.745631999998</v>
       </c>
       <c r="AH14">
-        <v>30731.569544000002</v>
+        <v>30613.142030999901</v>
       </c>
       <c r="AI14">
-        <v>31044.012520000098</v>
+        <v>30926.609335000099</v>
       </c>
       <c r="AJ14">
-        <v>31374.250749999999</v>
+        <v>31258.027168999899</v>
       </c>
       <c r="AK14">
-        <v>31748.292228999999</v>
+        <v>31633.702530999999</v>
       </c>
       <c r="AL14">
-        <v>32132.387700999901</v>
+        <v>32019.542900999899</v>
       </c>
       <c r="AM14">
-        <v>32566.951768999901</v>
+        <v>32456.464896000001</v>
       </c>
       <c r="AN14">
-        <v>33042.947827000098</v>
+        <v>32935.163233000101</v>
       </c>
       <c r="AO14">
-        <v>33533.672451999999</v>
+        <v>33429.2142699998</v>
       </c>
       <c r="AP14">
-        <v>34225.275999999802</v>
+        <v>34125.141697999898</v>
       </c>
       <c r="AQ14">
-        <v>35513.885922000001</v>
+        <v>35425.606338999802</v>
       </c>
       <c r="AR14">
-        <v>37692.794456999902</v>
+        <v>37629.700553999799</v>
       </c>
       <c r="AS14">
-        <v>41060.281140000203</v>
+        <v>41040.606003999899</v>
       </c>
       <c r="AT14">
-        <v>37376.300000000003</v>
+        <v>37273.599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.3">
@@ -6060,139 +6060,139 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>8986.99</v>
+        <v>9017.41</v>
       </c>
       <c r="C15">
-        <v>9318.6144790000199</v>
+        <v>9348.8343660000191</v>
       </c>
       <c r="D15">
-        <v>9444.28639999999</v>
+        <v>9474.3221389999799</v>
       </c>
       <c r="E15">
-        <v>9565.0942249999698</v>
+        <v>9595.0828810000494</v>
       </c>
       <c r="F15">
-        <v>9690.8546540000098</v>
+        <v>9721.0100089999396</v>
       </c>
       <c r="G15">
-        <v>9823.7651559999704</v>
+        <v>9854.2488449999892</v>
       </c>
       <c r="H15">
-        <v>9969.4897310000306</v>
+        <v>10000.5390889999</v>
       </c>
       <c r="I15">
-        <v>10125.981766999899</v>
+        <v>10157.941762</v>
       </c>
       <c r="J15">
-        <v>10302.218940999899</v>
+        <v>10335.5548799999</v>
       </c>
       <c r="K15">
-        <v>10493.024572</v>
+        <v>10528.264014999901</v>
       </c>
       <c r="L15">
-        <v>10689.5479119999</v>
+        <v>10727.0357589999</v>
       </c>
       <c r="M15">
-        <v>10908.467243999999</v>
+        <v>10948.56812</v>
       </c>
       <c r="N15">
-        <v>11144.4203219999</v>
+        <v>11187.6351609999</v>
       </c>
       <c r="O15">
-        <v>11395.177666</v>
+        <v>11442.127772</v>
       </c>
       <c r="P15">
-        <v>11663.908751000001</v>
+        <v>11715.239067</v>
       </c>
       <c r="Q15">
-        <v>11940.606497999999</v>
+        <v>11996.7570349999</v>
       </c>
       <c r="R15">
-        <v>12255.612247999899</v>
+        <v>12316.952950999999</v>
       </c>
       <c r="S15">
-        <v>12577.087379999901</v>
+        <v>12644.083704999999</v>
       </c>
       <c r="T15">
-        <v>12927.016813</v>
+        <v>12999.958784999901</v>
       </c>
       <c r="U15">
-        <v>13291.4168899999</v>
+        <v>13370.749121000001</v>
       </c>
       <c r="V15">
-        <v>13657.8279109999</v>
+        <v>13743.598662</v>
       </c>
       <c r="W15">
-        <v>14036.105474</v>
+        <v>14127.834895</v>
       </c>
       <c r="X15">
-        <v>14422.822248</v>
+        <v>14520.417873999901</v>
       </c>
       <c r="Y15">
-        <v>14821.440638</v>
+        <v>14924.839209</v>
       </c>
       <c r="Z15">
-        <v>15232.209321</v>
+        <v>15341.466699999901</v>
       </c>
       <c r="AA15">
-        <v>15637.8769729999</v>
+        <v>15752.6931969999</v>
       </c>
       <c r="AB15">
-        <v>16070.285669999999</v>
+        <v>16190.093655999901</v>
       </c>
       <c r="AC15">
-        <v>16521.626066999899</v>
+        <v>16646.294014999999</v>
       </c>
       <c r="AD15">
-        <v>16996.499464</v>
+        <v>17126.125309999901</v>
       </c>
       <c r="AE15">
-        <v>17508.019544999901</v>
+        <v>17642.928409999899</v>
       </c>
       <c r="AF15">
-        <v>18050.996380999899</v>
+        <v>18191.542045999999</v>
       </c>
       <c r="AG15">
-        <v>18619.8901159999</v>
+        <v>18766.343032999899</v>
       </c>
       <c r="AH15">
-        <v>19210.179307999901</v>
+        <v>19362.665800999999</v>
       </c>
       <c r="AI15">
-        <v>19821.277893999901</v>
+        <v>19979.8526100001</v>
       </c>
       <c r="AJ15">
-        <v>20458.388281999902</v>
+        <v>20623.141886000001</v>
       </c>
       <c r="AK15">
-        <v>21103.219219999999</v>
+        <v>21274.169267000001</v>
       </c>
       <c r="AL15">
-        <v>21744.883051999899</v>
+        <v>21921.624774999898</v>
       </c>
       <c r="AM15">
-        <v>22367.955851000101</v>
+        <v>22549.955513000001</v>
       </c>
       <c r="AN15">
-        <v>22974.762679000101</v>
+        <v>23161.352192999999</v>
       </c>
       <c r="AO15">
-        <v>23560.465993999998</v>
+        <v>23750.990585</v>
       </c>
       <c r="AP15">
-        <v>24109.4516899999</v>
+        <v>24303.051626</v>
       </c>
       <c r="AQ15">
-        <v>24667.805727999999</v>
+        <v>24863.910564999998</v>
       </c>
       <c r="AR15">
-        <v>25230.067221000001</v>
+        <v>25428.598986000001</v>
       </c>
       <c r="AS15">
-        <v>25794.438011999999</v>
+        <v>25995.067063999901</v>
       </c>
       <c r="AT15">
-        <v>22790.799999999999</v>
+        <v>22954</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.3">
@@ -6200,139 +6200,139 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>8986.99</v>
+        <v>9017.41</v>
       </c>
       <c r="C16">
-        <v>9323.0366970000305</v>
+        <v>9353.3456490000208</v>
       </c>
       <c r="D16">
-        <v>9447.6057169999895</v>
+        <v>9477.8154670000204</v>
       </c>
       <c r="E16">
-        <v>9570.1097659999596</v>
+        <v>9600.3865219999498</v>
       </c>
       <c r="F16">
-        <v>9696.6802990000197</v>
+        <v>9727.2386919999808</v>
       </c>
       <c r="G16">
-        <v>9826.7848619999804</v>
+        <v>9857.7670910000106</v>
       </c>
       <c r="H16">
-        <v>9966.2272679999896</v>
+        <v>9997.7773250000191</v>
       </c>
       <c r="I16">
-        <v>10117.3653109999</v>
+        <v>10149.850584</v>
       </c>
       <c r="J16">
-        <v>10290.902128</v>
+        <v>10324.799602999999</v>
       </c>
       <c r="K16">
-        <v>10475.787480000001</v>
+        <v>10511.653576999999</v>
       </c>
       <c r="L16">
-        <v>10676.940548</v>
+        <v>10715.2299969999</v>
       </c>
       <c r="M16">
-        <v>10898.486413000001</v>
+        <v>10939.6283899999</v>
       </c>
       <c r="N16">
-        <v>11134.7884189999</v>
+        <v>11179.3495639999</v>
       </c>
       <c r="O16">
-        <v>11385.963591</v>
+        <v>11434.465840999999</v>
       </c>
       <c r="P16">
-        <v>11659.5670189999</v>
+        <v>11712.708635000001</v>
       </c>
       <c r="Q16">
-        <v>11938.7757149999</v>
+        <v>11997.0194339999</v>
       </c>
       <c r="R16">
-        <v>12240.1113949999</v>
+        <v>12303.74062</v>
       </c>
       <c r="S16">
-        <v>12544.5044539999</v>
+        <v>12613.668330999901</v>
       </c>
       <c r="T16">
-        <v>12863.522236000001</v>
+        <v>12938.409917000001</v>
       </c>
       <c r="U16">
-        <v>13179.573403999901</v>
+        <v>13260.249255999999</v>
       </c>
       <c r="V16">
-        <v>13488.075049999899</v>
+        <v>13574.2494909999</v>
       </c>
       <c r="W16">
-        <v>13802.323425999901</v>
+        <v>13893.4238409999</v>
       </c>
       <c r="X16">
-        <v>14112.800487</v>
+        <v>14208.471747</v>
       </c>
       <c r="Y16">
-        <v>14433.5356829999</v>
+        <v>14533.634985000001</v>
       </c>
       <c r="Z16">
-        <v>14768.716218</v>
+        <v>14873.349962999901</v>
       </c>
       <c r="AA16">
-        <v>15083.2329669999</v>
+        <v>15192.019398</v>
       </c>
       <c r="AB16">
-        <v>15403.726146000001</v>
+        <v>15515.7793649999</v>
       </c>
       <c r="AC16">
-        <v>15724.392003999999</v>
+        <v>15839.261227999899</v>
       </c>
       <c r="AD16">
-        <v>16042.011510999901</v>
+        <v>16159.4262</v>
       </c>
       <c r="AE16">
-        <v>16373.014031999901</v>
+        <v>16492.935599999899</v>
       </c>
       <c r="AF16">
-        <v>16719.381530999999</v>
+        <v>16841.8799689999</v>
       </c>
       <c r="AG16">
-        <v>17072.123068000001</v>
+        <v>17197.274945000001</v>
       </c>
       <c r="AH16">
-        <v>17437.695522000002</v>
+        <v>17565.455320999899</v>
       </c>
       <c r="AI16">
-        <v>17816.900377999998</v>
+        <v>17947.415815999899</v>
       </c>
       <c r="AJ16">
-        <v>18203.776715999898</v>
+        <v>18337.058273999999</v>
       </c>
       <c r="AK16">
-        <v>18589.935311000001</v>
+        <v>18725.856551999899</v>
       </c>
       <c r="AL16">
-        <v>18961.0290729999</v>
+        <v>19099.2841689999</v>
       </c>
       <c r="AM16">
-        <v>19308.312956000002</v>
+        <v>19448.4230049998</v>
       </c>
       <c r="AN16">
-        <v>19630.690182999901</v>
+        <v>19772.052799999899</v>
       </c>
       <c r="AO16">
-        <v>19930.066217999902</v>
+        <v>20072.098402</v>
       </c>
       <c r="AP16">
-        <v>20197.698195000001</v>
+        <v>20339.812790999898</v>
       </c>
       <c r="AQ16">
-        <v>20462.3303109999</v>
+        <v>20604.1536109999</v>
       </c>
       <c r="AR16">
-        <v>20719.071203</v>
+        <v>20860.433744000002</v>
       </c>
       <c r="AS16">
-        <v>20983.3001539998</v>
+        <v>21124.1460669999</v>
       </c>
       <c r="AT16">
-        <v>22590.2</v>
+        <v>22743.599999999999</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.3">
@@ -6340,139 +6340,139 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>8986.99</v>
+        <v>9017.41</v>
       </c>
       <c r="C17">
-        <v>9310.4436159999605</v>
+        <v>9340.6309209999908</v>
       </c>
       <c r="D17">
-        <v>9408.56273100004</v>
+        <v>9438.1442299999708</v>
       </c>
       <c r="E17">
-        <v>9484.6031140000105</v>
+        <v>9513.28652899999</v>
       </c>
       <c r="F17">
-        <v>9545.6139460000395</v>
+        <v>9573.1868730000406</v>
       </c>
       <c r="G17">
-        <v>9587.2800809999699</v>
+        <v>9613.3398619999407</v>
       </c>
       <c r="H17">
-        <v>9629.7835319999995</v>
+        <v>9654.0596329999807</v>
       </c>
       <c r="I17">
-        <v>9684.1019109999907</v>
+        <v>9706.8324779999894</v>
       </c>
       <c r="J17">
-        <v>9737.3504380000195</v>
+        <v>9758.8068879999701</v>
       </c>
       <c r="K17">
-        <v>9789.2844059999607</v>
+        <v>9809.67646100001</v>
       </c>
       <c r="L17">
-        <v>9840.3125410000102</v>
+        <v>9859.7806000000091</v>
       </c>
       <c r="M17">
-        <v>9898.39934000004</v>
+        <v>9917.0723210000797</v>
       </c>
       <c r="N17">
-        <v>9963.4140729999708</v>
+        <v>9981.6193560000193</v>
       </c>
       <c r="O17">
-        <v>10038.125483</v>
+        <v>10056.274658999901</v>
       </c>
       <c r="P17">
-        <v>10124.0455049999</v>
+        <v>10142.673102999899</v>
       </c>
       <c r="Q17">
-        <v>10213.966280999901</v>
+        <v>10233.431182</v>
       </c>
       <c r="R17">
-        <v>10307.283423999899</v>
+        <v>10327.676414</v>
       </c>
       <c r="S17">
-        <v>10388.4404179999</v>
+        <v>10409.6069839999</v>
       </c>
       <c r="T17">
-        <v>10466.591412</v>
+        <v>10488.4776039999</v>
       </c>
       <c r="U17">
-        <v>10539.253865999901</v>
+        <v>10561.846626999901</v>
       </c>
       <c r="V17">
-        <v>10580.651277999899</v>
+        <v>10603.492499</v>
       </c>
       <c r="W17">
-        <v>10615.946662</v>
+        <v>10638.463107</v>
       </c>
       <c r="X17">
-        <v>10647.086229999901</v>
+        <v>10668.985978000001</v>
       </c>
       <c r="Y17">
-        <v>10671.5680719999</v>
+        <v>10692.730718999999</v>
       </c>
       <c r="Z17">
-        <v>10701.638860999899</v>
+        <v>10722.1689459999</v>
       </c>
       <c r="AA17">
-        <v>10707.7811959999</v>
+        <v>10727.4372579999</v>
       </c>
       <c r="AB17">
-        <v>10718.880171999999</v>
+        <v>10737.1992989999</v>
       </c>
       <c r="AC17">
-        <v>10730.842311</v>
+        <v>10747.778705999999</v>
       </c>
       <c r="AD17">
-        <v>10741.299399</v>
+        <v>10756.8477529999</v>
       </c>
       <c r="AE17">
-        <v>10743.755606000001</v>
+        <v>10757.9522759999</v>
       </c>
       <c r="AF17">
-        <v>10757.302656</v>
+        <v>10770.1694569999</v>
       </c>
       <c r="AG17">
-        <v>10763.589746</v>
+        <v>10775.265347999901</v>
       </c>
       <c r="AH17">
-        <v>10768.158439000001</v>
+        <v>10778.559623999899</v>
       </c>
       <c r="AI17">
-        <v>10775.624218000001</v>
+        <v>10784.7950799999</v>
       </c>
       <c r="AJ17">
-        <v>10783.5454289999</v>
+        <v>10791.624013999901</v>
       </c>
       <c r="AK17">
-        <v>10793.6374289999</v>
+        <v>10800.665745999901</v>
       </c>
       <c r="AL17">
-        <v>10810.403528999999</v>
+        <v>10816.428825000001</v>
       </c>
       <c r="AM17">
-        <v>10825.9596329999</v>
+        <v>10831.127462</v>
       </c>
       <c r="AN17">
-        <v>10841.6603109999</v>
+        <v>10845.925923999899</v>
       </c>
       <c r="AO17">
-        <v>10862.161328</v>
+        <v>10865.573770999999</v>
       </c>
       <c r="AP17">
-        <v>10881.748793000001</v>
+        <v>10884.340205999901</v>
       </c>
       <c r="AQ17">
-        <v>10900.3487269999</v>
+        <v>10902.088153000001</v>
       </c>
       <c r="AR17">
-        <v>10925.994575999999</v>
+        <v>10926.9601909999</v>
       </c>
       <c r="AS17">
-        <v>10949.327321999999</v>
+        <v>10949.5082169999</v>
       </c>
       <c r="AT17">
-        <v>10280.700000000001</v>
+        <v>10264.200000000001</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.3">
@@ -6480,139 +6480,139 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>8986.99</v>
+        <v>9017.41</v>
       </c>
       <c r="C18">
-        <v>9305.9355910000195</v>
+        <v>9336.068276</v>
       </c>
       <c r="D18">
-        <v>9397.12699899994</v>
+        <v>9426.5974659999501</v>
       </c>
       <c r="E18">
-        <v>9469.8148370000108</v>
+        <v>9498.3578539999908</v>
       </c>
       <c r="F18">
-        <v>9527.2953799999905</v>
+        <v>9554.6816679999993</v>
       </c>
       <c r="G18">
-        <v>9558.9507369999901</v>
+        <v>9584.8988749999899</v>
       </c>
       <c r="H18">
-        <v>9541.1296980000097</v>
+        <v>9564.7523560000409</v>
       </c>
       <c r="I18">
-        <v>9472.1190499999902</v>
+        <v>9492.5039910000505</v>
       </c>
       <c r="J18">
-        <v>9350.0787099999798</v>
+        <v>9366.0764990000098</v>
       </c>
       <c r="K18">
-        <v>9181.6530839999796</v>
+        <v>9192.3653640000193</v>
       </c>
       <c r="L18">
-        <v>8983.5532439999497</v>
+        <v>8988.2740530000192</v>
       </c>
       <c r="M18">
-        <v>8795.45821599999</v>
+        <v>8794.1842470000192</v>
       </c>
       <c r="N18">
-        <v>8619.0459910000209</v>
+        <v>8612.2915220000505</v>
       </c>
       <c r="O18">
-        <v>8460.6735049999697</v>
+        <v>8449.1109579999902</v>
       </c>
       <c r="P18">
-        <v>8331.2867080000306</v>
+        <v>8315.8632819999893</v>
       </c>
       <c r="Q18">
-        <v>8210.1269270000194</v>
+        <v>8191.4868159999896</v>
       </c>
       <c r="R18">
-        <v>8105.7483109999803</v>
+        <v>8084.3779560000103</v>
       </c>
       <c r="S18">
-        <v>8009.6407289999697</v>
+        <v>7985.8681389999902</v>
       </c>
       <c r="T18">
-        <v>7925.3062259999797</v>
+        <v>7899.4878799999997</v>
       </c>
       <c r="U18">
-        <v>7857.0109479999801</v>
+        <v>7829.5614969999797</v>
       </c>
       <c r="V18">
-        <v>7784.9082070000204</v>
+        <v>7756.0994769999797</v>
       </c>
       <c r="W18">
-        <v>7731.9154109999899</v>
+        <v>7701.8919819999901</v>
       </c>
       <c r="X18">
-        <v>7691.3700569999801</v>
+        <v>7660.4603369999604</v>
       </c>
       <c r="Y18">
-        <v>7664.5369909999999</v>
+        <v>7633.0982720000202</v>
       </c>
       <c r="Z18">
-        <v>7651.4927009999901</v>
+        <v>7619.8777120000204</v>
       </c>
       <c r="AA18">
-        <v>7641.2630170000102</v>
+        <v>7609.7087169999704</v>
       </c>
       <c r="AB18">
-        <v>7632.7920469999899</v>
+        <v>7601.3186260000002</v>
       </c>
       <c r="AC18">
-        <v>7634.3896249999998</v>
+        <v>7603.0232289999703</v>
       </c>
       <c r="AD18">
-        <v>7642.2203120000004</v>
+        <v>7611.2182620000103</v>
       </c>
       <c r="AE18">
-        <v>7641.6744989999897</v>
+        <v>7611.0568030000004</v>
       </c>
       <c r="AF18">
-        <v>7637.4405299999999</v>
+        <v>7607.12456200001</v>
       </c>
       <c r="AG18">
-        <v>7637.9004799999702</v>
+        <v>7607.9624589999803</v>
       </c>
       <c r="AH18">
-        <v>7641.4859150000002</v>
+        <v>7612.0383119999897</v>
       </c>
       <c r="AI18">
-        <v>7643.9849329999997</v>
+        <v>7615.0768460000099</v>
       </c>
       <c r="AJ18">
-        <v>7647.0136069999899</v>
+        <v>7618.68567300001</v>
       </c>
       <c r="AK18">
-        <v>7656.6428519999899</v>
+        <v>7629.0072719999798</v>
       </c>
       <c r="AL18">
-        <v>7664.3596779999898</v>
+        <v>7637.4432859999997</v>
       </c>
       <c r="AM18">
-        <v>7679.6283389999799</v>
+        <v>7653.5740620000097</v>
       </c>
       <c r="AN18">
-        <v>7699.9413279999999</v>
+        <v>7674.8245279999801</v>
       </c>
       <c r="AO18">
-        <v>7718.8142329999901</v>
+        <v>7694.7699269999803</v>
       </c>
       <c r="AP18">
-        <v>7778.9440070000201</v>
+        <v>7756.1850590000104</v>
       </c>
       <c r="AQ18">
-        <v>7968.3119469999801</v>
+        <v>7948.5042999999596</v>
       </c>
       <c r="AR18">
-        <v>8346.6287679999696</v>
+        <v>8332.6573989999397</v>
       </c>
       <c r="AS18">
-        <v>8971.1784229999994</v>
+        <v>8966.8796009999805</v>
       </c>
       <c r="AT18">
-        <v>8055.44</v>
+        <v>8033.31</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.3">
@@ -6626,183 +6626,183 @@
       </c>
       <c r="B22">
         <f>B3/B15</f>
-        <v>0.34316272745379711</v>
+        <v>0.34200507684579051</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:AT22" si="0">C3/C15</f>
-        <v>0.34085150074164616</v>
+        <v>0.33974970628974599</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.34644457859727795</v>
+        <v>0.34534627111015176</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.35264193751316658</v>
+        <v>0.3515397836405591</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.35872405047010897</v>
+        <v>0.35761125961001072</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.36469513573538859</v>
+        <v>0.36356696723949983</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.37030374207825123</v>
+        <v>0.36915403471206282</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.37544854400092242</v>
+        <v>0.37426726792450771</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0.38035431963162047</v>
+        <v>0.3791275380466122</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.38470661002470014</v>
+        <v>0.38341894791475156</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.38893297557821066</v>
+        <v>0.38757376878433958</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.39280599566880642</v>
+        <v>0.3913672810942862</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0.39634867084834902</v>
+        <v>0.39481768206009427</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
-        <v>0.39929592625624882</v>
+        <v>0.39765750843426168</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>0.40179004226162174</v>
+        <v>0.40002959932767967</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>0.40447655835647323</v>
+        <v>0.40258341541048143</v>
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
-        <v>0.40716588653613472</v>
+        <v>0.40513812513953401</v>
       </c>
       <c r="S22">
         <f t="shared" si="0"/>
-        <v>0.40928794914678179</v>
+        <v>0.40711928361913913</v>
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>0.41203307987064425</v>
+        <v>0.40972118751221343</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>0.41450301970026021</v>
+        <v>0.41204366241133661</v>
       </c>
       <c r="V22">
         <f t="shared" si="0"/>
-        <v>0.41766902286165597</v>
+        <v>0.41506244312651192</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
-        <v>0.42062796563735694</v>
+        <v>0.41789690599296814</v>
       </c>
       <c r="X22">
         <f t="shared" si="0"/>
-        <v>0.42369299204581029</v>
+        <v>0.42084523772156845</v>
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>0.42694916719336656</v>
+        <v>0.42399128381792539</v>
       </c>
       <c r="Z22">
         <f t="shared" si="0"/>
-        <v>0.43021006959020569</v>
+        <v>0.42714624097838261</v>
       </c>
       <c r="AA22">
         <f t="shared" si="0"/>
-        <v>0.43436478843821913</v>
+        <v>0.43119884568650391</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
-        <v>0.43841157915147566</v>
+        <v>0.43516729845408086</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>0.44270045196151542</v>
+        <v>0.43938496583138781</v>
       </c>
       <c r="AD22">
         <f t="shared" si="0"/>
-        <v>0.44707232198574792</v>
+        <v>0.44368847847698267</v>
       </c>
       <c r="AE22">
         <f t="shared" si="0"/>
-        <v>0.45158584868372242</v>
+        <v>0.44813274085036231</v>
       </c>
       <c r="AF22">
         <f t="shared" si="0"/>
-        <v>0.45596143721259136</v>
+        <v>0.45243873401099355</v>
       </c>
       <c r="AG22">
         <f t="shared" si="0"/>
-        <v>0.46017246077286117</v>
+        <v>0.45658126566975854</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>0.4642468594390512</v>
+        <v>0.46059078355519667</v>
       </c>
       <c r="AI22">
         <f t="shared" si="0"/>
-        <v>0.46825355260316376</v>
+        <v>0.46453715010663249</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="0"/>
-        <v>0.47226954273328009</v>
+        <v>0.46849668844876358</v>
       </c>
       <c r="AK22">
         <f t="shared" si="0"/>
-        <v>0.47582360460357764</v>
+        <v>0.47200009137728832</v>
       </c>
       <c r="AL22">
         <f t="shared" si="0"/>
-        <v>0.47931075541201529</v>
+        <v>0.47544634254876067</v>
       </c>
       <c r="AM22">
         <f t="shared" si="0"/>
-        <v>0.48250528103207724</v>
+        <v>0.47861100292539188</v>
       </c>
       <c r="AN22">
         <f t="shared" si="0"/>
-        <v>0.48571983314543948</v>
+        <v>0.48180683934216278</v>
       </c>
       <c r="AO22">
         <f t="shared" si="0"/>
-        <v>0.4888602450788988</v>
+        <v>0.48493872871449756</v>
       </c>
       <c r="AP22">
         <f t="shared" si="0"/>
-        <v>0.49183620438445352</v>
+        <v>0.48791820021128646</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="0"/>
-        <v>0.49556269182565538</v>
+        <v>0.49165412560676985</v>
       </c>
       <c r="AR22">
         <f t="shared" si="0"/>
-        <v>0.49906312879419018</v>
+        <v>0.49516673309183623</v>
       </c>
       <c r="AS22">
         <f t="shared" si="0"/>
-        <v>0.50262961530576267</v>
+        <v>0.49875033686506476</v>
       </c>
       <c r="AT22">
         <f t="shared" si="0"/>
-        <v>0.50782333222177378</v>
+        <v>0.50421277337283266</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.3">
@@ -6811,183 +6811,183 @@
       </c>
       <c r="B23">
         <f t="shared" ref="B23:AT23" si="1">B4/B16</f>
-        <v>0.34316272745379711</v>
+        <v>0.34200507684579051</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.34093696220490055</v>
+        <v>0.33983217655810949</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.34640753954317499</v>
+        <v>0.34530339426790962</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.35260541953119479</v>
+        <v>0.35149340719430022</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.35868929816719775</v>
+        <v>0.3575624656831457</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.36457451641725042</v>
+        <v>0.36342868581981963</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.37013269222188416</v>
+        <v>0.36896466185297666</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>0.37526526247620118</v>
+        <v>0.37406420100262533</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.38028785458486969</v>
+        <v>0.37903932690982906</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.38458554907606618</v>
+        <v>0.38327333092628424</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.38904282592245826</v>
+        <v>0.38765263313647924</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.39294341394890536</v>
+        <v>0.39146562436386551</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0.39631921271803916</v>
+        <v>0.39473947520262187</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>0.39929472641153207</v>
+        <v>0.39760101435594558</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>0.4019180916721527</v>
+        <v>0.40009455302223607</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>0.40459833774505666</v>
+        <v>0.40263407386925548</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>0.40677736732313868</v>
+        <v>0.40467370393899033</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>0.40883411041116691</v>
+        <v>0.40659237141947413</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>0.41116923599649147</v>
+        <v>0.4087893832340696</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>0.41322993825787419</v>
+        <v>0.41071583187138849</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>0.41623546200538392</v>
+        <v>0.41359304274776876</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>0.41904831059854569</v>
+        <v>0.41630057358012129</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>0.42198407704309171</v>
+        <v>0.4191426913494351</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>0.42525968832636463</v>
+        <v>0.42233074467158155</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>0.42861360639355811</v>
+        <v>0.42559831751066102</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>0.43249301859039785</v>
+        <v>0.42939603913741592</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>0.43621498287573945</v>
+        <v>0.43306468717628699</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>0.44022673170696158</v>
+        <v>0.43703412680403858</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
-        <v>0.4442006795166446</v>
+        <v>0.44097310918131427</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>0.44839330453461218</v>
+        <v>0.44513299785151983</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>0.45264330064889291</v>
+        <v>0.44935102583143377</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>0.45667491072704469</v>
+        <v>0.45335149335777625</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>0.46087014771308776</v>
+        <v>0.45751807534372058</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0.46494550428248577</v>
+        <v>0.46156437316257182</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>0.4688864748323272</v>
+        <v>0.46547840801173812</v>
       </c>
       <c r="AK23">
         <f t="shared" si="1"/>
-        <v>0.47262792252972946</v>
+        <v>0.4691973625666615</v>
       </c>
       <c r="AL23">
         <f t="shared" si="1"/>
-        <v>0.47608729348210294</v>
+        <v>0.47264101277952125</v>
       </c>
       <c r="AM23">
         <f t="shared" si="1"/>
-        <v>0.47930578953684061</v>
+        <v>0.47585278166876671</v>
       </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>0.48253376517566926</v>
+        <v>0.47908383326793652</v>
       </c>
       <c r="AO23">
         <f t="shared" si="1"/>
-        <v>0.48584011638932412</v>
+        <v>0.48240226293605681</v>
       </c>
       <c r="AP23">
         <f t="shared" si="1"/>
-        <v>0.48900103762541691</v>
+        <v>0.48558437958535777</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="1"/>
-        <v>0.49266095658619968</v>
+        <v>0.48926985380355931</v>
       </c>
       <c r="AR23">
         <f t="shared" si="1"/>
-        <v>0.49624392388357969</v>
+        <v>0.49288108383447615</v>
       </c>
       <c r="AS23">
         <f t="shared" si="1"/>
-        <v>0.49998278035402688</v>
+        <v>0.49664912932927363</v>
       </c>
       <c r="AT23">
         <f t="shared" si="1"/>
-        <v>0.49033651760497909</v>
+        <v>0.48702931813784978</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.3">
@@ -6996,183 +6996,183 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:AT24" si="2">B5/B17</f>
-        <v>0.34316272745379711</v>
+        <v>0.34200507684579051</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>0.34053354735444363</v>
+        <v>0.33943300177634789</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>0.34558140270319532</v>
+        <v>0.3444982643584808</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>0.35120537116446349</v>
+        <v>0.35014645536490008</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.35658783816899775</v>
+        <v>0.35556078515505812</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.36170923074131173</v>
+        <v>0.36072871164242432</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.36695194281964366</v>
+        <v>0.36602920536362266</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.37211662992793482</v>
+        <v>0.37124524144898857</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>0.37656883947509856</v>
+        <v>0.37574088677878353</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.38046430867992959</v>
+        <v>0.37967341112698766</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.38445823049188721</v>
+        <v>0.38369912074919665</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.38804353219800225</v>
+        <v>0.38731288011950749</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.39132776620875981</v>
+        <v>0.39061403104460279</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.39429375441689724</v>
+        <v>0.39358214828169991</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.3967691741425089</v>
+        <v>0.39604048491042348</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>0.39944065329346173</v>
+        <v>0.39868088145999808</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>0.40133539942910768</v>
+        <v>0.40054292409785602</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0.40316149156933351</v>
+        <v>0.4023417157283169</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>0.40521027983737351</v>
+        <v>0.40436473195905492</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>0.40723508633244176</v>
+        <v>0.40636397304124861</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>0.40973013183168733</v>
+        <v>0.4088475229655566</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>0.41223577899698377</v>
+        <v>0.41136327662972832</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>0.41528435709870748</v>
+        <v>0.41443192156382175</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>0.41840698975771395</v>
+        <v>0.41757889451625402</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.42171925081933886</v>
+        <v>0.42091177127774038</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>0.42548219585416736</v>
+        <v>0.42470257773844555</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>0.42940196561048094</v>
+        <v>0.42866934726905198</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0.43355581595219939</v>
+        <v>0.43287261686945178</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>0.4377607696549014</v>
+        <v>0.43712801370537474</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>0.44155525311378535</v>
+        <v>0.44097255725732915</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>0.44602114465226961</v>
+        <v>0.4454882964614495</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>0.44983462759711079</v>
+        <v>0.44934720664663069</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.45386971288415118</v>
+        <v>0.45343173387635799</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>0.45807451504801538</v>
+        <v>0.45768499089553832</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="2"/>
-        <v>0.46200472829668054</v>
+        <v>0.4616588726160985</v>
       </c>
       <c r="AK24">
         <f t="shared" si="2"/>
-        <v>0.46599250346192417</v>
+        <v>0.46568926816967682</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>0.4702938343940149</v>
+        <v>0.47003185702560196</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>0.47406693226121299</v>
+        <v>0.47384074188083725</v>
       </c>
       <c r="AN24">
         <f t="shared" si="2"/>
-        <v>0.47797928254054095</v>
+        <v>0.47779129724028885</v>
       </c>
       <c r="AO24">
         <f t="shared" si="2"/>
-        <v>0.48203462578879497</v>
+        <v>0.481883237954227</v>
       </c>
       <c r="AP24">
         <f t="shared" si="2"/>
-        <v>0.48587461092661244</v>
+        <v>0.48575893080643551</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="2"/>
-        <v>0.4897419923618595</v>
+        <v>0.48966385412422103</v>
       </c>
       <c r="AR24">
         <f t="shared" si="2"/>
-        <v>0.49369148881407698</v>
+        <v>0.49364786131854399</v>
       </c>
       <c r="AS24">
         <f t="shared" si="2"/>
-        <v>0.4973905359516852</v>
+        <v>0.49738231864555887</v>
       </c>
       <c r="AT24">
         <f t="shared" si="2"/>
-        <v>0.49021661949089068</v>
+        <v>0.49100465696303658</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.3">
@@ -7181,183 +7181,183 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:AT25" si="3">B6/B18</f>
-        <v>0.34316272745379711</v>
+        <v>0.34200507684579051</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>0.34045417347011098</v>
+        <v>0.33935533849345645</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.3453710837733045</v>
+        <v>0.34429134666096783</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.35103962951963219</v>
+        <v>0.34998473874092501</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>0.35655108333588831</v>
+        <v>0.35552911201394932</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.36135110641694412</v>
+        <v>0.36037286048049344</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0.36506679389654773</v>
+        <v>0.36416516595068915</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.36792930405578078</v>
+        <v>0.36713918406610457</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>0.37040334850828305</v>
+        <v>0.36977067861550855</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>0.3724608344176476</v>
+        <v>0.37202678892561836</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>0.37516653171182773</v>
+        <v>0.37496948725935703</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>0.37837077310492606</v>
+        <v>0.37842558576541757</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>0.38154966075525515</v>
+        <v>0.38184890345377936</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>0.38465416421951881</v>
+        <v>0.38518056065041367</v>
       </c>
       <c r="P25">
         <f t="shared" si="3"/>
-        <v>0.38759361400913367</v>
+        <v>0.38831248362267079</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>0.39043427778908835</v>
+        <v>0.39132272923138206</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>0.39259311107420936</v>
+        <v>0.3936308970609434</v>
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>0.39487302864268103</v>
+        <v>0.39604849941787823</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>0.39744055809055723</v>
+        <v>0.39873953569506587</v>
       </c>
       <c r="U25">
         <f t="shared" si="3"/>
-        <v>0.40033232887382991</v>
+        <v>0.40173584331705242</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
-        <v>0.40350180375607886</v>
+        <v>0.40500054349677062</v>
       </c>
       <c r="W25">
         <f t="shared" si="3"/>
-        <v>0.40698092031933303</v>
+        <v>0.4085674087814043</v>
       </c>
       <c r="X25">
         <f t="shared" si="3"/>
-        <v>0.41066259992591958</v>
+        <v>0.41231961078685714</v>
       </c>
       <c r="Y25">
         <f t="shared" si="3"/>
-        <v>0.41449216103078623</v>
+        <v>0.41619934494405281</v>
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>0.41844203534057633</v>
+        <v>0.420178157735767</v>
       </c>
       <c r="AA25">
         <f t="shared" si="3"/>
-        <v>0.42312650695399895</v>
+        <v>0.42488103675729727</v>
       </c>
       <c r="AB25">
         <f t="shared" si="3"/>
-        <v>0.42694043325611442</v>
+        <v>0.42870818917570264</v>
       </c>
       <c r="AC25">
         <f t="shared" si="3"/>
-        <v>0.43162379308090398</v>
+        <v>0.4334044640599391</v>
       </c>
       <c r="AD25">
         <f t="shared" si="3"/>
-        <v>0.43602781233192872</v>
+        <v>0.4378038428665923</v>
       </c>
       <c r="AE25">
         <f t="shared" si="3"/>
-        <v>0.43986523697651081</v>
+        <v>0.44163472319311636</v>
       </c>
       <c r="AF25">
         <f t="shared" si="3"/>
-        <v>0.44382972741785659</v>
+        <v>0.44559848086788639</v>
       </c>
       <c r="AG25">
         <f t="shared" si="3"/>
-        <v>0.44807035923830385</v>
+        <v>0.44983355666424285</v>
       </c>
       <c r="AH25">
         <f t="shared" si="3"/>
-        <v>0.45229917617403864</v>
+        <v>0.45404892125298918</v>
       </c>
       <c r="AI25">
         <f t="shared" si="3"/>
-        <v>0.45636152607262082</v>
+        <v>0.45809394965362321</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="3"/>
-        <v>0.46045718963763765</v>
+        <v>0.46216926983594503</v>
       </c>
       <c r="AK25">
         <f t="shared" si="3"/>
-        <v>0.46476340774736125</v>
+        <v>0.46644698280214192</v>
       </c>
       <c r="AL25">
         <f t="shared" si="3"/>
-        <v>0.46884452726228054</v>
+        <v>0.47049686072130265</v>
       </c>
       <c r="AM25">
         <f t="shared" si="3"/>
-        <v>0.47313748949902135</v>
+        <v>0.47474814291540141</v>
       </c>
       <c r="AN25">
         <f t="shared" si="3"/>
-        <v>0.4775696156707131</v>
+        <v>0.47913252052659955</v>
       </c>
       <c r="AO25">
         <f t="shared" si="3"/>
-        <v>0.48130458104781737</v>
+        <v>0.48280854214551222</v>
       </c>
       <c r="AP25">
         <f t="shared" si="3"/>
-        <v>0.48802590283254371</v>
+        <v>0.48945791561469559</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="3"/>
-        <v>0.49925233533279995</v>
+        <v>0.50049647053723179</v>
       </c>
       <c r="AR25">
         <f t="shared" si="3"/>
-        <v>0.51316638969512463</v>
+        <v>0.5140268159247815</v>
       </c>
       <c r="AS25">
         <f t="shared" si="3"/>
-        <v>0.52832698669201361</v>
+        <v>0.52858027253666151</v>
       </c>
       <c r="AT25">
         <f t="shared" si="3"/>
-        <v>0.49889143237365063</v>
+        <v>0.50026576840679615</v>
       </c>
     </row>
     <row r="26" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -7381,179 +7381,179 @@
       </c>
       <c r="C28">
         <f>(C15-B15)/B15</f>
-        <v>3.6900506064880462E-2</v>
+        <v>3.6753831310766538E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:AT28" si="4">(D15-C15)/C15</f>
-        <v>1.348611655554356E-2</v>
+        <v>1.3422825572387562E-2</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>1.2791630821358825E-2</v>
+        <v>1.2746108927727031E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>1.314785051163888E-2</v>
+        <v>1.3124131345363161E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>1.3715044415107423E-2</v>
+        <v>1.3706274952571174E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>1.4833882191397599E-2</v>
+        <v>1.4845397787385674E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>1.5697095861712786E-2</v>
+        <v>1.573941880525578E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>1.7404453025419084E-2</v>
+        <v>1.7485148287060957E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>1.8520828580020663E-2</v>
+        <v>1.8645262614096134E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>1.8728950709246437E-2</v>
+        <v>1.8879821375756178E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
-        <v>2.047975590757627E-2</v>
+        <v>2.0651777991346369E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>2.1630268737313395E-2</v>
+        <v>2.183546180465288E-2</v>
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>2.2500707686436267E-2</v>
+        <v>2.2747668058327557E-2</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>2.3582878027590487E-2</v>
+        <v>2.386892546929344E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>2.3722557583989654E-2</v>
+        <v>2.4030066001204553E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>2.6381051084185911E-2</v>
+        <v>2.6690205950320095E-2</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>2.62308504458817E-2</v>
+        <v>2.6559389753408161E-2</v>
       </c>
       <c r="T28">
         <f t="shared" si="4"/>
-        <v>2.7822771872966199E-2</v>
+        <v>2.8145580834708781E-2</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
-        <v>2.8189030947452839E-2</v>
+        <v>2.8522423965523586E-2</v>
       </c>
       <c r="V28">
         <f t="shared" si="4"/>
-        <v>2.756749141437867E-2</v>
+        <v>2.78854638304749E-2</v>
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>2.7696758625537967E-2</v>
+        <v>2.7957468960613893E-2</v>
       </c>
       <c r="X28">
         <f t="shared" si="4"/>
-        <v>2.7551572244618804E-2</v>
+        <v>2.7787908191002443E-2</v>
       </c>
       <c r="Y28">
         <f t="shared" si="4"/>
-        <v>2.7638029724402633E-2</v>
+        <v>2.7851907466399539E-2</v>
       </c>
       <c r="Z28">
         <f t="shared" si="4"/>
-        <v>2.7714490988605359E-2</v>
+        <v>2.7915040501653492E-2</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>2.6632226714520216E-2</v>
+        <v>2.6804901059427538E-2</v>
       </c>
       <c r="AB28">
         <f t="shared" si="4"/>
-        <v>2.7651368388860502E-2</v>
+        <v>2.7766709700364336E-2</v>
       </c>
       <c r="AC28">
         <f t="shared" si="4"/>
-        <v>2.8085399741366261E-2</v>
+        <v>2.8177746756334231E-2</v>
       </c>
       <c r="AD28">
         <f t="shared" si="4"/>
-        <v>2.8742533881008708E-2</v>
+        <v>2.8825112338369433E-2</v>
       </c>
       <c r="AE28">
         <f t="shared" si="4"/>
-        <v>3.0095613634051093E-2</v>
+        <v>3.0176300280731764E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="4"/>
-        <v>3.1013035746528295E-2</v>
+        <v>3.1095384125072421E-2</v>
       </c>
       <c r="AG28">
         <f t="shared" si="4"/>
-        <v>3.1515918733372922E-2</v>
+        <v>3.1597155730197661E-2</v>
       </c>
       <c r="AH28">
         <f t="shared" si="4"/>
-        <v>3.1702077097263325E-2</v>
+        <v>3.1776183934796948E-2</v>
       </c>
       <c r="AI28">
         <f t="shared" si="4"/>
-        <v>3.1811185944813837E-2</v>
+        <v>3.1875094852291758E-2</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="4"/>
-        <v>3.2142750402226118E-2</v>
+        <v>3.2196897973007524E-2</v>
       </c>
       <c r="AK28">
         <f t="shared" si="4"/>
-        <v>3.1519146528636625E-2</v>
+        <v>3.156780788294674E-2</v>
       </c>
       <c r="AL28">
         <f t="shared" si="4"/>
-        <v>3.0405969123032225E-2</v>
+        <v>3.043387969109634E-2</v>
       </c>
       <c r="AM28">
         <f t="shared" si="4"/>
-        <v>2.8653766383116824E-2</v>
+        <v>2.8662598892609015E-2</v>
       </c>
       <c r="AN28">
         <f t="shared" si="4"/>
-        <v>2.7128398859606544E-2</v>
+        <v>2.7112988300466011E-2</v>
       </c>
       <c r="AO28">
         <f t="shared" si="4"/>
-        <v>2.5493334716151582E-2</v>
+        <v>2.5457856997580901E-2</v>
       </c>
       <c r="AP28">
         <f t="shared" si="4"/>
-        <v>2.33011391260134E-2</v>
+        <v>2.3243705942465255E-2</v>
       </c>
       <c r="AQ28">
         <f t="shared" si="4"/>
-        <v>2.3159134648910045E-2</v>
+        <v>2.307771664361595E-2</v>
       </c>
       <c r="AR28">
         <f t="shared" si="4"/>
-        <v>2.2793332297156389E-2</v>
+        <v>2.2711166834508061E-2</v>
       </c>
       <c r="AS28">
         <f t="shared" si="4"/>
-        <v>2.2368976905866068E-2</v>
+        <v>2.2276810386281019E-2</v>
       </c>
       <c r="AT28">
         <f t="shared" si="4"/>
-        <v>-0.11644518134501157</v>
+        <v>-0.11698631346142667</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.3">
@@ -7562,179 +7562,179 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:AT29" si="5">(C16-B16)/B16</f>
-        <v>3.7392574933323694E-2</v>
+        <v>3.7254117202170131E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
-        <v>1.3361421181581623E-2</v>
+        <v>1.3307518258272302E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>1.2966676708315287E-2</v>
+        <v>1.2932416275321974E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>1.3225609328926545E-2</v>
+        <v>1.3213235707681197E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>1.3417433491478309E-2</v>
+        <v>1.3418854325779104E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>1.4190033460407866E-2</v>
+        <v>1.4203037331632199E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>1.5165020718039483E-2</v>
+        <v>1.5210706745759653E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>1.7152372348503205E-2</v>
+        <v>1.7236610288213054E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>1.7965903251276276E-2</v>
+        <v>1.8097588445756069E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>1.9201713320744038E-2</v>
+        <v>1.936673602384844E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>2.0749938992729516E-2</v>
+        <v>2.0942004330548908E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>2.1682093920678068E-2</v>
+        <v>2.191310028585006E-2</v>
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
-        <v>2.255769598383256E-2</v>
+        <v>2.2820314861754822E-2</v>
       </c>
       <c r="P29">
         <f t="shared" si="5"/>
-        <v>2.4029887836297781E-2</v>
+        <v>2.4333694102466961E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="5"/>
-        <v>2.3946746525408184E-2</v>
+        <v>2.4273701998384842E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="5"/>
-        <v>2.5240082165326336E-2</v>
+        <v>2.5566449040737904E-2</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>2.4868487645001738E-2</v>
+        <v>2.51897142968136E-2</v>
       </c>
       <c r="T29">
         <f t="shared" si="5"/>
-        <v>2.5430879567217967E-2</v>
+        <v>2.5745213642727634E-2</v>
       </c>
       <c r="U29">
         <f t="shared" si="5"/>
-        <v>2.4569566733083067E-2</v>
+        <v>2.4874721164702629E-2</v>
       </c>
       <c r="V29">
         <f t="shared" si="5"/>
-        <v>2.3407559299785143E-2</v>
+        <v>2.3679813926410352E-2</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>2.3298237504988061E-2</v>
+        <v>2.3513222606643607E-2</v>
       </c>
       <c r="X29">
         <f t="shared" si="5"/>
-        <v>2.2494550476570022E-2</v>
+        <v>2.2676045127939179E-2</v>
       </c>
       <c r="Y29">
         <f t="shared" si="5"/>
-        <v>2.2726545046487738E-2</v>
+        <v>2.2885166243769777E-2</v>
       </c>
       <c r="Z29">
         <f t="shared" si="5"/>
-        <v>2.3222344293289256E-2</v>
+        <v>2.3374398651852472E-2</v>
       </c>
       <c r="AA29">
         <f t="shared" si="5"/>
-        <v>2.129614682531239E-2</v>
+        <v>2.1425531961047555E-2</v>
       </c>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>2.124830795236653E-2</v>
+        <v>2.1311187046175198E-2</v>
       </c>
       <c r="AC29">
         <f t="shared" si="5"/>
-        <v>2.0817421379778822E-2</v>
+        <v>2.0848573274359728E-2</v>
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>2.019915980974683E-2</v>
+        <v>2.021337784581316E-2</v>
       </c>
       <c r="AE29">
         <f t="shared" si="5"/>
-        <v>2.0633479833438228E-2</v>
+        <v>2.0638690747564969E-2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="5"/>
-        <v>2.1154779341369116E-2</v>
+        <v>2.1157201935597378E-2</v>
       </c>
       <c r="AG29">
         <f t="shared" si="5"/>
-        <v>2.1097762279422304E-2</v>
+        <v>2.1101858976210565E-2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="5"/>
-        <v>2.1413414871945851E-2</v>
+        <v>2.1409227751338855E-2</v>
       </c>
       <c r="AI29">
         <f t="shared" si="5"/>
-        <v>2.1746271204333086E-2</v>
+        <v>2.1744981158749524E-2</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="5"/>
-        <v>2.1714009159393866E-2</v>
+        <v>2.1710226251778202E-2</v>
       </c>
       <c r="AK29">
         <f t="shared" si="5"/>
-        <v>2.1213103249101882E-2</v>
+        <v>2.1202870830768685E-2</v>
       </c>
       <c r="AL29">
         <f t="shared" si="5"/>
-        <v>1.9962079253730145E-2</v>
+        <v>1.9941817666018571E-2</v>
       </c>
       <c r="AM29">
         <f t="shared" si="5"/>
-        <v>1.8315666394638188E-2</v>
+        <v>1.8280205316102277E-2</v>
       </c>
       <c r="AN29">
         <f t="shared" si="5"/>
-        <v>1.6696291785540031E-2</v>
+        <v>1.6640413205579713E-2</v>
       </c>
       <c r="AO29">
         <f t="shared" si="5"/>
-        <v>1.5250408019747547E-2</v>
+        <v>1.5175237747701225E-2</v>
       </c>
       <c r="AP29">
         <f t="shared" si="5"/>
-        <v>1.3428554329557946E-2</v>
+        <v>1.3337638329494415E-2</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="5"/>
-        <v>1.3102092795178476E-2</v>
+        <v>1.2996226795015961E-2</v>
       </c>
       <c r="AR29">
         <f t="shared" si="5"/>
-        <v>1.2547001641454497E-2</v>
+        <v>1.2438275205989646E-2</v>
       </c>
       <c r="AS29">
         <f t="shared" si="5"/>
-        <v>1.2752934164420559E-2</v>
+        <v>1.2641746870471872E-2</v>
       </c>
       <c r="AT29">
         <f t="shared" si="5"/>
-        <v>7.6579939008969283E-2</v>
+        <v>7.6663640170998762E-2</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.3">
@@ -7743,179 +7743,179 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:AT30" si="6">(C17-B17)/B17</f>
-        <v>3.5991318116517394E-2</v>
+        <v>3.5844097251870662E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>1.0538607938236395E-2</v>
+        <v>1.0439691903546525E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="6"/>
-        <v>8.0820402833077665E-3</v>
+        <v>7.9615544294367527E-3</v>
       </c>
       <c r="F30">
         <f t="shared" si="6"/>
-        <v>6.4326183464622063E-3</v>
+        <v>6.2964932063648421E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>4.3649507758890659E-3</v>
+        <v>4.1943178935686014E-3</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>4.4333169200160066E-3</v>
+        <v>4.2357569361506781E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="6"/>
-        <v>5.6406645922506896E-3</v>
+        <v>5.4663889603103208E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>5.4985508712526903E-3</v>
+        <v>5.3544150594725826E-3</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
-        <v>5.3334804298784191E-3</v>
+        <v>5.2126836388772402E-3</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>5.2126522106941625E-3</v>
+        <v>5.1076240077026405E-3</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>5.9029424886667993E-3</v>
+        <v>5.8106486669764722E-3</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>6.5682067137059546E-3</v>
+        <v>6.5086784597967288E-3</v>
       </c>
       <c r="O30">
         <f t="shared" si="6"/>
-        <v>7.4985752326093462E-3</v>
+        <v>7.4792776940552745E-3</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
-        <v>8.5593691915297806E-3</v>
+        <v>8.591496048954466E-3</v>
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>8.8819016030293636E-3</v>
+        <v>8.9481419817481461E-3</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
-        <v>9.1362297889692138E-3</v>
+        <v>9.2095437320935999E-3</v>
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
-        <v>7.8737520510042056E-3</v>
+        <v>7.9331077694143187E-3</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
-        <v>7.5228803223136922E-3</v>
+        <v>7.5767144831911408E-3</v>
       </c>
       <c r="U30">
         <f t="shared" si="6"/>
-        <v>6.942322590007024E-3</v>
+        <v>6.995202332512108E-3</v>
       </c>
       <c r="V30">
         <f t="shared" si="6"/>
-        <v>3.9279262580008932E-3</v>
+        <v>3.9430483580056236E-3</v>
       </c>
       <c r="W30">
         <f t="shared" si="6"/>
-        <v>3.3358422910591367E-3</v>
+        <v>3.29802732479866E-3</v>
       </c>
       <c r="X30">
         <f t="shared" si="6"/>
-        <v>2.9332822584127319E-3</v>
+        <v>2.8691053108900002E-3</v>
       </c>
       <c r="Y30">
         <f t="shared" si="6"/>
-        <v>2.2993936060194246E-3</v>
+        <v>2.2255855475826376E-3</v>
       </c>
       <c r="Z30">
         <f t="shared" si="6"/>
-        <v>2.817841651490681E-3</v>
+        <v>2.7531065518737402E-3</v>
       </c>
       <c r="AA30">
         <f t="shared" si="6"/>
-        <v>5.7396208933802061E-4</v>
+        <v>4.9134760201345184E-4</v>
       </c>
       <c r="AB30">
         <f t="shared" si="6"/>
-        <v>1.0365336942302851E-3</v>
+        <v>9.1000681385668234E-4</v>
       </c>
       <c r="AC30">
         <f t="shared" si="6"/>
-        <v>1.1159877532028741E-3</v>
+        <v>9.8530414733800377E-4</v>
       </c>
       <c r="AD30">
         <f t="shared" si="6"/>
-        <v>9.744890193083746E-4</v>
+        <v>8.4380663651345751E-4</v>
       </c>
       <c r="AE30">
         <f t="shared" si="6"/>
-        <v>2.286694475930683E-4</v>
+        <v>1.026809178080948E-4</v>
       </c>
       <c r="AF30">
         <f t="shared" si="6"/>
-        <v>1.2609231349635017E-3</v>
+        <v>1.1356418662737053E-3</v>
       </c>
       <c r="AG30">
         <f t="shared" si="6"/>
-        <v>5.8444855565099451E-4</v>
+        <v>4.7314863710791981E-4</v>
       </c>
       <c r="AH30">
         <f t="shared" si="6"/>
-        <v>4.24458113678934E-4</v>
+        <v>3.0572574257859916E-4</v>
       </c>
       <c r="AI30">
         <f t="shared" si="6"/>
-        <v>6.9331994345111353E-4</v>
+        <v>5.7850549772126014E-4</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="6"/>
-        <v>7.3510460643820704E-4</v>
+        <v>6.3320016276109811E-4</v>
       </c>
       <c r="AK30">
         <f t="shared" si="6"/>
-        <v>9.3587030967203118E-4</v>
+        <v>8.3784720337457138E-4</v>
       </c>
       <c r="AL30">
         <f t="shared" si="6"/>
-        <v>1.5533317762789116E-3</v>
+        <v>1.459454386498193E-3</v>
       </c>
       <c r="AM30">
         <f t="shared" si="6"/>
-        <v>1.4389938320221144E-3</v>
+        <v>1.3589177387296778E-3</v>
       </c>
       <c r="AN30">
         <f t="shared" si="6"/>
-        <v>1.4502804861880449E-3</v>
+        <v>1.3662900793862702E-3</v>
       </c>
       <c r="AO30">
         <f t="shared" si="6"/>
-        <v>1.89094810315172E-3</v>
+        <v>1.8115416920397188E-3</v>
       </c>
       <c r="AP30">
         <f t="shared" si="6"/>
-        <v>1.8032750949397904E-3</v>
+        <v>1.727146250664513E-3</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="6"/>
-        <v>1.7092780171386376E-3</v>
+        <v>1.6305946583989059E-3</v>
       </c>
       <c r="AR30">
         <f t="shared" si="6"/>
-        <v>2.3527549110951406E-3</v>
+        <v>2.2814012921969695E-3</v>
       </c>
       <c r="AS30">
         <f t="shared" si="6"/>
-        <v>2.1355260464116163E-3</v>
+        <v>2.0635222976809506E-3</v>
       </c>
       <c r="AT30">
         <f t="shared" si="6"/>
-        <v>-6.1065607259411743E-2</v>
+        <v>-6.2588036231244551E-2</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.3">
@@ -7924,179 +7924,179 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:AT31" si="7">(C18-B18)/B18</f>
-        <v>3.5489701334931907E-2</v>
+        <v>3.5338115489924507E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="7"/>
-        <v>9.7992734968114139E-3</v>
+        <v>9.6967146472858746E-3</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>7.7351128709664506E-3</v>
+        <v>7.6125440021033563E-3</v>
       </c>
       <c r="F31">
         <f t="shared" si="7"/>
-        <v>6.0698697904202322E-3</v>
+        <v>5.9298475447826134E-3</v>
       </c>
       <c r="G31">
         <f t="shared" si="7"/>
-        <v>3.322596365223608E-3</v>
+        <v>3.1625550750887244E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>-1.8643300389654882E-3</v>
+        <v>-2.1019020923107013E-3</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
-        <v>-7.2329640393092405E-3</v>
+        <v>-7.5536053951954577E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
-        <v>-1.288416449960166E-2</v>
+        <v>-1.3318666193862868E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="7"/>
-        <v>-1.8013284296726585E-2</v>
+        <v>-1.8546841360791481E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="7"/>
-        <v>-2.1575618049133244E-2</v>
+        <v>-2.2202262738520072E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="7"/>
-        <v>-2.0937709488791312E-2</v>
+        <v>-2.1593668022974726E-2</v>
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>-2.0057195505636557E-2</v>
+        <v>-2.0683297039406273E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>-1.8374711791238053E-2</v>
+        <v>-1.8947403671045786E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="7"/>
-        <v>-1.5292730173723876E-2</v>
+        <v>-1.5770614998710141E-2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>-1.4542745346126283E-2</v>
+        <v>-1.4956530883476335E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
-        <v>-1.2713398578136114E-2</v>
+        <v>-1.3075631128499089E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="7"/>
-        <v>-1.1856719245721814E-2</v>
+        <v>-1.2185206769917129E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="7"/>
-        <v>-1.0529124320725867E-2</v>
+        <v>-1.0816639781233255E-2</v>
       </c>
       <c r="U31">
         <f t="shared" si="7"/>
-        <v>-8.6173677145683289E-3</v>
+        <v>-8.8520147207340229E-3</v>
       </c>
       <c r="V31">
         <f t="shared" si="7"/>
-        <v>-9.1768665561441781E-3</v>
+        <v>-9.3826480612162096E-3</v>
       </c>
       <c r="W31">
         <f t="shared" si="7"/>
-        <v>-6.807118926897622E-3</v>
+        <v>-6.989014924413635E-3</v>
       </c>
       <c r="X31">
         <f t="shared" si="7"/>
-        <v>-5.2438951857035412E-3</v>
+        <v>-5.3794113312494035E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" si="7"/>
-        <v>-3.488723829580809E-3</v>
+        <v>-3.5718564937647001E-3</v>
       </c>
       <c r="Z31">
         <f t="shared" si="7"/>
-        <v>-1.701901891181025E-3</v>
+        <v>-1.7320044271532361E-3</v>
       </c>
       <c r="AA31">
         <f t="shared" si="7"/>
-        <v>-1.3369527227860987E-3</v>
+        <v>-1.334535196547258E-3</v>
       </c>
       <c r="AB31">
         <f t="shared" si="7"/>
-        <v>-1.1085824399938078E-3</v>
+        <v>-1.1025508744147941E-3</v>
       </c>
       <c r="AC31">
         <f t="shared" si="7"/>
-        <v>2.0930453629190712E-4</v>
+        <v>2.2425096010836797E-4</v>
       </c>
       <c r="AD31">
         <f t="shared" si="7"/>
-        <v>1.0257122552872824E-3</v>
+        <v>1.0778650483115623E-3</v>
       </c>
       <c r="AE31">
         <f t="shared" si="7"/>
-        <v>-7.1420736085505215E-5</v>
+        <v>-2.1213292596801732E-5</v>
       </c>
       <c r="AF31">
         <f t="shared" si="7"/>
-        <v>-5.5406298718218791E-4</v>
+        <v>-5.1664848939775103E-4</v>
       </c>
       <c r="AG31">
         <f t="shared" si="7"/>
-        <v>6.0223054852431912E-5</v>
+        <v>1.1014634940459448E-4</v>
       </c>
       <c r="AH31">
         <f t="shared" si="7"/>
-        <v>4.6942677630044071E-4</v>
+        <v>5.3573516194047044E-4</v>
       </c>
       <c r="AI31">
         <f t="shared" si="7"/>
-        <v>3.2703299172403481E-4</v>
+        <v>3.9917481697775609E-4</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="7"/>
-        <v>3.962166365497378E-4</v>
+        <v>4.7390552623190359E-4</v>
       </c>
       <c r="AK31">
         <f t="shared" si="7"/>
-        <v>1.2592164071979133E-3</v>
+        <v>1.3547742278630494E-3</v>
       </c>
       <c r="AL31">
         <f t="shared" si="7"/>
-        <v>1.0078602527456462E-3</v>
+        <v>1.1057813551943771E-3</v>
       </c>
       <c r="AM31">
         <f t="shared" si="7"/>
-        <v>1.992163943429963E-3</v>
+        <v>2.112064914390773E-3</v>
       </c>
       <c r="AN31">
         <f t="shared" si="7"/>
-        <v>2.6450484454909346E-3</v>
+        <v>2.7765414991512203E-3</v>
       </c>
       <c r="AO31">
         <f t="shared" si="7"/>
-        <v>2.4510452997038952E-3</v>
+        <v>2.5988084714163293E-3</v>
       </c>
       <c r="AP31">
         <f t="shared" si="7"/>
-        <v>7.7900273519939355E-3</v>
+        <v>7.9814123856428928E-3</v>
       </c>
       <c r="AQ31">
         <f t="shared" si="7"/>
-        <v>2.4343656392121344E-2</v>
+        <v>2.4795597260381066E-2</v>
       </c>
       <c r="AR31">
         <f t="shared" si="7"/>
-        <v>4.7477661958556149E-2</v>
+        <v>4.8330237300114695E-2</v>
       </c>
       <c r="AS31">
         <f t="shared" si="7"/>
-        <v>7.4826576377097609E-2</v>
+        <v>7.6112837913647841E-2</v>
       </c>
       <c r="AT31">
         <f t="shared" si="7"/>
-        <v>-0.10207560030823387</v>
+        <v>-0.10411309647738207</v>
       </c>
     </row>
     <row r="32" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -8133,190 +8133,190 @@
       </c>
       <c r="C34">
         <f>B34*(1+C28)</f>
-        <v>4228672388.3314099</v>
+        <v>4228074221.5071492</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:AT34" si="8">C34*(1+D28)</f>
-        <v>4285700757.035656</v>
+        <v>4284826924.2895484</v>
       </c>
       <c r="E34">
         <f t="shared" si="8"/>
-        <v>4340521858.9304743</v>
+        <v>4339441795.0030003</v>
       </c>
       <c r="F34">
         <f t="shared" si="8"/>
-        <v>4397590391.4741936</v>
+        <v>4396393199.0861778</v>
       </c>
       <c r="G34">
         <f t="shared" si="8"/>
-        <v>4457903539.0127125</v>
+        <v>4456651373.0724669</v>
       </c>
       <c r="H34">
         <f t="shared" si="8"/>
-        <v>4524031554.9310417</v>
+        <v>4522812135.5054264</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
-        <v>4595045711.9302082</v>
+        <v>4593998569.8836393</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>4675019969.173151</v>
+        <v>4674325316.1086016</v>
       </c>
       <c r="K34">
         <f t="shared" si="8"/>
-        <v>4761605212.6303806</v>
+        <v>4761479339.1711636</v>
       </c>
       <c r="L34">
         <f t="shared" si="8"/>
-        <v>4850785081.9546261</v>
+        <v>4851375218.5790682</v>
       </c>
       <c r="M34">
         <f t="shared" si="8"/>
-        <v>4950127976.3931694</v>
+        <v>4951564742.5458832</v>
       </c>
       <c r="N34">
         <f t="shared" si="8"/>
-        <v>5057200574.8066463</v>
+        <v>5059684445.3550091</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
-        <v>5170991166.6520481</v>
+        <v>5174780467.5978279</v>
       </c>
       <c r="P34">
         <f t="shared" si="8"/>
-        <v>5292938020.616951</v>
+        <v>5298296916.8988762</v>
       </c>
       <c r="Q34">
         <f t="shared" si="8"/>
-        <v>5418500047.5995245</v>
+        <v>5425615341.5059347</v>
       </c>
       <c r="R34">
         <f t="shared" si="8"/>
-        <v>5561445774.154912</v>
+        <v>5570426132.377944</v>
       </c>
       <c r="S34">
         <f t="shared" si="8"/>
-        <v>5707327226.5196505</v>
+        <v>5718373251.1203403</v>
       </c>
       <c r="T34">
         <f t="shared" si="8"/>
-        <v>5866120889.9474754</v>
+        <v>5879320187.7027845</v>
       </c>
       <c r="U34">
         <f t="shared" si="8"/>
-        <v>6031481153.2557049</v>
+        <v>6047012650.7255049</v>
       </c>
       <c r="V34">
         <f t="shared" si="8"/>
-        <v>6197753958.1640682</v>
+        <v>6215636403.2797346</v>
       </c>
       <c r="W34">
         <f t="shared" si="8"/>
-        <v>6369411653.5638103</v>
+        <v>6389409865.0948896</v>
       </c>
       <c r="X34">
         <f t="shared" si="8"/>
-        <v>6544898958.8926916</v>
+        <v>6566958199.8208313</v>
       </c>
       <c r="Y34">
         <f t="shared" si="8"/>
-        <v>6725787070.8617792</v>
+        <v>6749860511.9379539</v>
       </c>
       <c r="Z34">
         <f t="shared" si="8"/>
-        <v>6912188836.0284567</v>
+        <v>6938283141.5092134</v>
       </c>
       <c r="AA34">
         <f t="shared" si="8"/>
-        <v>7096275816.2031422</v>
+        <v>7124263134.6396618</v>
       </c>
       <c r="AB34">
         <f t="shared" si="8"/>
-        <v>7292497552.9859362</v>
+        <v>7322080480.9282093</v>
       </c>
       <c r="AC34">
         <f t="shared" si="8"/>
-        <v>7497310261.8744822</v>
+        <v>7528400210.4493027</v>
       </c>
       <c r="AD34">
         <f t="shared" si="8"/>
-        <v>7712801956.092844</v>
+        <v>7745407192.2437077</v>
       </c>
       <c r="AE34">
         <f t="shared" si="8"/>
-        <v>7944923463.7993679</v>
+        <v>7979134925.4733934</v>
       </c>
       <c r="AF34">
         <f t="shared" si="8"/>
-        <v>8191319659.1856098</v>
+        <v>8227249190.9667702</v>
       </c>
       <c r="AG34">
         <f t="shared" si="8"/>
-        <v>8449476623.8835831</v>
+        <v>8487206864.8848906</v>
       </c>
       <c r="AH34">
         <f t="shared" si="8"/>
-        <v>8717342583.2454643</v>
+        <v>8756897911.3161449</v>
       </c>
       <c r="AI34">
         <f t="shared" si="8"/>
-        <v>8994651589.1057301</v>
+        <v>9036024862.851181</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="8"/>
-        <v>9283764430.0893421</v>
+        <v>9326956833.4419613</v>
       </c>
       <c r="AK34">
         <f t="shared" si="8"/>
-        <v>9576380761.4986725</v>
+        <v>9621388414.8925934</v>
       </c>
       <c r="AL34">
         <f t="shared" si="8"/>
-        <v>9867559899.2432022</v>
+        <v>9914204592.3727436</v>
       </c>
       <c r="AM34">
         <f t="shared" si="8"/>
-        <v>10150302655.367529</v>
+        <v>10198371461.943186</v>
       </c>
       <c r="AN34">
         <f t="shared" si="8"/>
-        <v>10425664114.348063</v>
+        <v>10474879788.074657</v>
       </c>
       <c r="AO34">
         <f t="shared" si="8"/>
-        <v>10691449059.253309</v>
+        <v>10741547779.786314</v>
       </c>
       <c r="AP34">
         <f t="shared" si="8"/>
-        <v>10940572001.241655</v>
+        <v>10991221157.746609</v>
       </c>
       <c r="AQ34">
         <f t="shared" si="8"/>
-        <v>11193946181.354506</v>
+        <v>11244873445.192402</v>
       </c>
       <c r="AR34">
         <f t="shared" si="8"/>
-        <v>11449093516.382603</v>
+        <v>11500257642.039097</v>
       </c>
       <c r="AS34">
         <f t="shared" si="8"/>
-        <v>11705198024.843666</v>
+        <v>11756446700.924181</v>
       </c>
       <c r="AT34">
         <f t="shared" si="8"/>
-        <v>10342184118.161474</v>
+        <v>10381103341.97731</v>
       </c>
       <c r="AV34">
         <f>AVERAGE(AK34:AT34)</f>
-        <v>10634235033.169468</v>
+        <v>10682429432.494907</v>
       </c>
       <c r="AW34">
         <v>247030</v>
       </c>
       <c r="AX34">
         <f>AV34/AW34</f>
-        <v>43048.354585149449</v>
+        <v>43243.449914969467</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.3">
@@ -8329,190 +8329,190 @@
       </c>
       <c r="C35">
         <f>B35*(1+C29)</f>
-        <v>4230679136.3510828</v>
+        <v>4230114480.0689654</v>
       </c>
       <c r="D35">
         <f t="shared" ref="D35:AT35" si="9">C35*(1+D29)</f>
-        <v>4287207022.1759992</v>
+        <v>4286406805.7470651</v>
       </c>
       <c r="E35">
         <f t="shared" si="9"/>
-        <v>4342797849.6141739</v>
+        <v>4341840402.8843594</v>
       </c>
       <c r="F35">
         <f t="shared" si="9"/>
-        <v>4400233997.3676729</v>
+        <v>4399210163.5328045</v>
       </c>
       <c r="G35">
         <f t="shared" si="9"/>
-        <v>4459273844.3742952</v>
+        <v>4458242523.8657379</v>
       </c>
       <c r="H35">
         <f t="shared" si="9"/>
-        <v>4522551089.4350882</v>
+        <v>4521563108.8656731</v>
       </c>
       <c r="I35">
         <f t="shared" si="9"/>
-        <v>4591135670.4047632</v>
+        <v>4590339279.3470745</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>4669884538.9260406</v>
+        <v>4669461168.5958567</v>
       </c>
       <c r="K35">
         <f t="shared" si="9"/>
-        <v>4753783232.7470169</v>
+        <v>4753967155.0885439</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
-        <v>4845064015.5711851</v>
+        <v>4846035982.0471897</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>4945598798.3101559</v>
+        <v>4947521688.5692177</v>
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>5052829735.9491091</v>
+        <v>5055937227.4972534</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>5166809932.9907179</v>
+        <v>5171315306.9500084</v>
       </c>
       <c r="P35">
         <f t="shared" si="9"/>
-        <v>5290967796.1519547</v>
+        <v>5297152511.7367353</v>
       </c>
       <c r="Q35">
         <f t="shared" si="9"/>
-        <v>5417669260.8405027</v>
+        <v>5425734013.2466278</v>
       </c>
       <c r="R35">
         <f t="shared" si="9"/>
-        <v>5554411678.1286793</v>
+        <v>5564450765.4048958</v>
       </c>
       <c r="S35">
         <f t="shared" si="9"/>
-        <v>5692541496.321476</v>
+        <v>5704617690.4041309</v>
       </c>
       <c r="T35">
         <f t="shared" si="9"/>
-        <v>5837307833.5458183</v>
+        <v>5851484291.5936689</v>
       </c>
       <c r="U35">
         <f t="shared" si="9"/>
-        <v>5980727957.9036703</v>
+        <v>5997038331.7466993</v>
       </c>
       <c r="V35">
         <f t="shared" si="9"/>
-        <v>6120722202.2341833</v>
+        <v>6139047083.5520115</v>
       </c>
       <c r="W35">
         <f t="shared" si="9"/>
-        <v>6263324241.8038893</v>
+        <v>6283395864.2202368</v>
       </c>
       <c r="X35">
         <f t="shared" si="9"/>
-        <v>6404214905.1122723</v>
+        <v>6425878432.394001</v>
       </c>
       <c r="Y35">
         <f t="shared" si="9"/>
-        <v>6549760583.6406946</v>
+        <v>6572935728.5815916</v>
       </c>
       <c r="Z35">
         <f t="shared" si="9"/>
-        <v>6701861378.9526138</v>
+        <v>6726574148.6144619</v>
       </c>
       <c r="AA35">
         <f t="shared" si="9"/>
-        <v>6844585202.8816786</v>
+        <v>6870694578.0239563</v>
       </c>
       <c r="AB35">
         <f t="shared" si="9"/>
-        <v>6990021057.0787191</v>
+        <v>7017117235.3133669</v>
       </c>
       <c r="AC35">
         <f t="shared" si="9"/>
-        <v>7135535270.8774529</v>
+        <v>7163414118.1685705</v>
       </c>
       <c r="AD35">
         <f t="shared" si="9"/>
-        <v>7279667088.1419916</v>
+        <v>7308210914.4051437</v>
       </c>
       <c r="AE35">
         <f t="shared" si="9"/>
-        <v>7429871952.1993132</v>
+        <v>7459042819.3855295</v>
       </c>
       <c r="AF35">
         <f t="shared" si="9"/>
-        <v>7587049253.8827171</v>
+        <v>7616855294.5615377</v>
       </c>
       <c r="AG35">
         <f t="shared" si="9"/>
-        <v>7747119015.4434042</v>
+        <v>7777585100.8295784</v>
       </c>
       <c r="AH35">
         <f t="shared" si="9"/>
-        <v>7913011288.9834337</v>
+        <v>7944097191.6086588</v>
       </c>
       <c r="AI35">
         <f t="shared" si="9"/>
-        <v>8085089778.5166168</v>
+        <v>8116841435.3634644</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="9"/>
-        <v>8260649492.0218487</v>
+        <v>8293059899.3750124</v>
       </c>
       <c r="AK35">
         <f t="shared" si="9"/>
-        <v>8435883502.600749</v>
+        <v>8468896577.2132893</v>
       </c>
       <c r="AL35">
         <f t="shared" si="9"/>
-        <v>8604281277.6548996</v>
+        <v>8637781768.5884457</v>
       </c>
       <c r="AM35">
         <f t="shared" si="9"/>
-        <v>8761874423.1020584</v>
+        <v>8795682192.7939262</v>
       </c>
       <c r="AN35">
         <f t="shared" si="9"/>
-        <v>8908165235.0584297</v>
+        <v>8942045978.9069767</v>
       </c>
       <c r="AO35">
         <f t="shared" si="9"/>
-        <v>9044018389.6004009</v>
+        <v>9077743652.5877666</v>
       </c>
       <c r="AP35">
         <f t="shared" si="9"/>
-        <v>9165466481.9026718</v>
+        <v>9198819314.2738457</v>
       </c>
       <c r="AQ35">
         <f t="shared" si="9"/>
-        <v>9285553274.2596569</v>
+        <v>9318369256.3285217</v>
       </c>
       <c r="AR35">
         <f t="shared" si="9"/>
-        <v>9402059126.4336052</v>
+        <v>9434273697.6097698</v>
       </c>
       <c r="AS35">
         <f t="shared" si="9"/>
-        <v>9521962967.4830017</v>
+        <v>9553539397.6017017</v>
       </c>
       <c r="AT35">
         <f t="shared" si="9"/>
-        <v>10251154310.778513</v>
+        <v>10285948504.3389</v>
       </c>
       <c r="AV35">
         <f>AVERAGE(AK35:AT35)</f>
-        <v>9138041898.8873997</v>
+        <v>9171310034.0243149</v>
       </c>
       <c r="AW35">
         <v>236870</v>
       </c>
       <c r="AX35">
         <f>AV35/AW35</f>
-        <v>38578.29990664668</v>
+        <v>38718.748824352238</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.3">
@@ -8525,190 +8525,190 @@
       </c>
       <c r="C36">
         <f>B36*(1+C30)</f>
-        <v>4224964551.4169145</v>
+        <v>4224364157.4527144</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:AT36" si="10">C36*(1+D30)</f>
-        <v>4269489796.377244</v>
+        <v>4268465217.7449059</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>4303995984.9007359</v>
+        <v>4302448835.9061394</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>4331681948.4363079</v>
+        <v>4329539175.7721548</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>4350589526.9180403</v>
+        <v>4347698639.4080019</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>4369877069.0797701</v>
+        <v>4366114434.0761671</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>4394526079.9358168</v>
+        <v>4389981313.8180532</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>4418689605.1413898</v>
+        <v>4413487095.8755646</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>4442256599.6761179</v>
+        <v>4436493207.8506308</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>4465412538.3608904</v>
+        <v>4459153147.0690584</v>
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>4491771611.7630062</v>
+        <v>4485063719.3589191</v>
       </c>
       <c r="N36">
         <f t="shared" si="10"/>
-        <v>4521274496.2198219</v>
+        <v>4514255556.9799261</v>
       </c>
       <c r="O36">
         <f t="shared" si="10"/>
-        <v>4555177613.1770039</v>
+        <v>4548018927.8725109</v>
       </c>
       <c r="P36">
         <f t="shared" si="10"/>
-        <v>4594167060.1011772</v>
+        <v>4587093214.5218973</v>
       </c>
       <c r="Q36">
         <f t="shared" si="10"/>
-        <v>4634971999.876874</v>
+        <v>4628139175.8889523</v>
       </c>
       <c r="R36">
         <f t="shared" si="10"/>
-        <v>4677318169.1331873</v>
+        <v>4670762226.0275173</v>
       </c>
       <c r="S36">
         <f t="shared" si="10"/>
-        <v>4714146212.6605988</v>
+        <v>4707815886.1319027</v>
       </c>
       <c r="T36">
         <f t="shared" si="10"/>
-        <v>4749610170.4403334</v>
+        <v>4743485662.9405556</v>
       </c>
       <c r="U36">
         <f t="shared" si="10"/>
-        <v>4782583496.4203081</v>
+        <v>4776667304.9141951</v>
       </c>
       <c r="V36">
         <f t="shared" si="10"/>
-        <v>4801369131.71698</v>
+        <v>4795501935.0875759</v>
       </c>
       <c r="W36">
         <f t="shared" si="10"/>
-        <v>4817385741.9215479</v>
+        <v>4811317631.50562</v>
       </c>
       <c r="X36">
         <f t="shared" si="10"/>
-        <v>4831516494.0502567</v>
+        <v>4825121808.4745512</v>
       </c>
       <c r="Y36">
         <f t="shared" si="10"/>
-        <v>4842626052.1840534</v>
+        <v>4835860529.8368177</v>
       </c>
       <c r="Z36">
         <f t="shared" si="10"/>
-        <v>4856271805.5764914</v>
+        <v>4849174169.1454592</v>
       </c>
       <c r="AA36">
         <f t="shared" si="10"/>
-        <v>4859059121.4884138</v>
+        <v>4851556799.2452145</v>
       </c>
       <c r="AB36">
         <f t="shared" si="10"/>
-        <v>4864095699.9900932</v>
+        <v>4855971748.9903412</v>
       </c>
       <c r="AC36">
         <f t="shared" si="10"/>
-        <v>4869523971.2216892</v>
+        <v>4860756358.0939779</v>
       </c>
       <c r="AD36">
         <f t="shared" si="10"/>
-        <v>4874269268.8609037</v>
+        <v>4864857896.5674133</v>
       </c>
       <c r="AE36">
         <f t="shared" si="10"/>
-        <v>4875383865.3220339</v>
+        <v>4865357424.6412392</v>
       </c>
       <c r="AF36">
         <f t="shared" si="10"/>
-        <v>4881531349.6296453</v>
+        <v>4870882728.2270479</v>
       </c>
       <c r="AG36">
         <f t="shared" si="10"/>
-        <v>4884384353.5763016</v>
+        <v>4873187379.751421</v>
       </c>
       <c r="AH36">
         <f t="shared" si="10"/>
-        <v>4886457570.145504</v>
+        <v>4874677238.5818205</v>
       </c>
       <c r="AI36">
         <f t="shared" si="10"/>
-        <v>4889845448.6317139</v>
+        <v>4877497266.1639566</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="10"/>
-        <v>4893439996.5457735</v>
+        <v>4880585698.226759</v>
       </c>
       <c r="AK36">
         <f t="shared" si="10"/>
-        <v>4898019621.7507019</v>
+        <v>4884674883.3048477</v>
       </c>
       <c r="AL36">
         <f t="shared" si="10"/>
-        <v>4905627871.2700043</v>
+        <v>4891803843.4899044</v>
       </c>
       <c r="AM36">
         <f t="shared" si="10"/>
-        <v>4912687039.5189571</v>
+        <v>4898451402.5072088</v>
       </c>
       <c r="AN36">
         <f t="shared" si="10"/>
-        <v>4919811813.66712</v>
+        <v>4905144108.0628099</v>
       </c>
       <c r="AO36">
         <f t="shared" si="10"/>
-        <v>4929114922.4840374</v>
+        <v>4914029981.1200285</v>
       </c>
       <c r="AP36">
         <f t="shared" si="10"/>
-        <v>4938003472.6638489</v>
+        <v>4922517229.5775728</v>
       </c>
       <c r="AQ36">
         <f t="shared" si="10"/>
-        <v>4946443893.4482269</v>
+        <v>4930543859.8779993</v>
       </c>
       <c r="AR36">
         <f t="shared" si="10"/>
-        <v>4958081663.6109934</v>
+        <v>4941792409.0111589</v>
       </c>
       <c r="AS36">
         <f t="shared" si="10"/>
-        <v>4968669776.1438704</v>
+        <v>4951989907.8376646</v>
       </c>
       <c r="AT36">
         <f t="shared" si="10"/>
-        <v>4665254938.9921589</v>
+        <v>4642054584.0691633</v>
       </c>
       <c r="AV36">
         <f>AVERAGE(AK36:AT36)</f>
-        <v>4904171501.354991</v>
+        <v>4888300220.8858356</v>
       </c>
       <c r="AW36">
         <v>250690</v>
       </c>
       <c r="AX36">
         <f>AV36/AW36</f>
-        <v>19562.692972814995</v>
+        <v>19499.382587601562</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.3">
@@ -8721,190 +8721,190 @@
       </c>
       <c r="C37">
         <f>B37*(1+C31)</f>
-        <v>4222918865.2383399</v>
+        <v>4222300670.0754528</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:AT37" si="11">C37*(1+D31)</f>
-        <v>4264300402.1536546</v>
+        <v>4263243114.8282185</v>
       </c>
       <c r="E37">
         <f t="shared" si="11"/>
-        <v>4297285247.0800209</v>
+        <v>4295697240.6315126</v>
       </c>
       <c r="F37">
         <f t="shared" si="11"/>
-        <v>4323369208.982091</v>
+        <v>4321170070.3670006</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>4337734019.8013744</v>
+        <v>4334836008.7033606</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
-        <v>4329647051.9672165</v>
+        <v>4325724607.8268433</v>
       </c>
       <c r="I37">
         <f t="shared" si="11"/>
-        <v>4298330870.5374365</v>
+        <v>4293049791.0910325</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>4242950468.5277162</v>
+        <v>4235872093.9698582</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
-        <v>4166520995.4811974</v>
+        <v>4157310046.2183957</v>
       </c>
       <c r="L37">
         <f t="shared" si="11"/>
-        <v>4076625729.8890009</v>
+        <v>4065008356.2867656</v>
       </c>
       <c r="M37">
         <f t="shared" si="11"/>
-        <v>3991270524.6620536</v>
+        <v>3977229915.3304911</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>3911216831.433022</v>
+        <v>3894967687.5976977</v>
       </c>
       <c r="O37">
         <f t="shared" si="11"/>
-        <v>3839349349.402401</v>
+        <v>3821168162.5351048</v>
       </c>
       <c r="P37">
         <f t="shared" si="11"/>
-        <v>3780635215.7593274</v>
+        <v>3760905990.5984349</v>
       </c>
       <c r="Q37">
         <f t="shared" si="11"/>
-        <v>3725654400.569942</v>
+        <v>3704655884.0001984</v>
       </c>
       <c r="R37">
         <f t="shared" si="11"/>
-        <v>3678288671.2111096</v>
+        <v>3656215170.2029881</v>
       </c>
       <c r="S37">
         <f t="shared" si="11"/>
-        <v>3634676235.1318402</v>
+        <v>3611663432.358757</v>
       </c>
       <c r="T37">
         <f t="shared" si="11"/>
-        <v>3596406277.1865492</v>
+        <v>3572597369.9998798</v>
       </c>
       <c r="U37">
         <f t="shared" si="11"/>
-        <v>3565414721.8450508</v>
+        <v>3540972685.4893851</v>
       </c>
       <c r="V37">
         <f t="shared" si="11"/>
-        <v>3532695386.7253671</v>
+        <v>3507748984.9870586</v>
       </c>
       <c r="W37">
         <f t="shared" si="11"/>
-        <v>3508647909.0954247</v>
+        <v>3483233274.9798875</v>
       </c>
       <c r="X37">
         <f t="shared" si="11"/>
-        <v>3490248927.2165904</v>
+        <v>3464495530.4310756</v>
       </c>
       <c r="Y37">
         <f t="shared" si="11"/>
-        <v>3478072412.6130414</v>
+        <v>3452120849.5730867</v>
       </c>
       <c r="Z37">
         <f t="shared" si="11"/>
-        <v>3472153074.5963507</v>
+        <v>3446141760.9785581</v>
       </c>
       <c r="AA37">
         <f t="shared" si="11"/>
-        <v>3467510970.0893388</v>
+        <v>3441542763.5062408</v>
       </c>
       <c r="AB37">
         <f t="shared" si="11"/>
-        <v>3463666948.3174119</v>
+        <v>3437748287.5230012</v>
       </c>
       <c r="AC37">
         <f t="shared" si="11"/>
-        <v>3464391909.5218987</v>
+        <v>3438519205.8770895</v>
       </c>
       <c r="AD37">
         <f t="shared" si="11"/>
-        <v>3467945378.7606134</v>
+        <v>3442225465.5470529</v>
       </c>
       <c r="AE37">
         <f t="shared" si="11"/>
-        <v>3467697695.5489583</v>
+        <v>3442152444.6110678</v>
       </c>
       <c r="AF37">
         <f t="shared" si="11"/>
-        <v>3465776372.6051178</v>
+        <v>3440374061.7502828</v>
       </c>
       <c r="AG37">
         <f t="shared" si="11"/>
-        <v>3465985092.2457118</v>
+        <v>3440753006.3937712</v>
       </c>
       <c r="AH37">
         <f t="shared" si="11"/>
-        <v>3467612118.4542699</v>
+        <v>3442596338.7628484</v>
       </c>
       <c r="AI37">
         <f t="shared" si="11"/>
-        <v>3468746142.0195065</v>
+        <v>3443970536.5263023</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="11"/>
-        <v>3470120516.9489422</v>
+        <v>3445602653.1957421</v>
       </c>
       <c r="AK37">
         <f t="shared" si="11"/>
-        <v>3474490149.6388383</v>
+        <v>3450270666.8697481</v>
       </c>
       <c r="AL37">
         <f t="shared" si="11"/>
-        <v>3477991950.1592155</v>
+        <v>3454085911.8435469</v>
       </c>
       <c r="AM37">
         <f t="shared" si="11"/>
-        <v>3484920680.317862</v>
+        <v>3461381165.5092435</v>
       </c>
       <c r="AN37">
         <f t="shared" si="11"/>
-        <v>3494138464.3459959</v>
+        <v>3470991833.9596601</v>
       </c>
       <c r="AO37">
         <f t="shared" si="11"/>
-        <v>3502702756.0055461</v>
+        <v>3480012276.9419713</v>
       </c>
       <c r="AP37">
         <f t="shared" si="11"/>
-        <v>3529988906.2807341</v>
+        <v>3507787690.0313454</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="11"/>
-        <v>3615921743.2832322</v>
+        <v>3594765380.8682852</v>
       </c>
       <c r="AR37">
         <f t="shared" si="11"/>
-        <v>3787597253.4794269</v>
+        <v>3768501244.7638865</v>
       </c>
       <c r="AS37">
         <f t="shared" si="11"/>
-        <v>4071010188.6525908</v>
+        <v>4055332569.18398</v>
       </c>
       <c r="AT37">
         <f t="shared" si="11"/>
-        <v>3655459379.7849407</v>
+        <v>3633119338.1606584</v>
       </c>
       <c r="AV37">
         <f>AVERAGE(AK37:AT37)</f>
-        <v>3609422147.1948385</v>
+        <v>3587624807.8132324</v>
       </c>
       <c r="AW37">
         <v>229370</v>
       </c>
       <c r="AX37">
         <f>AV37/AW37</f>
-        <v>15736.243393620955</v>
+        <v>15641.212049584656</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="B10" s="4">
         <f>AVERAGE('Input data'!AK7:AT7)</f>
-        <v>-2.3074049160872376</v>
+        <v>-0.19610875440099967</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="B11" s="4">
         <f>AVERAGE('Input data'!AK8:AT8)</f>
-        <v>-3.0149254421071414</v>
+        <v>-0.19271496627499968</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="B12" s="4">
         <f>AVERAGE('Input data'!AK9:AT9)</f>
-        <v>4.0973416562650913</v>
+        <v>1.0930339412305963</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B13" s="4">
         <f>AVERAGE('Input data'!AK10:AT10)</f>
-        <v>10.959539756077964</v>
+        <v>1.8234684153119971</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="B16" s="1">
         <f>AVERAGE('Input data'!AK11:AT11)</f>
-        <v>95023.12146799991</v>
+        <v>95776.353807999956</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="B17" s="1">
         <f>AVERAGE('Input data'!AK12:AT12)</f>
-        <v>85360.244500999994</v>
+        <v>85960.442217000018</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="B18" s="1">
         <f>AVERAGE('Input data'!AK13:AT13)</f>
-        <v>43160.337386999963</v>
+        <v>43165.851487999913</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="B19" s="1">
         <f>AVERAGE('Input data'!AK14:AT14)</f>
-        <v>34889.278949699983</v>
+        <v>34796.874242599923</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B22">
         <f>AVERAGE('Input data'!AK15:AT15)</f>
-        <v>23434.384944699999</v>
+        <v>23620.27205739998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="B23">
         <f>AVERAGE('Input data'!AK16:AT16)</f>
-        <v>20137.263360399942</v>
+        <v>20278.98611409992</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="B24">
         <f>AVERAGE('Input data'!AK17:AT17)</f>
-        <v>10807.194164799959</v>
+        <v>10808.68184949995</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B25">
         <f>AVERAGE('Input data'!AK18:AT18)</f>
-        <v>7953.9889574999934</v>
+        <v>7932.7155433999842</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="B28">
         <f>AVERAGE('Input data'!AK22:AT22)</f>
-        <v>0.49091346918038442</v>
+        <v>0.48705051740558913</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="B29">
         <f>AVERAGE('Input data'!AK23:AT23)</f>
-        <v>0.48646201031678682</v>
+        <v>0.48305910179094591</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="B30">
         <f>AVERAGE('Input data'!AK24:AT24)</f>
-        <v>0.48272824259916119</v>
+        <v>0.48266940241284273</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B31">
         <f>AVERAGE('Input data'!AK25:AT25)</f>
-        <v>0.48932826681533259</v>
+        <v>0.4906460292131124</v>
       </c>
     </row>
   </sheetData>
@@ -9289,8 +9289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
